--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE859C4-8490-4ADE-8B23-CACB2DB03992}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E2A954-9E60-42E1-8649-53B800ECE5B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23169094351420561</c:v>
+                  <c:v>0.21657190501204115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$816</c:f>
+              <c:f>Sheet1!$A$2:$A$817</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="815"/>
+                <c:ptCount val="816"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3842,16 +3842,19 @@
                 </c:pt>
                 <c:pt idx="814">
                   <c:v>43595</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>43598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$816</c:f>
+              <c:f>Sheet1!$B$2:$B$817</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="815"/>
+                <c:ptCount val="816"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6296,6 +6299,9 @@
                 </c:pt>
                 <c:pt idx="814">
                   <c:v>59.77</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>59.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,10 +6357,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$816</c:f>
+              <c:f>Sheet1!$A$2:$A$817</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="815"/>
+                <c:ptCount val="816"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8799,16 +8805,19 @@
                 </c:pt>
                 <c:pt idx="814">
                   <c:v>43595</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>43598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$816</c:f>
+              <c:f>Sheet1!$C$2:$C$817</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="815"/>
+                <c:ptCount val="816"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11253,6 +11262,9 @@
                 </c:pt>
                 <c:pt idx="814">
                   <c:v>2939.21</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>2903.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14085,26 +14097,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -14117,7 +14129,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2010</v>
@@ -14144,7 +14156,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -14173,7 +14185,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -14202,7 +14214,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -14231,7 +14243,7 @@
         <v>0.17810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -14260,7 +14272,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -14289,10 +14301,10 @@
         <v>-0.1615</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-10</v>
+        <v>说明:2017年统计范围为年初至2019-5-13</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14303,14 +14315,14 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14320,10 +14332,10 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>23.169094351420561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>21.657190501204116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O10" s="13">
         <v>2010</v>
       </c>
@@ -14334,7 +14346,7 @@
         <v>-6.88E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O11" s="13">
         <v>2011</v>
       </c>
@@ -14345,7 +14357,7 @@
         <v>-0.22420000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O12" s="13">
         <v>2012</v>
       </c>
@@ -14356,7 +14368,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O13" s="13">
         <v>2013</v>
       </c>
@@ -14367,7 +14379,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O14" s="13">
         <v>2014</v>
       </c>
@@ -14378,7 +14390,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O15" s="13">
         <v>2015</v>
       </c>
@@ -14389,7 +14401,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O16" s="13">
         <v>2016</v>
       </c>
@@ -14400,7 +14412,7 @@
         <v>-0.12909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O17" s="13">
         <v>2017</v>
       </c>
@@ -14411,7 +14423,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" s="13">
         <v>2018</v>
       </c>
@@ -14422,7 +14434,7 @@
         <v>-0.28253486362704305</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O19" s="13">
         <v>2019</v>
       </c>
@@ -14432,10 +14444,10 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.23169094351420561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.21657190501204115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
@@ -14450,7 +14462,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>2010</v>
@@ -14483,7 +14495,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -14518,7 +14530,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -14553,7 +14565,7 @@
         <v>0.54120000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>2</v>
       </c>
@@ -14588,7 +14600,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -14623,7 +14635,7 @@
         <v>0.27760000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -14658,10 +14670,10 @@
         <v>-1.46E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-10</v>
+        <v>说明:2019年统计范围为年初至2019-5-13</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14674,7 +14686,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -14687,7 +14699,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -14700,7 +14712,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -14713,7 +14725,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -14726,7 +14738,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -14739,7 +14751,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -14752,7 +14764,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -14765,7 +14777,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -14778,7 +14790,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -14809,20 +14821,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N817"/>
+  <dimension ref="A1:N821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A787" workbookViewId="0">
-      <selection activeCell="C818" sqref="C818"/>
+    <sheetView tabSelected="1" topLeftCell="A795" workbookViewId="0">
+      <selection activeCell="C819" sqref="C819"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -14833,7 +14845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>42373</v>
       </c>
@@ -14844,7 +14856,7 @@
         <v>3296.2579999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>42374</v>
       </c>
@@ -14855,7 +14867,7 @@
         <v>3287.7109999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>42375</v>
       </c>
@@ -14866,7 +14878,7 @@
         <v>3361.84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>42376</v>
       </c>
@@ -14877,7 +14889,7 @@
         <v>3125.002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>42377</v>
       </c>
@@ -14888,7 +14900,7 @@
         <v>3186.4119999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>42380</v>
       </c>
@@ -14899,7 +14911,7 @@
         <v>3016.7040000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>42381</v>
       </c>
@@ -14910,7 +14922,7 @@
         <v>3022.8609999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>42382</v>
       </c>
@@ -14925,7 +14937,7 @@
         <v>服务器返回出错！</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>42383</v>
       </c>
@@ -14936,7 +14948,7 @@
         <v>3007.6489999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>42384</v>
       </c>
@@ -14947,7 +14959,7 @@
         <v>2900.9697999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>42387</v>
       </c>
@@ -14958,7 +14970,7 @@
         <v>2913.8366999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>42388</v>
       </c>
@@ -14969,7 +14981,7 @@
         <v>3007.7393000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>42389</v>
       </c>
@@ -14980,7 +14992,7 @@
         <v>2976.694</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>42390</v>
       </c>
@@ -14991,7 +15003,7 @@
         <v>2880.482</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>42391</v>
       </c>
@@ -15002,7 +15014,7 @@
         <v>2916.5619999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>42394</v>
       </c>
@@ -15013,7 +15025,7 @@
         <v>2938.5149999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>42395</v>
       </c>
@@ -15024,7 +15036,7 @@
         <v>2749.7849999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>42396</v>
       </c>
@@ -15035,7 +15047,7 @@
         <v>2735.558</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>42397</v>
       </c>
@@ -15046,7 +15058,7 @@
         <v>2655.6610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>42398</v>
       </c>
@@ -15057,7 +15069,7 @@
         <v>2737.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>42401</v>
       </c>
@@ -15068,7 +15080,7 @@
         <v>2688.8539999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>42402</v>
       </c>
@@ -15079,7 +15091,7 @@
         <v>2749.57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>42403</v>
       </c>
@@ -15090,7 +15102,7 @@
         <v>2739.2469999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>42404</v>
       </c>
@@ -15101,7 +15113,7 @@
         <v>2781.0230000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>42405</v>
       </c>
@@ -15112,7 +15124,7 @@
         <v>2763.4920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>42415</v>
       </c>
@@ -15123,7 +15135,7 @@
         <v>2746.1959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>42416</v>
       </c>
@@ -15134,7 +15146,7 @@
         <v>2836.5709999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>42417</v>
       </c>
@@ -15145,7 +15157,7 @@
         <v>2867.3380000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>42418</v>
       </c>
@@ -15156,7 +15168,7 @@
         <v>2862.893</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>42419</v>
       </c>
@@ -15167,7 +15179,7 @@
         <v>2860.0210000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>42422</v>
       </c>
@@ -15178,7 +15190,7 @@
         <v>2927.1750000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>42423</v>
       </c>
@@ -15189,7 +15201,7 @@
         <v>2903.3310000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>42424</v>
       </c>
@@ -15200,7 +15212,7 @@
         <v>2928.8960000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>42425</v>
       </c>
@@ -15211,7 +15223,7 @@
         <v>2741.2449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>42426</v>
       </c>
@@ -15222,7 +15234,7 @@
         <v>2767.21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>42429</v>
       </c>
@@ -15233,7 +15245,7 @@
         <v>2687.9789999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>42430</v>
       </c>
@@ -15244,7 +15256,7 @@
         <v>2733.17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>42431</v>
       </c>
@@ -15255,7 +15267,7 @@
         <v>2849.681</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>42432</v>
       </c>
@@ -15266,7 +15278,7 @@
         <v>2859.7579999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>42433</v>
       </c>
@@ -15277,7 +15289,7 @@
         <v>2874.1469999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>42436</v>
       </c>
@@ -15288,7 +15300,7 @@
         <v>2897.34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>42437</v>
       </c>
@@ -15299,7 +15311,7 @@
         <v>2901.3870000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>42438</v>
       </c>
@@ -15310,7 +15322,7 @@
         <v>2862.556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>42439</v>
       </c>
@@ -15321,7 +15333,7 @@
         <v>2804.7260000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>42440</v>
       </c>
@@ -15332,7 +15344,7 @@
         <v>2810.3069999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>42443</v>
       </c>
@@ -15343,7 +15355,7 @@
         <v>2859.4989999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>42444</v>
       </c>
@@ -15354,7 +15366,7 @@
         <v>2864.3679999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>42445</v>
       </c>
@@ -15365,7 +15377,7 @@
         <v>2870.43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>42446</v>
       </c>
@@ -15376,7 +15388,7 @@
         <v>2904.8319999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>42447</v>
       </c>
@@ -15387,7 +15399,7 @@
         <v>2955.15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>42450</v>
       </c>
@@ -15398,7 +15410,7 @@
         <v>3018.8020000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>42451</v>
       </c>
@@ -15409,7 +15421,7 @@
         <v>2999.3629999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>42452</v>
       </c>
@@ -15420,7 +15432,7 @@
         <v>3009.96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>42453</v>
       </c>
@@ -15431,7 +15443,7 @@
         <v>2960.97</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>42454</v>
       </c>
@@ -15442,7 +15454,7 @@
         <v>2979.4340000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>42457</v>
       </c>
@@ -15453,7 +15465,7 @@
         <v>2957.82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>42458</v>
       </c>
@@ -15464,7 +15476,7 @@
         <v>2919.8319999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>42459</v>
       </c>
@@ -15475,7 +15487,7 @@
         <v>3000.645</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>42460</v>
       </c>
@@ -15486,7 +15498,7 @@
         <v>3003.915</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>42461</v>
       </c>
@@ -15497,7 +15509,7 @@
         <v>3009.53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>42465</v>
       </c>
@@ -15508,7 +15520,7 @@
         <v>3053.0650000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>42466</v>
       </c>
@@ -15519,7 +15531,7 @@
         <v>3050.5920000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>42467</v>
       </c>
@@ -15530,7 +15542,7 @@
         <v>3008.42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>42468</v>
       </c>
@@ -15541,7 +15553,7 @@
         <v>2984.9580000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>42471</v>
       </c>
@@ -15552,7 +15564,7 @@
         <v>3033.9569999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>42472</v>
       </c>
@@ -15563,7 +15575,7 @@
         <v>3023.6460000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>42473</v>
       </c>
@@ -15574,7 +15586,7 @@
         <v>3066.6379999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>42474</v>
       </c>
@@ -15585,7 +15597,7 @@
         <v>3082.3620000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>42475</v>
       </c>
@@ -15596,7 +15608,7 @@
         <v>3078.1170000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>42478</v>
       </c>
@@ -15607,7 +15619,7 @@
         <v>3033.66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>42479</v>
       </c>
@@ -15618,7 +15630,7 @@
         <v>3042.8229999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>42480</v>
       </c>
@@ -15629,7 +15641,7 @@
         <v>2972.5839999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>42481</v>
       </c>
@@ -15640,7 +15652,7 @@
         <v>2952.8910000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>42482</v>
       </c>
@@ -15651,7 +15663,7 @@
         <v>2959.24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>42485</v>
       </c>
@@ -15662,7 +15674,7 @@
         <v>2946.67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>42486</v>
       </c>
@@ -15673,7 +15685,7 @@
         <v>2964.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>42487</v>
       </c>
@@ -15684,7 +15696,7 @@
         <v>2953.6709999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>42488</v>
       </c>
@@ -15695,7 +15707,7 @@
         <v>2945.5889999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>42489</v>
       </c>
@@ -15706,7 +15718,7 @@
         <v>2938.3240000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>42493</v>
       </c>
@@ -15717,7 +15729,7 @@
         <v>2992.643</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>42494</v>
       </c>
@@ -15728,7 +15740,7 @@
         <v>2991.2719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>42495</v>
       </c>
@@ -15739,7 +15751,7 @@
         <v>2997.8420000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>42496</v>
       </c>
@@ -15750,7 +15762,7 @@
         <v>2913.248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>42499</v>
       </c>
@@ -15761,7 +15773,7 @@
         <v>2832.1129999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>42500</v>
       </c>
@@ -15772,7 +15784,7 @@
         <v>2832.5909999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>42501</v>
       </c>
@@ -15783,7 +15795,7 @@
         <v>2837.0369999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>42502</v>
       </c>
@@ -15794,7 +15806,7 @@
         <v>2835.8620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>42503</v>
       </c>
@@ -15805,7 +15817,7 @@
         <v>2827.1089999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>42506</v>
       </c>
@@ -15816,7 +15828,7 @@
         <v>2850.8620000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>42507</v>
       </c>
@@ -15827,7 +15839,7 @@
         <v>2843.6840000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>42508</v>
       </c>
@@ -15838,7 +15850,7 @@
         <v>2807.5140000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>42509</v>
       </c>
@@ -15849,7 +15861,7 @@
         <v>2806.9059999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>42510</v>
       </c>
@@ -15860,7 +15872,7 @@
         <v>2825.4830000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>42513</v>
       </c>
@@ -15871,7 +15883,7 @@
         <v>2843.645</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>42514</v>
       </c>
@@ -15882,7 +15894,7 @@
         <v>2821.6660000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>42515</v>
       </c>
@@ -15893,7 +15905,7 @@
         <v>2815.0862999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>42516</v>
       </c>
@@ -15904,7 +15916,7 @@
         <v>2822.4430000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>42517</v>
       </c>
@@ -15915,7 +15927,7 @@
         <v>2821.0459999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>42520</v>
       </c>
@@ -15926,7 +15938,7 @@
         <v>2822.451</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>42521</v>
       </c>
@@ -15937,7 +15949,7 @@
         <v>2916.616</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>42522</v>
       </c>
@@ -15948,7 +15960,7 @@
         <v>2913.5079999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>42523</v>
       </c>
@@ -15959,7 +15971,7 @@
         <v>2925.2289999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>42524</v>
       </c>
@@ -15970,7 +15982,7 @@
         <v>2938.6819999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>42527</v>
       </c>
@@ -15981,7 +15993,7 @@
         <v>2934.098</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>42528</v>
       </c>
@@ -15992,7 +16004,7 @@
         <v>2936.0450000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>42529</v>
       </c>
@@ -16003,7 +16015,7 @@
         <v>2927.1590000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>42534</v>
       </c>
@@ -16014,7 +16026,7 @@
         <v>2833.0709999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>42535</v>
       </c>
@@ -16025,7 +16037,7 @@
         <v>2842.1889999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>42536</v>
       </c>
@@ -16036,7 +16048,7 @@
         <v>2887.21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>42537</v>
       </c>
@@ -16047,7 +16059,7 @@
         <v>2872.817</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>42538</v>
       </c>
@@ -16058,7 +16070,7 @@
         <v>2885.105</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>42541</v>
       </c>
@@ -16069,7 +16081,7 @@
         <v>2888.8090000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>42542</v>
       </c>
@@ -16080,7 +16092,7 @@
         <v>2878.558</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>42543</v>
       </c>
@@ -16091,7 +16103,7 @@
         <v>2905.55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>42544</v>
       </c>
@@ -16102,7 +16114,7 @@
         <v>2891.96</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>42545</v>
       </c>
@@ -16113,7 +16125,7 @@
         <v>2854.2860000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>42548</v>
       </c>
@@ -16124,7 +16136,7 @@
         <v>2895.703</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>42549</v>
       </c>
@@ -16135,7 +16147,7 @@
         <v>2912.5569999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>42550</v>
       </c>
@@ -16146,7 +16158,7 @@
         <v>2931.5920000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>42551</v>
       </c>
@@ -16157,7 +16169,7 @@
         <v>2929.6060000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>42552</v>
       </c>
@@ -16168,7 +16180,7 @@
         <v>2932.4760000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>42555</v>
       </c>
@@ -16179,7 +16191,7 @@
         <v>2988.6039999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>42556</v>
       </c>
@@ -16190,7 +16202,7 @@
         <v>3006.3919999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>42557</v>
       </c>
@@ -16201,7 +16213,7 @@
         <v>3017.2919999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>42558</v>
       </c>
@@ -16212,7 +16224,7 @@
         <v>3016.8470000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>42559</v>
       </c>
@@ -16223,7 +16235,7 @@
         <v>2988.0940000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>42562</v>
       </c>
@@ -16234,7 +16246,7 @@
         <v>2994.9169999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>42563</v>
       </c>
@@ -16245,7 +16257,7 @@
         <v>3049.3809999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>42564</v>
       </c>
@@ -16256,7 +16268,7 @@
         <v>3060.6889999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>42565</v>
       </c>
@@ -16267,7 +16279,7 @@
         <v>3054.018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>42566</v>
       </c>
@@ -16278,7 +16290,7 @@
         <v>3054.2959999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>42569</v>
       </c>
@@ -16289,7 +16301,7 @@
         <v>3043.5639999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>42570</v>
       </c>
@@ -16300,7 +16312,7 @@
         <v>3036.598</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>42571</v>
       </c>
@@ -16311,7 +16323,7 @@
         <v>3027.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>42572</v>
       </c>
@@ -16322,7 +16334,7 @@
         <v>3039.009</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>42573</v>
       </c>
@@ -16333,7 +16345,7 @@
         <v>3012.8159999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>42576</v>
       </c>
@@ -16344,7 +16356,7 @@
         <v>3015.828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>42577</v>
       </c>
@@ -16355,7 +16367,7 @@
         <v>3050.1660000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>42578</v>
       </c>
@@ -16366,7 +16378,7 @@
         <v>2991.9989999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>42579</v>
       </c>
@@ -16377,7 +16389,7 @@
         <v>2994.3229999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>42580</v>
       </c>
@@ -16388,7 +16400,7 @@
         <v>2979.3389999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>42583</v>
       </c>
@@ -16399,7 +16411,7 @@
         <v>2953.3850000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>42584</v>
       </c>
@@ -16410,7 +16422,7 @@
         <v>2971.279</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>42585</v>
       </c>
@@ -16421,7 +16433,7 @@
         <v>2978.4609999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>42586</v>
       </c>
@@ -16432,7 +16444,7 @@
         <v>2982.4259999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>42587</v>
       </c>
@@ -16443,7 +16455,7 @@
         <v>2976.6959999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>42590</v>
       </c>
@@ -16454,7 +16466,7 @@
         <v>3004.277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>42591</v>
       </c>
@@ -16465,7 +16477,7 @@
         <v>3025.681</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>42592</v>
       </c>
@@ -16476,7 +16488,7 @@
         <v>3018.7460000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>42593</v>
       </c>
@@ -16487,7 +16499,7 @@
         <v>3002.6379999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>42594</v>
       </c>
@@ -16498,7 +16510,7 @@
         <v>3050.6669999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>42597</v>
       </c>
@@ -16509,7 +16521,7 @@
         <v>3125.1950000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>42598</v>
       </c>
@@ -16520,7 +16532,7 @@
         <v>3110.0369999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>42599</v>
       </c>
@@ -16531,7 +16543,7 @@
         <v>3109.5549999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>42600</v>
       </c>
@@ -16542,7 +16554,7 @@
         <v>3104.114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>42601</v>
       </c>
@@ -16553,7 +16565,7 @@
         <v>3108.1019999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>42604</v>
       </c>
@@ -16564,7 +16576,7 @@
         <v>3084.8049999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>42605</v>
       </c>
@@ -16575,7 +16587,7 @@
         <v>3089.7060000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>42606</v>
       </c>
@@ -16586,7 +16598,7 @@
         <v>3085.88</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>42607</v>
       </c>
@@ -16597,7 +16609,7 @@
         <v>3068.3290000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>42608</v>
       </c>
@@ -16608,7 +16620,7 @@
         <v>3070.3090000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>42611</v>
       </c>
@@ -16619,7 +16631,7 @@
         <v>3070.027</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>42612</v>
       </c>
@@ -16630,7 +16642,7 @@
         <v>3074.6770000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>42613</v>
       </c>
@@ -16641,7 +16653,7 @@
         <v>3085.491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>42614</v>
       </c>
@@ -16652,7 +16664,7 @@
         <v>3063.3049999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>42615</v>
       </c>
@@ -16663,7 +16675,7 @@
         <v>3067.3519999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>42618</v>
       </c>
@@ -16674,7 +16686,7 @@
         <v>3072.0949999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>42619</v>
       </c>
@@ -16685,7 +16697,7 @@
         <v>3090.7130000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>42620</v>
       </c>
@@ -16696,7 +16708,7 @@
         <v>3091.9279999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>42621</v>
       </c>
@@ -16707,7 +16719,7 @@
         <v>3095.9540000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>42622</v>
       </c>
@@ -16718,7 +16730,7 @@
         <v>3078.855</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>42625</v>
       </c>
@@ -16729,7 +16741,7 @@
         <v>3021.9769999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>42626</v>
       </c>
@@ -16740,7 +16752,7 @@
         <v>3023.51</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>42627</v>
       </c>
@@ -16751,7 +16763,7 @@
         <v>3002.8490000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>42632</v>
       </c>
@@ -16762,7 +16774,7 @@
         <v>3026.0509999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>42633</v>
       </c>
@@ -16773,7 +16785,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>42634</v>
       </c>
@@ -16784,7 +16796,7 @@
         <v>3025.8739999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>42635</v>
       </c>
@@ -16795,7 +16807,7 @@
         <v>3042.3130000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>42636</v>
       </c>
@@ -16806,7 +16818,7 @@
         <v>3033.8960000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>42639</v>
       </c>
@@ -16817,7 +16829,7 @@
         <v>2980.43</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>42640</v>
       </c>
@@ -16828,7 +16840,7 @@
         <v>2998.172</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>42641</v>
       </c>
@@ -16839,7 +16851,7 @@
         <v>2987.8580000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>42642</v>
       </c>
@@ -16850,7 +16862,7 @@
         <v>2998.4830000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>42643</v>
       </c>
@@ -16861,7 +16873,7 @@
         <v>3004.703</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>42653</v>
       </c>
@@ -16872,7 +16884,7 @@
         <v>3048.143</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>42654</v>
       </c>
@@ -16883,7 +16895,7 @@
         <v>3065.25</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>42655</v>
       </c>
@@ -16894,7 +16906,7 @@
         <v>3058.498</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>42656</v>
       </c>
@@ -16905,7 +16917,7 @@
         <v>3061.346</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="16">
         <v>42657</v>
       </c>
@@ -16916,7 +16928,7 @@
         <v>3063.8090000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>42660</v>
       </c>
@@ -16927,7 +16939,7 @@
         <v>3041.1660000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>42661</v>
       </c>
@@ -16938,7 +16950,7 @@
         <v>3083.875</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>42662</v>
       </c>
@@ -16949,7 +16961,7 @@
         <v>3084.7190000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>42663</v>
       </c>
@@ -16960,7 +16972,7 @@
         <v>3084.4580000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>42664</v>
       </c>
@@ -16971,7 +16983,7 @@
         <v>3090.9409999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>42667</v>
       </c>
@@ -16982,7 +16994,7 @@
         <v>3128.2469999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>42668</v>
       </c>
@@ -16993,7 +17005,7 @@
         <v>3131.9389999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>42669</v>
       </c>
@@ -17004,7 +17016,7 @@
         <v>3116.3119999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>42670</v>
       </c>
@@ -17015,7 +17027,7 @@
         <v>3112.35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>42671</v>
       </c>
@@ -17026,7 +17038,7 @@
         <v>3104.27</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>42674</v>
       </c>
@@ -17037,7 +17049,7 @@
         <v>3100.4920000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>42675</v>
       </c>
@@ -17048,7 +17060,7 @@
         <v>3122.4360000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>42676</v>
       </c>
@@ -17059,7 +17071,7 @@
         <v>3102.7330000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>42677</v>
       </c>
@@ -17070,7 +17082,7 @@
         <v>3128.9360000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>42678</v>
       </c>
@@ -17081,7 +17093,7 @@
         <v>3125.317</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>42681</v>
       </c>
@@ -17092,7 +17104,7 @@
         <v>3133.3330000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>42682</v>
       </c>
@@ -17103,7 +17115,7 @@
         <v>3147.8879999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>42683</v>
       </c>
@@ -17114,7 +17126,7 @@
         <v>3128.37</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>42684</v>
       </c>
@@ -17125,7 +17137,7 @@
         <v>3171.2820000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>42685</v>
       </c>
@@ -17136,7 +17148,7 @@
         <v>3196.0439999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>42688</v>
       </c>
@@ -17147,7 +17159,7 @@
         <v>3210.3710000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="16">
         <v>42689</v>
       </c>
@@ -17158,7 +17170,7 @@
         <v>3206.9859999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="16">
         <v>42690</v>
       </c>
@@ -17169,7 +17181,7 @@
         <v>3205.0569999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>42691</v>
       </c>
@@ -17180,7 +17192,7 @@
         <v>3208.453</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>42692</v>
       </c>
@@ -17191,7 +17203,7 @@
         <v>3192.8560000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="16">
         <v>42695</v>
       </c>
@@ -17202,7 +17214,7 @@
         <v>3218.1480000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>42696</v>
       </c>
@@ -17213,7 +17225,7 @@
         <v>3248.3519999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>42697</v>
       </c>
@@ -17224,7 +17236,7 @@
         <v>3241.1370000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>42698</v>
       </c>
@@ -17235,7 +17247,7 @@
         <v>3241.7359999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>42699</v>
       </c>
@@ -17246,7 +17258,7 @@
         <v>3261.9380000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>42702</v>
       </c>
@@ -17257,7 +17269,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>42703</v>
       </c>
@@ -17268,7 +17280,7 @@
         <v>3282.924</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="16">
         <v>42704</v>
       </c>
@@ -17279,7 +17291,7 @@
         <v>3250.0340000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>42705</v>
       </c>
@@ -17290,7 +17302,7 @@
         <v>3273.3090000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>42706</v>
       </c>
@@ -17301,7 +17313,7 @@
         <v>3243.8429999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="16">
         <v>42709</v>
       </c>
@@ -17312,7 +17324,7 @@
         <v>3204.7089999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>42710</v>
       </c>
@@ -17323,7 +17335,7 @@
         <v>3199.6469999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="16">
         <v>42711</v>
       </c>
@@ -17334,7 +17346,7 @@
         <v>3222.2420000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="16">
         <v>42712</v>
       </c>
@@ -17345,7 +17357,7 @@
         <v>3215.366</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="16">
         <v>42713</v>
       </c>
@@ -17356,7 +17368,7 @@
         <v>3232.8829999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="16">
         <v>42716</v>
       </c>
@@ -17367,7 +17379,7 @@
         <v>3152.97</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="16">
         <v>42717</v>
       </c>
@@ -17378,7 +17390,7 @@
         <v>3155.0369999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>42718</v>
       </c>
@@ -17389,7 +17401,7 @@
         <v>3140.5309999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="16">
         <v>42719</v>
       </c>
@@ -17400,7 +17412,7 @@
         <v>3117.6770000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="16">
         <v>42720</v>
       </c>
@@ -17411,7 +17423,7 @@
         <v>3122.982</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>42723</v>
       </c>
@@ -17422,7 +17434,7 @@
         <v>3118.0846000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>42724</v>
       </c>
@@ -17433,7 +17445,7 @@
         <v>3102.8759</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>42725</v>
       </c>
@@ -17444,7 +17456,7 @@
         <v>3137.4297000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>42726</v>
       </c>
@@ -17455,7 +17467,7 @@
         <v>3139.558</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
         <v>42727</v>
       </c>
@@ -17466,7 +17478,7 @@
         <v>3110.1543999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>42730</v>
       </c>
@@ -17477,7 +17489,7 @@
         <v>3122.569</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>42731</v>
       </c>
@@ -17488,7 +17500,7 @@
         <v>3114.6640000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="16">
         <v>42732</v>
       </c>
@@ -17499,7 +17511,7 @@
         <v>3102.2357000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>42733</v>
       </c>
@@ -17510,7 +17522,7 @@
         <v>3096.0967999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="16">
         <v>42734</v>
       </c>
@@ -17521,7 +17533,7 @@
         <v>3103.6372999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>42738</v>
       </c>
@@ -17532,7 +17544,7 @@
         <v>3135.9207999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="16">
         <v>42739</v>
       </c>
@@ -17543,7 +17555,7 @@
         <v>3158.7939999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>42740</v>
       </c>
@@ -17554,7 +17566,7 @@
         <v>3165.4108999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="16">
         <v>42741</v>
       </c>
@@ -17565,7 +17577,7 @@
         <v>3154.3209999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="16">
         <v>42744</v>
       </c>
@@ -17576,7 +17588,7 @@
         <v>3171.2361999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>42745</v>
       </c>
@@ -17587,7 +17599,7 @@
         <v>3161.6713</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="16">
         <v>42746</v>
       </c>
@@ -17598,7 +17610,7 @@
         <v>3136.7534999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="16">
         <v>42747</v>
       </c>
@@ -17609,7 +17621,7 @@
         <v>3119.2885999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>42748</v>
       </c>
@@ -17620,7 +17632,7 @@
         <v>3112.7644</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>42751</v>
       </c>
@@ -17631,7 +17643,7 @@
         <v>3103.4279999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="16">
         <v>42752</v>
       </c>
@@ -17642,7 +17654,7 @@
         <v>3108.7746000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>42753</v>
       </c>
@@ -17653,7 +17665,7 @@
         <v>3113.0122999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>42754</v>
       </c>
@@ -17664,7 +17676,7 @@
         <v>3101.2991999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>42755</v>
       </c>
@@ -17675,7 +17687,7 @@
         <v>3123.1388999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="16">
         <v>42758</v>
       </c>
@@ -17686,7 +17698,7 @@
         <v>3136.7748000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>42759</v>
       </c>
@@ -17697,7 +17709,7 @@
         <v>3142.5533</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="16">
         <v>42760</v>
       </c>
@@ -17708,7 +17720,7 @@
         <v>3149.5547000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>42761</v>
       </c>
@@ -17719,7 +17731,7 @@
         <v>3159.1660000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="16">
         <v>42769</v>
       </c>
@@ -17730,7 +17742,7 @@
         <v>3140.17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="16">
         <v>42772</v>
       </c>
@@ -17741,7 +17753,7 @@
         <v>3156.9838</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>42773</v>
       </c>
@@ -17752,7 +17764,7 @@
         <v>3153.0877999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="16">
         <v>42774</v>
       </c>
@@ -17763,7 +17775,7 @@
         <v>3166.9818</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>42775</v>
       </c>
@@ -17774,7 +17786,7 @@
         <v>3183.1794</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>42776</v>
       </c>
@@ -17785,7 +17797,7 @@
         <v>3196.6990000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>42779</v>
       </c>
@@ -17796,7 +17808,7 @@
         <v>3216.8393999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>42780</v>
       </c>
@@ -17807,7 +17819,7 @@
         <v>3217.9279999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="16">
         <v>42781</v>
       </c>
@@ -17818,7 +17830,7 @@
         <v>3212.9857000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="16">
         <v>42782</v>
       </c>
@@ -17829,7 +17841,7 @@
         <v>3229.6183999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>42783</v>
       </c>
@@ -17840,7 +17852,7 @@
         <v>3202.0756000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="16">
         <v>42786</v>
       </c>
@@ -17851,7 +17863,7 @@
         <v>3239.9612999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>42787</v>
       </c>
@@ -17862,7 +17874,7 @@
         <v>3253.3256999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>42788</v>
       </c>
@@ -17873,7 +17885,7 @@
         <v>3261.2184000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="16">
         <v>42789</v>
       </c>
@@ -17884,7 +17896,7 @@
         <v>3251.375</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="16">
         <v>42790</v>
       </c>
@@ -17895,7 +17907,7 @@
         <v>3253.4326999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>42793</v>
       </c>
@@ -17906,7 +17918,7 @@
         <v>3228.6601999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>42794</v>
       </c>
@@ -17917,7 +17929,7 @@
         <v>3241.7330999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="16">
         <v>42795</v>
       </c>
@@ -17928,7 +17940,7 @@
         <v>3246.9335000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="16">
         <v>42796</v>
       </c>
@@ -17939,7 +17951,7 @@
         <v>3230.0281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="16">
         <v>42797</v>
       </c>
@@ -17950,7 +17962,7 @@
         <v>3218.3117999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>42800</v>
       </c>
@@ -17961,7 +17973,7 @@
         <v>3233.8656999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>42801</v>
       </c>
@@ -17972,7 +17984,7 @@
         <v>3242.4063000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>42802</v>
       </c>
@@ -17983,7 +17995,7 @@
         <v>3240.6646000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>42803</v>
       </c>
@@ -17994,7 +18006,7 @@
         <v>3216.7456999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>42804</v>
       </c>
@@ -18005,7 +18017,7 @@
         <v>3212.7601</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>42807</v>
       </c>
@@ -18016,7 +18028,7 @@
         <v>3237.0243999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="16">
         <v>42808</v>
       </c>
@@ -18027,7 +18039,7 @@
         <v>3239.3278</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="16">
         <v>42809</v>
       </c>
@@ -18038,7 +18050,7 @@
         <v>3241.7597000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="16">
         <v>42810</v>
       </c>
@@ -18049,7 +18061,7 @@
         <v>3268.9353999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="16">
         <v>42811</v>
       </c>
@@ -18060,7 +18072,7 @@
         <v>3237.4470999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="16">
         <v>42814</v>
       </c>
@@ -18071,7 +18083,7 @@
         <v>3250.8081999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>42815</v>
       </c>
@@ -18082,7 +18094,7 @@
         <v>3261.6107999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="16">
         <v>42816</v>
       </c>
@@ -18093,7 +18105,7 @@
         <v>3245.2197999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>42817</v>
       </c>
@@ -18104,7 +18116,7 @@
         <v>3248.5495000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="16">
         <v>42818</v>
       </c>
@@ -18115,7 +18127,7 @@
         <v>3269.4450999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>42821</v>
       </c>
@@ -18126,7 +18138,7 @@
         <v>3266.9551999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>42822</v>
       </c>
@@ -18137,7 +18149,7 @@
         <v>3252.9479000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>42823</v>
       </c>
@@ -18148,7 +18160,7 @@
         <v>3241.3144000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>42824</v>
       </c>
@@ -18159,7 +18171,7 @@
         <v>3210.2368999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="16">
         <v>42825</v>
       </c>
@@ -18170,7 +18182,7 @@
         <v>3222.5142000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="16">
         <v>42830</v>
       </c>
@@ -18181,7 +18193,7 @@
         <v>3270.3054000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="16">
         <v>42831</v>
       </c>
@@ -18192,7 +18204,7 @@
         <v>3281.0047</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>42832</v>
       </c>
@@ -18203,7 +18215,7 @@
         <v>3286.616</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>42835</v>
       </c>
@@ -18214,7 +18226,7 @@
         <v>3269.3926000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="16">
         <v>42836</v>
       </c>
@@ -18225,7 +18237,7 @@
         <v>3288.9657000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="16">
         <v>42837</v>
       </c>
@@ -18236,7 +18248,7 @@
         <v>3273.8301000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="16">
         <v>42838</v>
       </c>
@@ -18247,7 +18259,7 @@
         <v>3275.9603000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="16">
         <v>42839</v>
       </c>
@@ -18258,7 +18270,7 @@
         <v>3246.0668000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="16">
         <v>42842</v>
       </c>
@@ -18269,7 +18281,7 @@
         <v>3222.1673000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="16">
         <v>42843</v>
       </c>
@@ -18280,7 +18292,7 @@
         <v>3196.7132999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="16">
         <v>42844</v>
       </c>
@@ -18291,7 +18303,7 @@
         <v>3170.6867000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="16">
         <v>42845</v>
       </c>
@@ -18302,7 +18314,7 @@
         <v>3172.1003000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="16">
         <v>42846</v>
       </c>
@@ -18313,7 +18325,7 @@
         <v>3173.1511999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="16">
         <v>42849</v>
       </c>
@@ -18324,7 +18336,7 @@
         <v>3129.5311999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="16">
         <v>42850</v>
       </c>
@@ -18335,7 +18347,7 @@
         <v>3134.5673999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="16">
         <v>42851</v>
       </c>
@@ -18346,7 +18358,7 @@
         <v>3140.8471</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="16">
         <v>42852</v>
       </c>
@@ -18357,7 +18369,7 @@
         <v>3152.1869000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="16">
         <v>42853</v>
       </c>
@@ -18368,7 +18380,7 @@
         <v>3154.6583999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="16">
         <v>42857</v>
       </c>
@@ -18379,7 +18391,7 @@
         <v>3143.7121000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="16">
         <v>42858</v>
       </c>
@@ -18390,7 +18402,7 @@
         <v>3135.346</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="16">
         <v>42859</v>
       </c>
@@ -18401,7 +18413,7 @@
         <v>3127.3687</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>42860</v>
       </c>
@@ -18412,7 +18424,7 @@
         <v>3103.0378000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>42863</v>
       </c>
@@ -18423,7 +18435,7 @@
         <v>3078.6129000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>42864</v>
       </c>
@@ -18434,7 +18446,7 @@
         <v>3080.5268999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="16">
         <v>42865</v>
       </c>
@@ -18445,7 +18457,7 @@
         <v>3052.7849999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>42866</v>
       </c>
@@ -18456,7 +18468,7 @@
         <v>3061.5003000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="16">
         <v>42867</v>
       </c>
@@ -18467,7 +18479,7 @@
         <v>3083.5131999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>42870</v>
       </c>
@@ -18478,7 +18490,7 @@
         <v>3090.2289000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="16">
         <v>42871</v>
       </c>
@@ -18489,7 +18501,7 @@
         <v>3112.9641999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>42872</v>
       </c>
@@ -18500,7 +18512,7 @@
         <v>3104.4414999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>42873</v>
       </c>
@@ -18511,7 +18523,7 @@
         <v>3090.1390000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="16">
         <v>42874</v>
       </c>
@@ -18522,7 +18534,7 @@
         <v>3090.6309000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>42877</v>
       </c>
@@ -18533,7 +18545,7 @@
         <v>3075.6756</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>42878</v>
       </c>
@@ -18544,7 +18556,7 @@
         <v>3061.9470000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>42879</v>
       </c>
@@ -18555,7 +18567,7 @@
         <v>3064.0758999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="16">
         <v>42880</v>
       </c>
@@ -18566,7 +18578,7 @@
         <v>3107.8310999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="16">
         <v>42881</v>
       </c>
@@ -18577,7 +18589,7 @@
         <v>3110.0587</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>42886</v>
       </c>
@@ -18588,7 +18600,7 @@
         <v>3117.1777999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>42887</v>
       </c>
@@ -18599,7 +18611,7 @@
         <v>3102.6232</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>42888</v>
       </c>
@@ -18610,7 +18622,7 @@
         <v>3105.54</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>42891</v>
       </c>
@@ -18621,7 +18633,7 @@
         <v>3091.6561000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>42892</v>
       </c>
@@ -18632,7 +18644,7 @@
         <v>3102.1260000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="16">
         <v>42893</v>
       </c>
@@ -18643,7 +18655,7 @@
         <v>3140.3249000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>42894</v>
       </c>
@@ -18654,7 +18666,7 @@
         <v>3150.3335999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>42895</v>
       </c>
@@ -18665,7 +18677,7 @@
         <v>3158.4004</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="16">
         <v>42898</v>
       </c>
@@ -18676,7 +18688,7 @@
         <v>3139.8766000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>42899</v>
       </c>
@@ -18687,7 +18699,7 @@
         <v>3153.7429000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="16">
         <v>42900</v>
       </c>
@@ -18698,7 +18710,7 @@
         <v>3130.674</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="16">
         <v>42901</v>
       </c>
@@ -18709,7 +18721,7 @@
         <v>3132.4863</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>42902</v>
       </c>
@@ -18720,7 +18732,7 @@
         <v>3123.1662000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>42905</v>
       </c>
@@ -18731,7 +18743,7 @@
         <v>3144.3739</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>42906</v>
       </c>
@@ -18742,7 +18754,7 @@
         <v>3140.0136000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>42907</v>
       </c>
@@ -18753,7 +18765,7 @@
         <v>3156.2118</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="16">
         <v>42908</v>
       </c>
@@ -18764,7 +18776,7 @@
         <v>3147.4531999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="16">
         <v>42909</v>
       </c>
@@ -18775,7 +18787,7 @@
         <v>3157.873</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>42912</v>
       </c>
@@ -18786,7 +18798,7 @@
         <v>3185.4439000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="16">
         <v>42913</v>
       </c>
@@ -18797,7 +18809,7 @@
         <v>3191.1968999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="16">
         <v>42914</v>
       </c>
@@ -18808,7 +18820,7 @@
         <v>3173.2013999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="16">
         <v>42915</v>
       </c>
@@ -18819,7 +18831,7 @@
         <v>3188.0625</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>42916</v>
       </c>
@@ -18830,7 +18842,7 @@
         <v>3192.4268999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="16">
         <v>42919</v>
       </c>
@@ -18841,7 +18853,7 @@
         <v>3195.9115999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="16">
         <v>42920</v>
       </c>
@@ -18852,7 +18864,7 @@
         <v>3182.8038999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="16">
         <v>42921</v>
       </c>
@@ -18863,7 +18875,7 @@
         <v>3207.1342</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="16">
         <v>42922</v>
       </c>
@@ -18874,7 +18886,7 @@
         <v>3212.444</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="16">
         <v>42923</v>
       </c>
@@ -18885,7 +18897,7 @@
         <v>3217.9567000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="16">
         <v>42926</v>
       </c>
@@ -18896,7 +18908,7 @@
         <v>3212.6318999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="16">
         <v>42927</v>
       </c>
@@ -18907,7 +18919,7 @@
         <v>3203.0374999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="16">
         <v>42928</v>
       </c>
@@ -18918,7 +18930,7 @@
         <v>3197.5439000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>42929</v>
       </c>
@@ -18929,7 +18941,7 @@
         <v>3218.1632</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>42930</v>
       </c>
@@ -18940,7 +18952,7 @@
         <v>3222.4168</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="16">
         <v>42933</v>
       </c>
@@ -18951,7 +18963,7 @@
         <v>3176.4648000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="16">
         <v>42934</v>
       </c>
@@ -18962,7 +18974,7 @@
         <v>3187.5672</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>42935</v>
       </c>
@@ -18973,7 +18985,7 @@
         <v>3230.9762000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>42936</v>
       </c>
@@ -18984,7 +18996,7 @@
         <v>3244.8647000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>42937</v>
       </c>
@@ -18995,7 +19007,7 @@
         <v>3237.9816999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="16">
         <v>42940</v>
       </c>
@@ -19006,7 +19018,7 @@
         <v>3250.5989</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="16">
         <v>42941</v>
       </c>
@@ -19017,7 +19029,7 @@
         <v>3243.6894000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>42942</v>
       </c>
@@ -19028,7 +19040,7 @@
         <v>3247.6747999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>42943</v>
       </c>
@@ -19039,7 +19051,7 @@
         <v>3249.7813999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="16">
         <v>42944</v>
       </c>
@@ -19050,7 +19062,7 @@
         <v>3253.2404000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>42947</v>
       </c>
@@ -19061,7 +19073,7 @@
         <v>3273.0282999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="16">
         <v>42948</v>
       </c>
@@ -19072,7 +19084,7 @@
         <v>3292.6383000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>42949</v>
       </c>
@@ -19083,7 +19095,7 @@
         <v>3285.0567999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>42950</v>
       </c>
@@ -19094,7 +19106,7 @@
         <v>3272.9286000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>42951</v>
       </c>
@@ -19105,7 +19117,7 @@
         <v>3262.0808999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="16">
         <v>42954</v>
       </c>
@@ -19116,7 +19128,7 @@
         <v>3279.4566</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>42955</v>
       </c>
@@ -19127,7 +19139,7 @@
         <v>3281.8728000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>42956</v>
       </c>
@@ -19138,7 +19150,7 @@
         <v>3275.5729999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>42957</v>
       </c>
@@ -19149,7 +19161,7 @@
         <v>3261.7494000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>42958</v>
       </c>
@@ -19160,7 +19172,7 @@
         <v>3208.5412999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>42961</v>
       </c>
@@ -19171,7 +19183,7 @@
         <v>3237.3602000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="16">
         <v>42962</v>
       </c>
@@ -19182,7 +19194,7 @@
         <v>3251.2617</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="16">
         <v>42963</v>
       </c>
@@ -19193,7 +19205,7 @@
         <v>3246.4512</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="16">
         <v>42964</v>
       </c>
@@ -19204,7 +19216,7 @@
         <v>3268.4297999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>42965</v>
       </c>
@@ -19215,7 +19227,7 @@
         <v>3268.7242999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="16">
         <v>42968</v>
       </c>
@@ -19226,7 +19238,7 @@
         <v>3286.9054999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="16">
         <v>42969</v>
       </c>
@@ -19237,7 +19249,7 @@
         <v>3290.2257</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="16">
         <v>42970</v>
       </c>
@@ -19248,7 +19260,7 @@
         <v>3287.7049000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="16">
         <v>42971</v>
       </c>
@@ -19259,7 +19271,7 @@
         <v>3271.5117</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="16">
         <v>42972</v>
       </c>
@@ -19270,7 +19282,7 @@
         <v>3331.5221000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="16">
         <v>42975</v>
       </c>
@@ -19281,7 +19293,7 @@
         <v>3362.6514000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="16">
         <v>42976</v>
       </c>
@@ -19292,7 +19304,7 @@
         <v>3365.2260999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="16">
         <v>42977</v>
       </c>
@@ -19303,7 +19315,7 @@
         <v>3363.6266000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="16">
         <v>42978</v>
       </c>
@@ -19314,7 +19326,7 @@
         <v>3360.8103000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="16">
         <v>42979</v>
       </c>
@@ -19325,7 +19337,7 @@
         <v>3367.1194</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="16">
         <v>42982</v>
       </c>
@@ -19336,7 +19348,7 @@
         <v>3379.5830000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="16">
         <v>42983</v>
       </c>
@@ -19347,7 +19359,7 @@
         <v>3384.317</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="16">
         <v>42984</v>
       </c>
@@ -19358,7 +19370,7 @@
         <v>3385.3888000000002</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="16">
         <v>42985</v>
       </c>
@@ -19369,7 +19381,7 @@
         <v>3365.4974000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="16">
         <v>42986</v>
       </c>
@@ -19380,7 +19392,7 @@
         <v>3365.2426</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="16">
         <v>42989</v>
       </c>
@@ -19391,7 +19403,7 @@
         <v>3376.4187999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="16">
         <v>42990</v>
       </c>
@@ -19402,7 +19414,7 @@
         <v>3379.4879999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="16">
         <v>42991</v>
       </c>
@@ -19413,7 +19425,7 @@
         <v>3384.1469999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="16">
         <v>42992</v>
       </c>
@@ -19424,7 +19436,7 @@
         <v>3371.4256</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="16">
         <v>42993</v>
       </c>
@@ -19435,7 +19447,7 @@
         <v>3353.6192000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="16">
         <v>42996</v>
       </c>
@@ -19446,7 +19458,7 @@
         <v>3362.8587000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="16">
         <v>42997</v>
       </c>
@@ -19457,7 +19469,7 @@
         <v>3356.8445999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="16">
         <v>42998</v>
       </c>
@@ -19468,7 +19480,7 @@
         <v>3365.9958999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="16">
         <v>42999</v>
       </c>
@@ -19479,7 +19491,7 @@
         <v>3357.8123000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="16">
         <v>43000</v>
       </c>
@@ -19490,7 +19502,7 @@
         <v>3352.5293999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="16">
         <v>43003</v>
       </c>
@@ -19501,7 +19513,7 @@
         <v>3341.5486999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="16">
         <v>43004</v>
       </c>
@@ -19512,7 +19524,7 @@
         <v>3343.5826000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="16">
         <v>43005</v>
       </c>
@@ -19523,7 +19535,7 @@
         <v>3345.2716999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="16">
         <v>43006</v>
       </c>
@@ -19534,7 +19546,7 @@
         <v>3339.6421</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="16">
         <v>43007</v>
       </c>
@@ -19545,7 +19557,7 @@
         <v>3348.9431</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="16">
         <v>43017</v>
       </c>
@@ -19556,7 +19568,7 @@
         <v>3374.3780999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="16">
         <v>43018</v>
       </c>
@@ -19567,7 +19579,7 @@
         <v>3382.9879000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="16">
         <v>43019</v>
       </c>
@@ -19578,7 +19590,7 @@
         <v>3388.2838000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="16">
         <v>43020</v>
       </c>
@@ -19589,7 +19601,7 @@
         <v>3386.1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="16">
         <v>43021</v>
       </c>
@@ -19600,7 +19612,7 @@
         <v>3390.5232999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="16">
         <v>43024</v>
       </c>
@@ -19611,7 +19623,7 @@
         <v>3378.4704000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="16">
         <v>43025</v>
       </c>
@@ -19622,7 +19634,7 @@
         <v>3372.0407</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="16">
         <v>43026</v>
       </c>
@@ -19633,7 +19645,7 @@
         <v>3381.7937000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="16">
         <v>43027</v>
       </c>
@@ -19644,7 +19656,7 @@
         <v>3370.1720999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="16">
         <v>43028</v>
       </c>
@@ -19655,7 +19667,7 @@
         <v>3378.6480999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="16">
         <v>43031</v>
       </c>
@@ -19666,7 +19678,7 @@
         <v>3380.6990000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="16">
         <v>43032</v>
       </c>
@@ -19677,7 +19689,7 @@
         <v>3388.2476999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="16">
         <v>43033</v>
       </c>
@@ -19688,7 +19700,7 @@
         <v>3396.8975</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="16">
         <v>43034</v>
       </c>
@@ -19699,7 +19711,7 @@
         <v>3407.5671000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="16">
         <v>43035</v>
       </c>
@@ -19710,7 +19722,7 @@
         <v>3416.8123999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="16">
         <v>43038</v>
       </c>
@@ -19721,7 +19733,7 @@
         <v>3390.3371000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="16">
         <v>43039</v>
       </c>
@@ -19732,7 +19744,7 @@
         <v>3393.3416999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="16">
         <v>43040</v>
       </c>
@@ -19743,7 +19755,7 @@
         <v>3395.9124999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="16">
         <v>43041</v>
       </c>
@@ -19754,7 +19766,7 @@
         <v>3383.3094999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="16">
         <v>43042</v>
       </c>
@@ -19765,7 +19777,7 @@
         <v>3371.7440999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="16">
         <v>43045</v>
       </c>
@@ -19776,7 +19788,7 @@
         <v>3388.1741999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="16">
         <v>43046</v>
       </c>
@@ -19787,7 +19799,7 @@
         <v>3413.5747999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="16">
         <v>43047</v>
       </c>
@@ -19798,7 +19810,7 @@
         <v>3415.4602</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="16">
         <v>43048</v>
       </c>
@@ -19809,7 +19821,7 @@
         <v>3427.7946000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="16">
         <v>43049</v>
       </c>
@@ -19820,7 +19832,7 @@
         <v>3432.6731</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="16">
         <v>43052</v>
       </c>
@@ -19831,7 +19843,7 @@
         <v>3447.8357999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="16">
         <v>43053</v>
       </c>
@@ -19842,7 +19854,7 @@
         <v>3429.5482000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="16">
         <v>43054</v>
       </c>
@@ -19853,7 +19865,7 @@
         <v>3402.5245</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="16">
         <v>43055</v>
       </c>
@@ -19864,7 +19876,7 @@
         <v>3399.2503000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="16">
         <v>43056</v>
       </c>
@@ -19875,7 +19887,7 @@
         <v>3382.9074999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="16">
         <v>43059</v>
       </c>
@@ -19886,7 +19898,7 @@
         <v>3392.3987999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="16">
         <v>43060</v>
       </c>
@@ -19897,7 +19909,7 @@
         <v>3410.4976999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="16">
         <v>43061</v>
       </c>
@@ -19908,7 +19920,7 @@
         <v>3430.4643000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="16">
         <v>43062</v>
       </c>
@@ -19919,7 +19931,7 @@
         <v>3351.9182000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="16">
         <v>43063</v>
       </c>
@@ -19930,7 +19942,7 @@
         <v>3353.8207000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="16">
         <v>43066</v>
       </c>
@@ -19941,7 +19953,7 @@
         <v>3322.2298000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="16">
         <v>43067</v>
       </c>
@@ -19952,7 +19964,7 @@
         <v>3333.6570000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="16">
         <v>43068</v>
       </c>
@@ -19963,7 +19975,7 @@
         <v>3337.8620000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="16">
         <v>43069</v>
       </c>
@@ -19974,7 +19986,7 @@
         <v>3317.1884</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="16">
         <v>43070</v>
       </c>
@@ -19985,7 +19997,7 @@
         <v>3317.6174000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="16">
         <v>43073</v>
       </c>
@@ -19996,7 +20008,7 @@
         <v>3309.6183000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="16">
         <v>43074</v>
       </c>
@@ -20007,7 +20019,7 @@
         <v>3303.6750999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="16">
         <v>43075</v>
       </c>
@@ -20018,7 +20030,7 @@
         <v>3293.9648000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="16">
         <v>43076</v>
       </c>
@@ -20029,7 +20041,7 @@
         <v>3272.0542</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="16">
         <v>43077</v>
       </c>
@@ -20040,7 +20052,7 @@
         <v>3289.9924000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="16">
         <v>43080</v>
       </c>
@@ -20051,7 +20063,7 @@
         <v>3322.1956</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="16">
         <v>43081</v>
       </c>
@@ -20062,7 +20074,7 @@
         <v>3280.8136</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="16">
         <v>43082</v>
       </c>
@@ -20073,7 +20085,7 @@
         <v>3303.0373</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="16">
         <v>43083</v>
       </c>
@@ -20084,7 +20096,7 @@
         <v>3292.4385000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="16">
         <v>43084</v>
       </c>
@@ -20095,7 +20107,7 @@
         <v>3266.1370999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="16">
         <v>43087</v>
       </c>
@@ -20106,7 +20118,7 @@
         <v>3267.9223999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="16">
         <v>43088</v>
       </c>
@@ -20117,7 +20129,7 @@
         <v>3296.5383999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="16">
         <v>43089</v>
       </c>
@@ -20128,7 +20140,7 @@
         <v>3287.6057000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="16">
         <v>43090</v>
       </c>
@@ -20139,7 +20151,7 @@
         <v>3300.0592999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="16">
         <v>43091</v>
       </c>
@@ -20150,7 +20162,7 @@
         <v>3297.0630000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="16">
         <v>43094</v>
       </c>
@@ -20161,7 +20173,7 @@
         <v>3280.4609999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="16">
         <v>43095</v>
       </c>
@@ -20172,7 +20184,7 @@
         <v>3306.1246000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="16">
         <v>43096</v>
       </c>
@@ -20183,7 +20195,7 @@
         <v>3275.7828</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="16">
         <v>43097</v>
       </c>
@@ -20194,7 +20206,7 @@
         <v>3296.3847000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="16">
         <v>43098</v>
       </c>
@@ -20205,7 +20217,7 @@
         <v>3307.1720999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="16">
         <v>43102</v>
       </c>
@@ -20216,7 +20228,7 @@
         <v>3348.3258999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="16">
         <v>43103</v>
       </c>
@@ -20227,7 +20239,7 @@
         <v>3369.1084000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="16">
         <v>43104</v>
       </c>
@@ -20238,7 +20250,7 @@
         <v>3385.7102</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="16">
         <v>43105</v>
       </c>
@@ -20249,7 +20261,7 @@
         <v>3391.7501000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="16">
         <v>43108</v>
       </c>
@@ -20260,7 +20272,7 @@
         <v>3409.4794999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="16">
         <v>43109</v>
       </c>
@@ -20271,7 +20283,7 @@
         <v>3413.8996000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="16">
         <v>43110</v>
       </c>
@@ -20282,7 +20294,7 @@
         <v>3421.8343</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="16">
         <v>43111</v>
       </c>
@@ -20293,7 +20305,7 @@
         <v>3425.3449000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="16">
         <v>43112</v>
       </c>
@@ -20304,7 +20316,7 @@
         <v>3428.9407000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="16">
         <v>43115</v>
       </c>
@@ -20315,7 +20327,7 @@
         <v>3410.4881999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="16">
         <v>43116</v>
       </c>
@@ -20326,7 +20338,7 @@
         <v>3436.5940000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="16">
         <v>43117</v>
       </c>
@@ -20337,7 +20349,7 @@
         <v>3444.6713</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="16">
         <v>43118</v>
       </c>
@@ -20348,7 +20360,7 @@
         <v>3474.7539999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="16">
         <v>43119</v>
       </c>
@@ -20359,7 +20371,7 @@
         <v>3487.864</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="16">
         <v>43122</v>
       </c>
@@ -20370,7 +20382,7 @@
         <v>3501.3622</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="16">
         <v>43123</v>
       </c>
@@ -20381,7 +20393,7 @@
         <v>3546.5048000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="16">
         <v>43124</v>
       </c>
@@ -20392,7 +20404,7 @@
         <v>3559.4652999999998</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="16">
         <v>43125</v>
       </c>
@@ -20403,7 +20415,7 @@
         <v>3548.3069999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="16">
         <v>43126</v>
       </c>
@@ -20414,7 +20426,7 @@
         <v>3558.1288</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="16">
         <v>43129</v>
       </c>
@@ -20425,7 +20437,7 @@
         <v>3523.0007000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="16">
         <v>43130</v>
       </c>
@@ -20436,7 +20448,7 @@
         <v>3488.009</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="16">
         <v>43131</v>
       </c>
@@ -20447,7 +20459,7 @@
         <v>3480.8334</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="16">
         <v>43132</v>
       </c>
@@ -20458,7 +20470,7 @@
         <v>3446.9798999999998</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="16">
         <v>43133</v>
       </c>
@@ -20469,7 +20481,7 @@
         <v>3462.0808000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="16">
         <v>43136</v>
       </c>
@@ -20480,7 +20492,7 @@
         <v>3487.4969999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="16">
         <v>43137</v>
       </c>
@@ -20491,7 +20503,7 @@
         <v>3370.652</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="16">
         <v>43138</v>
       </c>
@@ -20502,7 +20514,7 @@
         <v>3309.2597999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="16">
         <v>43139</v>
       </c>
@@ -20513,7 +20525,7 @@
         <v>3262.0504000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="16">
         <v>43140</v>
       </c>
@@ -20524,7 +20536,7 @@
         <v>3129.8508000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="16">
         <v>43143</v>
       </c>
@@ -20535,7 +20547,7 @@
         <v>3154.1253999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="16">
         <v>43144</v>
       </c>
@@ -20546,7 +20558,7 @@
         <v>3184.9587000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="16">
         <v>43145</v>
       </c>
@@ -20557,7 +20569,7 @@
         <v>3199.1588999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="16">
         <v>43153</v>
       </c>
@@ -20568,7 +20580,7 @@
         <v>3268.56</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="16">
         <v>43154</v>
       </c>
@@ -20579,7 +20591,7 @@
         <v>3289.02</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="16">
         <v>43157</v>
       </c>
@@ -20590,7 +20602,7 @@
         <v>3329.57</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="16">
         <v>43158</v>
       </c>
@@ -20601,7 +20613,7 @@
         <v>3292.07</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="16">
         <v>43159</v>
       </c>
@@ -20612,7 +20624,7 @@
         <v>3259.41</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="16">
         <v>43160</v>
       </c>
@@ -20623,7 +20635,7 @@
         <v>3273.76</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="16">
         <v>43161</v>
       </c>
@@ -20634,7 +20646,7 @@
         <v>3254.53</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="16">
         <v>43164</v>
       </c>
@@ -20645,7 +20657,7 @@
         <v>3256.93</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="16">
         <v>43165</v>
       </c>
@@ -20656,7 +20668,7 @@
         <v>3289.64</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="16">
         <v>43166</v>
       </c>
@@ -20667,7 +20679,7 @@
         <v>3271.67</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="16">
         <v>43167</v>
       </c>
@@ -20678,7 +20690,7 @@
         <v>3288.41</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="16">
         <v>43168</v>
       </c>
@@ -20689,7 +20701,7 @@
         <v>3307.17</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="16">
         <v>43171</v>
       </c>
@@ -20700,7 +20712,7 @@
         <v>3326.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="16">
         <v>43172</v>
       </c>
@@ -20711,7 +20723,7 @@
         <v>3310.24</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="16">
         <v>43173</v>
       </c>
@@ -20722,7 +20734,7 @@
         <v>3291.38</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="16">
         <v>43174</v>
       </c>
@@ -20733,7 +20745,7 @@
         <v>3291.11</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="16">
         <v>43175</v>
       </c>
@@ -20744,7 +20756,7 @@
         <v>3269.88</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="16">
         <v>43178</v>
       </c>
@@ -20755,7 +20767,7 @@
         <v>3279.25</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="16">
         <v>43179</v>
       </c>
@@ -20766,7 +20778,7 @@
         <v>3290.64</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="16">
         <v>43180</v>
       </c>
@@ -20777,7 +20789,7 @@
         <v>3280.95</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="16">
         <v>43181</v>
       </c>
@@ -20788,7 +20800,7 @@
         <v>3263.48</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="16">
         <v>43182</v>
       </c>
@@ -20799,7 +20811,7 @@
         <v>3152.76</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="16">
         <v>43185</v>
       </c>
@@ -20810,7 +20822,7 @@
         <v>3133.72</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="16">
         <v>43186</v>
       </c>
@@ -20821,7 +20833,7 @@
         <v>3166.65</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="16">
         <v>43187</v>
       </c>
@@ -20832,7 +20844,7 @@
         <v>3122.29</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="16">
         <v>43188</v>
       </c>
@@ -20843,7 +20855,7 @@
         <v>3160.53</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="16">
         <v>43189</v>
       </c>
@@ -20854,7 +20866,7 @@
         <v>3168.9</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="16">
         <v>43192</v>
       </c>
@@ -20865,7 +20877,7 @@
         <v>3163.18</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="16">
         <v>43193</v>
       </c>
@@ -20876,7 +20888,7 @@
         <v>3136.63</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="16">
         <v>43194</v>
       </c>
@@ -20887,7 +20899,7 @@
         <v>3131.11</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="16">
         <v>43199</v>
       </c>
@@ -20898,7 +20910,7 @@
         <v>3138.29</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="16">
         <v>43200</v>
       </c>
@@ -20909,7 +20921,7 @@
         <v>3190.32</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="16">
         <v>43201</v>
       </c>
@@ -20920,7 +20932,7 @@
         <v>3208.08</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="16">
         <v>43202</v>
       </c>
@@ -20931,7 +20943,7 @@
         <v>3180.16</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="16">
         <v>43203</v>
       </c>
@@ -20942,7 +20954,7 @@
         <v>3159.05</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="16">
         <v>43206</v>
       </c>
@@ -20953,7 +20965,7 @@
         <v>3110.65</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="16">
         <v>43207</v>
       </c>
@@ -20964,7 +20976,7 @@
         <v>3066.8</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="16">
         <v>43208</v>
       </c>
@@ -20975,7 +20987,7 @@
         <v>3091.4</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="16">
         <v>43209</v>
       </c>
@@ -20986,7 +20998,7 @@
         <v>3117.48</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="16">
         <v>43210</v>
       </c>
@@ -20997,7 +21009,7 @@
         <v>3071.54</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="16">
         <v>43213</v>
       </c>
@@ -21008,7 +21020,7 @@
         <v>3068.01</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="16">
         <v>43214</v>
       </c>
@@ -21019,7 +21031,7 @@
         <v>3128.93</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="16">
         <v>43215</v>
       </c>
@@ -21030,7 +21042,7 @@
         <v>3117.97</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="16">
         <v>43216</v>
       </c>
@@ -21041,7 +21053,7 @@
         <v>3075.03</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="16">
         <v>43217</v>
       </c>
@@ -21052,7 +21064,7 @@
         <v>3082.23</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="16">
         <v>43222</v>
       </c>
@@ -21063,7 +21075,7 @@
         <v>3081.18</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="16">
         <v>43223</v>
       </c>
@@ -21074,7 +21086,7 @@
         <v>3100.86</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="16">
         <v>43224</v>
       </c>
@@ -21085,7 +21097,7 @@
         <v>3091.03</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="16">
         <v>43227</v>
       </c>
@@ -21096,7 +21108,7 @@
         <v>3136.64</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="16">
         <v>43228</v>
       </c>
@@ -21107,7 +21119,7 @@
         <v>3160.5</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="16">
         <v>43229</v>
       </c>
@@ -21118,7 +21130,7 @@
         <v>3159.15</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="16">
         <v>43230</v>
       </c>
@@ -21129,7 +21141,7 @@
         <v>3169.05</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="16">
         <v>43231</v>
       </c>
@@ -21140,7 +21152,7 @@
         <v>3163.26</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="16">
         <v>43234</v>
       </c>
@@ -21151,7 +21163,7 @@
         <v>3174.03</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="16">
         <v>43235</v>
       </c>
@@ -21162,7 +21174,7 @@
         <v>3192.12</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="16">
         <v>43236</v>
       </c>
@@ -21173,7 +21185,7 @@
         <v>3169.57</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="16">
         <v>43237</v>
       </c>
@@ -21184,7 +21196,7 @@
         <v>3154.28</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="16">
         <v>43238</v>
       </c>
@@ -21195,7 +21207,7 @@
         <v>3193.3</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="16">
         <v>43241</v>
       </c>
@@ -21206,7 +21218,7 @@
         <v>3213.84</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="16">
         <v>43242</v>
       </c>
@@ -21217,7 +21229,7 @@
         <v>3214.35</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="16">
         <v>43243</v>
       </c>
@@ -21228,7 +21240,7 @@
         <v>3168.96</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="16">
         <v>43244</v>
       </c>
@@ -21239,7 +21251,7 @@
         <v>3154.65</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="16">
         <v>43245</v>
       </c>
@@ -21250,7 +21262,7 @@
         <v>3141.3</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="16">
         <v>43248</v>
       </c>
@@ -21261,7 +21273,7 @@
         <v>3135.08</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="16">
         <v>43249</v>
       </c>
@@ -21272,7 +21284,7 @@
         <v>3120.46</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="16">
         <v>43250</v>
       </c>
@@ -21283,7 +21295,7 @@
         <v>3041.44</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="16">
         <v>43251</v>
       </c>
@@ -21294,7 +21306,7 @@
         <v>3095.47</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="16">
         <v>43252</v>
       </c>
@@ -21305,7 +21317,7 @@
         <v>3075.14</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="16">
         <v>43255</v>
       </c>
@@ -21316,7 +21328,7 @@
         <v>3091.19</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="16">
         <v>43256</v>
       </c>
@@ -21327,7 +21339,7 @@
         <v>3114.21</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="16">
         <v>43257</v>
       </c>
@@ -21338,7 +21350,7 @@
         <v>3115.18</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="16">
         <v>43258</v>
       </c>
@@ -21349,7 +21361,7 @@
         <v>3109.5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="16">
         <v>43259</v>
       </c>
@@ -21360,7 +21372,7 @@
         <v>3067.15</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="16">
         <v>43262</v>
       </c>
@@ -21371,7 +21383,7 @@
         <v>3052.78</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="16">
         <v>43263</v>
       </c>
@@ -21382,7 +21394,7 @@
         <v>3079.8</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="16">
         <v>43264</v>
       </c>
@@ -21393,7 +21405,7 @@
         <v>3049.8</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="16">
         <v>43265</v>
       </c>
@@ -21404,7 +21416,7 @@
         <v>3044.16</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="16">
         <v>43266</v>
       </c>
@@ -21415,7 +21427,7 @@
         <v>3021.9</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="16">
         <v>43270</v>
       </c>
@@ -21426,7 +21438,7 @@
         <v>2907.82</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="16">
         <v>43271</v>
       </c>
@@ -21437,7 +21449,7 @@
         <v>2915.73</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="16">
         <v>43272</v>
       </c>
@@ -21448,7 +21460,7 @@
         <v>2875.81</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="16">
         <v>43273</v>
       </c>
@@ -21459,7 +21471,7 @@
         <v>2889.76</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="16">
         <v>43276</v>
       </c>
@@ -21470,7 +21482,7 @@
         <v>2859.34</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="16">
         <v>43277</v>
       </c>
@@ -21481,7 +21493,7 @@
         <v>2844.51</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="16">
         <v>43278</v>
       </c>
@@ -21492,7 +21504,7 @@
         <v>2813.18</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="16">
         <v>43279</v>
       </c>
@@ -21503,7 +21515,7 @@
         <v>2786.9</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="16">
         <v>43280</v>
       </c>
@@ -21514,7 +21526,7 @@
         <v>2847.42</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="16">
         <v>43283</v>
       </c>
@@ -21525,7 +21537,7 @@
         <v>2775.56</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="16">
         <v>43284</v>
       </c>
@@ -21536,7 +21548,7 @@
         <v>2786.89</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="16">
         <v>43285</v>
       </c>
@@ -21547,7 +21559,7 @@
         <v>2759.13</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="16">
         <v>43286</v>
       </c>
@@ -21558,7 +21570,7 @@
         <v>2733.88</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="16">
         <v>43287</v>
       </c>
@@ -21569,7 +21581,7 @@
         <v>2747.23</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="16">
         <v>43290</v>
       </c>
@@ -21580,7 +21592,7 @@
         <v>2815.11</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="16">
         <v>43291</v>
       </c>
@@ -21591,7 +21603,7 @@
         <v>2827.63</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="16">
         <v>43292</v>
       </c>
@@ -21602,7 +21614,7 @@
         <v>2777.77</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="16">
         <v>43293</v>
       </c>
@@ -21613,7 +21625,7 @@
         <v>2837.66</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="16">
         <v>43294</v>
       </c>
@@ -21624,7 +21636,7 @@
         <v>2831.18</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="16">
         <v>43297</v>
       </c>
@@ -21635,7 +21647,7 @@
         <v>2814.04</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="16">
         <v>43298</v>
       </c>
@@ -21646,7 +21658,7 @@
         <v>2798.13</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="16">
         <v>43299</v>
       </c>
@@ -21657,7 +21669,7 @@
         <v>2787.26</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="16">
         <v>43300</v>
       </c>
@@ -21668,7 +21680,7 @@
         <v>2772.55</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="16">
         <v>43301</v>
       </c>
@@ -21679,7 +21691,7 @@
         <v>2829.27</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="16">
         <v>43304</v>
       </c>
@@ -21690,7 +21702,7 @@
         <v>2859.54</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="16">
         <v>43305</v>
       </c>
@@ -21701,7 +21713,7 @@
         <v>2905.56</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="16">
         <v>43306</v>
       </c>
@@ -21712,7 +21724,7 @@
         <v>2903.65</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="16">
         <v>43307</v>
       </c>
@@ -21723,7 +21735,7 @@
         <v>2882.23</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="16">
         <v>43308</v>
       </c>
@@ -21734,7 +21746,7 @@
         <v>2873.59</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="16">
         <v>43311</v>
       </c>
@@ -21745,7 +21757,7 @@
         <v>2869.05</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="16">
         <v>43312</v>
       </c>
@@ -21756,7 +21768,7 @@
         <v>2876.4</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="16">
         <v>43313</v>
       </c>
@@ -21767,7 +21779,7 @@
         <v>2824.53</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="16">
         <v>43314</v>
       </c>
@@ -21778,7 +21790,7 @@
         <v>2768.02</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="16">
         <v>43315</v>
       </c>
@@ -21789,7 +21801,7 @@
         <v>2740.44</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="16">
         <v>43318</v>
       </c>
@@ -21800,7 +21812,7 @@
         <v>2705.16</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="16">
         <v>43319</v>
       </c>
@@ -21811,7 +21823,7 @@
         <v>2779.37</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="16">
         <v>43320</v>
       </c>
@@ -21822,7 +21834,7 @@
         <v>2744.07</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="16">
         <v>43321</v>
       </c>
@@ -21833,7 +21845,7 @@
         <v>2794.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="16">
         <v>43322</v>
       </c>
@@ -21844,7 +21856,7 @@
         <v>2795.31</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="16">
         <v>43325</v>
       </c>
@@ -21855,7 +21867,7 @@
         <v>2785.87</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="16">
         <v>43326</v>
       </c>
@@ -21866,7 +21878,7 @@
         <v>2780.96</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="16">
         <v>43327</v>
       </c>
@@ -21877,7 +21889,7 @@
         <v>2723.26</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="16">
         <v>43328</v>
       </c>
@@ -21888,7 +21900,7 @@
         <v>2705.19</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="16">
         <v>43329</v>
       </c>
@@ -21899,7 +21911,7 @@
         <v>2668.97</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="16">
         <v>43332</v>
       </c>
@@ -21910,7 +21922,7 @@
         <v>2698.47</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="16">
         <v>43333</v>
       </c>
@@ -21921,7 +21933,7 @@
         <v>2733.83</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="16">
         <v>43334</v>
       </c>
@@ -21932,7 +21944,7 @@
         <v>2714.61</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="16">
         <v>43335</v>
       </c>
@@ -21943,7 +21955,7 @@
         <v>2724.62</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="16">
         <v>43336</v>
       </c>
@@ -21954,7 +21966,7 @@
         <v>2729.43</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="16">
         <v>43339</v>
       </c>
@@ -21965,7 +21977,7 @@
         <v>2780.9</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="16">
         <v>43340</v>
       </c>
@@ -21976,7 +21988,7 @@
         <v>2777.98</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="16">
         <v>43341</v>
       </c>
@@ -21987,7 +21999,7 @@
         <v>2769.29</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="16">
         <v>43342</v>
       </c>
@@ -21998,7 +22010,7 @@
         <v>2737.74</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="16">
         <v>43343</v>
       </c>
@@ -22009,7 +22021,7 @@
         <v>2725.25</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="16">
         <v>43346</v>
       </c>
@@ -22020,7 +22032,7 @@
         <v>2720.73</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="16">
         <v>43347</v>
       </c>
@@ -22031,7 +22043,7 @@
         <v>2750.58</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="16">
         <v>43348</v>
       </c>
@@ -22042,7 +22054,7 @@
         <v>2704.34</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="16">
         <v>43349</v>
       </c>
@@ -22053,7 +22065,7 @@
         <v>2691.59</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="16">
         <v>43350</v>
       </c>
@@ -22064,7 +22076,7 @@
         <v>2702.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="16">
         <v>43353</v>
       </c>
@@ -22075,7 +22087,7 @@
         <v>2669.48</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="16">
         <v>43354</v>
       </c>
@@ -22086,7 +22098,7 @@
         <v>2664.8</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="16">
         <v>43355</v>
       </c>
@@ -22097,7 +22109,7 @@
         <v>2656.11</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="16">
         <v>43356</v>
       </c>
@@ -22108,7 +22120,7 @@
         <v>2686.58</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="16">
         <v>43357</v>
       </c>
@@ -22119,7 +22131,7 @@
         <v>2681.64</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="16">
         <v>43360</v>
       </c>
@@ -22130,7 +22142,7 @@
         <v>2651.79</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="16">
         <v>43361</v>
       </c>
@@ -22141,7 +22153,7 @@
         <v>2669.95</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="16">
         <v>43362</v>
       </c>
@@ -22152,7 +22164,7 @@
         <v>2730.85</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="16">
         <v>43363</v>
       </c>
@@ -22163,7 +22175,7 @@
         <v>2729.24</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="16">
         <v>43364</v>
       </c>
@@ -22174,7 +22186,7 @@
         <v>2797.48</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="16">
         <v>43368</v>
       </c>
@@ -22185,7 +22197,7 @@
         <v>2781.14</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="16">
         <v>43369</v>
       </c>
@@ -22196,7 +22208,7 @@
         <v>2806.81</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="16">
         <v>43370</v>
       </c>
@@ -22207,7 +22219,7 @@
         <v>2791.77</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="16">
         <v>43371</v>
       </c>
@@ -22218,7 +22230,7 @@
         <v>2821.35</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="16">
         <v>43381</v>
       </c>
@@ -22229,7 +22241,7 @@
         <v>2716.51</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="16">
         <v>43382</v>
       </c>
@@ -22240,7 +22252,7 @@
         <v>2721.01</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="16">
         <v>43383</v>
       </c>
@@ -22251,7 +22263,7 @@
         <v>2725.84</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="16">
         <v>43384</v>
       </c>
@@ -22262,7 +22274,7 @@
         <v>2583.46</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="16">
         <v>43385</v>
       </c>
@@ -22273,7 +22285,7 @@
         <v>2606.91</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="16">
         <v>43388</v>
       </c>
@@ -22284,7 +22296,7 @@
         <v>2568.1</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="16">
         <v>43389</v>
       </c>
@@ -22295,7 +22307,7 @@
         <v>2546.33</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="16">
         <v>43390</v>
       </c>
@@ -22306,7 +22318,7 @@
         <v>2561.61</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="16">
         <v>43391</v>
       </c>
@@ -22317,7 +22329,7 @@
         <v>2486.42</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="16">
         <v>43392</v>
       </c>
@@ -22328,7 +22340,7 @@
         <v>2550.4699999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="16">
         <v>43395</v>
       </c>
@@ -22339,7 +22351,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="16">
         <v>43396</v>
       </c>
@@ -22350,7 +22362,7 @@
         <v>2594.83</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="16">
         <v>43397</v>
       </c>
@@ -22361,7 +22373,7 @@
         <v>2603.3000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="16">
         <v>43398</v>
       </c>
@@ -22372,7 +22384,7 @@
         <v>2603.8000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="16">
         <v>43399</v>
       </c>
@@ -22383,7 +22395,7 @@
         <v>2598.85</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="16">
         <v>43402</v>
       </c>
@@ -22394,7 +22406,7 @@
         <v>2542.1</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="16">
         <v>43403</v>
       </c>
@@ -22405,7 +22417,7 @@
         <v>2568.0500000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="16">
         <v>43404</v>
       </c>
@@ -22416,7 +22428,7 @@
         <v>2602.7800000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="16">
         <v>43405</v>
       </c>
@@ -22427,7 +22439,7 @@
         <v>2606.2399999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="16">
         <v>43406</v>
       </c>
@@ -22438,7 +22450,7 @@
         <v>2676.48</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="16">
         <v>43409</v>
       </c>
@@ -22449,7 +22461,7 @@
         <v>2665.43</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="16">
         <v>43410</v>
       </c>
@@ -22460,7 +22472,7 @@
         <v>2659.36</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="16">
         <v>43411</v>
       </c>
@@ -22471,7 +22483,7 @@
         <v>2641.34</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="16">
         <v>43412</v>
       </c>
@@ -22482,7 +22494,7 @@
         <v>2635.63</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="16">
         <v>43413</v>
       </c>
@@ -22493,7 +22505,7 @@
         <v>2598.87</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="16">
         <v>43416</v>
       </c>
@@ -22504,7 +22516,7 @@
         <v>2630.52</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="16">
         <v>43417</v>
       </c>
@@ -22515,7 +22527,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="16">
         <v>43418</v>
       </c>
@@ -22526,7 +22538,7 @@
         <v>2632.24</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="16">
         <v>43419</v>
       </c>
@@ -22537,7 +22549,7 @@
         <v>2668.17</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="16">
         <v>43420</v>
       </c>
@@ -22548,7 +22560,7 @@
         <v>2679.11</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="16">
         <v>43423</v>
       </c>
@@ -22559,7 +22571,7 @@
         <v>2703.51</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="16">
         <v>43424</v>
       </c>
@@ -22570,7 +22582,7 @@
         <v>2645.85</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="16">
         <v>43425</v>
       </c>
@@ -22581,7 +22593,7 @@
         <v>2651.51</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="16">
         <v>43426</v>
       </c>
@@ -22592,7 +22604,7 @@
         <v>2645.43</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="16">
         <v>43427</v>
       </c>
@@ -22603,7 +22615,7 @@
         <v>2579.48</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="16">
         <v>43430</v>
       </c>
@@ -22614,7 +22626,7 @@
         <v>2575.81</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="16">
         <v>43431</v>
       </c>
@@ -22625,7 +22637,7 @@
         <v>2574.6799999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="16">
         <v>43432</v>
       </c>
@@ -22636,7 +22648,7 @@
         <v>2601.7399999999998</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="16">
         <v>43433</v>
       </c>
@@ -22647,7 +22659,7 @@
         <v>2567.44</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="16">
         <v>43434</v>
       </c>
@@ -22658,7 +22670,7 @@
         <v>2588.19</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="16">
         <v>43437</v>
       </c>
@@ -22669,7 +22681,7 @@
         <v>2654.8</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="16">
         <v>43438</v>
       </c>
@@ -22680,7 +22692,7 @@
         <v>2665.96</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="16">
         <v>43439</v>
       </c>
@@ -22691,7 +22703,7 @@
         <v>2649.81</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="16">
         <v>43440</v>
       </c>
@@ -22702,7 +22714,7 @@
         <v>2605.1799999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="16">
         <v>43441</v>
       </c>
@@ -22713,7 +22725,7 @@
         <v>2605.89</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="16">
         <v>43444</v>
       </c>
@@ -22724,7 +22736,7 @@
         <v>2584.58</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="16">
         <v>43445</v>
       </c>
@@ -22735,7 +22747,7 @@
         <v>2594.09</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="16">
         <v>43446</v>
       </c>
@@ -22746,7 +22758,7 @@
         <v>2602.15</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="16">
         <v>43447</v>
       </c>
@@ -22757,7 +22769,7 @@
         <v>2634.05</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="16">
         <v>43448</v>
       </c>
@@ -22768,7 +22780,7 @@
         <v>2593.7399999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="16">
         <v>43451</v>
       </c>
@@ -22779,7 +22791,7 @@
         <v>2597.9699999999998</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="16">
         <v>43452</v>
       </c>
@@ -22790,7 +22802,7 @@
         <v>2576.65</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="16">
         <v>43453</v>
       </c>
@@ -22801,7 +22813,7 @@
         <v>2549.56</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="16">
         <v>43454</v>
       </c>
@@ -22812,7 +22824,7 @@
         <v>2536.27</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="16">
         <v>43455</v>
       </c>
@@ -22823,7 +22835,7 @@
         <v>2516.25</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="16">
         <v>43458</v>
       </c>
@@ -22834,7 +22846,7 @@
         <v>2527.0100000000002</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="16">
         <v>43459</v>
       </c>
@@ -22845,7 +22857,7 @@
         <v>2504.8200000000002</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="16">
         <v>43460</v>
       </c>
@@ -22856,7 +22868,7 @@
         <v>2498.29</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="16">
         <v>43461</v>
       </c>
@@ -22867,7 +22879,7 @@
         <v>2483.09</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="16">
         <v>43462</v>
       </c>
@@ -22878,7 +22890,7 @@
         <v>2493.9</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="16">
         <v>43467</v>
       </c>
@@ -22889,7 +22901,7 @@
         <v>2465.29</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="16">
         <v>43468</v>
       </c>
@@ -22900,7 +22912,7 @@
         <v>2464.36</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="16">
         <v>43469</v>
       </c>
@@ -22911,7 +22923,7 @@
         <v>2514.87</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="16">
         <v>43472</v>
       </c>
@@ -22922,7 +22934,7 @@
         <v>2533.09</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="16">
         <v>43473</v>
       </c>
@@ -22933,7 +22945,7 @@
         <v>2525.46</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="16">
         <v>43474</v>
       </c>
@@ -22944,7 +22956,7 @@
         <v>2544.34</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="16">
         <v>43475</v>
       </c>
@@ -22955,7 +22967,7 @@
         <v>2535.1</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="16">
         <v>43476</v>
       </c>
@@ -22966,7 +22978,7 @@
         <v>2553.83</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="16">
         <v>43479</v>
       </c>
@@ -22977,7 +22989,7 @@
         <v>2535.77</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="16">
         <v>43480</v>
       </c>
@@ -22988,7 +23000,7 @@
         <v>2570.34</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="16">
         <v>43481</v>
       </c>
@@ -22999,7 +23011,7 @@
         <v>2570.42</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="16">
         <v>43482</v>
       </c>
@@ -23010,7 +23022,7 @@
         <v>2559.64</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="16">
         <v>43483</v>
       </c>
@@ -23021,7 +23033,7 @@
         <v>2596.0100000000002</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="16">
         <v>43486</v>
       </c>
@@ -23032,7 +23044,7 @@
         <v>2610.5100000000002</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="16">
         <v>43487</v>
       </c>
@@ -23043,7 +23055,7 @@
         <v>2579.6999999999998</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="16">
         <v>43488</v>
       </c>
@@ -23054,7 +23066,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="16">
         <v>43489</v>
       </c>
@@ -23065,7 +23077,7 @@
         <v>2591.69</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="16">
         <v>43490</v>
       </c>
@@ -23076,7 +23088,7 @@
         <v>2601.7199999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="16">
         <v>43493</v>
       </c>
@@ -23087,7 +23099,7 @@
         <v>2596.98</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="16">
         <v>43494</v>
       </c>
@@ -23098,7 +23110,7 @@
         <v>2594.25</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="16">
         <v>43495</v>
       </c>
@@ -23109,7 +23121,7 @@
         <v>2575.58</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="16">
         <v>43496</v>
       </c>
@@ -23120,7 +23132,7 @@
         <v>2584.5700000000002</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="16">
         <v>43497</v>
       </c>
@@ -23131,7 +23143,7 @@
         <v>2618.23</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="16">
         <v>43507</v>
       </c>
@@ -23142,7 +23154,7 @@
         <v>2653.9</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="16">
         <v>43508</v>
       </c>
@@ -23153,7 +23165,7 @@
         <v>2671.89</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="16">
         <v>43509</v>
       </c>
@@ -23164,7 +23176,7 @@
         <v>2721.07</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="16">
         <v>43510</v>
       </c>
@@ -23175,7 +23187,7 @@
         <v>2719.7</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="16">
         <v>43511</v>
       </c>
@@ -23186,7 +23198,7 @@
         <v>2682.39</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="16">
         <v>43514</v>
       </c>
@@ -23197,7 +23209,7 @@
         <v>2754.36</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="16">
         <v>43515</v>
       </c>
@@ -23208,7 +23220,7 @@
         <v>2755.65</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="16">
         <v>43516</v>
       </c>
@@ -23219,7 +23231,7 @@
         <v>2761.22</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="16">
         <v>43517</v>
       </c>
@@ -23230,7 +23242,7 @@
         <v>2751.8</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="16">
         <v>43518</v>
       </c>
@@ -23241,7 +23253,7 @@
         <v>2804.23</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="16">
         <v>43521</v>
       </c>
@@ -23252,7 +23264,7 @@
         <v>2961.28</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="16">
         <v>43522</v>
       </c>
@@ -23263,7 +23275,7 @@
         <v>2941.52</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="16">
         <v>43523</v>
       </c>
@@ -23274,7 +23286,7 @@
         <v>2953.82</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="16">
         <v>43524</v>
       </c>
@@ -23285,7 +23297,7 @@
         <v>2940.95</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="16">
         <v>43525</v>
       </c>
@@ -23296,7 +23308,7 @@
         <v>2994.01</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="16">
         <v>43528</v>
       </c>
@@ -23307,7 +23319,7 @@
         <v>3027.58</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="16">
         <v>43529</v>
       </c>
@@ -23318,7 +23330,7 @@
         <v>3054.25</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="16">
         <v>43530</v>
       </c>
@@ -23329,7 +23341,7 @@
         <v>3102.1</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="16">
         <v>43531</v>
       </c>
@@ -23340,7 +23352,7 @@
         <v>3106.42</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="16">
         <v>43532</v>
       </c>
@@ -23351,7 +23363,7 @@
         <v>2969.86</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="16">
         <v>43535</v>
       </c>
@@ -23362,7 +23374,7 @@
         <v>3026.99</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="16">
         <v>43536</v>
       </c>
@@ -23373,7 +23385,7 @@
         <v>3060.31</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="16">
         <v>43537</v>
       </c>
@@ -23384,7 +23396,7 @@
         <v>3026.95</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="16">
         <v>43538</v>
       </c>
@@ -23395,7 +23407,7 @@
         <v>2990.69</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="16">
         <v>43539</v>
       </c>
@@ -23406,7 +23418,7 @@
         <v>3021.75</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="16">
         <v>43542</v>
       </c>
@@ -23417,7 +23429,7 @@
         <v>3096.42</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="16">
         <v>43543</v>
       </c>
@@ -23428,7 +23440,7 @@
         <v>3090.98</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="16">
         <v>43544</v>
       </c>
@@ -23439,7 +23451,7 @@
         <v>3090.64</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="16">
         <v>43545</v>
       </c>
@@ -23450,7 +23462,7 @@
         <v>3101.46</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="16">
         <v>43546</v>
       </c>
@@ -23461,7 +23473,7 @@
         <v>3104.15</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="16">
         <v>43549</v>
       </c>
@@ -23472,7 +23484,7 @@
         <v>3043.03</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="16">
         <v>43550</v>
       </c>
@@ -23483,7 +23495,7 @@
         <v>2997.1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="16">
         <v>43551</v>
       </c>
@@ -23494,7 +23506,7 @@
         <v>3022.72</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="16">
         <v>43552</v>
       </c>
@@ -23505,7 +23517,7 @@
         <v>2994.94</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="16">
         <v>43553</v>
       </c>
@@ -23516,7 +23528,7 @@
         <v>3090.76</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="16">
         <v>43556</v>
       </c>
@@ -23527,7 +23539,7 @@
         <v>3170.36</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="16">
         <v>43557</v>
       </c>
@@ -23538,7 +23550,7 @@
         <v>3176.82</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="16">
         <v>43558</v>
       </c>
@@ -23549,7 +23561,7 @@
         <v>3216.3</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="16">
         <v>43559</v>
       </c>
@@ -23560,7 +23572,7 @@
         <v>3246.57</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="16">
         <v>43563</v>
       </c>
@@ -23571,7 +23583,7 @@
         <v>3244.81</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="16">
         <v>43564</v>
       </c>
@@ -23582,7 +23594,7 @@
         <v>3239.66</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="16">
         <v>43565</v>
       </c>
@@ -23593,7 +23605,7 @@
         <v>3241.93</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="16">
         <v>43566</v>
       </c>
@@ -23604,7 +23616,7 @@
         <v>3189.96</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="16">
         <v>43567</v>
       </c>
@@ -23615,7 +23627,7 @@
         <v>3188.63</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="16">
         <v>43570</v>
       </c>
@@ -23626,7 +23638,7 @@
         <v>3177.79</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="16">
         <v>43571</v>
       </c>
@@ -23637,7 +23649,7 @@
         <v>3253.6</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="16">
         <v>43572</v>
       </c>
@@ -23648,7 +23660,7 @@
         <v>3263.12</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="16">
         <v>43573</v>
       </c>
@@ -23659,7 +23671,7 @@
         <v>3250.2</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="16">
         <v>43574</v>
       </c>
@@ -23670,7 +23682,7 @@
         <v>3270.8</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="16">
         <v>43577</v>
       </c>
@@ -23681,7 +23693,7 @@
         <v>3215.04</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="16">
         <v>43578</v>
       </c>
@@ -23692,7 +23704,7 @@
         <v>3198.59</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="16">
         <v>43579</v>
       </c>
@@ -23703,7 +23715,7 @@
         <v>3201.61</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="16">
         <v>43580</v>
       </c>
@@ -23714,7 +23726,7 @@
         <v>3123.83</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="16">
         <v>43581</v>
       </c>
@@ -23725,7 +23737,7 @@
         <v>3086.4</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="16">
         <v>43584</v>
       </c>
@@ -23736,7 +23748,7 @@
         <v>3062.5</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="16">
         <v>43585</v>
       </c>
@@ -23747,7 +23759,7 @@
         <v>3078.34</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="16">
         <v>43591</v>
       </c>
@@ -23758,7 +23770,7 @@
         <v>2906.46</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="16">
         <v>43592</v>
       </c>
@@ -23769,7 +23781,7 @@
         <v>2926.39</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="16">
         <v>43593</v>
       </c>
@@ -23780,7 +23792,7 @@
         <v>2893.76</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="16">
         <v>43594</v>
       </c>
@@ -23791,7 +23803,7 @@
         <v>2850.95</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="16">
         <v>43595</v>
       </c>
@@ -23802,12 +23814,38 @@
         <v>2939.21</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="16">
         <v>43598</v>
       </c>
+      <c r="B817" s="15">
+        <v>59.66</v>
+      </c>
       <c r="C817">
         <v>2903.71</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A818" s="16">
+        <v>43599</v>
+      </c>
+      <c r="C818">
+        <v>2883.61</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A819" s="16">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A820" s="16">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A821" s="16">
+        <v>43602</v>
       </c>
     </row>
   </sheetData>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E2A954-9E60-42E1-8649-53B800ECE5B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298C262-F76D-42B9-9853-4B01FEF823B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21657190501204115</c:v>
+                  <c:v>0.20820892383129141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$817</c:f>
+              <c:f>Sheet1!$A$2:$A$818</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="816"/>
+                <c:ptCount val="817"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3845,16 +3845,19 @@
                 </c:pt>
                 <c:pt idx="815">
                   <c:v>43598</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>43599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$817</c:f>
+              <c:f>Sheet1!$B$2:$B$818</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="816"/>
+                <c:ptCount val="817"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6302,6 +6305,9 @@
                 </c:pt>
                 <c:pt idx="815">
                   <c:v>59.66</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>59.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6357,10 +6363,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$817</c:f>
+              <c:f>Sheet1!$A$2:$A$818</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="816"/>
+                <c:ptCount val="817"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8808,16 +8814,19 @@
                 </c:pt>
                 <c:pt idx="815">
                   <c:v>43598</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>43599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$817</c:f>
+              <c:f>Sheet1!$C$2:$C$818</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="816"/>
+                <c:ptCount val="817"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11265,6 +11274,9 @@
                 </c:pt>
                 <c:pt idx="815">
                   <c:v>2903.71</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>2883.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14097,26 +14109,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -14129,7 +14141,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2010</v>
@@ -14156,7 +14168,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -14185,7 +14197,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -14214,7 +14226,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -14243,7 +14255,7 @@
         <v>0.17810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -14272,7 +14284,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -14301,10 +14313,10 @@
         <v>-0.1615</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-13</v>
+        <v>说明:2017年统计范围为年初至2019-5-14</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14315,14 +14327,14 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14332,10 +14344,10 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>21.657190501204116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>20.820892383129141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O10" s="13">
         <v>2010</v>
       </c>
@@ -14346,7 +14358,7 @@
         <v>-6.88E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O11" s="13">
         <v>2011</v>
       </c>
@@ -14357,7 +14369,7 @@
         <v>-0.22420000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O12" s="13">
         <v>2012</v>
       </c>
@@ -14368,7 +14380,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O13" s="13">
         <v>2013</v>
       </c>
@@ -14379,7 +14391,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O14" s="13">
         <v>2014</v>
       </c>
@@ -14390,7 +14402,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O15" s="13">
         <v>2015</v>
       </c>
@@ -14401,7 +14413,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O16" s="13">
         <v>2016</v>
       </c>
@@ -14412,7 +14424,7 @@
         <v>-0.12909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O17" s="13">
         <v>2017</v>
       </c>
@@ -14423,7 +14435,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O18" s="13">
         <v>2018</v>
       </c>
@@ -14434,7 +14446,7 @@
         <v>-0.28253486362704305</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O19" s="13">
         <v>2019</v>
       </c>
@@ -14444,10 +14456,10 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.21657190501204115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+        <v>0.20820892383129141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
@@ -14462,7 +14474,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>2010</v>
@@ -14495,7 +14507,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -14530,7 +14542,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -14565,7 +14577,7 @@
         <v>0.54120000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>2</v>
       </c>
@@ -14600,7 +14612,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -14635,7 +14647,7 @@
         <v>0.27760000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -14670,10 +14682,10 @@
         <v>-1.46E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-13</v>
+        <v>说明:2019年统计范围为年初至2019-5-14</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14686,7 +14698,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -14699,7 +14711,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -14712,7 +14724,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -14725,7 +14737,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -14738,7 +14750,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -14751,7 +14763,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -14764,7 +14776,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -14777,7 +14789,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -14790,7 +14802,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -14823,18 +14835,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A795" workbookViewId="0">
-      <selection activeCell="C819" sqref="C819"/>
+    <sheetView tabSelected="1" topLeftCell="A786" workbookViewId="0">
+      <selection activeCell="B819" sqref="B819"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -14845,7 +14857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>42373</v>
       </c>
@@ -14856,7 +14868,7 @@
         <v>3296.2579999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>42374</v>
       </c>
@@ -14867,7 +14879,7 @@
         <v>3287.7109999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>42375</v>
       </c>
@@ -14878,7 +14890,7 @@
         <v>3361.84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>42376</v>
       </c>
@@ -14889,7 +14901,7 @@
         <v>3125.002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>42377</v>
       </c>
@@ -14900,7 +14912,7 @@
         <v>3186.4119999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>42380</v>
       </c>
@@ -14911,7 +14923,7 @@
         <v>3016.7040000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>42381</v>
       </c>
@@ -14922,7 +14934,7 @@
         <v>3022.8609999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>42382</v>
       </c>
@@ -14937,7 +14949,7 @@
         <v>服务器返回出错！</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>42383</v>
       </c>
@@ -14948,7 +14960,7 @@
         <v>3007.6489999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>42384</v>
       </c>
@@ -14959,7 +14971,7 @@
         <v>2900.9697999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>42387</v>
       </c>
@@ -14970,7 +14982,7 @@
         <v>2913.8366999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>42388</v>
       </c>
@@ -14981,7 +14993,7 @@
         <v>3007.7393000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>42389</v>
       </c>
@@ -14992,7 +15004,7 @@
         <v>2976.694</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>42390</v>
       </c>
@@ -15003,7 +15015,7 @@
         <v>2880.482</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>42391</v>
       </c>
@@ -15014,7 +15026,7 @@
         <v>2916.5619999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>42394</v>
       </c>
@@ -15025,7 +15037,7 @@
         <v>2938.5149999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>42395</v>
       </c>
@@ -15036,7 +15048,7 @@
         <v>2749.7849999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>42396</v>
       </c>
@@ -15047,7 +15059,7 @@
         <v>2735.558</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>42397</v>
       </c>
@@ -15058,7 +15070,7 @@
         <v>2655.6610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>42398</v>
       </c>
@@ -15069,7 +15081,7 @@
         <v>2737.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>42401</v>
       </c>
@@ -15080,7 +15092,7 @@
         <v>2688.8539999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>42402</v>
       </c>
@@ -15091,7 +15103,7 @@
         <v>2749.57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>42403</v>
       </c>
@@ -15102,7 +15114,7 @@
         <v>2739.2469999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>42404</v>
       </c>
@@ -15113,7 +15125,7 @@
         <v>2781.0230000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>42405</v>
       </c>
@@ -15124,7 +15136,7 @@
         <v>2763.4920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>42415</v>
       </c>
@@ -15135,7 +15147,7 @@
         <v>2746.1959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>42416</v>
       </c>
@@ -15146,7 +15158,7 @@
         <v>2836.5709999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>42417</v>
       </c>
@@ -15157,7 +15169,7 @@
         <v>2867.3380000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>42418</v>
       </c>
@@ -15168,7 +15180,7 @@
         <v>2862.893</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>42419</v>
       </c>
@@ -15179,7 +15191,7 @@
         <v>2860.0210000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>42422</v>
       </c>
@@ -15190,7 +15202,7 @@
         <v>2927.1750000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>42423</v>
       </c>
@@ -15201,7 +15213,7 @@
         <v>2903.3310000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>42424</v>
       </c>
@@ -15212,7 +15224,7 @@
         <v>2928.8960000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>42425</v>
       </c>
@@ -15223,7 +15235,7 @@
         <v>2741.2449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>42426</v>
       </c>
@@ -15234,7 +15246,7 @@
         <v>2767.21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>42429</v>
       </c>
@@ -15245,7 +15257,7 @@
         <v>2687.9789999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>42430</v>
       </c>
@@ -15256,7 +15268,7 @@
         <v>2733.17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>42431</v>
       </c>
@@ -15267,7 +15279,7 @@
         <v>2849.681</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>42432</v>
       </c>
@@ -15278,7 +15290,7 @@
         <v>2859.7579999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>42433</v>
       </c>
@@ -15289,7 +15301,7 @@
         <v>2874.1469999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>42436</v>
       </c>
@@ -15300,7 +15312,7 @@
         <v>2897.34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>42437</v>
       </c>
@@ -15311,7 +15323,7 @@
         <v>2901.3870000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>42438</v>
       </c>
@@ -15322,7 +15334,7 @@
         <v>2862.556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>42439</v>
       </c>
@@ -15333,7 +15345,7 @@
         <v>2804.7260000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>42440</v>
       </c>
@@ -15344,7 +15356,7 @@
         <v>2810.3069999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>42443</v>
       </c>
@@ -15355,7 +15367,7 @@
         <v>2859.4989999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>42444</v>
       </c>
@@ -15366,7 +15378,7 @@
         <v>2864.3679999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>42445</v>
       </c>
@@ -15377,7 +15389,7 @@
         <v>2870.43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>42446</v>
       </c>
@@ -15388,7 +15400,7 @@
         <v>2904.8319999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>42447</v>
       </c>
@@ -15399,7 +15411,7 @@
         <v>2955.15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>42450</v>
       </c>
@@ -15410,7 +15422,7 @@
         <v>3018.8020000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>42451</v>
       </c>
@@ -15421,7 +15433,7 @@
         <v>2999.3629999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>42452</v>
       </c>
@@ -15432,7 +15444,7 @@
         <v>3009.96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>42453</v>
       </c>
@@ -15443,7 +15455,7 @@
         <v>2960.97</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>42454</v>
       </c>
@@ -15454,7 +15466,7 @@
         <v>2979.4340000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>42457</v>
       </c>
@@ -15465,7 +15477,7 @@
         <v>2957.82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>42458</v>
       </c>
@@ -15476,7 +15488,7 @@
         <v>2919.8319999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>42459</v>
       </c>
@@ -15487,7 +15499,7 @@
         <v>3000.645</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>42460</v>
       </c>
@@ -15498,7 +15510,7 @@
         <v>3003.915</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>42461</v>
       </c>
@@ -15509,7 +15521,7 @@
         <v>3009.53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>42465</v>
       </c>
@@ -15520,7 +15532,7 @@
         <v>3053.0650000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>42466</v>
       </c>
@@ -15531,7 +15543,7 @@
         <v>3050.5920000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>42467</v>
       </c>
@@ -15542,7 +15554,7 @@
         <v>3008.42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>42468</v>
       </c>
@@ -15553,7 +15565,7 @@
         <v>2984.9580000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>42471</v>
       </c>
@@ -15564,7 +15576,7 @@
         <v>3033.9569999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>42472</v>
       </c>
@@ -15575,7 +15587,7 @@
         <v>3023.6460000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>42473</v>
       </c>
@@ -15586,7 +15598,7 @@
         <v>3066.6379999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>42474</v>
       </c>
@@ -15597,7 +15609,7 @@
         <v>3082.3620000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>42475</v>
       </c>
@@ -15608,7 +15620,7 @@
         <v>3078.1170000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>42478</v>
       </c>
@@ -15619,7 +15631,7 @@
         <v>3033.66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>42479</v>
       </c>
@@ -15630,7 +15642,7 @@
         <v>3042.8229999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>42480</v>
       </c>
@@ -15641,7 +15653,7 @@
         <v>2972.5839999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>42481</v>
       </c>
@@ -15652,7 +15664,7 @@
         <v>2952.8910000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>42482</v>
       </c>
@@ -15663,7 +15675,7 @@
         <v>2959.24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>42485</v>
       </c>
@@ -15674,7 +15686,7 @@
         <v>2946.67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>42486</v>
       </c>
@@ -15685,7 +15697,7 @@
         <v>2964.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>42487</v>
       </c>
@@ -15696,7 +15708,7 @@
         <v>2953.6709999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>42488</v>
       </c>
@@ -15707,7 +15719,7 @@
         <v>2945.5889999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>42489</v>
       </c>
@@ -15718,7 +15730,7 @@
         <v>2938.3240000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>42493</v>
       </c>
@@ -15729,7 +15741,7 @@
         <v>2992.643</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>42494</v>
       </c>
@@ -15740,7 +15752,7 @@
         <v>2991.2719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>42495</v>
       </c>
@@ -15751,7 +15763,7 @@
         <v>2997.8420000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>42496</v>
       </c>
@@ -15762,7 +15774,7 @@
         <v>2913.248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>42499</v>
       </c>
@@ -15773,7 +15785,7 @@
         <v>2832.1129999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>42500</v>
       </c>
@@ -15784,7 +15796,7 @@
         <v>2832.5909999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>42501</v>
       </c>
@@ -15795,7 +15807,7 @@
         <v>2837.0369999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>42502</v>
       </c>
@@ -15806,7 +15818,7 @@
         <v>2835.8620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>42503</v>
       </c>
@@ -15817,7 +15829,7 @@
         <v>2827.1089999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>42506</v>
       </c>
@@ -15828,7 +15840,7 @@
         <v>2850.8620000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>42507</v>
       </c>
@@ -15839,7 +15851,7 @@
         <v>2843.6840000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>42508</v>
       </c>
@@ -15850,7 +15862,7 @@
         <v>2807.5140000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>42509</v>
       </c>
@@ -15861,7 +15873,7 @@
         <v>2806.9059999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>42510</v>
       </c>
@@ -15872,7 +15884,7 @@
         <v>2825.4830000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
         <v>42513</v>
       </c>
@@ -15883,7 +15895,7 @@
         <v>2843.645</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
         <v>42514</v>
       </c>
@@ -15894,7 +15906,7 @@
         <v>2821.6660000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
         <v>42515</v>
       </c>
@@ -15905,7 +15917,7 @@
         <v>2815.0862999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
         <v>42516</v>
       </c>
@@ -15916,7 +15928,7 @@
         <v>2822.4430000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
         <v>42517</v>
       </c>
@@ -15927,7 +15939,7 @@
         <v>2821.0459999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
         <v>42520</v>
       </c>
@@ -15938,7 +15950,7 @@
         <v>2822.451</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
         <v>42521</v>
       </c>
@@ -15949,7 +15961,7 @@
         <v>2916.616</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
         <v>42522</v>
       </c>
@@ -15960,7 +15972,7 @@
         <v>2913.5079999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
         <v>42523</v>
       </c>
@@ -15971,7 +15983,7 @@
         <v>2925.2289999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
         <v>42524</v>
       </c>
@@ -15982,7 +15994,7 @@
         <v>2938.6819999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
         <v>42527</v>
       </c>
@@ -15993,7 +16005,7 @@
         <v>2934.098</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
         <v>42528</v>
       </c>
@@ -16004,7 +16016,7 @@
         <v>2936.0450000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
         <v>42529</v>
       </c>
@@ -16015,7 +16027,7 @@
         <v>2927.1590000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
         <v>42534</v>
       </c>
@@ -16026,7 +16038,7 @@
         <v>2833.0709999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>42535</v>
       </c>
@@ -16037,7 +16049,7 @@
         <v>2842.1889999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
         <v>42536</v>
       </c>
@@ -16048,7 +16060,7 @@
         <v>2887.21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
         <v>42537</v>
       </c>
@@ -16059,7 +16071,7 @@
         <v>2872.817</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
         <v>42538</v>
       </c>
@@ -16070,7 +16082,7 @@
         <v>2885.105</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
         <v>42541</v>
       </c>
@@ -16081,7 +16093,7 @@
         <v>2888.8090000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
         <v>42542</v>
       </c>
@@ -16092,7 +16104,7 @@
         <v>2878.558</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
         <v>42543</v>
       </c>
@@ -16103,7 +16115,7 @@
         <v>2905.55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
         <v>42544</v>
       </c>
@@ -16114,7 +16126,7 @@
         <v>2891.96</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
         <v>42545</v>
       </c>
@@ -16125,7 +16137,7 @@
         <v>2854.2860000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="16">
         <v>42548</v>
       </c>
@@ -16136,7 +16148,7 @@
         <v>2895.703</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="16">
         <v>42549</v>
       </c>
@@ -16147,7 +16159,7 @@
         <v>2912.5569999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="16">
         <v>42550</v>
       </c>
@@ -16158,7 +16170,7 @@
         <v>2931.5920000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="16">
         <v>42551</v>
       </c>
@@ -16169,7 +16181,7 @@
         <v>2929.6060000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="16">
         <v>42552</v>
       </c>
@@ -16180,7 +16192,7 @@
         <v>2932.4760000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="16">
         <v>42555</v>
       </c>
@@ -16191,7 +16203,7 @@
         <v>2988.6039999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="16">
         <v>42556</v>
       </c>
@@ -16202,7 +16214,7 @@
         <v>3006.3919999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="16">
         <v>42557</v>
       </c>
@@ -16213,7 +16225,7 @@
         <v>3017.2919999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
         <v>42558</v>
       </c>
@@ -16224,7 +16236,7 @@
         <v>3016.8470000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
         <v>42559</v>
       </c>
@@ -16235,7 +16247,7 @@
         <v>2988.0940000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
         <v>42562</v>
       </c>
@@ -16246,7 +16258,7 @@
         <v>2994.9169999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="16">
         <v>42563</v>
       </c>
@@ -16257,7 +16269,7 @@
         <v>3049.3809999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="16">
         <v>42564</v>
       </c>
@@ -16268,7 +16280,7 @@
         <v>3060.6889999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="16">
         <v>42565</v>
       </c>
@@ -16279,7 +16291,7 @@
         <v>3054.018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="16">
         <v>42566</v>
       </c>
@@ -16290,7 +16302,7 @@
         <v>3054.2959999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="16">
         <v>42569</v>
       </c>
@@ -16301,7 +16313,7 @@
         <v>3043.5639999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="16">
         <v>42570</v>
       </c>
@@ -16312,7 +16324,7 @@
         <v>3036.598</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="16">
         <v>42571</v>
       </c>
@@ -16323,7 +16335,7 @@
         <v>3027.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="16">
         <v>42572</v>
       </c>
@@ -16334,7 +16346,7 @@
         <v>3039.009</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="16">
         <v>42573</v>
       </c>
@@ -16345,7 +16357,7 @@
         <v>3012.8159999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="16">
         <v>42576</v>
       </c>
@@ -16356,7 +16368,7 @@
         <v>3015.828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
         <v>42577</v>
       </c>
@@ -16367,7 +16379,7 @@
         <v>3050.1660000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
         <v>42578</v>
       </c>
@@ -16378,7 +16390,7 @@
         <v>2991.9989999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
         <v>42579</v>
       </c>
@@ -16389,7 +16401,7 @@
         <v>2994.3229999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
         <v>42580</v>
       </c>
@@ -16400,7 +16412,7 @@
         <v>2979.3389999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
         <v>42583</v>
       </c>
@@ -16411,7 +16423,7 @@
         <v>2953.3850000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="16">
         <v>42584</v>
       </c>
@@ -16422,7 +16434,7 @@
         <v>2971.279</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="16">
         <v>42585</v>
       </c>
@@ -16433,7 +16445,7 @@
         <v>2978.4609999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="16">
         <v>42586</v>
       </c>
@@ -16444,7 +16456,7 @@
         <v>2982.4259999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="16">
         <v>42587</v>
       </c>
@@ -16455,7 +16467,7 @@
         <v>2976.6959999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="16">
         <v>42590</v>
       </c>
@@ -16466,7 +16478,7 @@
         <v>3004.277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="16">
         <v>42591</v>
       </c>
@@ -16477,7 +16489,7 @@
         <v>3025.681</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="16">
         <v>42592</v>
       </c>
@@ -16488,7 +16500,7 @@
         <v>3018.7460000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="16">
         <v>42593</v>
       </c>
@@ -16499,7 +16511,7 @@
         <v>3002.6379999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="16">
         <v>42594</v>
       </c>
@@ -16510,7 +16522,7 @@
         <v>3050.6669999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
         <v>42597</v>
       </c>
@@ -16521,7 +16533,7 @@
         <v>3125.1950000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="16">
         <v>42598</v>
       </c>
@@ -16532,7 +16544,7 @@
         <v>3110.0369999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
         <v>42599</v>
       </c>
@@ -16543,7 +16555,7 @@
         <v>3109.5549999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
         <v>42600</v>
       </c>
@@ -16554,7 +16566,7 @@
         <v>3104.114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
         <v>42601</v>
       </c>
@@ -16565,7 +16577,7 @@
         <v>3108.1019999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
         <v>42604</v>
       </c>
@@ -16576,7 +16588,7 @@
         <v>3084.8049999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
         <v>42605</v>
       </c>
@@ -16587,7 +16599,7 @@
         <v>3089.7060000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
         <v>42606</v>
       </c>
@@ -16598,7 +16610,7 @@
         <v>3085.88</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
         <v>42607</v>
       </c>
@@ -16609,7 +16621,7 @@
         <v>3068.3290000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
         <v>42608</v>
       </c>
@@ -16620,7 +16632,7 @@
         <v>3070.3090000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
         <v>42611</v>
       </c>
@@ -16631,7 +16643,7 @@
         <v>3070.027</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
         <v>42612</v>
       </c>
@@ -16642,7 +16654,7 @@
         <v>3074.6770000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
         <v>42613</v>
       </c>
@@ -16653,7 +16665,7 @@
         <v>3085.491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="16">
         <v>42614</v>
       </c>
@@ -16664,7 +16676,7 @@
         <v>3063.3049999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="16">
         <v>42615</v>
       </c>
@@ -16675,7 +16687,7 @@
         <v>3067.3519999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="16">
         <v>42618</v>
       </c>
@@ -16686,7 +16698,7 @@
         <v>3072.0949999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="16">
         <v>42619</v>
       </c>
@@ -16697,7 +16709,7 @@
         <v>3090.7130000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="16">
         <v>42620</v>
       </c>
@@ -16708,7 +16720,7 @@
         <v>3091.9279999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
         <v>42621</v>
       </c>
@@ -16719,7 +16731,7 @@
         <v>3095.9540000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
         <v>42622</v>
       </c>
@@ -16730,7 +16742,7 @@
         <v>3078.855</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
         <v>42625</v>
       </c>
@@ -16741,7 +16753,7 @@
         <v>3021.9769999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
         <v>42626</v>
       </c>
@@ -16752,7 +16764,7 @@
         <v>3023.51</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
         <v>42627</v>
       </c>
@@ -16763,7 +16775,7 @@
         <v>3002.8490000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
         <v>42632</v>
       </c>
@@ -16774,7 +16786,7 @@
         <v>3026.0509999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
         <v>42633</v>
       </c>
@@ -16785,7 +16797,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
         <v>42634</v>
       </c>
@@ -16796,7 +16808,7 @@
         <v>3025.8739999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
         <v>42635</v>
       </c>
@@ -16807,7 +16819,7 @@
         <v>3042.3130000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
         <v>42636</v>
       </c>
@@ -16818,7 +16830,7 @@
         <v>3033.8960000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
         <v>42639</v>
       </c>
@@ -16829,7 +16841,7 @@
         <v>2980.43</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="16">
         <v>42640</v>
       </c>
@@ -16840,7 +16852,7 @@
         <v>2998.172</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="16">
         <v>42641</v>
       </c>
@@ -16851,7 +16863,7 @@
         <v>2987.8580000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="16">
         <v>42642</v>
       </c>
@@ -16862,7 +16874,7 @@
         <v>2998.4830000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
         <v>42643</v>
       </c>
@@ -16873,7 +16885,7 @@
         <v>3004.703</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
         <v>42653</v>
       </c>
@@ -16884,7 +16896,7 @@
         <v>3048.143</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
         <v>42654</v>
       </c>
@@ -16895,7 +16907,7 @@
         <v>3065.25</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
         <v>42655</v>
       </c>
@@ -16906,7 +16918,7 @@
         <v>3058.498</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
         <v>42656</v>
       </c>
@@ -16917,7 +16929,7 @@
         <v>3061.346</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
         <v>42657</v>
       </c>
@@ -16928,7 +16940,7 @@
         <v>3063.8090000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
         <v>42660</v>
       </c>
@@ -16939,7 +16951,7 @@
         <v>3041.1660000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
         <v>42661</v>
       </c>
@@ -16950,7 +16962,7 @@
         <v>3083.875</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
         <v>42662</v>
       </c>
@@ -16961,7 +16973,7 @@
         <v>3084.7190000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
         <v>42663</v>
       </c>
@@ -16972,7 +16984,7 @@
         <v>3084.4580000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
         <v>42664</v>
       </c>
@@ -16983,7 +16995,7 @@
         <v>3090.9409999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
         <v>42667</v>
       </c>
@@ -16994,7 +17006,7 @@
         <v>3128.2469999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
         <v>42668</v>
       </c>
@@ -17005,7 +17017,7 @@
         <v>3131.9389999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
         <v>42669</v>
       </c>
@@ -17016,7 +17028,7 @@
         <v>3116.3119999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="16">
         <v>42670</v>
       </c>
@@ -17027,7 +17039,7 @@
         <v>3112.35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="16">
         <v>42671</v>
       </c>
@@ -17038,7 +17050,7 @@
         <v>3104.27</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
         <v>42674</v>
       </c>
@@ -17049,7 +17061,7 @@
         <v>3100.4920000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
         <v>42675</v>
       </c>
@@ -17060,7 +17072,7 @@
         <v>3122.4360000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
         <v>42676</v>
       </c>
@@ -17071,7 +17083,7 @@
         <v>3102.7330000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
         <v>42677</v>
       </c>
@@ -17082,7 +17094,7 @@
         <v>3128.9360000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
         <v>42678</v>
       </c>
@@ -17093,7 +17105,7 @@
         <v>3125.317</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
         <v>42681</v>
       </c>
@@ -17104,7 +17116,7 @@
         <v>3133.3330000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
         <v>42682</v>
       </c>
@@ -17115,7 +17127,7 @@
         <v>3147.8879999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
         <v>42683</v>
       </c>
@@ -17126,7 +17138,7 @@
         <v>3128.37</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
         <v>42684</v>
       </c>
@@ -17137,7 +17149,7 @@
         <v>3171.2820000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
         <v>42685</v>
       </c>
@@ -17148,7 +17160,7 @@
         <v>3196.0439999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
         <v>42688</v>
       </c>
@@ -17159,7 +17171,7 @@
         <v>3210.3710000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
         <v>42689</v>
       </c>
@@ -17170,7 +17182,7 @@
         <v>3206.9859999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="16">
         <v>42690</v>
       </c>
@@ -17181,7 +17193,7 @@
         <v>3205.0569999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="16">
         <v>42691</v>
       </c>
@@ -17192,7 +17204,7 @@
         <v>3208.453</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="16">
         <v>42692</v>
       </c>
@@ -17203,7 +17215,7 @@
         <v>3192.8560000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="16">
         <v>42695</v>
       </c>
@@ -17214,7 +17226,7 @@
         <v>3218.1480000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="16">
         <v>42696</v>
       </c>
@@ -17225,7 +17237,7 @@
         <v>3248.3519999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="16">
         <v>42697</v>
       </c>
@@ -17236,7 +17248,7 @@
         <v>3241.1370000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="16">
         <v>42698</v>
       </c>
@@ -17247,7 +17259,7 @@
         <v>3241.7359999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="16">
         <v>42699</v>
       </c>
@@ -17258,7 +17270,7 @@
         <v>3261.9380000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="16">
         <v>42702</v>
       </c>
@@ -17269,7 +17281,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="16">
         <v>42703</v>
       </c>
@@ -17280,7 +17292,7 @@
         <v>3282.924</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="16">
         <v>42704</v>
       </c>
@@ -17291,7 +17303,7 @@
         <v>3250.0340000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="16">
         <v>42705</v>
       </c>
@@ -17302,7 +17314,7 @@
         <v>3273.3090000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="16">
         <v>42706</v>
       </c>
@@ -17313,7 +17325,7 @@
         <v>3243.8429999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="16">
         <v>42709</v>
       </c>
@@ -17324,7 +17336,7 @@
         <v>3204.7089999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="16">
         <v>42710</v>
       </c>
@@ -17335,7 +17347,7 @@
         <v>3199.6469999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="16">
         <v>42711</v>
       </c>
@@ -17346,7 +17358,7 @@
         <v>3222.2420000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="16">
         <v>42712</v>
       </c>
@@ -17357,7 +17369,7 @@
         <v>3215.366</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="16">
         <v>42713</v>
       </c>
@@ -17368,7 +17380,7 @@
         <v>3232.8829999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="16">
         <v>42716</v>
       </c>
@@ -17379,7 +17391,7 @@
         <v>3152.97</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="16">
         <v>42717</v>
       </c>
@@ -17390,7 +17402,7 @@
         <v>3155.0369999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="16">
         <v>42718</v>
       </c>
@@ -17401,7 +17413,7 @@
         <v>3140.5309999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="16">
         <v>42719</v>
       </c>
@@ -17412,7 +17424,7 @@
         <v>3117.6770000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="16">
         <v>42720</v>
       </c>
@@ -17423,7 +17435,7 @@
         <v>3122.982</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="16">
         <v>42723</v>
       </c>
@@ -17434,7 +17446,7 @@
         <v>3118.0846000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="16">
         <v>42724</v>
       </c>
@@ -17445,7 +17457,7 @@
         <v>3102.8759</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="16">
         <v>42725</v>
       </c>
@@ -17456,7 +17468,7 @@
         <v>3137.4297000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="16">
         <v>42726</v>
       </c>
@@ -17467,7 +17479,7 @@
         <v>3139.558</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="16">
         <v>42727</v>
       </c>
@@ -17478,7 +17490,7 @@
         <v>3110.1543999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="16">
         <v>42730</v>
       </c>
@@ -17489,7 +17501,7 @@
         <v>3122.569</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="16">
         <v>42731</v>
       </c>
@@ -17500,7 +17512,7 @@
         <v>3114.6640000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="16">
         <v>42732</v>
       </c>
@@ -17511,7 +17523,7 @@
         <v>3102.2357000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="16">
         <v>42733</v>
       </c>
@@ -17522,7 +17534,7 @@
         <v>3096.0967999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="16">
         <v>42734</v>
       </c>
@@ -17533,7 +17545,7 @@
         <v>3103.6372999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="16">
         <v>42738</v>
       </c>
@@ -17544,7 +17556,7 @@
         <v>3135.9207999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="16">
         <v>42739</v>
       </c>
@@ -17555,7 +17567,7 @@
         <v>3158.7939999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="16">
         <v>42740</v>
       </c>
@@ -17566,7 +17578,7 @@
         <v>3165.4108999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="16">
         <v>42741</v>
       </c>
@@ -17577,7 +17589,7 @@
         <v>3154.3209999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="16">
         <v>42744</v>
       </c>
@@ -17588,7 +17600,7 @@
         <v>3171.2361999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="16">
         <v>42745</v>
       </c>
@@ -17599,7 +17611,7 @@
         <v>3161.6713</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="16">
         <v>42746</v>
       </c>
@@ -17610,7 +17622,7 @@
         <v>3136.7534999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="16">
         <v>42747</v>
       </c>
@@ -17621,7 +17633,7 @@
         <v>3119.2885999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="16">
         <v>42748</v>
       </c>
@@ -17632,7 +17644,7 @@
         <v>3112.7644</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="16">
         <v>42751</v>
       </c>
@@ -17643,7 +17655,7 @@
         <v>3103.4279999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="16">
         <v>42752</v>
       </c>
@@ -17654,7 +17666,7 @@
         <v>3108.7746000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="16">
         <v>42753</v>
       </c>
@@ -17665,7 +17677,7 @@
         <v>3113.0122999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="16">
         <v>42754</v>
       </c>
@@ -17676,7 +17688,7 @@
         <v>3101.2991999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="16">
         <v>42755</v>
       </c>
@@ -17687,7 +17699,7 @@
         <v>3123.1388999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="16">
         <v>42758</v>
       </c>
@@ -17698,7 +17710,7 @@
         <v>3136.7748000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="16">
         <v>42759</v>
       </c>
@@ -17709,7 +17721,7 @@
         <v>3142.5533</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="16">
         <v>42760</v>
       </c>
@@ -17720,7 +17732,7 @@
         <v>3149.5547000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="16">
         <v>42761</v>
       </c>
@@ -17731,7 +17743,7 @@
         <v>3159.1660000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="16">
         <v>42769</v>
       </c>
@@ -17742,7 +17754,7 @@
         <v>3140.17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="16">
         <v>42772</v>
       </c>
@@ -17753,7 +17765,7 @@
         <v>3156.9838</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="16">
         <v>42773</v>
       </c>
@@ -17764,7 +17776,7 @@
         <v>3153.0877999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="16">
         <v>42774</v>
       </c>
@@ -17775,7 +17787,7 @@
         <v>3166.9818</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="16">
         <v>42775</v>
       </c>
@@ -17786,7 +17798,7 @@
         <v>3183.1794</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="16">
         <v>42776</v>
       </c>
@@ -17797,7 +17809,7 @@
         <v>3196.6990000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="16">
         <v>42779</v>
       </c>
@@ -17808,7 +17820,7 @@
         <v>3216.8393999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="16">
         <v>42780</v>
       </c>
@@ -17819,7 +17831,7 @@
         <v>3217.9279999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="16">
         <v>42781</v>
       </c>
@@ -17830,7 +17842,7 @@
         <v>3212.9857000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="16">
         <v>42782</v>
       </c>
@@ -17841,7 +17853,7 @@
         <v>3229.6183999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="16">
         <v>42783</v>
       </c>
@@ -17852,7 +17864,7 @@
         <v>3202.0756000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="16">
         <v>42786</v>
       </c>
@@ -17863,7 +17875,7 @@
         <v>3239.9612999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="16">
         <v>42787</v>
       </c>
@@ -17874,7 +17886,7 @@
         <v>3253.3256999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="16">
         <v>42788</v>
       </c>
@@ -17885,7 +17897,7 @@
         <v>3261.2184000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="16">
         <v>42789</v>
       </c>
@@ -17896,7 +17908,7 @@
         <v>3251.375</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="16">
         <v>42790</v>
       </c>
@@ -17907,7 +17919,7 @@
         <v>3253.4326999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="16">
         <v>42793</v>
       </c>
@@ -17918,7 +17930,7 @@
         <v>3228.6601999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="16">
         <v>42794</v>
       </c>
@@ -17929,7 +17941,7 @@
         <v>3241.7330999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="16">
         <v>42795</v>
       </c>
@@ -17940,7 +17952,7 @@
         <v>3246.9335000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="16">
         <v>42796</v>
       </c>
@@ -17951,7 +17963,7 @@
         <v>3230.0281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="16">
         <v>42797</v>
       </c>
@@ -17962,7 +17974,7 @@
         <v>3218.3117999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="16">
         <v>42800</v>
       </c>
@@ -17973,7 +17985,7 @@
         <v>3233.8656999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="16">
         <v>42801</v>
       </c>
@@ -17984,7 +17996,7 @@
         <v>3242.4063000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="16">
         <v>42802</v>
       </c>
@@ -17995,7 +18007,7 @@
         <v>3240.6646000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="16">
         <v>42803</v>
       </c>
@@ -18006,7 +18018,7 @@
         <v>3216.7456999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="16">
         <v>42804</v>
       </c>
@@ -18017,7 +18029,7 @@
         <v>3212.7601</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="16">
         <v>42807</v>
       </c>
@@ -18028,7 +18040,7 @@
         <v>3237.0243999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
         <v>42808</v>
       </c>
@@ -18039,7 +18051,7 @@
         <v>3239.3278</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="16">
         <v>42809</v>
       </c>
@@ -18050,7 +18062,7 @@
         <v>3241.7597000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="16">
         <v>42810</v>
       </c>
@@ -18061,7 +18073,7 @@
         <v>3268.9353999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="16">
         <v>42811</v>
       </c>
@@ -18072,7 +18084,7 @@
         <v>3237.4470999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="16">
         <v>42814</v>
       </c>
@@ -18083,7 +18095,7 @@
         <v>3250.8081999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="16">
         <v>42815</v>
       </c>
@@ -18094,7 +18106,7 @@
         <v>3261.6107999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="16">
         <v>42816</v>
       </c>
@@ -18105,7 +18117,7 @@
         <v>3245.2197999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="16">
         <v>42817</v>
       </c>
@@ -18116,7 +18128,7 @@
         <v>3248.5495000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="16">
         <v>42818</v>
       </c>
@@ -18127,7 +18139,7 @@
         <v>3269.4450999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="16">
         <v>42821</v>
       </c>
@@ -18138,7 +18150,7 @@
         <v>3266.9551999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="16">
         <v>42822</v>
       </c>
@@ -18149,7 +18161,7 @@
         <v>3252.9479000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="16">
         <v>42823</v>
       </c>
@@ -18160,7 +18172,7 @@
         <v>3241.3144000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="16">
         <v>42824</v>
       </c>
@@ -18171,7 +18183,7 @@
         <v>3210.2368999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="16">
         <v>42825</v>
       </c>
@@ -18182,7 +18194,7 @@
         <v>3222.5142000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="16">
         <v>42830</v>
       </c>
@@ -18193,7 +18205,7 @@
         <v>3270.3054000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="16">
         <v>42831</v>
       </c>
@@ -18204,7 +18216,7 @@
         <v>3281.0047</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="16">
         <v>42832</v>
       </c>
@@ -18215,7 +18227,7 @@
         <v>3286.616</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="16">
         <v>42835</v>
       </c>
@@ -18226,7 +18238,7 @@
         <v>3269.3926000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="16">
         <v>42836</v>
       </c>
@@ -18237,7 +18249,7 @@
         <v>3288.9657000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="16">
         <v>42837</v>
       </c>
@@ -18248,7 +18260,7 @@
         <v>3273.8301000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="16">
         <v>42838</v>
       </c>
@@ -18259,7 +18271,7 @@
         <v>3275.9603000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
         <v>42839</v>
       </c>
@@ -18270,7 +18282,7 @@
         <v>3246.0668000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="16">
         <v>42842</v>
       </c>
@@ -18281,7 +18293,7 @@
         <v>3222.1673000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="16">
         <v>42843</v>
       </c>
@@ -18292,7 +18304,7 @@
         <v>3196.7132999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="16">
         <v>42844</v>
       </c>
@@ -18303,7 +18315,7 @@
         <v>3170.6867000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="16">
         <v>42845</v>
       </c>
@@ -18314,7 +18326,7 @@
         <v>3172.1003000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="16">
         <v>42846</v>
       </c>
@@ -18325,7 +18337,7 @@
         <v>3173.1511999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="16">
         <v>42849</v>
       </c>
@@ -18336,7 +18348,7 @@
         <v>3129.5311999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="16">
         <v>42850</v>
       </c>
@@ -18347,7 +18359,7 @@
         <v>3134.5673999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="16">
         <v>42851</v>
       </c>
@@ -18358,7 +18370,7 @@
         <v>3140.8471</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="16">
         <v>42852</v>
       </c>
@@ -18369,7 +18381,7 @@
         <v>3152.1869000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="16">
         <v>42853</v>
       </c>
@@ -18380,7 +18392,7 @@
         <v>3154.6583999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="16">
         <v>42857</v>
       </c>
@@ -18391,7 +18403,7 @@
         <v>3143.7121000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="16">
         <v>42858</v>
       </c>
@@ -18402,7 +18414,7 @@
         <v>3135.346</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="16">
         <v>42859</v>
       </c>
@@ -18413,7 +18425,7 @@
         <v>3127.3687</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="16">
         <v>42860</v>
       </c>
@@ -18424,7 +18436,7 @@
         <v>3103.0378000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="16">
         <v>42863</v>
       </c>
@@ -18435,7 +18447,7 @@
         <v>3078.6129000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="16">
         <v>42864</v>
       </c>
@@ -18446,7 +18458,7 @@
         <v>3080.5268999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="16">
         <v>42865</v>
       </c>
@@ -18457,7 +18469,7 @@
         <v>3052.7849999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="16">
         <v>42866</v>
       </c>
@@ -18468,7 +18480,7 @@
         <v>3061.5003000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="16">
         <v>42867</v>
       </c>
@@ -18479,7 +18491,7 @@
         <v>3083.5131999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="16">
         <v>42870</v>
       </c>
@@ -18490,7 +18502,7 @@
         <v>3090.2289000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="16">
         <v>42871</v>
       </c>
@@ -18501,7 +18513,7 @@
         <v>3112.9641999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="16">
         <v>42872</v>
       </c>
@@ -18512,7 +18524,7 @@
         <v>3104.4414999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="16">
         <v>42873</v>
       </c>
@@ -18523,7 +18535,7 @@
         <v>3090.1390000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="16">
         <v>42874</v>
       </c>
@@ -18534,7 +18546,7 @@
         <v>3090.6309000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="16">
         <v>42877</v>
       </c>
@@ -18545,7 +18557,7 @@
         <v>3075.6756</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="16">
         <v>42878</v>
       </c>
@@ -18556,7 +18568,7 @@
         <v>3061.9470000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="16">
         <v>42879</v>
       </c>
@@ -18567,7 +18579,7 @@
         <v>3064.0758999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="16">
         <v>42880</v>
       </c>
@@ -18578,7 +18590,7 @@
         <v>3107.8310999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="16">
         <v>42881</v>
       </c>
@@ -18589,7 +18601,7 @@
         <v>3110.0587</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="16">
         <v>42886</v>
       </c>
@@ -18600,7 +18612,7 @@
         <v>3117.1777999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="16">
         <v>42887</v>
       </c>
@@ -18611,7 +18623,7 @@
         <v>3102.6232</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="16">
         <v>42888</v>
       </c>
@@ -18622,7 +18634,7 @@
         <v>3105.54</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="16">
         <v>42891</v>
       </c>
@@ -18633,7 +18645,7 @@
         <v>3091.6561000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="16">
         <v>42892</v>
       </c>
@@ -18644,7 +18656,7 @@
         <v>3102.1260000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="16">
         <v>42893</v>
       </c>
@@ -18655,7 +18667,7 @@
         <v>3140.3249000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="16">
         <v>42894</v>
       </c>
@@ -18666,7 +18678,7 @@
         <v>3150.3335999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="16">
         <v>42895</v>
       </c>
@@ -18677,7 +18689,7 @@
         <v>3158.4004</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="16">
         <v>42898</v>
       </c>
@@ -18688,7 +18700,7 @@
         <v>3139.8766000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="16">
         <v>42899</v>
       </c>
@@ -18699,7 +18711,7 @@
         <v>3153.7429000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="16">
         <v>42900</v>
       </c>
@@ -18710,7 +18722,7 @@
         <v>3130.674</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="16">
         <v>42901</v>
       </c>
@@ -18721,7 +18733,7 @@
         <v>3132.4863</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="16">
         <v>42902</v>
       </c>
@@ -18732,7 +18744,7 @@
         <v>3123.1662000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="16">
         <v>42905</v>
       </c>
@@ -18743,7 +18755,7 @@
         <v>3144.3739</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="16">
         <v>42906</v>
       </c>
@@ -18754,7 +18766,7 @@
         <v>3140.0136000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="16">
         <v>42907</v>
       </c>
@@ -18765,7 +18777,7 @@
         <v>3156.2118</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="16">
         <v>42908</v>
       </c>
@@ -18776,7 +18788,7 @@
         <v>3147.4531999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="16">
         <v>42909</v>
       </c>
@@ -18787,7 +18799,7 @@
         <v>3157.873</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="16">
         <v>42912</v>
       </c>
@@ -18798,7 +18810,7 @@
         <v>3185.4439000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="16">
         <v>42913</v>
       </c>
@@ -18809,7 +18821,7 @@
         <v>3191.1968999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="16">
         <v>42914</v>
       </c>
@@ -18820,7 +18832,7 @@
         <v>3173.2013999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="16">
         <v>42915</v>
       </c>
@@ -18831,7 +18843,7 @@
         <v>3188.0625</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="16">
         <v>42916</v>
       </c>
@@ -18842,7 +18854,7 @@
         <v>3192.4268999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="16">
         <v>42919</v>
       </c>
@@ -18853,7 +18865,7 @@
         <v>3195.9115999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="16">
         <v>42920</v>
       </c>
@@ -18864,7 +18876,7 @@
         <v>3182.8038999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="16">
         <v>42921</v>
       </c>
@@ -18875,7 +18887,7 @@
         <v>3207.1342</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="16">
         <v>42922</v>
       </c>
@@ -18886,7 +18898,7 @@
         <v>3212.444</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="16">
         <v>42923</v>
       </c>
@@ -18897,7 +18909,7 @@
         <v>3217.9567000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="16">
         <v>42926</v>
       </c>
@@ -18908,7 +18920,7 @@
         <v>3212.6318999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="16">
         <v>42927</v>
       </c>
@@ -18919,7 +18931,7 @@
         <v>3203.0374999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="16">
         <v>42928</v>
       </c>
@@ -18930,7 +18942,7 @@
         <v>3197.5439000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="16">
         <v>42929</v>
       </c>
@@ -18941,7 +18953,7 @@
         <v>3218.1632</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="16">
         <v>42930</v>
       </c>
@@ -18952,7 +18964,7 @@
         <v>3222.4168</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="16">
         <v>42933</v>
       </c>
@@ -18963,7 +18975,7 @@
         <v>3176.4648000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="16">
         <v>42934</v>
       </c>
@@ -18974,7 +18986,7 @@
         <v>3187.5672</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="16">
         <v>42935</v>
       </c>
@@ -18985,7 +18997,7 @@
         <v>3230.9762000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="16">
         <v>42936</v>
       </c>
@@ -18996,7 +19008,7 @@
         <v>3244.8647000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="16">
         <v>42937</v>
       </c>
@@ -19007,7 +19019,7 @@
         <v>3237.9816999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="16">
         <v>42940</v>
       </c>
@@ -19018,7 +19030,7 @@
         <v>3250.5989</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="16">
         <v>42941</v>
       </c>
@@ -19029,7 +19041,7 @@
         <v>3243.6894000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="16">
         <v>42942</v>
       </c>
@@ -19040,7 +19052,7 @@
         <v>3247.6747999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="16">
         <v>42943</v>
       </c>
@@ -19051,7 +19063,7 @@
         <v>3249.7813999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="16">
         <v>42944</v>
       </c>
@@ -19062,7 +19074,7 @@
         <v>3253.2404000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="16">
         <v>42947</v>
       </c>
@@ -19073,7 +19085,7 @@
         <v>3273.0282999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="16">
         <v>42948</v>
       </c>
@@ -19084,7 +19096,7 @@
         <v>3292.6383000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="16">
         <v>42949</v>
       </c>
@@ -19095,7 +19107,7 @@
         <v>3285.0567999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="16">
         <v>42950</v>
       </c>
@@ -19106,7 +19118,7 @@
         <v>3272.9286000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="16">
         <v>42951</v>
       </c>
@@ -19117,7 +19129,7 @@
         <v>3262.0808999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
         <v>42954</v>
       </c>
@@ -19128,7 +19140,7 @@
         <v>3279.4566</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
         <v>42955</v>
       </c>
@@ -19139,7 +19151,7 @@
         <v>3281.8728000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
         <v>42956</v>
       </c>
@@ -19150,7 +19162,7 @@
         <v>3275.5729999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
         <v>42957</v>
       </c>
@@ -19161,7 +19173,7 @@
         <v>3261.7494000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="16">
         <v>42958</v>
       </c>
@@ -19172,7 +19184,7 @@
         <v>3208.5412999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="16">
         <v>42961</v>
       </c>
@@ -19183,7 +19195,7 @@
         <v>3237.3602000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="16">
         <v>42962</v>
       </c>
@@ -19194,7 +19206,7 @@
         <v>3251.2617</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="16">
         <v>42963</v>
       </c>
@@ -19205,7 +19217,7 @@
         <v>3246.4512</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="16">
         <v>42964</v>
       </c>
@@ -19216,7 +19228,7 @@
         <v>3268.4297999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="16">
         <v>42965</v>
       </c>
@@ -19227,7 +19239,7 @@
         <v>3268.7242999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="16">
         <v>42968</v>
       </c>
@@ -19238,7 +19250,7 @@
         <v>3286.9054999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="16">
         <v>42969</v>
       </c>
@@ -19249,7 +19261,7 @@
         <v>3290.2257</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="16">
         <v>42970</v>
       </c>
@@ -19260,7 +19272,7 @@
         <v>3287.7049000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="16">
         <v>42971</v>
       </c>
@@ -19271,7 +19283,7 @@
         <v>3271.5117</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="16">
         <v>42972</v>
       </c>
@@ -19282,7 +19294,7 @@
         <v>3331.5221000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="16">
         <v>42975</v>
       </c>
@@ -19293,7 +19305,7 @@
         <v>3362.6514000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="16">
         <v>42976</v>
       </c>
@@ -19304,7 +19316,7 @@
         <v>3365.2260999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="16">
         <v>42977</v>
       </c>
@@ -19315,7 +19327,7 @@
         <v>3363.6266000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="16">
         <v>42978</v>
       </c>
@@ -19326,7 +19338,7 @@
         <v>3360.8103000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="16">
         <v>42979</v>
       </c>
@@ -19337,7 +19349,7 @@
         <v>3367.1194</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="16">
         <v>42982</v>
       </c>
@@ -19348,7 +19360,7 @@
         <v>3379.5830000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="16">
         <v>42983</v>
       </c>
@@ -19359,7 +19371,7 @@
         <v>3384.317</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="16">
         <v>42984</v>
       </c>
@@ -19370,7 +19382,7 @@
         <v>3385.3888000000002</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="16">
         <v>42985</v>
       </c>
@@ -19381,7 +19393,7 @@
         <v>3365.4974000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="16">
         <v>42986</v>
       </c>
@@ -19392,7 +19404,7 @@
         <v>3365.2426</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="16">
         <v>42989</v>
       </c>
@@ -19403,7 +19415,7 @@
         <v>3376.4187999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="16">
         <v>42990</v>
       </c>
@@ -19414,7 +19426,7 @@
         <v>3379.4879999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="16">
         <v>42991</v>
       </c>
@@ -19425,7 +19437,7 @@
         <v>3384.1469999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="16">
         <v>42992</v>
       </c>
@@ -19436,7 +19448,7 @@
         <v>3371.4256</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="16">
         <v>42993</v>
       </c>
@@ -19447,7 +19459,7 @@
         <v>3353.6192000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="16">
         <v>42996</v>
       </c>
@@ -19458,7 +19470,7 @@
         <v>3362.8587000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="16">
         <v>42997</v>
       </c>
@@ -19469,7 +19481,7 @@
         <v>3356.8445999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="16">
         <v>42998</v>
       </c>
@@ -19480,7 +19492,7 @@
         <v>3365.9958999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="16">
         <v>42999</v>
       </c>
@@ -19491,7 +19503,7 @@
         <v>3357.8123000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="16">
         <v>43000</v>
       </c>
@@ -19502,7 +19514,7 @@
         <v>3352.5293999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="16">
         <v>43003</v>
       </c>
@@ -19513,7 +19525,7 @@
         <v>3341.5486999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="16">
         <v>43004</v>
       </c>
@@ -19524,7 +19536,7 @@
         <v>3343.5826000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="16">
         <v>43005</v>
       </c>
@@ -19535,7 +19547,7 @@
         <v>3345.2716999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="16">
         <v>43006</v>
       </c>
@@ -19546,7 +19558,7 @@
         <v>3339.6421</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="16">
         <v>43007</v>
       </c>
@@ -19557,7 +19569,7 @@
         <v>3348.9431</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="16">
         <v>43017</v>
       </c>
@@ -19568,7 +19580,7 @@
         <v>3374.3780999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="16">
         <v>43018</v>
       </c>
@@ -19579,7 +19591,7 @@
         <v>3382.9879000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="16">
         <v>43019</v>
       </c>
@@ -19590,7 +19602,7 @@
         <v>3388.2838000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="16">
         <v>43020</v>
       </c>
@@ -19601,7 +19613,7 @@
         <v>3386.1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="16">
         <v>43021</v>
       </c>
@@ -19612,7 +19624,7 @@
         <v>3390.5232999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="16">
         <v>43024</v>
       </c>
@@ -19623,7 +19635,7 @@
         <v>3378.4704000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="16">
         <v>43025</v>
       </c>
@@ -19634,7 +19646,7 @@
         <v>3372.0407</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="16">
         <v>43026</v>
       </c>
@@ -19645,7 +19657,7 @@
         <v>3381.7937000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="16">
         <v>43027</v>
       </c>
@@ -19656,7 +19668,7 @@
         <v>3370.1720999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="16">
         <v>43028</v>
       </c>
@@ -19667,7 +19679,7 @@
         <v>3378.6480999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="16">
         <v>43031</v>
       </c>
@@ -19678,7 +19690,7 @@
         <v>3380.6990000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="16">
         <v>43032</v>
       </c>
@@ -19689,7 +19701,7 @@
         <v>3388.2476999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="16">
         <v>43033</v>
       </c>
@@ -19700,7 +19712,7 @@
         <v>3396.8975</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="16">
         <v>43034</v>
       </c>
@@ -19711,7 +19723,7 @@
         <v>3407.5671000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="16">
         <v>43035</v>
       </c>
@@ -19722,7 +19734,7 @@
         <v>3416.8123999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="16">
         <v>43038</v>
       </c>
@@ -19733,7 +19745,7 @@
         <v>3390.3371000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="16">
         <v>43039</v>
       </c>
@@ -19744,7 +19756,7 @@
         <v>3393.3416999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="16">
         <v>43040</v>
       </c>
@@ -19755,7 +19767,7 @@
         <v>3395.9124999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="16">
         <v>43041</v>
       </c>
@@ -19766,7 +19778,7 @@
         <v>3383.3094999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="16">
         <v>43042</v>
       </c>
@@ -19777,7 +19789,7 @@
         <v>3371.7440999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="16">
         <v>43045</v>
       </c>
@@ -19788,7 +19800,7 @@
         <v>3388.1741999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="16">
         <v>43046</v>
       </c>
@@ -19799,7 +19811,7 @@
         <v>3413.5747999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="16">
         <v>43047</v>
       </c>
@@ -19810,7 +19822,7 @@
         <v>3415.4602</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="16">
         <v>43048</v>
       </c>
@@ -19821,7 +19833,7 @@
         <v>3427.7946000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="16">
         <v>43049</v>
       </c>
@@ -19832,7 +19844,7 @@
         <v>3432.6731</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="16">
         <v>43052</v>
       </c>
@@ -19843,7 +19855,7 @@
         <v>3447.8357999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="16">
         <v>43053</v>
       </c>
@@ -19854,7 +19866,7 @@
         <v>3429.5482000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="16">
         <v>43054</v>
       </c>
@@ -19865,7 +19877,7 @@
         <v>3402.5245</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="16">
         <v>43055</v>
       </c>
@@ -19876,7 +19888,7 @@
         <v>3399.2503000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="16">
         <v>43056</v>
       </c>
@@ -19887,7 +19899,7 @@
         <v>3382.9074999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="16">
         <v>43059</v>
       </c>
@@ -19898,7 +19910,7 @@
         <v>3392.3987999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="16">
         <v>43060</v>
       </c>
@@ -19909,7 +19921,7 @@
         <v>3410.4976999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="16">
         <v>43061</v>
       </c>
@@ -19920,7 +19932,7 @@
         <v>3430.4643000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="16">
         <v>43062</v>
       </c>
@@ -19931,7 +19943,7 @@
         <v>3351.9182000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="16">
         <v>43063</v>
       </c>
@@ -19942,7 +19954,7 @@
         <v>3353.8207000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="16">
         <v>43066</v>
       </c>
@@ -19953,7 +19965,7 @@
         <v>3322.2298000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="16">
         <v>43067</v>
       </c>
@@ -19964,7 +19976,7 @@
         <v>3333.6570000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="16">
         <v>43068</v>
       </c>
@@ -19975,7 +19987,7 @@
         <v>3337.8620000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="16">
         <v>43069</v>
       </c>
@@ -19986,7 +19998,7 @@
         <v>3317.1884</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="16">
         <v>43070</v>
       </c>
@@ -19997,7 +20009,7 @@
         <v>3317.6174000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="16">
         <v>43073</v>
       </c>
@@ -20008,7 +20020,7 @@
         <v>3309.6183000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="16">
         <v>43074</v>
       </c>
@@ -20019,7 +20031,7 @@
         <v>3303.6750999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="16">
         <v>43075</v>
       </c>
@@ -20030,7 +20042,7 @@
         <v>3293.9648000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="16">
         <v>43076</v>
       </c>
@@ -20041,7 +20053,7 @@
         <v>3272.0542</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="16">
         <v>43077</v>
       </c>
@@ -20052,7 +20064,7 @@
         <v>3289.9924000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="16">
         <v>43080</v>
       </c>
@@ -20063,7 +20075,7 @@
         <v>3322.1956</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="16">
         <v>43081</v>
       </c>
@@ -20074,7 +20086,7 @@
         <v>3280.8136</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="16">
         <v>43082</v>
       </c>
@@ -20085,7 +20097,7 @@
         <v>3303.0373</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="16">
         <v>43083</v>
       </c>
@@ -20096,7 +20108,7 @@
         <v>3292.4385000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="16">
         <v>43084</v>
       </c>
@@ -20107,7 +20119,7 @@
         <v>3266.1370999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="16">
         <v>43087</v>
       </c>
@@ -20118,7 +20130,7 @@
         <v>3267.9223999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="16">
         <v>43088</v>
       </c>
@@ -20129,7 +20141,7 @@
         <v>3296.5383999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="16">
         <v>43089</v>
       </c>
@@ -20140,7 +20152,7 @@
         <v>3287.6057000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="16">
         <v>43090</v>
       </c>
@@ -20151,7 +20163,7 @@
         <v>3300.0592999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="16">
         <v>43091</v>
       </c>
@@ -20162,7 +20174,7 @@
         <v>3297.0630000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="16">
         <v>43094</v>
       </c>
@@ -20173,7 +20185,7 @@
         <v>3280.4609999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="16">
         <v>43095</v>
       </c>
@@ -20184,7 +20196,7 @@
         <v>3306.1246000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="16">
         <v>43096</v>
       </c>
@@ -20195,7 +20207,7 @@
         <v>3275.7828</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="16">
         <v>43097</v>
       </c>
@@ -20206,7 +20218,7 @@
         <v>3296.3847000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="16">
         <v>43098</v>
       </c>
@@ -20217,7 +20229,7 @@
         <v>3307.1720999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="16">
         <v>43102</v>
       </c>
@@ -20228,7 +20240,7 @@
         <v>3348.3258999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="16">
         <v>43103</v>
       </c>
@@ -20239,7 +20251,7 @@
         <v>3369.1084000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="16">
         <v>43104</v>
       </c>
@@ -20250,7 +20262,7 @@
         <v>3385.7102</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="16">
         <v>43105</v>
       </c>
@@ -20261,7 +20273,7 @@
         <v>3391.7501000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="16">
         <v>43108</v>
       </c>
@@ -20272,7 +20284,7 @@
         <v>3409.4794999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="16">
         <v>43109</v>
       </c>
@@ -20283,7 +20295,7 @@
         <v>3413.8996000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="16">
         <v>43110</v>
       </c>
@@ -20294,7 +20306,7 @@
         <v>3421.8343</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="16">
         <v>43111</v>
       </c>
@@ -20305,7 +20317,7 @@
         <v>3425.3449000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="16">
         <v>43112</v>
       </c>
@@ -20316,7 +20328,7 @@
         <v>3428.9407000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="16">
         <v>43115</v>
       </c>
@@ -20327,7 +20339,7 @@
         <v>3410.4881999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="16">
         <v>43116</v>
       </c>
@@ -20338,7 +20350,7 @@
         <v>3436.5940000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="16">
         <v>43117</v>
       </c>
@@ -20349,7 +20361,7 @@
         <v>3444.6713</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="16">
         <v>43118</v>
       </c>
@@ -20360,7 +20372,7 @@
         <v>3474.7539999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="16">
         <v>43119</v>
       </c>
@@ -20371,7 +20383,7 @@
         <v>3487.864</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="16">
         <v>43122</v>
       </c>
@@ -20382,7 +20394,7 @@
         <v>3501.3622</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="16">
         <v>43123</v>
       </c>
@@ -20393,7 +20405,7 @@
         <v>3546.5048000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="16">
         <v>43124</v>
       </c>
@@ -20404,7 +20416,7 @@
         <v>3559.4652999999998</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="16">
         <v>43125</v>
       </c>
@@ -20415,7 +20427,7 @@
         <v>3548.3069999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="16">
         <v>43126</v>
       </c>
@@ -20426,7 +20438,7 @@
         <v>3558.1288</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="16">
         <v>43129</v>
       </c>
@@ -20437,7 +20449,7 @@
         <v>3523.0007000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="16">
         <v>43130</v>
       </c>
@@ -20448,7 +20460,7 @@
         <v>3488.009</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="16">
         <v>43131</v>
       </c>
@@ -20459,7 +20471,7 @@
         <v>3480.8334</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="16">
         <v>43132</v>
       </c>
@@ -20470,7 +20482,7 @@
         <v>3446.9798999999998</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="16">
         <v>43133</v>
       </c>
@@ -20481,7 +20493,7 @@
         <v>3462.0808000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="16">
         <v>43136</v>
       </c>
@@ -20492,7 +20504,7 @@
         <v>3487.4969999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="16">
         <v>43137</v>
       </c>
@@ -20503,7 +20515,7 @@
         <v>3370.652</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="16">
         <v>43138</v>
       </c>
@@ -20514,7 +20526,7 @@
         <v>3309.2597999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="16">
         <v>43139</v>
       </c>
@@ -20525,7 +20537,7 @@
         <v>3262.0504000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="16">
         <v>43140</v>
       </c>
@@ -20536,7 +20548,7 @@
         <v>3129.8508000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="16">
         <v>43143</v>
       </c>
@@ -20547,7 +20559,7 @@
         <v>3154.1253999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="16">
         <v>43144</v>
       </c>
@@ -20558,7 +20570,7 @@
         <v>3184.9587000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="16">
         <v>43145</v>
       </c>
@@ -20569,7 +20581,7 @@
         <v>3199.1588999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="16">
         <v>43153</v>
       </c>
@@ -20580,7 +20592,7 @@
         <v>3268.56</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="16">
         <v>43154</v>
       </c>
@@ -20591,7 +20603,7 @@
         <v>3289.02</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="16">
         <v>43157</v>
       </c>
@@ -20602,7 +20614,7 @@
         <v>3329.57</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="16">
         <v>43158</v>
       </c>
@@ -20613,7 +20625,7 @@
         <v>3292.07</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="16">
         <v>43159</v>
       </c>
@@ -20624,7 +20636,7 @@
         <v>3259.41</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="16">
         <v>43160</v>
       </c>
@@ -20635,7 +20647,7 @@
         <v>3273.76</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="16">
         <v>43161</v>
       </c>
@@ -20646,7 +20658,7 @@
         <v>3254.53</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="16">
         <v>43164</v>
       </c>
@@ -20657,7 +20669,7 @@
         <v>3256.93</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="16">
         <v>43165</v>
       </c>
@@ -20668,7 +20680,7 @@
         <v>3289.64</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="16">
         <v>43166</v>
       </c>
@@ -20679,7 +20691,7 @@
         <v>3271.67</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="16">
         <v>43167</v>
       </c>
@@ -20690,7 +20702,7 @@
         <v>3288.41</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="16">
         <v>43168</v>
       </c>
@@ -20701,7 +20713,7 @@
         <v>3307.17</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="16">
         <v>43171</v>
       </c>
@@ -20712,7 +20724,7 @@
         <v>3326.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="16">
         <v>43172</v>
       </c>
@@ -20723,7 +20735,7 @@
         <v>3310.24</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="16">
         <v>43173</v>
       </c>
@@ -20734,7 +20746,7 @@
         <v>3291.38</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="16">
         <v>43174</v>
       </c>
@@ -20745,7 +20757,7 @@
         <v>3291.11</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="16">
         <v>43175</v>
       </c>
@@ -20756,7 +20768,7 @@
         <v>3269.88</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="16">
         <v>43178</v>
       </c>
@@ -20767,7 +20779,7 @@
         <v>3279.25</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="16">
         <v>43179</v>
       </c>
@@ -20778,7 +20790,7 @@
         <v>3290.64</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="16">
         <v>43180</v>
       </c>
@@ -20789,7 +20801,7 @@
         <v>3280.95</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="16">
         <v>43181</v>
       </c>
@@ -20800,7 +20812,7 @@
         <v>3263.48</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="16">
         <v>43182</v>
       </c>
@@ -20811,7 +20823,7 @@
         <v>3152.76</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="16">
         <v>43185</v>
       </c>
@@ -20822,7 +20834,7 @@
         <v>3133.72</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="16">
         <v>43186</v>
       </c>
@@ -20833,7 +20845,7 @@
         <v>3166.65</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="16">
         <v>43187</v>
       </c>
@@ -20844,7 +20856,7 @@
         <v>3122.29</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="16">
         <v>43188</v>
       </c>
@@ -20855,7 +20867,7 @@
         <v>3160.53</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="16">
         <v>43189</v>
       </c>
@@ -20866,7 +20878,7 @@
         <v>3168.9</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="16">
         <v>43192</v>
       </c>
@@ -20877,7 +20889,7 @@
         <v>3163.18</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="16">
         <v>43193</v>
       </c>
@@ -20888,7 +20900,7 @@
         <v>3136.63</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="16">
         <v>43194</v>
       </c>
@@ -20899,7 +20911,7 @@
         <v>3131.11</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="16">
         <v>43199</v>
       </c>
@@ -20910,7 +20922,7 @@
         <v>3138.29</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="16">
         <v>43200</v>
       </c>
@@ -20921,7 +20933,7 @@
         <v>3190.32</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="16">
         <v>43201</v>
       </c>
@@ -20932,7 +20944,7 @@
         <v>3208.08</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="16">
         <v>43202</v>
       </c>
@@ -20943,7 +20955,7 @@
         <v>3180.16</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="16">
         <v>43203</v>
       </c>
@@ -20954,7 +20966,7 @@
         <v>3159.05</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="16">
         <v>43206</v>
       </c>
@@ -20965,7 +20977,7 @@
         <v>3110.65</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="16">
         <v>43207</v>
       </c>
@@ -20976,7 +20988,7 @@
         <v>3066.8</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="16">
         <v>43208</v>
       </c>
@@ -20987,7 +20999,7 @@
         <v>3091.4</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="16">
         <v>43209</v>
       </c>
@@ -20998,7 +21010,7 @@
         <v>3117.48</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="16">
         <v>43210</v>
       </c>
@@ -21009,7 +21021,7 @@
         <v>3071.54</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="16">
         <v>43213</v>
       </c>
@@ -21020,7 +21032,7 @@
         <v>3068.01</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="16">
         <v>43214</v>
       </c>
@@ -21031,7 +21043,7 @@
         <v>3128.93</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="16">
         <v>43215</v>
       </c>
@@ -21042,7 +21054,7 @@
         <v>3117.97</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="16">
         <v>43216</v>
       </c>
@@ -21053,7 +21065,7 @@
         <v>3075.03</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="16">
         <v>43217</v>
       </c>
@@ -21064,7 +21076,7 @@
         <v>3082.23</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="16">
         <v>43222</v>
       </c>
@@ -21075,7 +21087,7 @@
         <v>3081.18</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="16">
         <v>43223</v>
       </c>
@@ -21086,7 +21098,7 @@
         <v>3100.86</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="16">
         <v>43224</v>
       </c>
@@ -21097,7 +21109,7 @@
         <v>3091.03</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="16">
         <v>43227</v>
       </c>
@@ -21108,7 +21120,7 @@
         <v>3136.64</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="16">
         <v>43228</v>
       </c>
@@ -21119,7 +21131,7 @@
         <v>3160.5</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="16">
         <v>43229</v>
       </c>
@@ -21130,7 +21142,7 @@
         <v>3159.15</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="16">
         <v>43230</v>
       </c>
@@ -21141,7 +21153,7 @@
         <v>3169.05</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="16">
         <v>43231</v>
       </c>
@@ -21152,7 +21164,7 @@
         <v>3163.26</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="16">
         <v>43234</v>
       </c>
@@ -21163,7 +21175,7 @@
         <v>3174.03</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="16">
         <v>43235</v>
       </c>
@@ -21174,7 +21186,7 @@
         <v>3192.12</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="16">
         <v>43236</v>
       </c>
@@ -21185,7 +21197,7 @@
         <v>3169.57</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="16">
         <v>43237</v>
       </c>
@@ -21196,7 +21208,7 @@
         <v>3154.28</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="16">
         <v>43238</v>
       </c>
@@ -21207,7 +21219,7 @@
         <v>3193.3</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="16">
         <v>43241</v>
       </c>
@@ -21218,7 +21230,7 @@
         <v>3213.84</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="16">
         <v>43242</v>
       </c>
@@ -21229,7 +21241,7 @@
         <v>3214.35</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="16">
         <v>43243</v>
       </c>
@@ -21240,7 +21252,7 @@
         <v>3168.96</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="16">
         <v>43244</v>
       </c>
@@ -21251,7 +21263,7 @@
         <v>3154.65</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="16">
         <v>43245</v>
       </c>
@@ -21262,7 +21274,7 @@
         <v>3141.3</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="16">
         <v>43248</v>
       </c>
@@ -21273,7 +21285,7 @@
         <v>3135.08</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="16">
         <v>43249</v>
       </c>
@@ -21284,7 +21296,7 @@
         <v>3120.46</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="16">
         <v>43250</v>
       </c>
@@ -21295,7 +21307,7 @@
         <v>3041.44</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="16">
         <v>43251</v>
       </c>
@@ -21306,7 +21318,7 @@
         <v>3095.47</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="16">
         <v>43252</v>
       </c>
@@ -21317,7 +21329,7 @@
         <v>3075.14</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="16">
         <v>43255</v>
       </c>
@@ -21328,7 +21340,7 @@
         <v>3091.19</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="16">
         <v>43256</v>
       </c>
@@ -21339,7 +21351,7 @@
         <v>3114.21</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="16">
         <v>43257</v>
       </c>
@@ -21350,7 +21362,7 @@
         <v>3115.18</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="16">
         <v>43258</v>
       </c>
@@ -21361,7 +21373,7 @@
         <v>3109.5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="16">
         <v>43259</v>
       </c>
@@ -21372,7 +21384,7 @@
         <v>3067.15</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="16">
         <v>43262</v>
       </c>
@@ -21383,7 +21395,7 @@
         <v>3052.78</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="16">
         <v>43263</v>
       </c>
@@ -21394,7 +21406,7 @@
         <v>3079.8</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="16">
         <v>43264</v>
       </c>
@@ -21405,7 +21417,7 @@
         <v>3049.8</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="16">
         <v>43265</v>
       </c>
@@ -21416,7 +21428,7 @@
         <v>3044.16</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="16">
         <v>43266</v>
       </c>
@@ -21427,7 +21439,7 @@
         <v>3021.9</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="16">
         <v>43270</v>
       </c>
@@ -21438,7 +21450,7 @@
         <v>2907.82</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="16">
         <v>43271</v>
       </c>
@@ -21449,7 +21461,7 @@
         <v>2915.73</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="16">
         <v>43272</v>
       </c>
@@ -21460,7 +21472,7 @@
         <v>2875.81</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="16">
         <v>43273</v>
       </c>
@@ -21471,7 +21483,7 @@
         <v>2889.76</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="16">
         <v>43276</v>
       </c>
@@ -21482,7 +21494,7 @@
         <v>2859.34</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="16">
         <v>43277</v>
       </c>
@@ -21493,7 +21505,7 @@
         <v>2844.51</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="16">
         <v>43278</v>
       </c>
@@ -21504,7 +21516,7 @@
         <v>2813.18</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="16">
         <v>43279</v>
       </c>
@@ -21515,7 +21527,7 @@
         <v>2786.9</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="16">
         <v>43280</v>
       </c>
@@ -21526,7 +21538,7 @@
         <v>2847.42</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="16">
         <v>43283</v>
       </c>
@@ -21537,7 +21549,7 @@
         <v>2775.56</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="16">
         <v>43284</v>
       </c>
@@ -21548,7 +21560,7 @@
         <v>2786.89</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="16">
         <v>43285</v>
       </c>
@@ -21559,7 +21571,7 @@
         <v>2759.13</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="16">
         <v>43286</v>
       </c>
@@ -21570,7 +21582,7 @@
         <v>2733.88</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="16">
         <v>43287</v>
       </c>
@@ -21581,7 +21593,7 @@
         <v>2747.23</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="16">
         <v>43290</v>
       </c>
@@ -21592,7 +21604,7 @@
         <v>2815.11</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="16">
         <v>43291</v>
       </c>
@@ -21603,7 +21615,7 @@
         <v>2827.63</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="16">
         <v>43292</v>
       </c>
@@ -21614,7 +21626,7 @@
         <v>2777.77</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="16">
         <v>43293</v>
       </c>
@@ -21625,7 +21637,7 @@
         <v>2837.66</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="16">
         <v>43294</v>
       </c>
@@ -21636,7 +21648,7 @@
         <v>2831.18</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="16">
         <v>43297</v>
       </c>
@@ -21647,7 +21659,7 @@
         <v>2814.04</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="16">
         <v>43298</v>
       </c>
@@ -21658,7 +21670,7 @@
         <v>2798.13</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="16">
         <v>43299</v>
       </c>
@@ -21669,7 +21681,7 @@
         <v>2787.26</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="16">
         <v>43300</v>
       </c>
@@ -21680,7 +21692,7 @@
         <v>2772.55</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="16">
         <v>43301</v>
       </c>
@@ -21691,7 +21703,7 @@
         <v>2829.27</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="16">
         <v>43304</v>
       </c>
@@ -21702,7 +21714,7 @@
         <v>2859.54</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="16">
         <v>43305</v>
       </c>
@@ -21713,7 +21725,7 @@
         <v>2905.56</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="16">
         <v>43306</v>
       </c>
@@ -21724,7 +21736,7 @@
         <v>2903.65</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="16">
         <v>43307</v>
       </c>
@@ -21735,7 +21747,7 @@
         <v>2882.23</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="16">
         <v>43308</v>
       </c>
@@ -21746,7 +21758,7 @@
         <v>2873.59</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="16">
         <v>43311</v>
       </c>
@@ -21757,7 +21769,7 @@
         <v>2869.05</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="16">
         <v>43312</v>
       </c>
@@ -21768,7 +21780,7 @@
         <v>2876.4</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="16">
         <v>43313</v>
       </c>
@@ -21779,7 +21791,7 @@
         <v>2824.53</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="16">
         <v>43314</v>
       </c>
@@ -21790,7 +21802,7 @@
         <v>2768.02</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="16">
         <v>43315</v>
       </c>
@@ -21801,7 +21813,7 @@
         <v>2740.44</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="16">
         <v>43318</v>
       </c>
@@ -21812,7 +21824,7 @@
         <v>2705.16</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="16">
         <v>43319</v>
       </c>
@@ -21823,7 +21835,7 @@
         <v>2779.37</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="16">
         <v>43320</v>
       </c>
@@ -21834,7 +21846,7 @@
         <v>2744.07</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="16">
         <v>43321</v>
       </c>
@@ -21845,7 +21857,7 @@
         <v>2794.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="16">
         <v>43322</v>
       </c>
@@ -21856,7 +21868,7 @@
         <v>2795.31</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="16">
         <v>43325</v>
       </c>
@@ -21867,7 +21879,7 @@
         <v>2785.87</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="16">
         <v>43326</v>
       </c>
@@ -21878,7 +21890,7 @@
         <v>2780.96</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="16">
         <v>43327</v>
       </c>
@@ -21889,7 +21901,7 @@
         <v>2723.26</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="16">
         <v>43328</v>
       </c>
@@ -21900,7 +21912,7 @@
         <v>2705.19</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="16">
         <v>43329</v>
       </c>
@@ -21911,7 +21923,7 @@
         <v>2668.97</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="16">
         <v>43332</v>
       </c>
@@ -21922,7 +21934,7 @@
         <v>2698.47</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="16">
         <v>43333</v>
       </c>
@@ -21933,7 +21945,7 @@
         <v>2733.83</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="16">
         <v>43334</v>
       </c>
@@ -21944,7 +21956,7 @@
         <v>2714.61</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="16">
         <v>43335</v>
       </c>
@@ -21955,7 +21967,7 @@
         <v>2724.62</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="16">
         <v>43336</v>
       </c>
@@ -21966,7 +21978,7 @@
         <v>2729.43</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="16">
         <v>43339</v>
       </c>
@@ -21977,7 +21989,7 @@
         <v>2780.9</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="16">
         <v>43340</v>
       </c>
@@ -21988,7 +22000,7 @@
         <v>2777.98</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="16">
         <v>43341</v>
       </c>
@@ -21999,7 +22011,7 @@
         <v>2769.29</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="16">
         <v>43342</v>
       </c>
@@ -22010,7 +22022,7 @@
         <v>2737.74</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="16">
         <v>43343</v>
       </c>
@@ -22021,7 +22033,7 @@
         <v>2725.25</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="16">
         <v>43346</v>
       </c>
@@ -22032,7 +22044,7 @@
         <v>2720.73</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="16">
         <v>43347</v>
       </c>
@@ -22043,7 +22055,7 @@
         <v>2750.58</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="16">
         <v>43348</v>
       </c>
@@ -22054,7 +22066,7 @@
         <v>2704.34</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="16">
         <v>43349</v>
       </c>
@@ -22065,7 +22077,7 @@
         <v>2691.59</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="16">
         <v>43350</v>
       </c>
@@ -22076,7 +22088,7 @@
         <v>2702.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="16">
         <v>43353</v>
       </c>
@@ -22087,7 +22099,7 @@
         <v>2669.48</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="16">
         <v>43354</v>
       </c>
@@ -22098,7 +22110,7 @@
         <v>2664.8</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="16">
         <v>43355</v>
       </c>
@@ -22109,7 +22121,7 @@
         <v>2656.11</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="16">
         <v>43356</v>
       </c>
@@ -22120,7 +22132,7 @@
         <v>2686.58</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="16">
         <v>43357</v>
       </c>
@@ -22131,7 +22143,7 @@
         <v>2681.64</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="16">
         <v>43360</v>
       </c>
@@ -22142,7 +22154,7 @@
         <v>2651.79</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="16">
         <v>43361</v>
       </c>
@@ -22153,7 +22165,7 @@
         <v>2669.95</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="16">
         <v>43362</v>
       </c>
@@ -22164,7 +22176,7 @@
         <v>2730.85</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="16">
         <v>43363</v>
       </c>
@@ -22175,7 +22187,7 @@
         <v>2729.24</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="16">
         <v>43364</v>
       </c>
@@ -22186,7 +22198,7 @@
         <v>2797.48</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="16">
         <v>43368</v>
       </c>
@@ -22197,7 +22209,7 @@
         <v>2781.14</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="16">
         <v>43369</v>
       </c>
@@ -22208,7 +22220,7 @@
         <v>2806.81</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="16">
         <v>43370</v>
       </c>
@@ -22219,7 +22231,7 @@
         <v>2791.77</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="16">
         <v>43371</v>
       </c>
@@ -22230,7 +22242,7 @@
         <v>2821.35</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="16">
         <v>43381</v>
       </c>
@@ -22241,7 +22253,7 @@
         <v>2716.51</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="16">
         <v>43382</v>
       </c>
@@ -22252,7 +22264,7 @@
         <v>2721.01</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="16">
         <v>43383</v>
       </c>
@@ -22263,7 +22275,7 @@
         <v>2725.84</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="16">
         <v>43384</v>
       </c>
@@ -22274,7 +22286,7 @@
         <v>2583.46</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="16">
         <v>43385</v>
       </c>
@@ -22285,7 +22297,7 @@
         <v>2606.91</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="16">
         <v>43388</v>
       </c>
@@ -22296,7 +22308,7 @@
         <v>2568.1</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="16">
         <v>43389</v>
       </c>
@@ -22307,7 +22319,7 @@
         <v>2546.33</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="16">
         <v>43390</v>
       </c>
@@ -22318,7 +22330,7 @@
         <v>2561.61</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="16">
         <v>43391</v>
       </c>
@@ -22329,7 +22341,7 @@
         <v>2486.42</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="16">
         <v>43392</v>
       </c>
@@ -22340,7 +22352,7 @@
         <v>2550.4699999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="16">
         <v>43395</v>
       </c>
@@ -22351,7 +22363,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="16">
         <v>43396</v>
       </c>
@@ -22362,7 +22374,7 @@
         <v>2594.83</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="16">
         <v>43397</v>
       </c>
@@ -22373,7 +22385,7 @@
         <v>2603.3000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="16">
         <v>43398</v>
       </c>
@@ -22384,7 +22396,7 @@
         <v>2603.8000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="16">
         <v>43399</v>
       </c>
@@ -22395,7 +22407,7 @@
         <v>2598.85</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="16">
         <v>43402</v>
       </c>
@@ -22406,7 +22418,7 @@
         <v>2542.1</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="16">
         <v>43403</v>
       </c>
@@ -22417,7 +22429,7 @@
         <v>2568.0500000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="16">
         <v>43404</v>
       </c>
@@ -22428,7 +22440,7 @@
         <v>2602.7800000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="16">
         <v>43405</v>
       </c>
@@ -22439,7 +22451,7 @@
         <v>2606.2399999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="16">
         <v>43406</v>
       </c>
@@ -22450,7 +22462,7 @@
         <v>2676.48</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="16">
         <v>43409</v>
       </c>
@@ -22461,7 +22473,7 @@
         <v>2665.43</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="16">
         <v>43410</v>
       </c>
@@ -22472,7 +22484,7 @@
         <v>2659.36</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="16">
         <v>43411</v>
       </c>
@@ -22483,7 +22495,7 @@
         <v>2641.34</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="16">
         <v>43412</v>
       </c>
@@ -22494,7 +22506,7 @@
         <v>2635.63</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="16">
         <v>43413</v>
       </c>
@@ -22505,7 +22517,7 @@
         <v>2598.87</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="16">
         <v>43416</v>
       </c>
@@ -22516,7 +22528,7 @@
         <v>2630.52</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="16">
         <v>43417</v>
       </c>
@@ -22527,7 +22539,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="16">
         <v>43418</v>
       </c>
@@ -22538,7 +22550,7 @@
         <v>2632.24</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="16">
         <v>43419</v>
       </c>
@@ -22549,7 +22561,7 @@
         <v>2668.17</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="16">
         <v>43420</v>
       </c>
@@ -22560,7 +22572,7 @@
         <v>2679.11</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="16">
         <v>43423</v>
       </c>
@@ -22571,7 +22583,7 @@
         <v>2703.51</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="16">
         <v>43424</v>
       </c>
@@ -22582,7 +22594,7 @@
         <v>2645.85</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="16">
         <v>43425</v>
       </c>
@@ -22593,7 +22605,7 @@
         <v>2651.51</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="16">
         <v>43426</v>
       </c>
@@ -22604,7 +22616,7 @@
         <v>2645.43</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="16">
         <v>43427</v>
       </c>
@@ -22615,7 +22627,7 @@
         <v>2579.48</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="16">
         <v>43430</v>
       </c>
@@ -22626,7 +22638,7 @@
         <v>2575.81</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="16">
         <v>43431</v>
       </c>
@@ -22637,7 +22649,7 @@
         <v>2574.6799999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="16">
         <v>43432</v>
       </c>
@@ -22648,7 +22660,7 @@
         <v>2601.7399999999998</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="16">
         <v>43433</v>
       </c>
@@ -22659,7 +22671,7 @@
         <v>2567.44</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="16">
         <v>43434</v>
       </c>
@@ -22670,7 +22682,7 @@
         <v>2588.19</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="16">
         <v>43437</v>
       </c>
@@ -22681,7 +22693,7 @@
         <v>2654.8</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="16">
         <v>43438</v>
       </c>
@@ -22692,7 +22704,7 @@
         <v>2665.96</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="16">
         <v>43439</v>
       </c>
@@ -22703,7 +22715,7 @@
         <v>2649.81</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="16">
         <v>43440</v>
       </c>
@@ -22714,7 +22726,7 @@
         <v>2605.1799999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="16">
         <v>43441</v>
       </c>
@@ -22725,7 +22737,7 @@
         <v>2605.89</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="16">
         <v>43444</v>
       </c>
@@ -22736,7 +22748,7 @@
         <v>2584.58</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="16">
         <v>43445</v>
       </c>
@@ -22747,7 +22759,7 @@
         <v>2594.09</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="16">
         <v>43446</v>
       </c>
@@ -22758,7 +22770,7 @@
         <v>2602.15</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="16">
         <v>43447</v>
       </c>
@@ -22769,7 +22781,7 @@
         <v>2634.05</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="16">
         <v>43448</v>
       </c>
@@ -22780,7 +22792,7 @@
         <v>2593.7399999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="16">
         <v>43451</v>
       </c>
@@ -22791,7 +22803,7 @@
         <v>2597.9699999999998</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="16">
         <v>43452</v>
       </c>
@@ -22802,7 +22814,7 @@
         <v>2576.65</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="16">
         <v>43453</v>
       </c>
@@ -22813,7 +22825,7 @@
         <v>2549.56</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="16">
         <v>43454</v>
       </c>
@@ -22824,7 +22836,7 @@
         <v>2536.27</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="16">
         <v>43455</v>
       </c>
@@ -22835,7 +22847,7 @@
         <v>2516.25</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="16">
         <v>43458</v>
       </c>
@@ -22846,7 +22858,7 @@
         <v>2527.0100000000002</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="16">
         <v>43459</v>
       </c>
@@ -22857,7 +22869,7 @@
         <v>2504.8200000000002</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="16">
         <v>43460</v>
       </c>
@@ -22868,7 +22880,7 @@
         <v>2498.29</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="16">
         <v>43461</v>
       </c>
@@ -22879,7 +22891,7 @@
         <v>2483.09</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="16">
         <v>43462</v>
       </c>
@@ -22890,7 +22902,7 @@
         <v>2493.9</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="16">
         <v>43467</v>
       </c>
@@ -22901,7 +22913,7 @@
         <v>2465.29</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="16">
         <v>43468</v>
       </c>
@@ -22912,7 +22924,7 @@
         <v>2464.36</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="16">
         <v>43469</v>
       </c>
@@ -22923,7 +22935,7 @@
         <v>2514.87</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="16">
         <v>43472</v>
       </c>
@@ -22934,7 +22946,7 @@
         <v>2533.09</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="16">
         <v>43473</v>
       </c>
@@ -22945,7 +22957,7 @@
         <v>2525.46</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="16">
         <v>43474</v>
       </c>
@@ -22956,7 +22968,7 @@
         <v>2544.34</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="16">
         <v>43475</v>
       </c>
@@ -22967,7 +22979,7 @@
         <v>2535.1</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="16">
         <v>43476</v>
       </c>
@@ -22978,7 +22990,7 @@
         <v>2553.83</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="16">
         <v>43479</v>
       </c>
@@ -22989,7 +23001,7 @@
         <v>2535.77</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="16">
         <v>43480</v>
       </c>
@@ -23000,7 +23012,7 @@
         <v>2570.34</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="16">
         <v>43481</v>
       </c>
@@ -23011,7 +23023,7 @@
         <v>2570.42</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="16">
         <v>43482</v>
       </c>
@@ -23022,7 +23034,7 @@
         <v>2559.64</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="16">
         <v>43483</v>
       </c>
@@ -23033,7 +23045,7 @@
         <v>2596.0100000000002</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="16">
         <v>43486</v>
       </c>
@@ -23044,7 +23056,7 @@
         <v>2610.5100000000002</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="16">
         <v>43487</v>
       </c>
@@ -23055,7 +23067,7 @@
         <v>2579.6999999999998</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="16">
         <v>43488</v>
       </c>
@@ -23066,7 +23078,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="16">
         <v>43489</v>
       </c>
@@ -23077,7 +23089,7 @@
         <v>2591.69</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="16">
         <v>43490</v>
       </c>
@@ -23088,7 +23100,7 @@
         <v>2601.7199999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="16">
         <v>43493</v>
       </c>
@@ -23099,7 +23111,7 @@
         <v>2596.98</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="16">
         <v>43494</v>
       </c>
@@ -23110,7 +23122,7 @@
         <v>2594.25</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="16">
         <v>43495</v>
       </c>
@@ -23121,7 +23133,7 @@
         <v>2575.58</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="16">
         <v>43496</v>
       </c>
@@ -23132,7 +23144,7 @@
         <v>2584.5700000000002</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="16">
         <v>43497</v>
       </c>
@@ -23143,7 +23155,7 @@
         <v>2618.23</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="16">
         <v>43507</v>
       </c>
@@ -23154,7 +23166,7 @@
         <v>2653.9</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="16">
         <v>43508</v>
       </c>
@@ -23165,7 +23177,7 @@
         <v>2671.89</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="16">
         <v>43509</v>
       </c>
@@ -23176,7 +23188,7 @@
         <v>2721.07</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="16">
         <v>43510</v>
       </c>
@@ -23187,7 +23199,7 @@
         <v>2719.7</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="16">
         <v>43511</v>
       </c>
@@ -23198,7 +23210,7 @@
         <v>2682.39</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="16">
         <v>43514</v>
       </c>
@@ -23209,7 +23221,7 @@
         <v>2754.36</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="16">
         <v>43515</v>
       </c>
@@ -23220,7 +23232,7 @@
         <v>2755.65</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="16">
         <v>43516</v>
       </c>
@@ -23231,7 +23243,7 @@
         <v>2761.22</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="16">
         <v>43517</v>
       </c>
@@ -23242,7 +23254,7 @@
         <v>2751.8</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="16">
         <v>43518</v>
       </c>
@@ -23253,7 +23265,7 @@
         <v>2804.23</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="16">
         <v>43521</v>
       </c>
@@ -23264,7 +23276,7 @@
         <v>2961.28</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="16">
         <v>43522</v>
       </c>
@@ -23275,7 +23287,7 @@
         <v>2941.52</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="16">
         <v>43523</v>
       </c>
@@ -23286,7 +23298,7 @@
         <v>2953.82</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="16">
         <v>43524</v>
       </c>
@@ -23297,7 +23309,7 @@
         <v>2940.95</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="16">
         <v>43525</v>
       </c>
@@ -23308,7 +23320,7 @@
         <v>2994.01</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="16">
         <v>43528</v>
       </c>
@@ -23319,7 +23331,7 @@
         <v>3027.58</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="16">
         <v>43529</v>
       </c>
@@ -23330,7 +23342,7 @@
         <v>3054.25</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="16">
         <v>43530</v>
       </c>
@@ -23341,7 +23353,7 @@
         <v>3102.1</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="16">
         <v>43531</v>
       </c>
@@ -23352,7 +23364,7 @@
         <v>3106.42</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="16">
         <v>43532</v>
       </c>
@@ -23363,7 +23375,7 @@
         <v>2969.86</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="16">
         <v>43535</v>
       </c>
@@ -23374,7 +23386,7 @@
         <v>3026.99</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="16">
         <v>43536</v>
       </c>
@@ -23385,7 +23397,7 @@
         <v>3060.31</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="16">
         <v>43537</v>
       </c>
@@ -23396,7 +23408,7 @@
         <v>3026.95</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="16">
         <v>43538</v>
       </c>
@@ -23407,7 +23419,7 @@
         <v>2990.69</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" s="16">
         <v>43539</v>
       </c>
@@ -23418,7 +23430,7 @@
         <v>3021.75</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" s="16">
         <v>43542</v>
       </c>
@@ -23429,7 +23441,7 @@
         <v>3096.42</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="16">
         <v>43543</v>
       </c>
@@ -23440,7 +23452,7 @@
         <v>3090.98</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="16">
         <v>43544</v>
       </c>
@@ -23451,7 +23463,7 @@
         <v>3090.64</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="16">
         <v>43545</v>
       </c>
@@ -23462,7 +23474,7 @@
         <v>3101.46</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="16">
         <v>43546</v>
       </c>
@@ -23473,7 +23485,7 @@
         <v>3104.15</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="16">
         <v>43549</v>
       </c>
@@ -23484,7 +23496,7 @@
         <v>3043.03</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="16">
         <v>43550</v>
       </c>
@@ -23495,7 +23507,7 @@
         <v>2997.1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="16">
         <v>43551</v>
       </c>
@@ -23506,7 +23518,7 @@
         <v>3022.72</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="16">
         <v>43552</v>
       </c>
@@ -23517,7 +23529,7 @@
         <v>2994.94</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="16">
         <v>43553</v>
       </c>
@@ -23528,7 +23540,7 @@
         <v>3090.76</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="16">
         <v>43556</v>
       </c>
@@ -23539,7 +23551,7 @@
         <v>3170.36</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="16">
         <v>43557</v>
       </c>
@@ -23550,7 +23562,7 @@
         <v>3176.82</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="16">
         <v>43558</v>
       </c>
@@ -23561,7 +23573,7 @@
         <v>3216.3</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="16">
         <v>43559</v>
       </c>
@@ -23572,7 +23584,7 @@
         <v>3246.57</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="16">
         <v>43563</v>
       </c>
@@ -23583,7 +23595,7 @@
         <v>3244.81</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="16">
         <v>43564</v>
       </c>
@@ -23594,7 +23606,7 @@
         <v>3239.66</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="16">
         <v>43565</v>
       </c>
@@ -23605,7 +23617,7 @@
         <v>3241.93</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="16">
         <v>43566</v>
       </c>
@@ -23616,7 +23628,7 @@
         <v>3189.96</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="16">
         <v>43567</v>
       </c>
@@ -23627,7 +23639,7 @@
         <v>3188.63</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="16">
         <v>43570</v>
       </c>
@@ -23638,7 +23650,7 @@
         <v>3177.79</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="16">
         <v>43571</v>
       </c>
@@ -23649,7 +23661,7 @@
         <v>3253.6</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="16">
         <v>43572</v>
       </c>
@@ -23660,7 +23672,7 @@
         <v>3263.12</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="16">
         <v>43573</v>
       </c>
@@ -23671,7 +23683,7 @@
         <v>3250.2</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="16">
         <v>43574</v>
       </c>
@@ -23682,7 +23694,7 @@
         <v>3270.8</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="16">
         <v>43577</v>
       </c>
@@ -23693,7 +23705,7 @@
         <v>3215.04</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" s="16">
         <v>43578</v>
       </c>
@@ -23704,7 +23716,7 @@
         <v>3198.59</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" s="16">
         <v>43579</v>
       </c>
@@ -23715,7 +23727,7 @@
         <v>3201.61</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="16">
         <v>43580</v>
       </c>
@@ -23726,7 +23738,7 @@
         <v>3123.83</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="16">
         <v>43581</v>
       </c>
@@ -23737,7 +23749,7 @@
         <v>3086.4</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="16">
         <v>43584</v>
       </c>
@@ -23748,7 +23760,7 @@
         <v>3062.5</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="16">
         <v>43585</v>
       </c>
@@ -23759,7 +23771,7 @@
         <v>3078.34</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="16">
         <v>43591</v>
       </c>
@@ -23770,7 +23782,7 @@
         <v>2906.46</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="16">
         <v>43592</v>
       </c>
@@ -23781,7 +23793,7 @@
         <v>2926.39</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="16">
         <v>43593</v>
       </c>
@@ -23792,7 +23804,7 @@
         <v>2893.76</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="16">
         <v>43594</v>
       </c>
@@ -23803,7 +23815,7 @@
         <v>2850.95</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="16">
         <v>43595</v>
       </c>
@@ -23814,7 +23826,7 @@
         <v>2939.21</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="16">
         <v>43598</v>
       </c>
@@ -23825,25 +23837,31 @@
         <v>2903.71</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="16">
         <v>43599</v>
       </c>
+      <c r="B818" s="15">
+        <v>59.64</v>
+      </c>
       <c r="C818">
         <v>2883.61</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="16">
         <v>43600</v>
       </c>
-    </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C819">
+        <v>2938.68</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="16">
         <v>43601</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="16">
         <v>43602</v>
       </c>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298C262-F76D-42B9-9853-4B01FEF823B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D9AA25-89C7-40B0-AFCA-D73E69FE67E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20820892383129141</c:v>
+                  <c:v>0.23511253289974968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$818</c:f>
+              <c:f>Sheet1!$A$2:$A$819</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="817"/>
+                <c:ptCount val="818"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3848,16 +3848,19 @@
                 </c:pt>
                 <c:pt idx="816">
                   <c:v>43599</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>43600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$818</c:f>
+              <c:f>Sheet1!$B$2:$B$819</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="817"/>
+                <c:ptCount val="818"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6308,6 +6311,9 @@
                 </c:pt>
                 <c:pt idx="816">
                   <c:v>59.64</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>59.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6363,10 +6369,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$818</c:f>
+              <c:f>Sheet1!$A$2:$A$819</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="817"/>
+                <c:ptCount val="818"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8817,16 +8823,19 @@
                 </c:pt>
                 <c:pt idx="816">
                   <c:v>43599</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>43600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$818</c:f>
+              <c:f>Sheet1!$C$2:$C$819</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="817"/>
+                <c:ptCount val="818"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11277,6 +11286,9 @@
                 </c:pt>
                 <c:pt idx="816">
                   <c:v>2883.61</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>2938.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14316,7 +14328,7 @@
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-14</v>
+        <v>说明:2017年统计范围为年初至2019-5-15</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14330,11 +14342,11 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14344,7 +14356,7 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>20.820892383129141</v>
+        <v>23.511253289974967</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -14456,7 +14468,7 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.20820892383129141</v>
+        <v>0.23511253289974968</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -14685,7 +14697,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-14</v>
+        <v>说明:2019年统计范围为年初至2019-5-15</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14836,7 +14848,7 @@
   <dimension ref="A1:N821"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A786" workbookViewId="0">
-      <selection activeCell="B819" sqref="B819"/>
+      <selection activeCell="B820" sqref="B820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23852,6 +23864,9 @@
       <c r="A819" s="16">
         <v>43600</v>
       </c>
+      <c r="B819" s="15">
+        <v>59.85</v>
+      </c>
       <c r="C819">
         <v>2938.68</v>
       </c>
@@ -23859,6 +23874,9 @@
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="16">
         <v>43601</v>
+      </c>
+      <c r="C820">
+        <v>2955.71</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D9AA25-89C7-40B0-AFCA-D73E69FE67E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232DA108-7563-4069-AC95-5DB4458CE65C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23511253289974968</c:v>
+                  <c:v>0.24188362922627249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$819</c:f>
+              <c:f>Sheet1!$A$2:$A$820</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="818"/>
+                <c:ptCount val="819"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3851,16 +3851,19 @@
                 </c:pt>
                 <c:pt idx="817">
                   <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>43601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$819</c:f>
+              <c:f>Sheet1!$B$2:$B$820</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="818"/>
+                <c:ptCount val="819"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6314,6 +6317,9 @@
                 </c:pt>
                 <c:pt idx="817">
                   <c:v>59.85</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>59.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6369,10 +6375,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$819</c:f>
+              <c:f>Sheet1!$A$2:$A$820</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="818"/>
+                <c:ptCount val="819"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8826,16 +8832,19 @@
                 </c:pt>
                 <c:pt idx="817">
                   <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>43601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$819</c:f>
+              <c:f>Sheet1!$C$2:$C$820</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="818"/>
+                <c:ptCount val="819"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11289,6 +11298,9 @@
                 </c:pt>
                 <c:pt idx="817">
                   <c:v>2938.68</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>2955.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14328,7 +14340,7 @@
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-15</v>
+        <v>说明:2017年统计范围为年初至2019-5-16</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14342,11 +14354,11 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14356,7 +14368,7 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>23.511253289974967</v>
+        <v>24.188362922627249</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -14468,7 +14480,7 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.23511253289974968</v>
+        <v>0.24188362922627249</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -14697,7 +14709,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-15</v>
+        <v>说明:2019年统计范围为年初至2019-5-16</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14848,7 +14860,7 @@
   <dimension ref="A1:N821"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A786" workbookViewId="0">
-      <selection activeCell="B820" sqref="B820"/>
+      <selection activeCell="D820" sqref="D820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23875,6 +23887,9 @@
       <c r="A820" s="16">
         <v>43601</v>
       </c>
+      <c r="B820" s="15">
+        <v>59.79</v>
+      </c>
       <c r="C820">
         <v>2955.71</v>
       </c>
@@ -23882,6 +23897,9 @@
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="16">
         <v>43602</v>
+      </c>
+      <c r="C821">
+        <v>2882.3</v>
       </c>
     </row>
   </sheetData>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232DA108-7563-4069-AC95-5DB4458CE65C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A25534-A7FC-4C61-AC8F-D328D6B96D61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24188362922627249</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$820</c:f>
+              <c:f>Sheet1!$A$2:$A$821</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="819"/>
+                <c:ptCount val="820"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3854,16 +3854,19 @@
                 </c:pt>
                 <c:pt idx="818">
                   <c:v>43601</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>43602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$820</c:f>
+              <c:f>Sheet1!$B$2:$B$821</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="819"/>
+                <c:ptCount val="820"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6320,6 +6323,9 @@
                 </c:pt>
                 <c:pt idx="818">
                   <c:v>59.79</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>59.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6375,10 +6381,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$820</c:f>
+              <c:f>Sheet1!$A$2:$A$821</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="819"/>
+                <c:ptCount val="820"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8835,16 +8841,19 @@
                 </c:pt>
                 <c:pt idx="818">
                   <c:v>43601</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>43602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$820</c:f>
+              <c:f>Sheet1!$C$2:$C$821</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="819"/>
+                <c:ptCount val="820"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11301,6 +11310,9 @@
                 </c:pt>
                 <c:pt idx="818">
                   <c:v>2955.71</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>2882.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13804,15 +13816,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>793</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>797</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>433389</xdr:colOff>
-      <xdr:row>816</xdr:row>
-      <xdr:rowOff>100015</xdr:rowOff>
+      <xdr:colOff>280989</xdr:colOff>
+      <xdr:row>820</xdr:row>
+      <xdr:rowOff>166690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14340,7 +14352,7 @@
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-16</v>
+        <v>说明:2017年统计范围为年初至1900-1-0</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14354,11 +14366,11 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43601</v>
+        <v>0</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14368,7 +14380,7 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>24.188362922627249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -14480,7 +14492,7 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.24188362922627249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -14709,7 +14721,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-16</v>
+        <v>说明:2019年统计范围为年初至1900-1-0</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14857,10 +14869,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N821"/>
+  <dimension ref="A1:N826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A786" workbookViewId="0">
-      <selection activeCell="D820" sqref="D820"/>
+    <sheetView tabSelected="1" topLeftCell="A783" workbookViewId="0">
+      <selection activeCell="C823" sqref="C823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23898,8 +23910,39 @@
       <c r="A821" s="16">
         <v>43602</v>
       </c>
+      <c r="B821" s="15">
+        <v>59.71</v>
+      </c>
       <c r="C821">
         <v>2882.3</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A822" s="16">
+        <v>43605</v>
+      </c>
+      <c r="C822">
+        <v>2870.6</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A823" s="16">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A824" s="16">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A825" s="16">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A826" s="16">
+        <v>43609</v>
       </c>
     </row>
   </sheetData>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A25534-A7FC-4C61-AC8F-D328D6B96D61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C8E9C-3D69-4BA6-9F42-FCC0A52619AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.21627886013586561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$821</c:f>
+              <c:f>Sheet1!$A$2:$A$823</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="820"/>
+                <c:ptCount val="822"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3857,16 +3857,22 @@
                 </c:pt>
                 <c:pt idx="819">
                   <c:v>43602</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>43605</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>43606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$821</c:f>
+              <c:f>Sheet1!$B$2:$B$823</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="820"/>
+                <c:ptCount val="822"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6326,6 +6332,12 @@
                 </c:pt>
                 <c:pt idx="819">
                   <c:v>59.71</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>59.69</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>59.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6381,10 +6393,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$821</c:f>
+              <c:f>Sheet1!$A$2:$A$823</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="820"/>
+                <c:ptCount val="822"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8844,16 +8856,22 @@
                 </c:pt>
                 <c:pt idx="819">
                   <c:v>43602</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>43605</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>43606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$821</c:f>
+              <c:f>Sheet1!$C$2:$C$823</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="820"/>
+                <c:ptCount val="822"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11313,6 +11331,12 @@
                 </c:pt>
                 <c:pt idx="819">
                   <c:v>2882.3</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>2870.6</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>2905.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13816,15 +13840,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>797</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>811</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>820</xdr:row>
-      <xdr:rowOff>166690</xdr:rowOff>
+      <xdr:colOff>319089</xdr:colOff>
+      <xdr:row>834</xdr:row>
+      <xdr:rowOff>176215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14352,7 +14376,7 @@
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至1900-1-0</v>
+        <v>说明:2017年统计范围为年初至2019-5-21</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14366,11 +14390,11 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43605</v>
+        <v>43607</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>0</v>
+        <v>43606</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14380,7 +14404,7 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>0</v>
+        <v>21.627886013586561</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -14492,7 +14516,7 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0</v>
+        <v>0.21627886013586561</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -14721,7 +14745,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至1900-1-0</v>
+        <v>说明:2019年统计范围为年初至2019-5-21</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14871,8 +14895,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A783" workbookViewId="0">
-      <selection activeCell="C823" sqref="C823"/>
+    <sheetView tabSelected="1" topLeftCell="A804" workbookViewId="0">
+      <selection activeCell="E812" sqref="E812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23921,6 +23945,9 @@
       <c r="A822" s="16">
         <v>43605</v>
       </c>
+      <c r="B822" s="15">
+        <v>59.69</v>
+      </c>
       <c r="C822">
         <v>2870.6</v>
       </c>
@@ -23929,10 +23956,19 @@
       <c r="A823" s="16">
         <v>43606</v>
       </c>
+      <c r="B823" s="15">
+        <v>59.58</v>
+      </c>
+      <c r="C823">
+        <v>2905.97</v>
+      </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" s="16">
         <v>43607</v>
+      </c>
+      <c r="C824">
+        <v>2891.7</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C8E9C-3D69-4BA6-9F42-FCC0A52619AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C770890-C102-4D3C-9003-6D15797256E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21627886013586561</c:v>
+                  <c:v>0.21045596075436013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14169,26 +14169,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -14201,7 +14201,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2010</v>
@@ -14228,7 +14228,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>0.17810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -14373,10 +14373,10 @@
         <v>-0.1615</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-21</v>
+        <v>说明:2017年统计范围为年初至2019-5-22</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14387,14 +14387,14 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14404,10 +14404,10 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>21.627886013586561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>21.045596075436013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O10" s="13">
         <v>2010</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>-6.88E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O11" s="13">
         <v>2011</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>-0.22420000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O12" s="13">
         <v>2012</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O13" s="13">
         <v>2013</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O14" s="13">
         <v>2014</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O15" s="13">
         <v>2015</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O16" s="13">
         <v>2016</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>-0.12909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O17" s="13">
         <v>2017</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" s="13">
         <v>2018</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>-0.28253486362704305</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O19" s="13">
         <v>2019</v>
       </c>
@@ -14516,10 +14516,10 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.21627886013586561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.21045596075436013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
@@ -14534,7 +14534,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>2010</v>
@@ -14567,7 +14567,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>0.54120000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>2</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>0.27760000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -14742,10 +14742,10 @@
         <v>-1.46E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-21</v>
+        <v>说明:2019年统计范围为年初至2019-5-22</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14758,7 +14758,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -14771,7 +14771,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -14784,7 +14784,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -14797,7 +14797,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -14810,7 +14810,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -14823,7 +14823,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -14836,7 +14836,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -14849,7 +14849,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -14862,7 +14862,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -14895,18 +14895,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A804" workbookViewId="0">
-      <selection activeCell="E812" sqref="E812"/>
+    <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
+      <selection activeCell="B825" sqref="B825"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>42373</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>3296.2579999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>42374</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>3287.7109999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>42375</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>3361.84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>42376</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>3125.002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>42377</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>3186.4119999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>42380</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>3016.7040000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>42381</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>3022.8609999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>42382</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>服务器返回出错！</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>42383</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>3007.6489999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>42384</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>2900.9697999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>42387</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>2913.8366999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>42388</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>3007.7393000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>42389</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>2976.694</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>42390</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>2880.482</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>42391</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>2916.5619999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>42394</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>2938.5149999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>42395</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>2749.7849999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>42396</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>2735.558</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>42397</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>2655.6610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>42398</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>2737.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>42401</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>2688.8539999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>42402</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>2749.57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>42403</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>2739.2469999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>42404</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>2781.0230000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>42405</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>2763.4920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>42415</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>2746.1959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>42416</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>2836.5709999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>42417</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>2867.3380000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>42418</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>2862.893</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>42419</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>2860.0210000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>42422</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>2927.1750000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>42423</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>2903.3310000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>42424</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>2928.8960000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>42425</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>2741.2449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>42426</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>2767.21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>42429</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>2687.9789999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>42430</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>2733.17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>42431</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>2849.681</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>42432</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>2859.7579999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>42433</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>2874.1469999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>42436</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>2897.34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>42437</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>2901.3870000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>42438</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>2862.556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>42439</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>2804.7260000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>42440</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>2810.3069999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>42443</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>2859.4989999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>42444</v>
       </c>
@@ -15438,7 +15438,7 @@
         <v>2864.3679999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>42445</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>2870.43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>42446</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>2904.8319999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>42447</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>2955.15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>42450</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>3018.8020000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>42451</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>2999.3629999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>42452</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>3009.96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>42453</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>2960.97</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>42454</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>2979.4340000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>42457</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>2957.82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>42458</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>2919.8319999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>42459</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>3000.645</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>42460</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>3003.915</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>42461</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>3009.53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>42465</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>3053.0650000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>42466</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>3050.5920000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>42467</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>3008.42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>42468</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>2984.9580000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>42471</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>3033.9569999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>42472</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>3023.6460000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>42473</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>3066.6379999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>42474</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>3082.3620000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>42475</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>3078.1170000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>42478</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>3033.66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>42479</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>3042.8229999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>42480</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>2972.5839999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>42481</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>2952.8910000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>42482</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>2959.24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>42485</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>2946.67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>42486</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>2964.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>42487</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>2953.6709999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>42488</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>2945.5889999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>42489</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>2938.3240000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>42493</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>2992.643</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>42494</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>2991.2719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>42495</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>2997.8420000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>42496</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>2913.248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>42499</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>2832.1129999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>42500</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>2832.5909999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>42501</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>2837.0369999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>42502</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>2835.8620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>42503</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>2827.1089999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>42506</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>2850.8620000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>42507</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>2843.6840000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>42508</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>2807.5140000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>42509</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>2806.9059999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>42510</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>2825.4830000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>42513</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>2843.645</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>42514</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>2821.6660000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>42515</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>2815.0862999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>42516</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>2822.4430000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>42517</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>2821.0459999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>42520</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>2822.451</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>42521</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>2916.616</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>42522</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>2913.5079999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>42523</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>2925.2289999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>42524</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>2938.6819999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>42527</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>2934.098</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>42528</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>2936.0450000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>42529</v>
       </c>
@@ -16087,7 +16087,7 @@
         <v>2927.1590000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>42534</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>2833.0709999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>42535</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>2842.1889999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>42536</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>2887.21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>42537</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>2872.817</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>42538</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>2885.105</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>42541</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>2888.8090000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>42542</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>2878.558</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>42543</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>2905.55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>42544</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>2891.96</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>42545</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>2854.2860000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>42548</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>2895.703</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>42549</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>2912.5569999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>42550</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>2931.5920000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>42551</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>2929.6060000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>42552</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>2932.4760000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>42555</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>2988.6039999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>42556</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>3006.3919999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>42557</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>3017.2919999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>42558</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>3016.8470000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>42559</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>2988.0940000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>42562</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>2994.9169999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>42563</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>3049.3809999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>42564</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>3060.6889999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>42565</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>3054.018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>42566</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>3054.2959999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>42569</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>3043.5639999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>42570</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>3036.598</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>42571</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>3027.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>42572</v>
       </c>
@@ -16406,7 +16406,7 @@
         <v>3039.009</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>42573</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>3012.8159999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>42576</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>3015.828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>42577</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>3050.1660000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>42578</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>2991.9989999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>42579</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>2994.3229999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>42580</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>2979.3389999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>42583</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>2953.3850000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>42584</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>2971.279</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>42585</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>2978.4609999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>42586</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>2982.4259999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>42587</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>2976.6959999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>42590</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>3004.277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>42591</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>3025.681</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>42592</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>3018.7460000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>42593</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>3002.6379999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>42594</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>3050.6669999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>42597</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>3125.1950000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>42598</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>3110.0369999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>42599</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>3109.5549999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>42600</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>3104.114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>42601</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>3108.1019999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>42604</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>3084.8049999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>42605</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>3089.7060000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>42606</v>
       </c>
@@ -16670,7 +16670,7 @@
         <v>3085.88</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>42607</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>3068.3290000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>42608</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>3070.3090000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>42611</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>3070.027</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>42612</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>3074.6770000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>42613</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>3085.491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>42614</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>3063.3049999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>42615</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>3067.3519999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>42618</v>
       </c>
@@ -16758,7 +16758,7 @@
         <v>3072.0949999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>42619</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>3090.7130000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>42620</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>3091.9279999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>42621</v>
       </c>
@@ -16791,7 +16791,7 @@
         <v>3095.9540000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>42622</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>3078.855</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>42625</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>3021.9769999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>42626</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>3023.51</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>42627</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>3002.8490000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>42632</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>3026.0509999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>42633</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>42634</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>3025.8739999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>42635</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>3042.3130000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>42636</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>3033.8960000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>42639</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>2980.43</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>42640</v>
       </c>
@@ -16912,7 +16912,7 @@
         <v>2998.172</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>42641</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>2987.8580000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>42642</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>2998.4830000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>42643</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>3004.703</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>42653</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>3048.143</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>42654</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>3065.25</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>42655</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>3058.498</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>42656</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>3061.346</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="16">
         <v>42657</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>3063.8090000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>42660</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>3041.1660000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>42661</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>3083.875</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>42662</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>3084.7190000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>42663</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>3084.4580000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>42664</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>3090.9409999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>42667</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>3128.2469999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>42668</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>3131.9389999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>42669</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>3116.3119999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>42670</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>3112.35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>42671</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>3104.27</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>42674</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>3100.4920000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>42675</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>3122.4360000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>42676</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>3102.7330000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>42677</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>3128.9360000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>42678</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>3125.317</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>42681</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>3133.3330000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>42682</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>3147.8879999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>42683</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>3128.37</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>42684</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>3171.2820000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>42685</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>3196.0439999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>42688</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>3210.3710000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="16">
         <v>42689</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>3206.9859999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="16">
         <v>42690</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>3205.0569999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>42691</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>3208.453</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>42692</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>3192.8560000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="16">
         <v>42695</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>3218.1480000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>42696</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>3248.3519999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>42697</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>3241.1370000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>42698</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>3241.7359999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>42699</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>3261.9380000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>42702</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>42703</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>3282.924</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="16">
         <v>42704</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>3250.0340000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>42705</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>3273.3090000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>42706</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>3243.8429999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="16">
         <v>42709</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>3204.7089999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>42710</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>3199.6469999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="16">
         <v>42711</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>3222.2420000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="16">
         <v>42712</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>3215.366</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="16">
         <v>42713</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>3232.8829999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="16">
         <v>42716</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>3152.97</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="16">
         <v>42717</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>3155.0369999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>42718</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>3140.5309999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="16">
         <v>42719</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>3117.6770000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="16">
         <v>42720</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>3122.982</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>42723</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>3118.0846000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>42724</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>3102.8759</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>42725</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>3137.4297000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>42726</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>3139.558</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
         <v>42727</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>3110.1543999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>42730</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>3122.569</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>42731</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>3114.6640000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="16">
         <v>42732</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>3102.2357000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>42733</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>3096.0967999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="16">
         <v>42734</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>3103.6372999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>42738</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>3135.9207999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="16">
         <v>42739</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>3158.7939999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>42740</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>3165.4108999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="16">
         <v>42741</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>3154.3209999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="16">
         <v>42744</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>3171.2361999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>42745</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>3161.6713</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="16">
         <v>42746</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>3136.7534999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="16">
         <v>42747</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>3119.2885999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>42748</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>3112.7644</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>42751</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>3103.4279999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="16">
         <v>42752</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>3108.7746000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>42753</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>3113.0122999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>42754</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>3101.2991999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>42755</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>3123.1388999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="16">
         <v>42758</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>3136.7748000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>42759</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>3142.5533</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="16">
         <v>42760</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>3149.5547000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>42761</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>3159.1660000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="16">
         <v>42769</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>3140.17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="16">
         <v>42772</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>3156.9838</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>42773</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>3153.0877999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="16">
         <v>42774</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>3166.9818</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>42775</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>3183.1794</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>42776</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>3196.6990000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>42779</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>3216.8393999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>42780</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>3217.9279999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="16">
         <v>42781</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>3212.9857000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="16">
         <v>42782</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>3229.6183999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>42783</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>3202.0756000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="16">
         <v>42786</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>3239.9612999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>42787</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>3253.3256999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>42788</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>3261.2184000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="16">
         <v>42789</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>3251.375</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="16">
         <v>42790</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>3253.4326999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>42793</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>3228.6601999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>42794</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>3241.7330999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="16">
         <v>42795</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>3246.9335000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="16">
         <v>42796</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>3230.0281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="16">
         <v>42797</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>3218.3117999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>42800</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>3233.8656999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>42801</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>3242.4063000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>42802</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>3240.6646000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>42803</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>3216.7456999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>42804</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>3212.7601</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>42807</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>3237.0243999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="16">
         <v>42808</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>3239.3278</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="16">
         <v>42809</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>3241.7597000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="16">
         <v>42810</v>
       </c>
@@ -18133,7 +18133,7 @@
         <v>3268.9353999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="16">
         <v>42811</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>3237.4470999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="16">
         <v>42814</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>3250.8081999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>42815</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>3261.6107999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="16">
         <v>42816</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>3245.2197999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>42817</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>3248.5495000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="16">
         <v>42818</v>
       </c>
@@ -18199,7 +18199,7 @@
         <v>3269.4450999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>42821</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>3266.9551999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>42822</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>3252.9479000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>42823</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>3241.3144000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>42824</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>3210.2368999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="16">
         <v>42825</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>3222.5142000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="16">
         <v>42830</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>3270.3054000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="16">
         <v>42831</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>3281.0047</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>42832</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>3286.616</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>42835</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>3269.3926000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="16">
         <v>42836</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>3288.9657000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="16">
         <v>42837</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>3273.8301000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="16">
         <v>42838</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>3275.9603000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="16">
         <v>42839</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>3246.0668000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="16">
         <v>42842</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>3222.1673000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="16">
         <v>42843</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>3196.7132999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="16">
         <v>42844</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>3170.6867000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="16">
         <v>42845</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>3172.1003000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="16">
         <v>42846</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>3173.1511999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="16">
         <v>42849</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>3129.5311999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="16">
         <v>42850</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>3134.5673999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="16">
         <v>42851</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>3140.8471</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="16">
         <v>42852</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>3152.1869000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="16">
         <v>42853</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>3154.6583999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="16">
         <v>42857</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>3143.7121000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="16">
         <v>42858</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>3135.346</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="16">
         <v>42859</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>3127.3687</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>42860</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>3103.0378000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>42863</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>3078.6129000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>42864</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>3080.5268999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="16">
         <v>42865</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>3052.7849999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>42866</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>3061.5003000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="16">
         <v>42867</v>
       </c>
@@ -18551,7 +18551,7 @@
         <v>3083.5131999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>42870</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>3090.2289000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="16">
         <v>42871</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>3112.9641999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>42872</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>3104.4414999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>42873</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>3090.1390000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="16">
         <v>42874</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>3090.6309000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>42877</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>3075.6756</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>42878</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>3061.9470000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>42879</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>3064.0758999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="16">
         <v>42880</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>3107.8310999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="16">
         <v>42881</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>3110.0587</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>42886</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>3117.1777999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>42887</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>3102.6232</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>42888</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>3105.54</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>42891</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>3091.6561000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>42892</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>3102.1260000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="16">
         <v>42893</v>
       </c>
@@ -18727,7 +18727,7 @@
         <v>3140.3249000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>42894</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>3150.3335999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>42895</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>3158.4004</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="16">
         <v>42898</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>3139.8766000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>42899</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>3153.7429000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="16">
         <v>42900</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>3130.674</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="16">
         <v>42901</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>3132.4863</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>42902</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>3123.1662000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>42905</v>
       </c>
@@ -18815,7 +18815,7 @@
         <v>3144.3739</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>42906</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>3140.0136000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>42907</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>3156.2118</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="16">
         <v>42908</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>3147.4531999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="16">
         <v>42909</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>3157.873</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>42912</v>
       </c>
@@ -18870,7 +18870,7 @@
         <v>3185.4439000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="16">
         <v>42913</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>3191.1968999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="16">
         <v>42914</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>3173.2013999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="16">
         <v>42915</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>3188.0625</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>42916</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>3192.4268999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="16">
         <v>42919</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>3195.9115999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="16">
         <v>42920</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>3182.8038999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="16">
         <v>42921</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>3207.1342</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="16">
         <v>42922</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>3212.444</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="16">
         <v>42923</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>3217.9567000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="16">
         <v>42926</v>
       </c>
@@ -18980,7 +18980,7 @@
         <v>3212.6318999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="16">
         <v>42927</v>
       </c>
@@ -18991,7 +18991,7 @@
         <v>3203.0374999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="16">
         <v>42928</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>3197.5439000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>42929</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>3218.1632</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>42930</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>3222.4168</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="16">
         <v>42933</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>3176.4648000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="16">
         <v>42934</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>3187.5672</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>42935</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>3230.9762000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>42936</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>3244.8647000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>42937</v>
       </c>
@@ -19079,7 +19079,7 @@
         <v>3237.9816999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="16">
         <v>42940</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>3250.5989</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="16">
         <v>42941</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>3243.6894000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>42942</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>3247.6747999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>42943</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>3249.7813999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="16">
         <v>42944</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>3253.2404000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>42947</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>3273.0282999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="16">
         <v>42948</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>3292.6383000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>42949</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>3285.0567999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>42950</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>3272.9286000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>42951</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>3262.0808999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="16">
         <v>42954</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>3279.4566</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>42955</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>3281.8728000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>42956</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>3275.5729999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>42957</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>3261.7494000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>42958</v>
       </c>
@@ -19244,7 +19244,7 @@
         <v>3208.5412999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>42961</v>
       </c>
@@ -19255,7 +19255,7 @@
         <v>3237.3602000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="16">
         <v>42962</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>3251.2617</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="16">
         <v>42963</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>3246.4512</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="16">
         <v>42964</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>3268.4297999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>42965</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>3268.7242999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="16">
         <v>42968</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>3286.9054999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="16">
         <v>42969</v>
       </c>
@@ -19321,7 +19321,7 @@
         <v>3290.2257</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="16">
         <v>42970</v>
       </c>
@@ -19332,7 +19332,7 @@
         <v>3287.7049000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="16">
         <v>42971</v>
       </c>
@@ -19343,7 +19343,7 @@
         <v>3271.5117</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="16">
         <v>42972</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>3331.5221000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="16">
         <v>42975</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>3362.6514000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="16">
         <v>42976</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>3365.2260999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="16">
         <v>42977</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>3363.6266000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="16">
         <v>42978</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>3360.8103000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="16">
         <v>42979</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>3367.1194</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="16">
         <v>42982</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>3379.5830000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="16">
         <v>42983</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>3384.317</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="16">
         <v>42984</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>3385.3888000000002</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="16">
         <v>42985</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>3365.4974000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="16">
         <v>42986</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>3365.2426</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="16">
         <v>42989</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>3376.4187999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="16">
         <v>42990</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>3379.4879999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="16">
         <v>42991</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>3384.1469999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="16">
         <v>42992</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>3371.4256</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="16">
         <v>42993</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>3353.6192000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="16">
         <v>42996</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>3362.8587000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="16">
         <v>42997</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>3356.8445999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="16">
         <v>42998</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>3365.9958999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="16">
         <v>42999</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>3357.8123000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="16">
         <v>43000</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>3352.5293999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="16">
         <v>43003</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>3341.5486999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="16">
         <v>43004</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>3343.5826000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="16">
         <v>43005</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>3345.2716999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="16">
         <v>43006</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>3339.6421</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="16">
         <v>43007</v>
       </c>
@@ -19629,7 +19629,7 @@
         <v>3348.9431</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="16">
         <v>43017</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>3374.3780999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="16">
         <v>43018</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>3382.9879000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="16">
         <v>43019</v>
       </c>
@@ -19662,7 +19662,7 @@
         <v>3388.2838000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="16">
         <v>43020</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>3386.1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="16">
         <v>43021</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>3390.5232999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="16">
         <v>43024</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>3378.4704000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="16">
         <v>43025</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>3372.0407</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="16">
         <v>43026</v>
       </c>
@@ -19717,7 +19717,7 @@
         <v>3381.7937000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="16">
         <v>43027</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>3370.1720999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="16">
         <v>43028</v>
       </c>
@@ -19739,7 +19739,7 @@
         <v>3378.6480999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="16">
         <v>43031</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>3380.6990000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="16">
         <v>43032</v>
       </c>
@@ -19761,7 +19761,7 @@
         <v>3388.2476999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="16">
         <v>43033</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>3396.8975</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="16">
         <v>43034</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>3407.5671000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="16">
         <v>43035</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>3416.8123999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="16">
         <v>43038</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>3390.3371000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="16">
         <v>43039</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>3393.3416999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="16">
         <v>43040</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>3395.9124999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="16">
         <v>43041</v>
       </c>
@@ -19838,7 +19838,7 @@
         <v>3383.3094999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="16">
         <v>43042</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>3371.7440999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="16">
         <v>43045</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>3388.1741999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="16">
         <v>43046</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>3413.5747999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="16">
         <v>43047</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>3415.4602</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="16">
         <v>43048</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>3427.7946000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="16">
         <v>43049</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>3432.6731</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="16">
         <v>43052</v>
       </c>
@@ -19915,7 +19915,7 @@
         <v>3447.8357999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="16">
         <v>43053</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>3429.5482000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="16">
         <v>43054</v>
       </c>
@@ -19937,7 +19937,7 @@
         <v>3402.5245</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="16">
         <v>43055</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>3399.2503000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="16">
         <v>43056</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>3382.9074999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="16">
         <v>43059</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>3392.3987999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="16">
         <v>43060</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>3410.4976999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="16">
         <v>43061</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>3430.4643000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="16">
         <v>43062</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>3351.9182000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="16">
         <v>43063</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>3353.8207000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="16">
         <v>43066</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>3322.2298000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="16">
         <v>43067</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>3333.6570000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="16">
         <v>43068</v>
       </c>
@@ -20047,7 +20047,7 @@
         <v>3337.8620000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="16">
         <v>43069</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>3317.1884</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="16">
         <v>43070</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>3317.6174000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="16">
         <v>43073</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>3309.6183000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="16">
         <v>43074</v>
       </c>
@@ -20091,7 +20091,7 @@
         <v>3303.6750999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="16">
         <v>43075</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>3293.9648000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="16">
         <v>43076</v>
       </c>
@@ -20113,7 +20113,7 @@
         <v>3272.0542</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="16">
         <v>43077</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>3289.9924000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="16">
         <v>43080</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>3322.1956</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="16">
         <v>43081</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>3280.8136</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="16">
         <v>43082</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>3303.0373</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="16">
         <v>43083</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>3292.4385000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="16">
         <v>43084</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>3266.1370999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="16">
         <v>43087</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>3267.9223999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="16">
         <v>43088</v>
       </c>
@@ -20201,7 +20201,7 @@
         <v>3296.5383999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="16">
         <v>43089</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>3287.6057000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="16">
         <v>43090</v>
       </c>
@@ -20223,7 +20223,7 @@
         <v>3300.0592999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="16">
         <v>43091</v>
       </c>
@@ -20234,7 +20234,7 @@
         <v>3297.0630000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="16">
         <v>43094</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>3280.4609999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="16">
         <v>43095</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>3306.1246000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="16">
         <v>43096</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>3275.7828</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="16">
         <v>43097</v>
       </c>
@@ -20278,7 +20278,7 @@
         <v>3296.3847000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="16">
         <v>43098</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>3307.1720999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="16">
         <v>43102</v>
       </c>
@@ -20300,7 +20300,7 @@
         <v>3348.3258999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="16">
         <v>43103</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>3369.1084000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="16">
         <v>43104</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>3385.7102</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="16">
         <v>43105</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>3391.7501000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="16">
         <v>43108</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>3409.4794999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="16">
         <v>43109</v>
       </c>
@@ -20355,7 +20355,7 @@
         <v>3413.8996000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="16">
         <v>43110</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>3421.8343</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="16">
         <v>43111</v>
       </c>
@@ -20377,7 +20377,7 @@
         <v>3425.3449000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="16">
         <v>43112</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>3428.9407000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="16">
         <v>43115</v>
       </c>
@@ -20399,7 +20399,7 @@
         <v>3410.4881999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="16">
         <v>43116</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>3436.5940000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="16">
         <v>43117</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>3444.6713</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="16">
         <v>43118</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>3474.7539999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="16">
         <v>43119</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>3487.864</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="16">
         <v>43122</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>3501.3622</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="16">
         <v>43123</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>3546.5048000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="16">
         <v>43124</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>3559.4652999999998</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="16">
         <v>43125</v>
       </c>
@@ -20487,7 +20487,7 @@
         <v>3548.3069999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="16">
         <v>43126</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>3558.1288</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="16">
         <v>43129</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>3523.0007000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="16">
         <v>43130</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>3488.009</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="16">
         <v>43131</v>
       </c>
@@ -20531,7 +20531,7 @@
         <v>3480.8334</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="16">
         <v>43132</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>3446.9798999999998</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="16">
         <v>43133</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>3462.0808000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="16">
         <v>43136</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>3487.4969999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="16">
         <v>43137</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>3370.652</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="16">
         <v>43138</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>3309.2597999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="16">
         <v>43139</v>
       </c>
@@ -20597,7 +20597,7 @@
         <v>3262.0504000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="16">
         <v>43140</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>3129.8508000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="16">
         <v>43143</v>
       </c>
@@ -20619,7 +20619,7 @@
         <v>3154.1253999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="16">
         <v>43144</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>3184.9587000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="16">
         <v>43145</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>3199.1588999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="16">
         <v>43153</v>
       </c>
@@ -20652,7 +20652,7 @@
         <v>3268.56</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="16">
         <v>43154</v>
       </c>
@@ -20663,7 +20663,7 @@
         <v>3289.02</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="16">
         <v>43157</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>3329.57</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="16">
         <v>43158</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>3292.07</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="16">
         <v>43159</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>3259.41</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="16">
         <v>43160</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>3273.76</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="16">
         <v>43161</v>
       </c>
@@ -20718,7 +20718,7 @@
         <v>3254.53</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="16">
         <v>43164</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>3256.93</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="16">
         <v>43165</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>3289.64</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="16">
         <v>43166</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>3271.67</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="16">
         <v>43167</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>3288.41</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="16">
         <v>43168</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>3307.17</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="16">
         <v>43171</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>3326.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="16">
         <v>43172</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>3310.24</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="16">
         <v>43173</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>3291.38</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="16">
         <v>43174</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>3291.11</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="16">
         <v>43175</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>3269.88</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="16">
         <v>43178</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>3279.25</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="16">
         <v>43179</v>
       </c>
@@ -20850,7 +20850,7 @@
         <v>3290.64</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="16">
         <v>43180</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>3280.95</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="16">
         <v>43181</v>
       </c>
@@ -20872,7 +20872,7 @@
         <v>3263.48</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="16">
         <v>43182</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>3152.76</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="16">
         <v>43185</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>3133.72</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="16">
         <v>43186</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>3166.65</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="16">
         <v>43187</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v>3122.29</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="16">
         <v>43188</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>3160.53</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="16">
         <v>43189</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>3168.9</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="16">
         <v>43192</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>3163.18</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="16">
         <v>43193</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>3136.63</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="16">
         <v>43194</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>3131.11</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="16">
         <v>43199</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>3138.29</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="16">
         <v>43200</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>3190.32</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="16">
         <v>43201</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>3208.08</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="16">
         <v>43202</v>
       </c>
@@ -21015,7 +21015,7 @@
         <v>3180.16</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="16">
         <v>43203</v>
       </c>
@@ -21026,7 +21026,7 @@
         <v>3159.05</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="16">
         <v>43206</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>3110.65</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="16">
         <v>43207</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>3066.8</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="16">
         <v>43208</v>
       </c>
@@ -21059,7 +21059,7 @@
         <v>3091.4</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="16">
         <v>43209</v>
       </c>
@@ -21070,7 +21070,7 @@
         <v>3117.48</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="16">
         <v>43210</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>3071.54</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="16">
         <v>43213</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>3068.01</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="16">
         <v>43214</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>3128.93</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="16">
         <v>43215</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>3117.97</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="16">
         <v>43216</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>3075.03</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="16">
         <v>43217</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>3082.23</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="16">
         <v>43222</v>
       </c>
@@ -21147,7 +21147,7 @@
         <v>3081.18</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="16">
         <v>43223</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>3100.86</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="16">
         <v>43224</v>
       </c>
@@ -21169,7 +21169,7 @@
         <v>3091.03</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="16">
         <v>43227</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>3136.64</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="16">
         <v>43228</v>
       </c>
@@ -21191,7 +21191,7 @@
         <v>3160.5</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="16">
         <v>43229</v>
       </c>
@@ -21202,7 +21202,7 @@
         <v>3159.15</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="16">
         <v>43230</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>3169.05</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="16">
         <v>43231</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>3163.26</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="16">
         <v>43234</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>3174.03</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="16">
         <v>43235</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>3192.12</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="16">
         <v>43236</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>3169.57</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="16">
         <v>43237</v>
       </c>
@@ -21268,7 +21268,7 @@
         <v>3154.28</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="16">
         <v>43238</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>3193.3</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="16">
         <v>43241</v>
       </c>
@@ -21290,7 +21290,7 @@
         <v>3213.84</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="16">
         <v>43242</v>
       </c>
@@ -21301,7 +21301,7 @@
         <v>3214.35</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="16">
         <v>43243</v>
       </c>
@@ -21312,7 +21312,7 @@
         <v>3168.96</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="16">
         <v>43244</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>3154.65</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="16">
         <v>43245</v>
       </c>
@@ -21334,7 +21334,7 @@
         <v>3141.3</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="16">
         <v>43248</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>3135.08</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="16">
         <v>43249</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>3120.46</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="16">
         <v>43250</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>3041.44</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="16">
         <v>43251</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>3095.47</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="16">
         <v>43252</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>3075.14</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="16">
         <v>43255</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>3091.19</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="16">
         <v>43256</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>3114.21</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="16">
         <v>43257</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>3115.18</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="16">
         <v>43258</v>
       </c>
@@ -21433,7 +21433,7 @@
         <v>3109.5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="16">
         <v>43259</v>
       </c>
@@ -21444,7 +21444,7 @@
         <v>3067.15</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="16">
         <v>43262</v>
       </c>
@@ -21455,7 +21455,7 @@
         <v>3052.78</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="16">
         <v>43263</v>
       </c>
@@ -21466,7 +21466,7 @@
         <v>3079.8</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="16">
         <v>43264</v>
       </c>
@@ -21477,7 +21477,7 @@
         <v>3049.8</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="16">
         <v>43265</v>
       </c>
@@ -21488,7 +21488,7 @@
         <v>3044.16</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="16">
         <v>43266</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>3021.9</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="16">
         <v>43270</v>
       </c>
@@ -21510,7 +21510,7 @@
         <v>2907.82</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="16">
         <v>43271</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>2915.73</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="16">
         <v>43272</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>2875.81</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="16">
         <v>43273</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>2889.76</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="16">
         <v>43276</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>2859.34</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="16">
         <v>43277</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>2844.51</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="16">
         <v>43278</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>2813.18</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="16">
         <v>43279</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>2786.9</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="16">
         <v>43280</v>
       </c>
@@ -21598,7 +21598,7 @@
         <v>2847.42</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="16">
         <v>43283</v>
       </c>
@@ -21609,7 +21609,7 @@
         <v>2775.56</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="16">
         <v>43284</v>
       </c>
@@ -21620,7 +21620,7 @@
         <v>2786.89</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="16">
         <v>43285</v>
       </c>
@@ -21631,7 +21631,7 @@
         <v>2759.13</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="16">
         <v>43286</v>
       </c>
@@ -21642,7 +21642,7 @@
         <v>2733.88</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="16">
         <v>43287</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>2747.23</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="16">
         <v>43290</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>2815.11</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="16">
         <v>43291</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>2827.63</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="16">
         <v>43292</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>2777.77</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="16">
         <v>43293</v>
       </c>
@@ -21697,7 +21697,7 @@
         <v>2837.66</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="16">
         <v>43294</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>2831.18</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="16">
         <v>43297</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>2814.04</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="16">
         <v>43298</v>
       </c>
@@ -21730,7 +21730,7 @@
         <v>2798.13</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="16">
         <v>43299</v>
       </c>
@@ -21741,7 +21741,7 @@
         <v>2787.26</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="16">
         <v>43300</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>2772.55</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="16">
         <v>43301</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>2829.27</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="16">
         <v>43304</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>2859.54</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="16">
         <v>43305</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>2905.56</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="16">
         <v>43306</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>2903.65</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="16">
         <v>43307</v>
       </c>
@@ -21807,7 +21807,7 @@
         <v>2882.23</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="16">
         <v>43308</v>
       </c>
@@ -21818,7 +21818,7 @@
         <v>2873.59</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="16">
         <v>43311</v>
       </c>
@@ -21829,7 +21829,7 @@
         <v>2869.05</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="16">
         <v>43312</v>
       </c>
@@ -21840,7 +21840,7 @@
         <v>2876.4</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="16">
         <v>43313</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>2824.53</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="16">
         <v>43314</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>2768.02</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="16">
         <v>43315</v>
       </c>
@@ -21873,7 +21873,7 @@
         <v>2740.44</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="16">
         <v>43318</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>2705.16</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="16">
         <v>43319</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>2779.37</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="16">
         <v>43320</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>2744.07</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="16">
         <v>43321</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>2794.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="16">
         <v>43322</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>2795.31</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="16">
         <v>43325</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>2785.87</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="16">
         <v>43326</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>2780.96</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="16">
         <v>43327</v>
       </c>
@@ -21961,7 +21961,7 @@
         <v>2723.26</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="16">
         <v>43328</v>
       </c>
@@ -21972,7 +21972,7 @@
         <v>2705.19</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="16">
         <v>43329</v>
       </c>
@@ -21983,7 +21983,7 @@
         <v>2668.97</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="16">
         <v>43332</v>
       </c>
@@ -21994,7 +21994,7 @@
         <v>2698.47</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="16">
         <v>43333</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>2733.83</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="16">
         <v>43334</v>
       </c>
@@ -22016,7 +22016,7 @@
         <v>2714.61</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="16">
         <v>43335</v>
       </c>
@@ -22027,7 +22027,7 @@
         <v>2724.62</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="16">
         <v>43336</v>
       </c>
@@ -22038,7 +22038,7 @@
         <v>2729.43</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="16">
         <v>43339</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>2780.9</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="16">
         <v>43340</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>2777.98</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="16">
         <v>43341</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>2769.29</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="16">
         <v>43342</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>2737.74</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="16">
         <v>43343</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>2725.25</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="16">
         <v>43346</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>2720.73</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="16">
         <v>43347</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>2750.58</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="16">
         <v>43348</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>2704.34</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="16">
         <v>43349</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>2691.59</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="16">
         <v>43350</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>2702.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="16">
         <v>43353</v>
       </c>
@@ -22159,7 +22159,7 @@
         <v>2669.48</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="16">
         <v>43354</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>2664.8</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="16">
         <v>43355</v>
       </c>
@@ -22181,7 +22181,7 @@
         <v>2656.11</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="16">
         <v>43356</v>
       </c>
@@ -22192,7 +22192,7 @@
         <v>2686.58</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="16">
         <v>43357</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>2681.64</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="16">
         <v>43360</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>2651.79</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="16">
         <v>43361</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>2669.95</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="16">
         <v>43362</v>
       </c>
@@ -22236,7 +22236,7 @@
         <v>2730.85</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="16">
         <v>43363</v>
       </c>
@@ -22247,7 +22247,7 @@
         <v>2729.24</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="16">
         <v>43364</v>
       </c>
@@ -22258,7 +22258,7 @@
         <v>2797.48</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="16">
         <v>43368</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>2781.14</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="16">
         <v>43369</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>2806.81</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="16">
         <v>43370</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>2791.77</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="16">
         <v>43371</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>2821.35</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="16">
         <v>43381</v>
       </c>
@@ -22313,7 +22313,7 @@
         <v>2716.51</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="16">
         <v>43382</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>2721.01</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="16">
         <v>43383</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>2725.84</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="16">
         <v>43384</v>
       </c>
@@ -22346,7 +22346,7 @@
         <v>2583.46</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="16">
         <v>43385</v>
       </c>
@@ -22357,7 +22357,7 @@
         <v>2606.91</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="16">
         <v>43388</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>2568.1</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="16">
         <v>43389</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>2546.33</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="16">
         <v>43390</v>
       </c>
@@ -22390,7 +22390,7 @@
         <v>2561.61</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="16">
         <v>43391</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>2486.42</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="16">
         <v>43392</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>2550.4699999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="16">
         <v>43395</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="16">
         <v>43396</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>2594.83</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="16">
         <v>43397</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>2603.3000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="16">
         <v>43398</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>2603.8000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="16">
         <v>43399</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>2598.85</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="16">
         <v>43402</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>2542.1</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="16">
         <v>43403</v>
       </c>
@@ -22489,7 +22489,7 @@
         <v>2568.0500000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="16">
         <v>43404</v>
       </c>
@@ -22500,7 +22500,7 @@
         <v>2602.7800000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="16">
         <v>43405</v>
       </c>
@@ -22511,7 +22511,7 @@
         <v>2606.2399999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="16">
         <v>43406</v>
       </c>
@@ -22522,7 +22522,7 @@
         <v>2676.48</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="16">
         <v>43409</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>2665.43</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="16">
         <v>43410</v>
       </c>
@@ -22544,7 +22544,7 @@
         <v>2659.36</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="16">
         <v>43411</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>2641.34</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="16">
         <v>43412</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>2635.63</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="16">
         <v>43413</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>2598.87</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="16">
         <v>43416</v>
       </c>
@@ -22588,7 +22588,7 @@
         <v>2630.52</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="16">
         <v>43417</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="16">
         <v>43418</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>2632.24</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="16">
         <v>43419</v>
       </c>
@@ -22621,7 +22621,7 @@
         <v>2668.17</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="16">
         <v>43420</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>2679.11</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="16">
         <v>43423</v>
       </c>
@@ -22643,7 +22643,7 @@
         <v>2703.51</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="16">
         <v>43424</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>2645.85</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="16">
         <v>43425</v>
       </c>
@@ -22665,7 +22665,7 @@
         <v>2651.51</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="16">
         <v>43426</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>2645.43</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="16">
         <v>43427</v>
       </c>
@@ -22687,7 +22687,7 @@
         <v>2579.48</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="16">
         <v>43430</v>
       </c>
@@ -22698,7 +22698,7 @@
         <v>2575.81</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="16">
         <v>43431</v>
       </c>
@@ -22709,7 +22709,7 @@
         <v>2574.6799999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="16">
         <v>43432</v>
       </c>
@@ -22720,7 +22720,7 @@
         <v>2601.7399999999998</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="16">
         <v>43433</v>
       </c>
@@ -22731,7 +22731,7 @@
         <v>2567.44</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="16">
         <v>43434</v>
       </c>
@@ -22742,7 +22742,7 @@
         <v>2588.19</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="16">
         <v>43437</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>2654.8</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="16">
         <v>43438</v>
       </c>
@@ -22764,7 +22764,7 @@
         <v>2665.96</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="16">
         <v>43439</v>
       </c>
@@ -22775,7 +22775,7 @@
         <v>2649.81</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="16">
         <v>43440</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>2605.1799999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="16">
         <v>43441</v>
       </c>
@@ -22797,7 +22797,7 @@
         <v>2605.89</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="16">
         <v>43444</v>
       </c>
@@ -22808,7 +22808,7 @@
         <v>2584.58</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="16">
         <v>43445</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>2594.09</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="16">
         <v>43446</v>
       </c>
@@ -22830,7 +22830,7 @@
         <v>2602.15</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="16">
         <v>43447</v>
       </c>
@@ -22841,7 +22841,7 @@
         <v>2634.05</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="16">
         <v>43448</v>
       </c>
@@ -22852,7 +22852,7 @@
         <v>2593.7399999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="16">
         <v>43451</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>2597.9699999999998</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="16">
         <v>43452</v>
       </c>
@@ -22874,7 +22874,7 @@
         <v>2576.65</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="16">
         <v>43453</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>2549.56</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="16">
         <v>43454</v>
       </c>
@@ -22896,7 +22896,7 @@
         <v>2536.27</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="16">
         <v>43455</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>2516.25</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="16">
         <v>43458</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>2527.0100000000002</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="16">
         <v>43459</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>2504.8200000000002</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="16">
         <v>43460</v>
       </c>
@@ -22940,7 +22940,7 @@
         <v>2498.29</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="16">
         <v>43461</v>
       </c>
@@ -22951,7 +22951,7 @@
         <v>2483.09</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="16">
         <v>43462</v>
       </c>
@@ -22962,7 +22962,7 @@
         <v>2493.9</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="16">
         <v>43467</v>
       </c>
@@ -22973,7 +22973,7 @@
         <v>2465.29</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="16">
         <v>43468</v>
       </c>
@@ -22984,7 +22984,7 @@
         <v>2464.36</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="16">
         <v>43469</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v>2514.87</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="16">
         <v>43472</v>
       </c>
@@ -23006,7 +23006,7 @@
         <v>2533.09</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="16">
         <v>43473</v>
       </c>
@@ -23017,7 +23017,7 @@
         <v>2525.46</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="16">
         <v>43474</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>2544.34</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="16">
         <v>43475</v>
       </c>
@@ -23039,7 +23039,7 @@
         <v>2535.1</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="16">
         <v>43476</v>
       </c>
@@ -23050,7 +23050,7 @@
         <v>2553.83</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="16">
         <v>43479</v>
       </c>
@@ -23061,7 +23061,7 @@
         <v>2535.77</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="16">
         <v>43480</v>
       </c>
@@ -23072,7 +23072,7 @@
         <v>2570.34</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="16">
         <v>43481</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>2570.42</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="16">
         <v>43482</v>
       </c>
@@ -23094,7 +23094,7 @@
         <v>2559.64</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="16">
         <v>43483</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>2596.0100000000002</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="16">
         <v>43486</v>
       </c>
@@ -23116,7 +23116,7 @@
         <v>2610.5100000000002</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="16">
         <v>43487</v>
       </c>
@@ -23127,7 +23127,7 @@
         <v>2579.6999999999998</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="16">
         <v>43488</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="16">
         <v>43489</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>2591.69</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="16">
         <v>43490</v>
       </c>
@@ -23160,7 +23160,7 @@
         <v>2601.7199999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="16">
         <v>43493</v>
       </c>
@@ -23171,7 +23171,7 @@
         <v>2596.98</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="16">
         <v>43494</v>
       </c>
@@ -23182,7 +23182,7 @@
         <v>2594.25</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="16">
         <v>43495</v>
       </c>
@@ -23193,7 +23193,7 @@
         <v>2575.58</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="16">
         <v>43496</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>2584.5700000000002</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="16">
         <v>43497</v>
       </c>
@@ -23215,7 +23215,7 @@
         <v>2618.23</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="16">
         <v>43507</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>2653.9</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="16">
         <v>43508</v>
       </c>
@@ -23237,7 +23237,7 @@
         <v>2671.89</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="16">
         <v>43509</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>2721.07</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="16">
         <v>43510</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>2719.7</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="16">
         <v>43511</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>2682.39</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="16">
         <v>43514</v>
       </c>
@@ -23281,7 +23281,7 @@
         <v>2754.36</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="16">
         <v>43515</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>2755.65</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="16">
         <v>43516</v>
       </c>
@@ -23303,7 +23303,7 @@
         <v>2761.22</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="16">
         <v>43517</v>
       </c>
@@ -23314,7 +23314,7 @@
         <v>2751.8</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="16">
         <v>43518</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>2804.23</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="16">
         <v>43521</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>2961.28</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="16">
         <v>43522</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>2941.52</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="16">
         <v>43523</v>
       </c>
@@ -23358,7 +23358,7 @@
         <v>2953.82</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="16">
         <v>43524</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>2940.95</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="16">
         <v>43525</v>
       </c>
@@ -23380,7 +23380,7 @@
         <v>2994.01</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="16">
         <v>43528</v>
       </c>
@@ -23391,7 +23391,7 @@
         <v>3027.58</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="16">
         <v>43529</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>3054.25</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="16">
         <v>43530</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>3102.1</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="16">
         <v>43531</v>
       </c>
@@ -23424,7 +23424,7 @@
         <v>3106.42</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="16">
         <v>43532</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>2969.86</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="16">
         <v>43535</v>
       </c>
@@ -23446,7 +23446,7 @@
         <v>3026.99</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="16">
         <v>43536</v>
       </c>
@@ -23457,7 +23457,7 @@
         <v>3060.31</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="16">
         <v>43537</v>
       </c>
@@ -23468,7 +23468,7 @@
         <v>3026.95</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="16">
         <v>43538</v>
       </c>
@@ -23479,7 +23479,7 @@
         <v>2990.69</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="16">
         <v>43539</v>
       </c>
@@ -23490,7 +23490,7 @@
         <v>3021.75</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="16">
         <v>43542</v>
       </c>
@@ -23501,7 +23501,7 @@
         <v>3096.42</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="16">
         <v>43543</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>3090.98</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="16">
         <v>43544</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>3090.64</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="16">
         <v>43545</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>3101.46</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="16">
         <v>43546</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>3104.15</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="16">
         <v>43549</v>
       </c>
@@ -23556,7 +23556,7 @@
         <v>3043.03</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="16">
         <v>43550</v>
       </c>
@@ -23567,7 +23567,7 @@
         <v>2997.1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="16">
         <v>43551</v>
       </c>
@@ -23578,7 +23578,7 @@
         <v>3022.72</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="16">
         <v>43552</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>2994.94</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="16">
         <v>43553</v>
       </c>
@@ -23600,7 +23600,7 @@
         <v>3090.76</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="16">
         <v>43556</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>3170.36</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="16">
         <v>43557</v>
       </c>
@@ -23622,7 +23622,7 @@
         <v>3176.82</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="16">
         <v>43558</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>3216.3</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="16">
         <v>43559</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v>3246.57</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="16">
         <v>43563</v>
       </c>
@@ -23655,7 +23655,7 @@
         <v>3244.81</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="16">
         <v>43564</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>3239.66</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="16">
         <v>43565</v>
       </c>
@@ -23677,7 +23677,7 @@
         <v>3241.93</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="16">
         <v>43566</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>3189.96</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="16">
         <v>43567</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v>3188.63</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="16">
         <v>43570</v>
       </c>
@@ -23710,7 +23710,7 @@
         <v>3177.79</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="16">
         <v>43571</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>3253.6</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="16">
         <v>43572</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>3263.12</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="16">
         <v>43573</v>
       </c>
@@ -23743,7 +23743,7 @@
         <v>3250.2</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="16">
         <v>43574</v>
       </c>
@@ -23754,7 +23754,7 @@
         <v>3270.8</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="16">
         <v>43577</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>3215.04</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="16">
         <v>43578</v>
       </c>
@@ -23776,7 +23776,7 @@
         <v>3198.59</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="16">
         <v>43579</v>
       </c>
@@ -23787,7 +23787,7 @@
         <v>3201.61</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="16">
         <v>43580</v>
       </c>
@@ -23798,7 +23798,7 @@
         <v>3123.83</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="16">
         <v>43581</v>
       </c>
@@ -23809,7 +23809,7 @@
         <v>3086.4</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="16">
         <v>43584</v>
       </c>
@@ -23820,7 +23820,7 @@
         <v>3062.5</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="16">
         <v>43585</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>3078.34</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="16">
         <v>43591</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>2906.46</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="16">
         <v>43592</v>
       </c>
@@ -23853,7 +23853,7 @@
         <v>2926.39</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="16">
         <v>43593</v>
       </c>
@@ -23864,7 +23864,7 @@
         <v>2893.76</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="16">
         <v>43594</v>
       </c>
@@ -23875,7 +23875,7 @@
         <v>2850.95</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="16">
         <v>43595</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>2939.21</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="16">
         <v>43598</v>
       </c>
@@ -23897,7 +23897,7 @@
         <v>2903.71</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="16">
         <v>43599</v>
       </c>
@@ -23908,7 +23908,7 @@
         <v>2883.61</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="16">
         <v>43600</v>
       </c>
@@ -23919,7 +23919,7 @@
         <v>2938.68</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="16">
         <v>43601</v>
       </c>
@@ -23930,7 +23930,7 @@
         <v>2955.71</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" s="16">
         <v>43602</v>
       </c>
@@ -23941,7 +23941,7 @@
         <v>2882.3</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="16">
         <v>43605</v>
       </c>
@@ -23952,7 +23952,7 @@
         <v>2870.6</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="16">
         <v>43606</v>
       </c>
@@ -23963,20 +23963,26 @@
         <v>2905.97</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="16">
         <v>43607</v>
       </c>
+      <c r="B824" s="15">
+        <v>59.57</v>
+      </c>
       <c r="C824">
         <v>2891.7</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="16">
         <v>43608</v>
       </c>
-    </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C825">
+        <v>2852.52</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="16">
         <v>43609</v>
       </c>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C770890-C102-4D3C-9003-6D15797256E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60FC70-79AC-4ED5-99ED-FDF74D143822}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21045596075436013</c:v>
+                  <c:v>0.18704503735174227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$823</c:f>
+              <c:f>Sheet1!$A$2:$A$825</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="822"/>
+                <c:ptCount val="824"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3863,16 +3863,22 @@
                 </c:pt>
                 <c:pt idx="821">
                   <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>43607</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$823</c:f>
+              <c:f>Sheet1!$B$2:$B$825</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="822"/>
+                <c:ptCount val="824"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6338,6 +6344,12 @@
                 </c:pt>
                 <c:pt idx="821">
                   <c:v>59.58</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>59.57</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>59.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6393,10 +6405,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$823</c:f>
+              <c:f>Sheet1!$A$2:$A$825</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="822"/>
+                <c:ptCount val="824"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8862,16 +8874,22 @@
                 </c:pt>
                 <c:pt idx="821">
                   <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>43607</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>43608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$823</c:f>
+              <c:f>Sheet1!$C$2:$C$825</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="822"/>
+                <c:ptCount val="824"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11337,6 +11355,12 @@
                 </c:pt>
                 <c:pt idx="821">
                   <c:v>2905.97</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>2891.7</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>2852.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14376,7 +14400,7 @@
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-22</v>
+        <v>说明:2017年统计范围为年初至2019-5-23</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14390,11 +14414,11 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14404,7 +14428,7 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>21.045596075436013</v>
+        <v>18.704503735174228</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -14516,7 +14540,7 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.21045596075436013</v>
+        <v>0.18704503735174227</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.35">
@@ -14745,7 +14769,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-22</v>
+        <v>说明:2019年统计范围为年初至2019-5-23</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14896,7 +14920,7 @@
   <dimension ref="A1:N826"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="B825" sqref="B825"/>
+      <selection activeCell="F812" sqref="F812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23978,6 +24002,9 @@
       <c r="A825" s="16">
         <v>43608</v>
       </c>
+      <c r="B825" s="15">
+        <v>59.6</v>
+      </c>
       <c r="C825">
         <v>2852.52</v>
       </c>
@@ -23985,6 +24012,9 @@
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="16">
         <v>43609</v>
+      </c>
+      <c r="C826">
+        <v>2852.99</v>
       </c>
     </row>
   </sheetData>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60FC70-79AC-4ED5-99ED-FDF74D143822}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67248715-0133-4432-8955-F3BFE1F10AF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18704503735174227</c:v>
+                  <c:v>0.18383359340847805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$825</c:f>
+              <c:f>Sheet1!$A$2:$A$826</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="824"/>
+                <c:ptCount val="825"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3869,16 +3869,19 @@
                 </c:pt>
                 <c:pt idx="823">
                   <c:v>43608</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>43609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$825</c:f>
+              <c:f>Sheet1!$B$2:$B$826</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="824"/>
+                <c:ptCount val="825"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6350,6 +6353,9 @@
                 </c:pt>
                 <c:pt idx="823">
                   <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>59.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6405,10 +6411,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$825</c:f>
+              <c:f>Sheet1!$A$2:$A$826</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="824"/>
+                <c:ptCount val="825"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8880,16 +8886,19 @@
                 </c:pt>
                 <c:pt idx="823">
                   <c:v>43608</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>43609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$825</c:f>
+              <c:f>Sheet1!$C$2:$C$826</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="824"/>
+                <c:ptCount val="825"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11361,6 +11370,9 @@
                 </c:pt>
                 <c:pt idx="823">
                   <c:v>2852.52</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>2852.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14193,26 +14205,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -14225,7 +14237,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2010</v>
@@ -14252,7 +14264,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -14281,7 +14293,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -14310,7 +14322,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -14339,7 +14351,7 @@
         <v>0.17810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -14368,7 +14380,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -14397,10 +14409,10 @@
         <v>-0.1615</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-23</v>
+        <v>说明:2017年统计范围为年初至2019-5-24</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14411,14 +14423,14 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14428,10 +14440,10 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>18.704503735174228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>18.383359340847804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O10" s="13">
         <v>2010</v>
       </c>
@@ -14442,7 +14454,7 @@
         <v>-6.88E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O11" s="13">
         <v>2011</v>
       </c>
@@ -14453,7 +14465,7 @@
         <v>-0.22420000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O12" s="13">
         <v>2012</v>
       </c>
@@ -14464,7 +14476,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O13" s="13">
         <v>2013</v>
       </c>
@@ -14475,7 +14487,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O14" s="13">
         <v>2014</v>
       </c>
@@ -14486,7 +14498,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O15" s="13">
         <v>2015</v>
       </c>
@@ -14497,7 +14509,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O16" s="13">
         <v>2016</v>
       </c>
@@ -14508,7 +14520,7 @@
         <v>-0.12909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O17" s="13">
         <v>2017</v>
       </c>
@@ -14519,7 +14531,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O18" s="13">
         <v>2018</v>
       </c>
@@ -14530,7 +14542,7 @@
         <v>-0.28253486362704305</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O19" s="13">
         <v>2019</v>
       </c>
@@ -14540,10 +14552,10 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.18704503735174227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+        <v>0.18383359340847805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
@@ -14558,7 +14570,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>2010</v>
@@ -14591,7 +14603,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -14626,7 +14638,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -14661,7 +14673,7 @@
         <v>0.54120000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>2</v>
       </c>
@@ -14696,7 +14708,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -14731,7 +14743,7 @@
         <v>0.27760000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -14766,10 +14778,10 @@
         <v>-1.46E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-23</v>
+        <v>说明:2019年统计范围为年初至2019-5-24</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14782,7 +14794,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -14795,7 +14807,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -14808,7 +14820,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -14821,7 +14833,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -14834,7 +14846,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -14847,7 +14859,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -14860,7 +14872,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -14873,7 +14885,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -14886,7 +14898,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -14917,20 +14929,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N826"/>
+  <dimension ref="A1:N830"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="F812" sqref="F812"/>
+      <selection activeCell="B827" sqref="B827"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -14941,7 +14953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>42373</v>
       </c>
@@ -14952,7 +14964,7 @@
         <v>3296.2579999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>42374</v>
       </c>
@@ -14963,7 +14975,7 @@
         <v>3287.7109999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>42375</v>
       </c>
@@ -14974,7 +14986,7 @@
         <v>3361.84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>42376</v>
       </c>
@@ -14985,7 +14997,7 @@
         <v>3125.002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>42377</v>
       </c>
@@ -14996,7 +15008,7 @@
         <v>3186.4119999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>42380</v>
       </c>
@@ -15007,7 +15019,7 @@
         <v>3016.7040000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>42381</v>
       </c>
@@ -15018,7 +15030,7 @@
         <v>3022.8609999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>42382</v>
       </c>
@@ -15033,7 +15045,7 @@
         <v>服务器返回出错！</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>42383</v>
       </c>
@@ -15044,7 +15056,7 @@
         <v>3007.6489999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>42384</v>
       </c>
@@ -15055,7 +15067,7 @@
         <v>2900.9697999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>42387</v>
       </c>
@@ -15066,7 +15078,7 @@
         <v>2913.8366999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>42388</v>
       </c>
@@ -15077,7 +15089,7 @@
         <v>3007.7393000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>42389</v>
       </c>
@@ -15088,7 +15100,7 @@
         <v>2976.694</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>42390</v>
       </c>
@@ -15099,7 +15111,7 @@
         <v>2880.482</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>42391</v>
       </c>
@@ -15110,7 +15122,7 @@
         <v>2916.5619999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>42394</v>
       </c>
@@ -15121,7 +15133,7 @@
         <v>2938.5149999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>42395</v>
       </c>
@@ -15132,7 +15144,7 @@
         <v>2749.7849999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>42396</v>
       </c>
@@ -15143,7 +15155,7 @@
         <v>2735.558</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>42397</v>
       </c>
@@ -15154,7 +15166,7 @@
         <v>2655.6610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>42398</v>
       </c>
@@ -15165,7 +15177,7 @@
         <v>2737.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>42401</v>
       </c>
@@ -15176,7 +15188,7 @@
         <v>2688.8539999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>42402</v>
       </c>
@@ -15187,7 +15199,7 @@
         <v>2749.57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>42403</v>
       </c>
@@ -15198,7 +15210,7 @@
         <v>2739.2469999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>42404</v>
       </c>
@@ -15209,7 +15221,7 @@
         <v>2781.0230000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>42405</v>
       </c>
@@ -15220,7 +15232,7 @@
         <v>2763.4920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>42415</v>
       </c>
@@ -15231,7 +15243,7 @@
         <v>2746.1959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>42416</v>
       </c>
@@ -15242,7 +15254,7 @@
         <v>2836.5709999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>42417</v>
       </c>
@@ -15253,7 +15265,7 @@
         <v>2867.3380000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>42418</v>
       </c>
@@ -15264,7 +15276,7 @@
         <v>2862.893</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>42419</v>
       </c>
@@ -15275,7 +15287,7 @@
         <v>2860.0210000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>42422</v>
       </c>
@@ -15286,7 +15298,7 @@
         <v>2927.1750000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>42423</v>
       </c>
@@ -15297,7 +15309,7 @@
         <v>2903.3310000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>42424</v>
       </c>
@@ -15308,7 +15320,7 @@
         <v>2928.8960000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>42425</v>
       </c>
@@ -15319,7 +15331,7 @@
         <v>2741.2449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>42426</v>
       </c>
@@ -15330,7 +15342,7 @@
         <v>2767.21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>42429</v>
       </c>
@@ -15341,7 +15353,7 @@
         <v>2687.9789999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>42430</v>
       </c>
@@ -15352,7 +15364,7 @@
         <v>2733.17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>42431</v>
       </c>
@@ -15363,7 +15375,7 @@
         <v>2849.681</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>42432</v>
       </c>
@@ -15374,7 +15386,7 @@
         <v>2859.7579999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>42433</v>
       </c>
@@ -15385,7 +15397,7 @@
         <v>2874.1469999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>42436</v>
       </c>
@@ -15396,7 +15408,7 @@
         <v>2897.34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>42437</v>
       </c>
@@ -15407,7 +15419,7 @@
         <v>2901.3870000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>42438</v>
       </c>
@@ -15418,7 +15430,7 @@
         <v>2862.556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>42439</v>
       </c>
@@ -15429,7 +15441,7 @@
         <v>2804.7260000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>42440</v>
       </c>
@@ -15440,7 +15452,7 @@
         <v>2810.3069999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>42443</v>
       </c>
@@ -15451,7 +15463,7 @@
         <v>2859.4989999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>42444</v>
       </c>
@@ -15462,7 +15474,7 @@
         <v>2864.3679999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>42445</v>
       </c>
@@ -15473,7 +15485,7 @@
         <v>2870.43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>42446</v>
       </c>
@@ -15484,7 +15496,7 @@
         <v>2904.8319999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>42447</v>
       </c>
@@ -15495,7 +15507,7 @@
         <v>2955.15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>42450</v>
       </c>
@@ -15506,7 +15518,7 @@
         <v>3018.8020000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>42451</v>
       </c>
@@ -15517,7 +15529,7 @@
         <v>2999.3629999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>42452</v>
       </c>
@@ -15528,7 +15540,7 @@
         <v>3009.96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>42453</v>
       </c>
@@ -15539,7 +15551,7 @@
         <v>2960.97</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>42454</v>
       </c>
@@ -15550,7 +15562,7 @@
         <v>2979.4340000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>42457</v>
       </c>
@@ -15561,7 +15573,7 @@
         <v>2957.82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>42458</v>
       </c>
@@ -15572,7 +15584,7 @@
         <v>2919.8319999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>42459</v>
       </c>
@@ -15583,7 +15595,7 @@
         <v>3000.645</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>42460</v>
       </c>
@@ -15594,7 +15606,7 @@
         <v>3003.915</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>42461</v>
       </c>
@@ -15605,7 +15617,7 @@
         <v>3009.53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>42465</v>
       </c>
@@ -15616,7 +15628,7 @@
         <v>3053.0650000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>42466</v>
       </c>
@@ -15627,7 +15639,7 @@
         <v>3050.5920000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>42467</v>
       </c>
@@ -15638,7 +15650,7 @@
         <v>3008.42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>42468</v>
       </c>
@@ -15649,7 +15661,7 @@
         <v>2984.9580000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>42471</v>
       </c>
@@ -15660,7 +15672,7 @@
         <v>3033.9569999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>42472</v>
       </c>
@@ -15671,7 +15683,7 @@
         <v>3023.6460000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>42473</v>
       </c>
@@ -15682,7 +15694,7 @@
         <v>3066.6379999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>42474</v>
       </c>
@@ -15693,7 +15705,7 @@
         <v>3082.3620000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>42475</v>
       </c>
@@ -15704,7 +15716,7 @@
         <v>3078.1170000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>42478</v>
       </c>
@@ -15715,7 +15727,7 @@
         <v>3033.66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>42479</v>
       </c>
@@ -15726,7 +15738,7 @@
         <v>3042.8229999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>42480</v>
       </c>
@@ -15737,7 +15749,7 @@
         <v>2972.5839999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>42481</v>
       </c>
@@ -15748,7 +15760,7 @@
         <v>2952.8910000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>42482</v>
       </c>
@@ -15759,7 +15771,7 @@
         <v>2959.24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>42485</v>
       </c>
@@ -15770,7 +15782,7 @@
         <v>2946.67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>42486</v>
       </c>
@@ -15781,7 +15793,7 @@
         <v>2964.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>42487</v>
       </c>
@@ -15792,7 +15804,7 @@
         <v>2953.6709999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>42488</v>
       </c>
@@ -15803,7 +15815,7 @@
         <v>2945.5889999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>42489</v>
       </c>
@@ -15814,7 +15826,7 @@
         <v>2938.3240000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>42493</v>
       </c>
@@ -15825,7 +15837,7 @@
         <v>2992.643</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>42494</v>
       </c>
@@ -15836,7 +15848,7 @@
         <v>2991.2719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>42495</v>
       </c>
@@ -15847,7 +15859,7 @@
         <v>2997.8420000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>42496</v>
       </c>
@@ -15858,7 +15870,7 @@
         <v>2913.248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>42499</v>
       </c>
@@ -15869,7 +15881,7 @@
         <v>2832.1129999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>42500</v>
       </c>
@@ -15880,7 +15892,7 @@
         <v>2832.5909999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>42501</v>
       </c>
@@ -15891,7 +15903,7 @@
         <v>2837.0369999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>42502</v>
       </c>
@@ -15902,7 +15914,7 @@
         <v>2835.8620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>42503</v>
       </c>
@@ -15913,7 +15925,7 @@
         <v>2827.1089999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>42506</v>
       </c>
@@ -15924,7 +15936,7 @@
         <v>2850.8620000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>42507</v>
       </c>
@@ -15935,7 +15947,7 @@
         <v>2843.6840000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>42508</v>
       </c>
@@ -15946,7 +15958,7 @@
         <v>2807.5140000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>42509</v>
       </c>
@@ -15957,7 +15969,7 @@
         <v>2806.9059999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>42510</v>
       </c>
@@ -15968,7 +15980,7 @@
         <v>2825.4830000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
         <v>42513</v>
       </c>
@@ -15979,7 +15991,7 @@
         <v>2843.645</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
         <v>42514</v>
       </c>
@@ -15990,7 +16002,7 @@
         <v>2821.6660000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
         <v>42515</v>
       </c>
@@ -16001,7 +16013,7 @@
         <v>2815.0862999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
         <v>42516</v>
       </c>
@@ -16012,7 +16024,7 @@
         <v>2822.4430000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
         <v>42517</v>
       </c>
@@ -16023,7 +16035,7 @@
         <v>2821.0459999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
         <v>42520</v>
       </c>
@@ -16034,7 +16046,7 @@
         <v>2822.451</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
         <v>42521</v>
       </c>
@@ -16045,7 +16057,7 @@
         <v>2916.616</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
         <v>42522</v>
       </c>
@@ -16056,7 +16068,7 @@
         <v>2913.5079999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
         <v>42523</v>
       </c>
@@ -16067,7 +16079,7 @@
         <v>2925.2289999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
         <v>42524</v>
       </c>
@@ -16078,7 +16090,7 @@
         <v>2938.6819999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
         <v>42527</v>
       </c>
@@ -16089,7 +16101,7 @@
         <v>2934.098</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
         <v>42528</v>
       </c>
@@ -16100,7 +16112,7 @@
         <v>2936.0450000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
         <v>42529</v>
       </c>
@@ -16111,7 +16123,7 @@
         <v>2927.1590000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
         <v>42534</v>
       </c>
@@ -16122,7 +16134,7 @@
         <v>2833.0709999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>42535</v>
       </c>
@@ -16133,7 +16145,7 @@
         <v>2842.1889999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
         <v>42536</v>
       </c>
@@ -16144,7 +16156,7 @@
         <v>2887.21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
         <v>42537</v>
       </c>
@@ -16155,7 +16167,7 @@
         <v>2872.817</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
         <v>42538</v>
       </c>
@@ -16166,7 +16178,7 @@
         <v>2885.105</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
         <v>42541</v>
       </c>
@@ -16177,7 +16189,7 @@
         <v>2888.8090000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
         <v>42542</v>
       </c>
@@ -16188,7 +16200,7 @@
         <v>2878.558</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
         <v>42543</v>
       </c>
@@ -16199,7 +16211,7 @@
         <v>2905.55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
         <v>42544</v>
       </c>
@@ -16210,7 +16222,7 @@
         <v>2891.96</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
         <v>42545</v>
       </c>
@@ -16221,7 +16233,7 @@
         <v>2854.2860000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="16">
         <v>42548</v>
       </c>
@@ -16232,7 +16244,7 @@
         <v>2895.703</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="16">
         <v>42549</v>
       </c>
@@ -16243,7 +16255,7 @@
         <v>2912.5569999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="16">
         <v>42550</v>
       </c>
@@ -16254,7 +16266,7 @@
         <v>2931.5920000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="16">
         <v>42551</v>
       </c>
@@ -16265,7 +16277,7 @@
         <v>2929.6060000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="16">
         <v>42552</v>
       </c>
@@ -16276,7 +16288,7 @@
         <v>2932.4760000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="16">
         <v>42555</v>
       </c>
@@ -16287,7 +16299,7 @@
         <v>2988.6039999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="16">
         <v>42556</v>
       </c>
@@ -16298,7 +16310,7 @@
         <v>3006.3919999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="16">
         <v>42557</v>
       </c>
@@ -16309,7 +16321,7 @@
         <v>3017.2919999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
         <v>42558</v>
       </c>
@@ -16320,7 +16332,7 @@
         <v>3016.8470000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
         <v>42559</v>
       </c>
@@ -16331,7 +16343,7 @@
         <v>2988.0940000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
         <v>42562</v>
       </c>
@@ -16342,7 +16354,7 @@
         <v>2994.9169999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="16">
         <v>42563</v>
       </c>
@@ -16353,7 +16365,7 @@
         <v>3049.3809999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="16">
         <v>42564</v>
       </c>
@@ -16364,7 +16376,7 @@
         <v>3060.6889999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="16">
         <v>42565</v>
       </c>
@@ -16375,7 +16387,7 @@
         <v>3054.018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="16">
         <v>42566</v>
       </c>
@@ -16386,7 +16398,7 @@
         <v>3054.2959999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="16">
         <v>42569</v>
       </c>
@@ -16397,7 +16409,7 @@
         <v>3043.5639999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="16">
         <v>42570</v>
       </c>
@@ -16408,7 +16420,7 @@
         <v>3036.598</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="16">
         <v>42571</v>
       </c>
@@ -16419,7 +16431,7 @@
         <v>3027.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="16">
         <v>42572</v>
       </c>
@@ -16430,7 +16442,7 @@
         <v>3039.009</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="16">
         <v>42573</v>
       </c>
@@ -16441,7 +16453,7 @@
         <v>3012.8159999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="16">
         <v>42576</v>
       </c>
@@ -16452,7 +16464,7 @@
         <v>3015.828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
         <v>42577</v>
       </c>
@@ -16463,7 +16475,7 @@
         <v>3050.1660000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
         <v>42578</v>
       </c>
@@ -16474,7 +16486,7 @@
         <v>2991.9989999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
         <v>42579</v>
       </c>
@@ -16485,7 +16497,7 @@
         <v>2994.3229999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
         <v>42580</v>
       </c>
@@ -16496,7 +16508,7 @@
         <v>2979.3389999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
         <v>42583</v>
       </c>
@@ -16507,7 +16519,7 @@
         <v>2953.3850000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="16">
         <v>42584</v>
       </c>
@@ -16518,7 +16530,7 @@
         <v>2971.279</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="16">
         <v>42585</v>
       </c>
@@ -16529,7 +16541,7 @@
         <v>2978.4609999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="16">
         <v>42586</v>
       </c>
@@ -16540,7 +16552,7 @@
         <v>2982.4259999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="16">
         <v>42587</v>
       </c>
@@ -16551,7 +16563,7 @@
         <v>2976.6959999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="16">
         <v>42590</v>
       </c>
@@ -16562,7 +16574,7 @@
         <v>3004.277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="16">
         <v>42591</v>
       </c>
@@ -16573,7 +16585,7 @@
         <v>3025.681</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="16">
         <v>42592</v>
       </c>
@@ -16584,7 +16596,7 @@
         <v>3018.7460000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="16">
         <v>42593</v>
       </c>
@@ -16595,7 +16607,7 @@
         <v>3002.6379999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="16">
         <v>42594</v>
       </c>
@@ -16606,7 +16618,7 @@
         <v>3050.6669999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
         <v>42597</v>
       </c>
@@ -16617,7 +16629,7 @@
         <v>3125.1950000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="16">
         <v>42598</v>
       </c>
@@ -16628,7 +16640,7 @@
         <v>3110.0369999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
         <v>42599</v>
       </c>
@@ -16639,7 +16651,7 @@
         <v>3109.5549999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
         <v>42600</v>
       </c>
@@ -16650,7 +16662,7 @@
         <v>3104.114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
         <v>42601</v>
       </c>
@@ -16661,7 +16673,7 @@
         <v>3108.1019999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
         <v>42604</v>
       </c>
@@ -16672,7 +16684,7 @@
         <v>3084.8049999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
         <v>42605</v>
       </c>
@@ -16683,7 +16695,7 @@
         <v>3089.7060000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
         <v>42606</v>
       </c>
@@ -16694,7 +16706,7 @@
         <v>3085.88</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
         <v>42607</v>
       </c>
@@ -16705,7 +16717,7 @@
         <v>3068.3290000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
         <v>42608</v>
       </c>
@@ -16716,7 +16728,7 @@
         <v>3070.3090000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
         <v>42611</v>
       </c>
@@ -16727,7 +16739,7 @@
         <v>3070.027</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
         <v>42612</v>
       </c>
@@ -16738,7 +16750,7 @@
         <v>3074.6770000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
         <v>42613</v>
       </c>
@@ -16749,7 +16761,7 @@
         <v>3085.491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="16">
         <v>42614</v>
       </c>
@@ -16760,7 +16772,7 @@
         <v>3063.3049999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="16">
         <v>42615</v>
       </c>
@@ -16771,7 +16783,7 @@
         <v>3067.3519999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="16">
         <v>42618</v>
       </c>
@@ -16782,7 +16794,7 @@
         <v>3072.0949999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="16">
         <v>42619</v>
       </c>
@@ -16793,7 +16805,7 @@
         <v>3090.7130000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="16">
         <v>42620</v>
       </c>
@@ -16804,7 +16816,7 @@
         <v>3091.9279999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
         <v>42621</v>
       </c>
@@ -16815,7 +16827,7 @@
         <v>3095.9540000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
         <v>42622</v>
       </c>
@@ -16826,7 +16838,7 @@
         <v>3078.855</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
         <v>42625</v>
       </c>
@@ -16837,7 +16849,7 @@
         <v>3021.9769999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
         <v>42626</v>
       </c>
@@ -16848,7 +16860,7 @@
         <v>3023.51</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
         <v>42627</v>
       </c>
@@ -16859,7 +16871,7 @@
         <v>3002.8490000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
         <v>42632</v>
       </c>
@@ -16870,7 +16882,7 @@
         <v>3026.0509999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
         <v>42633</v>
       </c>
@@ -16881,7 +16893,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
         <v>42634</v>
       </c>
@@ -16892,7 +16904,7 @@
         <v>3025.8739999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
         <v>42635</v>
       </c>
@@ -16903,7 +16915,7 @@
         <v>3042.3130000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
         <v>42636</v>
       </c>
@@ -16914,7 +16926,7 @@
         <v>3033.8960000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
         <v>42639</v>
       </c>
@@ -16925,7 +16937,7 @@
         <v>2980.43</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="16">
         <v>42640</v>
       </c>
@@ -16936,7 +16948,7 @@
         <v>2998.172</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="16">
         <v>42641</v>
       </c>
@@ -16947,7 +16959,7 @@
         <v>2987.8580000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="16">
         <v>42642</v>
       </c>
@@ -16958,7 +16970,7 @@
         <v>2998.4830000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
         <v>42643</v>
       </c>
@@ -16969,7 +16981,7 @@
         <v>3004.703</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
         <v>42653</v>
       </c>
@@ -16980,7 +16992,7 @@
         <v>3048.143</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
         <v>42654</v>
       </c>
@@ -16991,7 +17003,7 @@
         <v>3065.25</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
         <v>42655</v>
       </c>
@@ -17002,7 +17014,7 @@
         <v>3058.498</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
         <v>42656</v>
       </c>
@@ -17013,7 +17025,7 @@
         <v>3061.346</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
         <v>42657</v>
       </c>
@@ -17024,7 +17036,7 @@
         <v>3063.8090000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
         <v>42660</v>
       </c>
@@ -17035,7 +17047,7 @@
         <v>3041.1660000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
         <v>42661</v>
       </c>
@@ -17046,7 +17058,7 @@
         <v>3083.875</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
         <v>42662</v>
       </c>
@@ -17057,7 +17069,7 @@
         <v>3084.7190000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
         <v>42663</v>
       </c>
@@ -17068,7 +17080,7 @@
         <v>3084.4580000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
         <v>42664</v>
       </c>
@@ -17079,7 +17091,7 @@
         <v>3090.9409999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
         <v>42667</v>
       </c>
@@ -17090,7 +17102,7 @@
         <v>3128.2469999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
         <v>42668</v>
       </c>
@@ -17101,7 +17113,7 @@
         <v>3131.9389999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
         <v>42669</v>
       </c>
@@ -17112,7 +17124,7 @@
         <v>3116.3119999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="16">
         <v>42670</v>
       </c>
@@ -17123,7 +17135,7 @@
         <v>3112.35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="16">
         <v>42671</v>
       </c>
@@ -17134,7 +17146,7 @@
         <v>3104.27</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
         <v>42674</v>
       </c>
@@ -17145,7 +17157,7 @@
         <v>3100.4920000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
         <v>42675</v>
       </c>
@@ -17156,7 +17168,7 @@
         <v>3122.4360000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
         <v>42676</v>
       </c>
@@ -17167,7 +17179,7 @@
         <v>3102.7330000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
         <v>42677</v>
       </c>
@@ -17178,7 +17190,7 @@
         <v>3128.9360000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
         <v>42678</v>
       </c>
@@ -17189,7 +17201,7 @@
         <v>3125.317</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
         <v>42681</v>
       </c>
@@ -17200,7 +17212,7 @@
         <v>3133.3330000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
         <v>42682</v>
       </c>
@@ -17211,7 +17223,7 @@
         <v>3147.8879999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
         <v>42683</v>
       </c>
@@ -17222,7 +17234,7 @@
         <v>3128.37</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
         <v>42684</v>
       </c>
@@ -17233,7 +17245,7 @@
         <v>3171.2820000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
         <v>42685</v>
       </c>
@@ -17244,7 +17256,7 @@
         <v>3196.0439999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
         <v>42688</v>
       </c>
@@ -17255,7 +17267,7 @@
         <v>3210.3710000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
         <v>42689</v>
       </c>
@@ -17266,7 +17278,7 @@
         <v>3206.9859999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="16">
         <v>42690</v>
       </c>
@@ -17277,7 +17289,7 @@
         <v>3205.0569999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="16">
         <v>42691</v>
       </c>
@@ -17288,7 +17300,7 @@
         <v>3208.453</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="16">
         <v>42692</v>
       </c>
@@ -17299,7 +17311,7 @@
         <v>3192.8560000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="16">
         <v>42695</v>
       </c>
@@ -17310,7 +17322,7 @@
         <v>3218.1480000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="16">
         <v>42696</v>
       </c>
@@ -17321,7 +17333,7 @@
         <v>3248.3519999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="16">
         <v>42697</v>
       </c>
@@ -17332,7 +17344,7 @@
         <v>3241.1370000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="16">
         <v>42698</v>
       </c>
@@ -17343,7 +17355,7 @@
         <v>3241.7359999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="16">
         <v>42699</v>
       </c>
@@ -17354,7 +17366,7 @@
         <v>3261.9380000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="16">
         <v>42702</v>
       </c>
@@ -17365,7 +17377,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="16">
         <v>42703</v>
       </c>
@@ -17376,7 +17388,7 @@
         <v>3282.924</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="16">
         <v>42704</v>
       </c>
@@ -17387,7 +17399,7 @@
         <v>3250.0340000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="16">
         <v>42705</v>
       </c>
@@ -17398,7 +17410,7 @@
         <v>3273.3090000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="16">
         <v>42706</v>
       </c>
@@ -17409,7 +17421,7 @@
         <v>3243.8429999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="16">
         <v>42709</v>
       </c>
@@ -17420,7 +17432,7 @@
         <v>3204.7089999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="16">
         <v>42710</v>
       </c>
@@ -17431,7 +17443,7 @@
         <v>3199.6469999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="16">
         <v>42711</v>
       </c>
@@ -17442,7 +17454,7 @@
         <v>3222.2420000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="16">
         <v>42712</v>
       </c>
@@ -17453,7 +17465,7 @@
         <v>3215.366</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="16">
         <v>42713</v>
       </c>
@@ -17464,7 +17476,7 @@
         <v>3232.8829999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="16">
         <v>42716</v>
       </c>
@@ -17475,7 +17487,7 @@
         <v>3152.97</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="16">
         <v>42717</v>
       </c>
@@ -17486,7 +17498,7 @@
         <v>3155.0369999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="16">
         <v>42718</v>
       </c>
@@ -17497,7 +17509,7 @@
         <v>3140.5309999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="16">
         <v>42719</v>
       </c>
@@ -17508,7 +17520,7 @@
         <v>3117.6770000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="16">
         <v>42720</v>
       </c>
@@ -17519,7 +17531,7 @@
         <v>3122.982</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="16">
         <v>42723</v>
       </c>
@@ -17530,7 +17542,7 @@
         <v>3118.0846000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="16">
         <v>42724</v>
       </c>
@@ -17541,7 +17553,7 @@
         <v>3102.8759</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="16">
         <v>42725</v>
       </c>
@@ -17552,7 +17564,7 @@
         <v>3137.4297000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="16">
         <v>42726</v>
       </c>
@@ -17563,7 +17575,7 @@
         <v>3139.558</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="16">
         <v>42727</v>
       </c>
@@ -17574,7 +17586,7 @@
         <v>3110.1543999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="16">
         <v>42730</v>
       </c>
@@ -17585,7 +17597,7 @@
         <v>3122.569</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="16">
         <v>42731</v>
       </c>
@@ -17596,7 +17608,7 @@
         <v>3114.6640000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="16">
         <v>42732</v>
       </c>
@@ -17607,7 +17619,7 @@
         <v>3102.2357000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="16">
         <v>42733</v>
       </c>
@@ -17618,7 +17630,7 @@
         <v>3096.0967999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="16">
         <v>42734</v>
       </c>
@@ -17629,7 +17641,7 @@
         <v>3103.6372999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="16">
         <v>42738</v>
       </c>
@@ -17640,7 +17652,7 @@
         <v>3135.9207999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="16">
         <v>42739</v>
       </c>
@@ -17651,7 +17663,7 @@
         <v>3158.7939999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="16">
         <v>42740</v>
       </c>
@@ -17662,7 +17674,7 @@
         <v>3165.4108999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="16">
         <v>42741</v>
       </c>
@@ -17673,7 +17685,7 @@
         <v>3154.3209999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="16">
         <v>42744</v>
       </c>
@@ -17684,7 +17696,7 @@
         <v>3171.2361999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="16">
         <v>42745</v>
       </c>
@@ -17695,7 +17707,7 @@
         <v>3161.6713</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="16">
         <v>42746</v>
       </c>
@@ -17706,7 +17718,7 @@
         <v>3136.7534999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="16">
         <v>42747</v>
       </c>
@@ -17717,7 +17729,7 @@
         <v>3119.2885999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="16">
         <v>42748</v>
       </c>
@@ -17728,7 +17740,7 @@
         <v>3112.7644</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="16">
         <v>42751</v>
       </c>
@@ -17739,7 +17751,7 @@
         <v>3103.4279999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="16">
         <v>42752</v>
       </c>
@@ -17750,7 +17762,7 @@
         <v>3108.7746000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="16">
         <v>42753</v>
       </c>
@@ -17761,7 +17773,7 @@
         <v>3113.0122999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="16">
         <v>42754</v>
       </c>
@@ -17772,7 +17784,7 @@
         <v>3101.2991999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="16">
         <v>42755</v>
       </c>
@@ -17783,7 +17795,7 @@
         <v>3123.1388999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="16">
         <v>42758</v>
       </c>
@@ -17794,7 +17806,7 @@
         <v>3136.7748000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="16">
         <v>42759</v>
       </c>
@@ -17805,7 +17817,7 @@
         <v>3142.5533</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="16">
         <v>42760</v>
       </c>
@@ -17816,7 +17828,7 @@
         <v>3149.5547000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="16">
         <v>42761</v>
       </c>
@@ -17827,7 +17839,7 @@
         <v>3159.1660000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="16">
         <v>42769</v>
       </c>
@@ -17838,7 +17850,7 @@
         <v>3140.17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="16">
         <v>42772</v>
       </c>
@@ -17849,7 +17861,7 @@
         <v>3156.9838</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="16">
         <v>42773</v>
       </c>
@@ -17860,7 +17872,7 @@
         <v>3153.0877999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="16">
         <v>42774</v>
       </c>
@@ -17871,7 +17883,7 @@
         <v>3166.9818</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="16">
         <v>42775</v>
       </c>
@@ -17882,7 +17894,7 @@
         <v>3183.1794</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="16">
         <v>42776</v>
       </c>
@@ -17893,7 +17905,7 @@
         <v>3196.6990000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="16">
         <v>42779</v>
       </c>
@@ -17904,7 +17916,7 @@
         <v>3216.8393999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="16">
         <v>42780</v>
       </c>
@@ -17915,7 +17927,7 @@
         <v>3217.9279999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="16">
         <v>42781</v>
       </c>
@@ -17926,7 +17938,7 @@
         <v>3212.9857000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="16">
         <v>42782</v>
       </c>
@@ -17937,7 +17949,7 @@
         <v>3229.6183999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="16">
         <v>42783</v>
       </c>
@@ -17948,7 +17960,7 @@
         <v>3202.0756000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="16">
         <v>42786</v>
       </c>
@@ -17959,7 +17971,7 @@
         <v>3239.9612999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="16">
         <v>42787</v>
       </c>
@@ -17970,7 +17982,7 @@
         <v>3253.3256999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="16">
         <v>42788</v>
       </c>
@@ -17981,7 +17993,7 @@
         <v>3261.2184000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="16">
         <v>42789</v>
       </c>
@@ -17992,7 +18004,7 @@
         <v>3251.375</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="16">
         <v>42790</v>
       </c>
@@ -18003,7 +18015,7 @@
         <v>3253.4326999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="16">
         <v>42793</v>
       </c>
@@ -18014,7 +18026,7 @@
         <v>3228.6601999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="16">
         <v>42794</v>
       </c>
@@ -18025,7 +18037,7 @@
         <v>3241.7330999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="16">
         <v>42795</v>
       </c>
@@ -18036,7 +18048,7 @@
         <v>3246.9335000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="16">
         <v>42796</v>
       </c>
@@ -18047,7 +18059,7 @@
         <v>3230.0281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="16">
         <v>42797</v>
       </c>
@@ -18058,7 +18070,7 @@
         <v>3218.3117999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="16">
         <v>42800</v>
       </c>
@@ -18069,7 +18081,7 @@
         <v>3233.8656999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="16">
         <v>42801</v>
       </c>
@@ -18080,7 +18092,7 @@
         <v>3242.4063000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="16">
         <v>42802</v>
       </c>
@@ -18091,7 +18103,7 @@
         <v>3240.6646000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="16">
         <v>42803</v>
       </c>
@@ -18102,7 +18114,7 @@
         <v>3216.7456999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="16">
         <v>42804</v>
       </c>
@@ -18113,7 +18125,7 @@
         <v>3212.7601</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="16">
         <v>42807</v>
       </c>
@@ -18124,7 +18136,7 @@
         <v>3237.0243999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
         <v>42808</v>
       </c>
@@ -18135,7 +18147,7 @@
         <v>3239.3278</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="16">
         <v>42809</v>
       </c>
@@ -18146,7 +18158,7 @@
         <v>3241.7597000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="16">
         <v>42810</v>
       </c>
@@ -18157,7 +18169,7 @@
         <v>3268.9353999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="16">
         <v>42811</v>
       </c>
@@ -18168,7 +18180,7 @@
         <v>3237.4470999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="16">
         <v>42814</v>
       </c>
@@ -18179,7 +18191,7 @@
         <v>3250.8081999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="16">
         <v>42815</v>
       </c>
@@ -18190,7 +18202,7 @@
         <v>3261.6107999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="16">
         <v>42816</v>
       </c>
@@ -18201,7 +18213,7 @@
         <v>3245.2197999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="16">
         <v>42817</v>
       </c>
@@ -18212,7 +18224,7 @@
         <v>3248.5495000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="16">
         <v>42818</v>
       </c>
@@ -18223,7 +18235,7 @@
         <v>3269.4450999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="16">
         <v>42821</v>
       </c>
@@ -18234,7 +18246,7 @@
         <v>3266.9551999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="16">
         <v>42822</v>
       </c>
@@ -18245,7 +18257,7 @@
         <v>3252.9479000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="16">
         <v>42823</v>
       </c>
@@ -18256,7 +18268,7 @@
         <v>3241.3144000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="16">
         <v>42824</v>
       </c>
@@ -18267,7 +18279,7 @@
         <v>3210.2368999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="16">
         <v>42825</v>
       </c>
@@ -18278,7 +18290,7 @@
         <v>3222.5142000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="16">
         <v>42830</v>
       </c>
@@ -18289,7 +18301,7 @@
         <v>3270.3054000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="16">
         <v>42831</v>
       </c>
@@ -18300,7 +18312,7 @@
         <v>3281.0047</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="16">
         <v>42832</v>
       </c>
@@ -18311,7 +18323,7 @@
         <v>3286.616</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="16">
         <v>42835</v>
       </c>
@@ -18322,7 +18334,7 @@
         <v>3269.3926000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="16">
         <v>42836</v>
       </c>
@@ -18333,7 +18345,7 @@
         <v>3288.9657000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="16">
         <v>42837</v>
       </c>
@@ -18344,7 +18356,7 @@
         <v>3273.8301000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="16">
         <v>42838</v>
       </c>
@@ -18355,7 +18367,7 @@
         <v>3275.9603000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
         <v>42839</v>
       </c>
@@ -18366,7 +18378,7 @@
         <v>3246.0668000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="16">
         <v>42842</v>
       </c>
@@ -18377,7 +18389,7 @@
         <v>3222.1673000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="16">
         <v>42843</v>
       </c>
@@ -18388,7 +18400,7 @@
         <v>3196.7132999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="16">
         <v>42844</v>
       </c>
@@ -18399,7 +18411,7 @@
         <v>3170.6867000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="16">
         <v>42845</v>
       </c>
@@ -18410,7 +18422,7 @@
         <v>3172.1003000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="16">
         <v>42846</v>
       </c>
@@ -18421,7 +18433,7 @@
         <v>3173.1511999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="16">
         <v>42849</v>
       </c>
@@ -18432,7 +18444,7 @@
         <v>3129.5311999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="16">
         <v>42850</v>
       </c>
@@ -18443,7 +18455,7 @@
         <v>3134.5673999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="16">
         <v>42851</v>
       </c>
@@ -18454,7 +18466,7 @@
         <v>3140.8471</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="16">
         <v>42852</v>
       </c>
@@ -18465,7 +18477,7 @@
         <v>3152.1869000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="16">
         <v>42853</v>
       </c>
@@ -18476,7 +18488,7 @@
         <v>3154.6583999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="16">
         <v>42857</v>
       </c>
@@ -18487,7 +18499,7 @@
         <v>3143.7121000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="16">
         <v>42858</v>
       </c>
@@ -18498,7 +18510,7 @@
         <v>3135.346</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="16">
         <v>42859</v>
       </c>
@@ -18509,7 +18521,7 @@
         <v>3127.3687</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="16">
         <v>42860</v>
       </c>
@@ -18520,7 +18532,7 @@
         <v>3103.0378000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="16">
         <v>42863</v>
       </c>
@@ -18531,7 +18543,7 @@
         <v>3078.6129000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="16">
         <v>42864</v>
       </c>
@@ -18542,7 +18554,7 @@
         <v>3080.5268999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="16">
         <v>42865</v>
       </c>
@@ -18553,7 +18565,7 @@
         <v>3052.7849999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="16">
         <v>42866</v>
       </c>
@@ -18564,7 +18576,7 @@
         <v>3061.5003000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="16">
         <v>42867</v>
       </c>
@@ -18575,7 +18587,7 @@
         <v>3083.5131999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="16">
         <v>42870</v>
       </c>
@@ -18586,7 +18598,7 @@
         <v>3090.2289000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="16">
         <v>42871</v>
       </c>
@@ -18597,7 +18609,7 @@
         <v>3112.9641999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="16">
         <v>42872</v>
       </c>
@@ -18608,7 +18620,7 @@
         <v>3104.4414999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="16">
         <v>42873</v>
       </c>
@@ -18619,7 +18631,7 @@
         <v>3090.1390000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="16">
         <v>42874</v>
       </c>
@@ -18630,7 +18642,7 @@
         <v>3090.6309000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="16">
         <v>42877</v>
       </c>
@@ -18641,7 +18653,7 @@
         <v>3075.6756</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="16">
         <v>42878</v>
       </c>
@@ -18652,7 +18664,7 @@
         <v>3061.9470000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="16">
         <v>42879</v>
       </c>
@@ -18663,7 +18675,7 @@
         <v>3064.0758999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="16">
         <v>42880</v>
       </c>
@@ -18674,7 +18686,7 @@
         <v>3107.8310999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="16">
         <v>42881</v>
       </c>
@@ -18685,7 +18697,7 @@
         <v>3110.0587</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="16">
         <v>42886</v>
       </c>
@@ -18696,7 +18708,7 @@
         <v>3117.1777999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="16">
         <v>42887</v>
       </c>
@@ -18707,7 +18719,7 @@
         <v>3102.6232</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="16">
         <v>42888</v>
       </c>
@@ -18718,7 +18730,7 @@
         <v>3105.54</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="16">
         <v>42891</v>
       </c>
@@ -18729,7 +18741,7 @@
         <v>3091.6561000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="16">
         <v>42892</v>
       </c>
@@ -18740,7 +18752,7 @@
         <v>3102.1260000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="16">
         <v>42893</v>
       </c>
@@ -18751,7 +18763,7 @@
         <v>3140.3249000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="16">
         <v>42894</v>
       </c>
@@ -18762,7 +18774,7 @@
         <v>3150.3335999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="16">
         <v>42895</v>
       </c>
@@ -18773,7 +18785,7 @@
         <v>3158.4004</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="16">
         <v>42898</v>
       </c>
@@ -18784,7 +18796,7 @@
         <v>3139.8766000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="16">
         <v>42899</v>
       </c>
@@ -18795,7 +18807,7 @@
         <v>3153.7429000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="16">
         <v>42900</v>
       </c>
@@ -18806,7 +18818,7 @@
         <v>3130.674</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="16">
         <v>42901</v>
       </c>
@@ -18817,7 +18829,7 @@
         <v>3132.4863</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="16">
         <v>42902</v>
       </c>
@@ -18828,7 +18840,7 @@
         <v>3123.1662000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="16">
         <v>42905</v>
       </c>
@@ -18839,7 +18851,7 @@
         <v>3144.3739</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="16">
         <v>42906</v>
       </c>
@@ -18850,7 +18862,7 @@
         <v>3140.0136000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="16">
         <v>42907</v>
       </c>
@@ -18861,7 +18873,7 @@
         <v>3156.2118</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="16">
         <v>42908</v>
       </c>
@@ -18872,7 +18884,7 @@
         <v>3147.4531999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="16">
         <v>42909</v>
       </c>
@@ -18883,7 +18895,7 @@
         <v>3157.873</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="16">
         <v>42912</v>
       </c>
@@ -18894,7 +18906,7 @@
         <v>3185.4439000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="16">
         <v>42913</v>
       </c>
@@ -18905,7 +18917,7 @@
         <v>3191.1968999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="16">
         <v>42914</v>
       </c>
@@ -18916,7 +18928,7 @@
         <v>3173.2013999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="16">
         <v>42915</v>
       </c>
@@ -18927,7 +18939,7 @@
         <v>3188.0625</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="16">
         <v>42916</v>
       </c>
@@ -18938,7 +18950,7 @@
         <v>3192.4268999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="16">
         <v>42919</v>
       </c>
@@ -18949,7 +18961,7 @@
         <v>3195.9115999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="16">
         <v>42920</v>
       </c>
@@ -18960,7 +18972,7 @@
         <v>3182.8038999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="16">
         <v>42921</v>
       </c>
@@ -18971,7 +18983,7 @@
         <v>3207.1342</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="16">
         <v>42922</v>
       </c>
@@ -18982,7 +18994,7 @@
         <v>3212.444</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="16">
         <v>42923</v>
       </c>
@@ -18993,7 +19005,7 @@
         <v>3217.9567000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="16">
         <v>42926</v>
       </c>
@@ -19004,7 +19016,7 @@
         <v>3212.6318999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="16">
         <v>42927</v>
       </c>
@@ -19015,7 +19027,7 @@
         <v>3203.0374999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="16">
         <v>42928</v>
       </c>
@@ -19026,7 +19038,7 @@
         <v>3197.5439000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="16">
         <v>42929</v>
       </c>
@@ -19037,7 +19049,7 @@
         <v>3218.1632</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="16">
         <v>42930</v>
       </c>
@@ -19048,7 +19060,7 @@
         <v>3222.4168</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="16">
         <v>42933</v>
       </c>
@@ -19059,7 +19071,7 @@
         <v>3176.4648000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="16">
         <v>42934</v>
       </c>
@@ -19070,7 +19082,7 @@
         <v>3187.5672</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="16">
         <v>42935</v>
       </c>
@@ -19081,7 +19093,7 @@
         <v>3230.9762000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="16">
         <v>42936</v>
       </c>
@@ -19092,7 +19104,7 @@
         <v>3244.8647000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="16">
         <v>42937</v>
       </c>
@@ -19103,7 +19115,7 @@
         <v>3237.9816999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="16">
         <v>42940</v>
       </c>
@@ -19114,7 +19126,7 @@
         <v>3250.5989</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="16">
         <v>42941</v>
       </c>
@@ -19125,7 +19137,7 @@
         <v>3243.6894000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="16">
         <v>42942</v>
       </c>
@@ -19136,7 +19148,7 @@
         <v>3247.6747999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="16">
         <v>42943</v>
       </c>
@@ -19147,7 +19159,7 @@
         <v>3249.7813999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="16">
         <v>42944</v>
       </c>
@@ -19158,7 +19170,7 @@
         <v>3253.2404000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="16">
         <v>42947</v>
       </c>
@@ -19169,7 +19181,7 @@
         <v>3273.0282999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="16">
         <v>42948</v>
       </c>
@@ -19180,7 +19192,7 @@
         <v>3292.6383000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="16">
         <v>42949</v>
       </c>
@@ -19191,7 +19203,7 @@
         <v>3285.0567999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="16">
         <v>42950</v>
       </c>
@@ -19202,7 +19214,7 @@
         <v>3272.9286000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="16">
         <v>42951</v>
       </c>
@@ -19213,7 +19225,7 @@
         <v>3262.0808999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
         <v>42954</v>
       </c>
@@ -19224,7 +19236,7 @@
         <v>3279.4566</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
         <v>42955</v>
       </c>
@@ -19235,7 +19247,7 @@
         <v>3281.8728000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
         <v>42956</v>
       </c>
@@ -19246,7 +19258,7 @@
         <v>3275.5729999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
         <v>42957</v>
       </c>
@@ -19257,7 +19269,7 @@
         <v>3261.7494000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="16">
         <v>42958</v>
       </c>
@@ -19268,7 +19280,7 @@
         <v>3208.5412999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="16">
         <v>42961</v>
       </c>
@@ -19279,7 +19291,7 @@
         <v>3237.3602000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="16">
         <v>42962</v>
       </c>
@@ -19290,7 +19302,7 @@
         <v>3251.2617</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="16">
         <v>42963</v>
       </c>
@@ -19301,7 +19313,7 @@
         <v>3246.4512</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="16">
         <v>42964</v>
       </c>
@@ -19312,7 +19324,7 @@
         <v>3268.4297999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="16">
         <v>42965</v>
       </c>
@@ -19323,7 +19335,7 @@
         <v>3268.7242999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="16">
         <v>42968</v>
       </c>
@@ -19334,7 +19346,7 @@
         <v>3286.9054999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="16">
         <v>42969</v>
       </c>
@@ -19345,7 +19357,7 @@
         <v>3290.2257</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="16">
         <v>42970</v>
       </c>
@@ -19356,7 +19368,7 @@
         <v>3287.7049000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="16">
         <v>42971</v>
       </c>
@@ -19367,7 +19379,7 @@
         <v>3271.5117</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="16">
         <v>42972</v>
       </c>
@@ -19378,7 +19390,7 @@
         <v>3331.5221000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="16">
         <v>42975</v>
       </c>
@@ -19389,7 +19401,7 @@
         <v>3362.6514000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="16">
         <v>42976</v>
       </c>
@@ -19400,7 +19412,7 @@
         <v>3365.2260999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="16">
         <v>42977</v>
       </c>
@@ -19411,7 +19423,7 @@
         <v>3363.6266000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="16">
         <v>42978</v>
       </c>
@@ -19422,7 +19434,7 @@
         <v>3360.8103000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="16">
         <v>42979</v>
       </c>
@@ -19433,7 +19445,7 @@
         <v>3367.1194</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="16">
         <v>42982</v>
       </c>
@@ -19444,7 +19456,7 @@
         <v>3379.5830000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="16">
         <v>42983</v>
       </c>
@@ -19455,7 +19467,7 @@
         <v>3384.317</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="16">
         <v>42984</v>
       </c>
@@ -19466,7 +19478,7 @@
         <v>3385.3888000000002</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="16">
         <v>42985</v>
       </c>
@@ -19477,7 +19489,7 @@
         <v>3365.4974000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="16">
         <v>42986</v>
       </c>
@@ -19488,7 +19500,7 @@
         <v>3365.2426</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="16">
         <v>42989</v>
       </c>
@@ -19499,7 +19511,7 @@
         <v>3376.4187999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="16">
         <v>42990</v>
       </c>
@@ -19510,7 +19522,7 @@
         <v>3379.4879999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="16">
         <v>42991</v>
       </c>
@@ -19521,7 +19533,7 @@
         <v>3384.1469999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="16">
         <v>42992</v>
       </c>
@@ -19532,7 +19544,7 @@
         <v>3371.4256</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="16">
         <v>42993</v>
       </c>
@@ -19543,7 +19555,7 @@
         <v>3353.6192000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="16">
         <v>42996</v>
       </c>
@@ -19554,7 +19566,7 @@
         <v>3362.8587000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="16">
         <v>42997</v>
       </c>
@@ -19565,7 +19577,7 @@
         <v>3356.8445999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="16">
         <v>42998</v>
       </c>
@@ -19576,7 +19588,7 @@
         <v>3365.9958999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="16">
         <v>42999</v>
       </c>
@@ -19587,7 +19599,7 @@
         <v>3357.8123000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="16">
         <v>43000</v>
       </c>
@@ -19598,7 +19610,7 @@
         <v>3352.5293999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="16">
         <v>43003</v>
       </c>
@@ -19609,7 +19621,7 @@
         <v>3341.5486999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="16">
         <v>43004</v>
       </c>
@@ -19620,7 +19632,7 @@
         <v>3343.5826000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="16">
         <v>43005</v>
       </c>
@@ -19631,7 +19643,7 @@
         <v>3345.2716999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="16">
         <v>43006</v>
       </c>
@@ -19642,7 +19654,7 @@
         <v>3339.6421</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="16">
         <v>43007</v>
       </c>
@@ -19653,7 +19665,7 @@
         <v>3348.9431</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="16">
         <v>43017</v>
       </c>
@@ -19664,7 +19676,7 @@
         <v>3374.3780999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="16">
         <v>43018</v>
       </c>
@@ -19675,7 +19687,7 @@
         <v>3382.9879000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="16">
         <v>43019</v>
       </c>
@@ -19686,7 +19698,7 @@
         <v>3388.2838000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="16">
         <v>43020</v>
       </c>
@@ -19697,7 +19709,7 @@
         <v>3386.1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="16">
         <v>43021</v>
       </c>
@@ -19708,7 +19720,7 @@
         <v>3390.5232999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="16">
         <v>43024</v>
       </c>
@@ -19719,7 +19731,7 @@
         <v>3378.4704000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="16">
         <v>43025</v>
       </c>
@@ -19730,7 +19742,7 @@
         <v>3372.0407</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="16">
         <v>43026</v>
       </c>
@@ -19741,7 +19753,7 @@
         <v>3381.7937000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="16">
         <v>43027</v>
       </c>
@@ -19752,7 +19764,7 @@
         <v>3370.1720999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="16">
         <v>43028</v>
       </c>
@@ -19763,7 +19775,7 @@
         <v>3378.6480999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="16">
         <v>43031</v>
       </c>
@@ -19774,7 +19786,7 @@
         <v>3380.6990000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="16">
         <v>43032</v>
       </c>
@@ -19785,7 +19797,7 @@
         <v>3388.2476999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="16">
         <v>43033</v>
       </c>
@@ -19796,7 +19808,7 @@
         <v>3396.8975</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="16">
         <v>43034</v>
       </c>
@@ -19807,7 +19819,7 @@
         <v>3407.5671000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="16">
         <v>43035</v>
       </c>
@@ -19818,7 +19830,7 @@
         <v>3416.8123999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="16">
         <v>43038</v>
       </c>
@@ -19829,7 +19841,7 @@
         <v>3390.3371000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="16">
         <v>43039</v>
       </c>
@@ -19840,7 +19852,7 @@
         <v>3393.3416999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="16">
         <v>43040</v>
       </c>
@@ -19851,7 +19863,7 @@
         <v>3395.9124999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="16">
         <v>43041</v>
       </c>
@@ -19862,7 +19874,7 @@
         <v>3383.3094999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="16">
         <v>43042</v>
       </c>
@@ -19873,7 +19885,7 @@
         <v>3371.7440999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="16">
         <v>43045</v>
       </c>
@@ -19884,7 +19896,7 @@
         <v>3388.1741999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="16">
         <v>43046</v>
       </c>
@@ -19895,7 +19907,7 @@
         <v>3413.5747999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="16">
         <v>43047</v>
       </c>
@@ -19906,7 +19918,7 @@
         <v>3415.4602</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="16">
         <v>43048</v>
       </c>
@@ -19917,7 +19929,7 @@
         <v>3427.7946000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="16">
         <v>43049</v>
       </c>
@@ -19928,7 +19940,7 @@
         <v>3432.6731</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="16">
         <v>43052</v>
       </c>
@@ -19939,7 +19951,7 @@
         <v>3447.8357999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="16">
         <v>43053</v>
       </c>
@@ -19950,7 +19962,7 @@
         <v>3429.5482000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="16">
         <v>43054</v>
       </c>
@@ -19961,7 +19973,7 @@
         <v>3402.5245</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="16">
         <v>43055</v>
       </c>
@@ -19972,7 +19984,7 @@
         <v>3399.2503000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="16">
         <v>43056</v>
       </c>
@@ -19983,7 +19995,7 @@
         <v>3382.9074999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="16">
         <v>43059</v>
       </c>
@@ -19994,7 +20006,7 @@
         <v>3392.3987999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="16">
         <v>43060</v>
       </c>
@@ -20005,7 +20017,7 @@
         <v>3410.4976999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="16">
         <v>43061</v>
       </c>
@@ -20016,7 +20028,7 @@
         <v>3430.4643000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="16">
         <v>43062</v>
       </c>
@@ -20027,7 +20039,7 @@
         <v>3351.9182000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="16">
         <v>43063</v>
       </c>
@@ -20038,7 +20050,7 @@
         <v>3353.8207000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="16">
         <v>43066</v>
       </c>
@@ -20049,7 +20061,7 @@
         <v>3322.2298000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="16">
         <v>43067</v>
       </c>
@@ -20060,7 +20072,7 @@
         <v>3333.6570000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="16">
         <v>43068</v>
       </c>
@@ -20071,7 +20083,7 @@
         <v>3337.8620000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="16">
         <v>43069</v>
       </c>
@@ -20082,7 +20094,7 @@
         <v>3317.1884</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="16">
         <v>43070</v>
       </c>
@@ -20093,7 +20105,7 @@
         <v>3317.6174000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="16">
         <v>43073</v>
       </c>
@@ -20104,7 +20116,7 @@
         <v>3309.6183000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="16">
         <v>43074</v>
       </c>
@@ -20115,7 +20127,7 @@
         <v>3303.6750999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="16">
         <v>43075</v>
       </c>
@@ -20126,7 +20138,7 @@
         <v>3293.9648000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="16">
         <v>43076</v>
       </c>
@@ -20137,7 +20149,7 @@
         <v>3272.0542</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="16">
         <v>43077</v>
       </c>
@@ -20148,7 +20160,7 @@
         <v>3289.9924000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="16">
         <v>43080</v>
       </c>
@@ -20159,7 +20171,7 @@
         <v>3322.1956</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="16">
         <v>43081</v>
       </c>
@@ -20170,7 +20182,7 @@
         <v>3280.8136</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="16">
         <v>43082</v>
       </c>
@@ -20181,7 +20193,7 @@
         <v>3303.0373</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="16">
         <v>43083</v>
       </c>
@@ -20192,7 +20204,7 @@
         <v>3292.4385000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="16">
         <v>43084</v>
       </c>
@@ -20203,7 +20215,7 @@
         <v>3266.1370999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="16">
         <v>43087</v>
       </c>
@@ -20214,7 +20226,7 @@
         <v>3267.9223999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="16">
         <v>43088</v>
       </c>
@@ -20225,7 +20237,7 @@
         <v>3296.5383999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="16">
         <v>43089</v>
       </c>
@@ -20236,7 +20248,7 @@
         <v>3287.6057000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="16">
         <v>43090</v>
       </c>
@@ -20247,7 +20259,7 @@
         <v>3300.0592999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="16">
         <v>43091</v>
       </c>
@@ -20258,7 +20270,7 @@
         <v>3297.0630000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="16">
         <v>43094</v>
       </c>
@@ -20269,7 +20281,7 @@
         <v>3280.4609999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="16">
         <v>43095</v>
       </c>
@@ -20280,7 +20292,7 @@
         <v>3306.1246000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="16">
         <v>43096</v>
       </c>
@@ -20291,7 +20303,7 @@
         <v>3275.7828</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="16">
         <v>43097</v>
       </c>
@@ -20302,7 +20314,7 @@
         <v>3296.3847000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="16">
         <v>43098</v>
       </c>
@@ -20313,7 +20325,7 @@
         <v>3307.1720999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="16">
         <v>43102</v>
       </c>
@@ -20324,7 +20336,7 @@
         <v>3348.3258999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="16">
         <v>43103</v>
       </c>
@@ -20335,7 +20347,7 @@
         <v>3369.1084000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="16">
         <v>43104</v>
       </c>
@@ -20346,7 +20358,7 @@
         <v>3385.7102</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="16">
         <v>43105</v>
       </c>
@@ -20357,7 +20369,7 @@
         <v>3391.7501000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="16">
         <v>43108</v>
       </c>
@@ -20368,7 +20380,7 @@
         <v>3409.4794999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="16">
         <v>43109</v>
       </c>
@@ -20379,7 +20391,7 @@
         <v>3413.8996000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="16">
         <v>43110</v>
       </c>
@@ -20390,7 +20402,7 @@
         <v>3421.8343</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="16">
         <v>43111</v>
       </c>
@@ -20401,7 +20413,7 @@
         <v>3425.3449000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="16">
         <v>43112</v>
       </c>
@@ -20412,7 +20424,7 @@
         <v>3428.9407000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="16">
         <v>43115</v>
       </c>
@@ -20423,7 +20435,7 @@
         <v>3410.4881999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="16">
         <v>43116</v>
       </c>
@@ -20434,7 +20446,7 @@
         <v>3436.5940000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="16">
         <v>43117</v>
       </c>
@@ -20445,7 +20457,7 @@
         <v>3444.6713</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="16">
         <v>43118</v>
       </c>
@@ -20456,7 +20468,7 @@
         <v>3474.7539999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="16">
         <v>43119</v>
       </c>
@@ -20467,7 +20479,7 @@
         <v>3487.864</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="16">
         <v>43122</v>
       </c>
@@ -20478,7 +20490,7 @@
         <v>3501.3622</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="16">
         <v>43123</v>
       </c>
@@ -20489,7 +20501,7 @@
         <v>3546.5048000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="16">
         <v>43124</v>
       </c>
@@ -20500,7 +20512,7 @@
         <v>3559.4652999999998</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="16">
         <v>43125</v>
       </c>
@@ -20511,7 +20523,7 @@
         <v>3548.3069999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="16">
         <v>43126</v>
       </c>
@@ -20522,7 +20534,7 @@
         <v>3558.1288</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="16">
         <v>43129</v>
       </c>
@@ -20533,7 +20545,7 @@
         <v>3523.0007000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="16">
         <v>43130</v>
       </c>
@@ -20544,7 +20556,7 @@
         <v>3488.009</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="16">
         <v>43131</v>
       </c>
@@ -20555,7 +20567,7 @@
         <v>3480.8334</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="16">
         <v>43132</v>
       </c>
@@ -20566,7 +20578,7 @@
         <v>3446.9798999999998</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="16">
         <v>43133</v>
       </c>
@@ -20577,7 +20589,7 @@
         <v>3462.0808000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="16">
         <v>43136</v>
       </c>
@@ -20588,7 +20600,7 @@
         <v>3487.4969999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="16">
         <v>43137</v>
       </c>
@@ -20599,7 +20611,7 @@
         <v>3370.652</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="16">
         <v>43138</v>
       </c>
@@ -20610,7 +20622,7 @@
         <v>3309.2597999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="16">
         <v>43139</v>
       </c>
@@ -20621,7 +20633,7 @@
         <v>3262.0504000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="16">
         <v>43140</v>
       </c>
@@ -20632,7 +20644,7 @@
         <v>3129.8508000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="16">
         <v>43143</v>
       </c>
@@ -20643,7 +20655,7 @@
         <v>3154.1253999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="16">
         <v>43144</v>
       </c>
@@ -20654,7 +20666,7 @@
         <v>3184.9587000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="16">
         <v>43145</v>
       </c>
@@ -20665,7 +20677,7 @@
         <v>3199.1588999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="16">
         <v>43153</v>
       </c>
@@ -20676,7 +20688,7 @@
         <v>3268.56</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="16">
         <v>43154</v>
       </c>
@@ -20687,7 +20699,7 @@
         <v>3289.02</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="16">
         <v>43157</v>
       </c>
@@ -20698,7 +20710,7 @@
         <v>3329.57</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="16">
         <v>43158</v>
       </c>
@@ -20709,7 +20721,7 @@
         <v>3292.07</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="16">
         <v>43159</v>
       </c>
@@ -20720,7 +20732,7 @@
         <v>3259.41</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="16">
         <v>43160</v>
       </c>
@@ -20731,7 +20743,7 @@
         <v>3273.76</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="16">
         <v>43161</v>
       </c>
@@ -20742,7 +20754,7 @@
         <v>3254.53</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="16">
         <v>43164</v>
       </c>
@@ -20753,7 +20765,7 @@
         <v>3256.93</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="16">
         <v>43165</v>
       </c>
@@ -20764,7 +20776,7 @@
         <v>3289.64</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="16">
         <v>43166</v>
       </c>
@@ -20775,7 +20787,7 @@
         <v>3271.67</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="16">
         <v>43167</v>
       </c>
@@ -20786,7 +20798,7 @@
         <v>3288.41</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="16">
         <v>43168</v>
       </c>
@@ -20797,7 +20809,7 @@
         <v>3307.17</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="16">
         <v>43171</v>
       </c>
@@ -20808,7 +20820,7 @@
         <v>3326.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="16">
         <v>43172</v>
       </c>
@@ -20819,7 +20831,7 @@
         <v>3310.24</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="16">
         <v>43173</v>
       </c>
@@ -20830,7 +20842,7 @@
         <v>3291.38</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="16">
         <v>43174</v>
       </c>
@@ -20841,7 +20853,7 @@
         <v>3291.11</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="16">
         <v>43175</v>
       </c>
@@ -20852,7 +20864,7 @@
         <v>3269.88</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="16">
         <v>43178</v>
       </c>
@@ -20863,7 +20875,7 @@
         <v>3279.25</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="16">
         <v>43179</v>
       </c>
@@ -20874,7 +20886,7 @@
         <v>3290.64</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="16">
         <v>43180</v>
       </c>
@@ -20885,7 +20897,7 @@
         <v>3280.95</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="16">
         <v>43181</v>
       </c>
@@ -20896,7 +20908,7 @@
         <v>3263.48</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="16">
         <v>43182</v>
       </c>
@@ -20907,7 +20919,7 @@
         <v>3152.76</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="16">
         <v>43185</v>
       </c>
@@ -20918,7 +20930,7 @@
         <v>3133.72</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="16">
         <v>43186</v>
       </c>
@@ -20929,7 +20941,7 @@
         <v>3166.65</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="16">
         <v>43187</v>
       </c>
@@ -20940,7 +20952,7 @@
         <v>3122.29</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="16">
         <v>43188</v>
       </c>
@@ -20951,7 +20963,7 @@
         <v>3160.53</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="16">
         <v>43189</v>
       </c>
@@ -20962,7 +20974,7 @@
         <v>3168.9</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="16">
         <v>43192</v>
       </c>
@@ -20973,7 +20985,7 @@
         <v>3163.18</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="16">
         <v>43193</v>
       </c>
@@ -20984,7 +20996,7 @@
         <v>3136.63</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="16">
         <v>43194</v>
       </c>
@@ -20995,7 +21007,7 @@
         <v>3131.11</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="16">
         <v>43199</v>
       </c>
@@ -21006,7 +21018,7 @@
         <v>3138.29</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="16">
         <v>43200</v>
       </c>
@@ -21017,7 +21029,7 @@
         <v>3190.32</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="16">
         <v>43201</v>
       </c>
@@ -21028,7 +21040,7 @@
         <v>3208.08</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="16">
         <v>43202</v>
       </c>
@@ -21039,7 +21051,7 @@
         <v>3180.16</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="16">
         <v>43203</v>
       </c>
@@ -21050,7 +21062,7 @@
         <v>3159.05</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="16">
         <v>43206</v>
       </c>
@@ -21061,7 +21073,7 @@
         <v>3110.65</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="16">
         <v>43207</v>
       </c>
@@ -21072,7 +21084,7 @@
         <v>3066.8</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="16">
         <v>43208</v>
       </c>
@@ -21083,7 +21095,7 @@
         <v>3091.4</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="16">
         <v>43209</v>
       </c>
@@ -21094,7 +21106,7 @@
         <v>3117.48</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="16">
         <v>43210</v>
       </c>
@@ -21105,7 +21117,7 @@
         <v>3071.54</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="16">
         <v>43213</v>
       </c>
@@ -21116,7 +21128,7 @@
         <v>3068.01</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="16">
         <v>43214</v>
       </c>
@@ -21127,7 +21139,7 @@
         <v>3128.93</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="16">
         <v>43215</v>
       </c>
@@ -21138,7 +21150,7 @@
         <v>3117.97</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="16">
         <v>43216</v>
       </c>
@@ -21149,7 +21161,7 @@
         <v>3075.03</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="16">
         <v>43217</v>
       </c>
@@ -21160,7 +21172,7 @@
         <v>3082.23</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="16">
         <v>43222</v>
       </c>
@@ -21171,7 +21183,7 @@
         <v>3081.18</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="16">
         <v>43223</v>
       </c>
@@ -21182,7 +21194,7 @@
         <v>3100.86</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="16">
         <v>43224</v>
       </c>
@@ -21193,7 +21205,7 @@
         <v>3091.03</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="16">
         <v>43227</v>
       </c>
@@ -21204,7 +21216,7 @@
         <v>3136.64</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="16">
         <v>43228</v>
       </c>
@@ -21215,7 +21227,7 @@
         <v>3160.5</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="16">
         <v>43229</v>
       </c>
@@ -21226,7 +21238,7 @@
         <v>3159.15</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="16">
         <v>43230</v>
       </c>
@@ -21237,7 +21249,7 @@
         <v>3169.05</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="16">
         <v>43231</v>
       </c>
@@ -21248,7 +21260,7 @@
         <v>3163.26</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="16">
         <v>43234</v>
       </c>
@@ -21259,7 +21271,7 @@
         <v>3174.03</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="16">
         <v>43235</v>
       </c>
@@ -21270,7 +21282,7 @@
         <v>3192.12</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="16">
         <v>43236</v>
       </c>
@@ -21281,7 +21293,7 @@
         <v>3169.57</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="16">
         <v>43237</v>
       </c>
@@ -21292,7 +21304,7 @@
         <v>3154.28</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="16">
         <v>43238</v>
       </c>
@@ -21303,7 +21315,7 @@
         <v>3193.3</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="16">
         <v>43241</v>
       </c>
@@ -21314,7 +21326,7 @@
         <v>3213.84</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="16">
         <v>43242</v>
       </c>
@@ -21325,7 +21337,7 @@
         <v>3214.35</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="16">
         <v>43243</v>
       </c>
@@ -21336,7 +21348,7 @@
         <v>3168.96</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="16">
         <v>43244</v>
       </c>
@@ -21347,7 +21359,7 @@
         <v>3154.65</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="16">
         <v>43245</v>
       </c>
@@ -21358,7 +21370,7 @@
         <v>3141.3</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="16">
         <v>43248</v>
       </c>
@@ -21369,7 +21381,7 @@
         <v>3135.08</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="16">
         <v>43249</v>
       </c>
@@ -21380,7 +21392,7 @@
         <v>3120.46</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="16">
         <v>43250</v>
       </c>
@@ -21391,7 +21403,7 @@
         <v>3041.44</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="16">
         <v>43251</v>
       </c>
@@ -21402,7 +21414,7 @@
         <v>3095.47</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="16">
         <v>43252</v>
       </c>
@@ -21413,7 +21425,7 @@
         <v>3075.14</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="16">
         <v>43255</v>
       </c>
@@ -21424,7 +21436,7 @@
         <v>3091.19</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="16">
         <v>43256</v>
       </c>
@@ -21435,7 +21447,7 @@
         <v>3114.21</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="16">
         <v>43257</v>
       </c>
@@ -21446,7 +21458,7 @@
         <v>3115.18</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="16">
         <v>43258</v>
       </c>
@@ -21457,7 +21469,7 @@
         <v>3109.5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="16">
         <v>43259</v>
       </c>
@@ -21468,7 +21480,7 @@
         <v>3067.15</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="16">
         <v>43262</v>
       </c>
@@ -21479,7 +21491,7 @@
         <v>3052.78</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="16">
         <v>43263</v>
       </c>
@@ -21490,7 +21502,7 @@
         <v>3079.8</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="16">
         <v>43264</v>
       </c>
@@ -21501,7 +21513,7 @@
         <v>3049.8</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="16">
         <v>43265</v>
       </c>
@@ -21512,7 +21524,7 @@
         <v>3044.16</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="16">
         <v>43266</v>
       </c>
@@ -21523,7 +21535,7 @@
         <v>3021.9</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="16">
         <v>43270</v>
       </c>
@@ -21534,7 +21546,7 @@
         <v>2907.82</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="16">
         <v>43271</v>
       </c>
@@ -21545,7 +21557,7 @@
         <v>2915.73</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="16">
         <v>43272</v>
       </c>
@@ -21556,7 +21568,7 @@
         <v>2875.81</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="16">
         <v>43273</v>
       </c>
@@ -21567,7 +21579,7 @@
         <v>2889.76</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="16">
         <v>43276</v>
       </c>
@@ -21578,7 +21590,7 @@
         <v>2859.34</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="16">
         <v>43277</v>
       </c>
@@ -21589,7 +21601,7 @@
         <v>2844.51</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="16">
         <v>43278</v>
       </c>
@@ -21600,7 +21612,7 @@
         <v>2813.18</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="16">
         <v>43279</v>
       </c>
@@ -21611,7 +21623,7 @@
         <v>2786.9</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="16">
         <v>43280</v>
       </c>
@@ -21622,7 +21634,7 @@
         <v>2847.42</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="16">
         <v>43283</v>
       </c>
@@ -21633,7 +21645,7 @@
         <v>2775.56</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="16">
         <v>43284</v>
       </c>
@@ -21644,7 +21656,7 @@
         <v>2786.89</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="16">
         <v>43285</v>
       </c>
@@ -21655,7 +21667,7 @@
         <v>2759.13</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="16">
         <v>43286</v>
       </c>
@@ -21666,7 +21678,7 @@
         <v>2733.88</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="16">
         <v>43287</v>
       </c>
@@ -21677,7 +21689,7 @@
         <v>2747.23</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="16">
         <v>43290</v>
       </c>
@@ -21688,7 +21700,7 @@
         <v>2815.11</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="16">
         <v>43291</v>
       </c>
@@ -21699,7 +21711,7 @@
         <v>2827.63</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="16">
         <v>43292</v>
       </c>
@@ -21710,7 +21722,7 @@
         <v>2777.77</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="16">
         <v>43293</v>
       </c>
@@ -21721,7 +21733,7 @@
         <v>2837.66</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="16">
         <v>43294</v>
       </c>
@@ -21732,7 +21744,7 @@
         <v>2831.18</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="16">
         <v>43297</v>
       </c>
@@ -21743,7 +21755,7 @@
         <v>2814.04</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="16">
         <v>43298</v>
       </c>
@@ -21754,7 +21766,7 @@
         <v>2798.13</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="16">
         <v>43299</v>
       </c>
@@ -21765,7 +21777,7 @@
         <v>2787.26</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="16">
         <v>43300</v>
       </c>
@@ -21776,7 +21788,7 @@
         <v>2772.55</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="16">
         <v>43301</v>
       </c>
@@ -21787,7 +21799,7 @@
         <v>2829.27</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="16">
         <v>43304</v>
       </c>
@@ -21798,7 +21810,7 @@
         <v>2859.54</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="16">
         <v>43305</v>
       </c>
@@ -21809,7 +21821,7 @@
         <v>2905.56</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="16">
         <v>43306</v>
       </c>
@@ -21820,7 +21832,7 @@
         <v>2903.65</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="16">
         <v>43307</v>
       </c>
@@ -21831,7 +21843,7 @@
         <v>2882.23</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="16">
         <v>43308</v>
       </c>
@@ -21842,7 +21854,7 @@
         <v>2873.59</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="16">
         <v>43311</v>
       </c>
@@ -21853,7 +21865,7 @@
         <v>2869.05</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="16">
         <v>43312</v>
       </c>
@@ -21864,7 +21876,7 @@
         <v>2876.4</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="16">
         <v>43313</v>
       </c>
@@ -21875,7 +21887,7 @@
         <v>2824.53</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="16">
         <v>43314</v>
       </c>
@@ -21886,7 +21898,7 @@
         <v>2768.02</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="16">
         <v>43315</v>
       </c>
@@ -21897,7 +21909,7 @@
         <v>2740.44</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="16">
         <v>43318</v>
       </c>
@@ -21908,7 +21920,7 @@
         <v>2705.16</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="16">
         <v>43319</v>
       </c>
@@ -21919,7 +21931,7 @@
         <v>2779.37</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="16">
         <v>43320</v>
       </c>
@@ -21930,7 +21942,7 @@
         <v>2744.07</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="16">
         <v>43321</v>
       </c>
@@ -21941,7 +21953,7 @@
         <v>2794.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="16">
         <v>43322</v>
       </c>
@@ -21952,7 +21964,7 @@
         <v>2795.31</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="16">
         <v>43325</v>
       </c>
@@ -21963,7 +21975,7 @@
         <v>2785.87</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="16">
         <v>43326</v>
       </c>
@@ -21974,7 +21986,7 @@
         <v>2780.96</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="16">
         <v>43327</v>
       </c>
@@ -21985,7 +21997,7 @@
         <v>2723.26</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="16">
         <v>43328</v>
       </c>
@@ -21996,7 +22008,7 @@
         <v>2705.19</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="16">
         <v>43329</v>
       </c>
@@ -22007,7 +22019,7 @@
         <v>2668.97</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="16">
         <v>43332</v>
       </c>
@@ -22018,7 +22030,7 @@
         <v>2698.47</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="16">
         <v>43333</v>
       </c>
@@ -22029,7 +22041,7 @@
         <v>2733.83</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="16">
         <v>43334</v>
       </c>
@@ -22040,7 +22052,7 @@
         <v>2714.61</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="16">
         <v>43335</v>
       </c>
@@ -22051,7 +22063,7 @@
         <v>2724.62</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="16">
         <v>43336</v>
       </c>
@@ -22062,7 +22074,7 @@
         <v>2729.43</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="16">
         <v>43339</v>
       </c>
@@ -22073,7 +22085,7 @@
         <v>2780.9</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="16">
         <v>43340</v>
       </c>
@@ -22084,7 +22096,7 @@
         <v>2777.98</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="16">
         <v>43341</v>
       </c>
@@ -22095,7 +22107,7 @@
         <v>2769.29</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="16">
         <v>43342</v>
       </c>
@@ -22106,7 +22118,7 @@
         <v>2737.74</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="16">
         <v>43343</v>
       </c>
@@ -22117,7 +22129,7 @@
         <v>2725.25</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="16">
         <v>43346</v>
       </c>
@@ -22128,7 +22140,7 @@
         <v>2720.73</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="16">
         <v>43347</v>
       </c>
@@ -22139,7 +22151,7 @@
         <v>2750.58</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="16">
         <v>43348</v>
       </c>
@@ -22150,7 +22162,7 @@
         <v>2704.34</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="16">
         <v>43349</v>
       </c>
@@ -22161,7 +22173,7 @@
         <v>2691.59</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="16">
         <v>43350</v>
       </c>
@@ -22172,7 +22184,7 @@
         <v>2702.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="16">
         <v>43353</v>
       </c>
@@ -22183,7 +22195,7 @@
         <v>2669.48</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="16">
         <v>43354</v>
       </c>
@@ -22194,7 +22206,7 @@
         <v>2664.8</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="16">
         <v>43355</v>
       </c>
@@ -22205,7 +22217,7 @@
         <v>2656.11</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="16">
         <v>43356</v>
       </c>
@@ -22216,7 +22228,7 @@
         <v>2686.58</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="16">
         <v>43357</v>
       </c>
@@ -22227,7 +22239,7 @@
         <v>2681.64</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="16">
         <v>43360</v>
       </c>
@@ -22238,7 +22250,7 @@
         <v>2651.79</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="16">
         <v>43361</v>
       </c>
@@ -22249,7 +22261,7 @@
         <v>2669.95</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="16">
         <v>43362</v>
       </c>
@@ -22260,7 +22272,7 @@
         <v>2730.85</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="16">
         <v>43363</v>
       </c>
@@ -22271,7 +22283,7 @@
         <v>2729.24</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="16">
         <v>43364</v>
       </c>
@@ -22282,7 +22294,7 @@
         <v>2797.48</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="16">
         <v>43368</v>
       </c>
@@ -22293,7 +22305,7 @@
         <v>2781.14</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="16">
         <v>43369</v>
       </c>
@@ -22304,7 +22316,7 @@
         <v>2806.81</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="16">
         <v>43370</v>
       </c>
@@ -22315,7 +22327,7 @@
         <v>2791.77</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="16">
         <v>43371</v>
       </c>
@@ -22326,7 +22338,7 @@
         <v>2821.35</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="16">
         <v>43381</v>
       </c>
@@ -22337,7 +22349,7 @@
         <v>2716.51</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="16">
         <v>43382</v>
       </c>
@@ -22348,7 +22360,7 @@
         <v>2721.01</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="16">
         <v>43383</v>
       </c>
@@ -22359,7 +22371,7 @@
         <v>2725.84</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="16">
         <v>43384</v>
       </c>
@@ -22370,7 +22382,7 @@
         <v>2583.46</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="16">
         <v>43385</v>
       </c>
@@ -22381,7 +22393,7 @@
         <v>2606.91</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="16">
         <v>43388</v>
       </c>
@@ -22392,7 +22404,7 @@
         <v>2568.1</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="16">
         <v>43389</v>
       </c>
@@ -22403,7 +22415,7 @@
         <v>2546.33</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="16">
         <v>43390</v>
       </c>
@@ -22414,7 +22426,7 @@
         <v>2561.61</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="16">
         <v>43391</v>
       </c>
@@ -22425,7 +22437,7 @@
         <v>2486.42</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="16">
         <v>43392</v>
       </c>
@@ -22436,7 +22448,7 @@
         <v>2550.4699999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="16">
         <v>43395</v>
       </c>
@@ -22447,7 +22459,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="16">
         <v>43396</v>
       </c>
@@ -22458,7 +22470,7 @@
         <v>2594.83</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="16">
         <v>43397</v>
       </c>
@@ -22469,7 +22481,7 @@
         <v>2603.3000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="16">
         <v>43398</v>
       </c>
@@ -22480,7 +22492,7 @@
         <v>2603.8000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="16">
         <v>43399</v>
       </c>
@@ -22491,7 +22503,7 @@
         <v>2598.85</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="16">
         <v>43402</v>
       </c>
@@ -22502,7 +22514,7 @@
         <v>2542.1</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="16">
         <v>43403</v>
       </c>
@@ -22513,7 +22525,7 @@
         <v>2568.0500000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="16">
         <v>43404</v>
       </c>
@@ -22524,7 +22536,7 @@
         <v>2602.7800000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="16">
         <v>43405</v>
       </c>
@@ -22535,7 +22547,7 @@
         <v>2606.2399999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="16">
         <v>43406</v>
       </c>
@@ -22546,7 +22558,7 @@
         <v>2676.48</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="16">
         <v>43409</v>
       </c>
@@ -22557,7 +22569,7 @@
         <v>2665.43</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="16">
         <v>43410</v>
       </c>
@@ -22568,7 +22580,7 @@
         <v>2659.36</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="16">
         <v>43411</v>
       </c>
@@ -22579,7 +22591,7 @@
         <v>2641.34</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="16">
         <v>43412</v>
       </c>
@@ -22590,7 +22602,7 @@
         <v>2635.63</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="16">
         <v>43413</v>
       </c>
@@ -22601,7 +22613,7 @@
         <v>2598.87</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="16">
         <v>43416</v>
       </c>
@@ -22612,7 +22624,7 @@
         <v>2630.52</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="16">
         <v>43417</v>
       </c>
@@ -22623,7 +22635,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="16">
         <v>43418</v>
       </c>
@@ -22634,7 +22646,7 @@
         <v>2632.24</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="16">
         <v>43419</v>
       </c>
@@ -22645,7 +22657,7 @@
         <v>2668.17</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="16">
         <v>43420</v>
       </c>
@@ -22656,7 +22668,7 @@
         <v>2679.11</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="16">
         <v>43423</v>
       </c>
@@ -22667,7 +22679,7 @@
         <v>2703.51</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="16">
         <v>43424</v>
       </c>
@@ -22678,7 +22690,7 @@
         <v>2645.85</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="16">
         <v>43425</v>
       </c>
@@ -22689,7 +22701,7 @@
         <v>2651.51</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="16">
         <v>43426</v>
       </c>
@@ -22700,7 +22712,7 @@
         <v>2645.43</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="16">
         <v>43427</v>
       </c>
@@ -22711,7 +22723,7 @@
         <v>2579.48</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="16">
         <v>43430</v>
       </c>
@@ -22722,7 +22734,7 @@
         <v>2575.81</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="16">
         <v>43431</v>
       </c>
@@ -22733,7 +22745,7 @@
         <v>2574.6799999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="16">
         <v>43432</v>
       </c>
@@ -22744,7 +22756,7 @@
         <v>2601.7399999999998</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="16">
         <v>43433</v>
       </c>
@@ -22755,7 +22767,7 @@
         <v>2567.44</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="16">
         <v>43434</v>
       </c>
@@ -22766,7 +22778,7 @@
         <v>2588.19</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="16">
         <v>43437</v>
       </c>
@@ -22777,7 +22789,7 @@
         <v>2654.8</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="16">
         <v>43438</v>
       </c>
@@ -22788,7 +22800,7 @@
         <v>2665.96</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="16">
         <v>43439</v>
       </c>
@@ -22799,7 +22811,7 @@
         <v>2649.81</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="16">
         <v>43440</v>
       </c>
@@ -22810,7 +22822,7 @@
         <v>2605.1799999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="16">
         <v>43441</v>
       </c>
@@ -22821,7 +22833,7 @@
         <v>2605.89</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="16">
         <v>43444</v>
       </c>
@@ -22832,7 +22844,7 @@
         <v>2584.58</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="16">
         <v>43445</v>
       </c>
@@ -22843,7 +22855,7 @@
         <v>2594.09</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="16">
         <v>43446</v>
       </c>
@@ -22854,7 +22866,7 @@
         <v>2602.15</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="16">
         <v>43447</v>
       </c>
@@ -22865,7 +22877,7 @@
         <v>2634.05</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="16">
         <v>43448</v>
       </c>
@@ -22876,7 +22888,7 @@
         <v>2593.7399999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="16">
         <v>43451</v>
       </c>
@@ -22887,7 +22899,7 @@
         <v>2597.9699999999998</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="16">
         <v>43452</v>
       </c>
@@ -22898,7 +22910,7 @@
         <v>2576.65</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="16">
         <v>43453</v>
       </c>
@@ -22909,7 +22921,7 @@
         <v>2549.56</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="16">
         <v>43454</v>
       </c>
@@ -22920,7 +22932,7 @@
         <v>2536.27</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="16">
         <v>43455</v>
       </c>
@@ -22931,7 +22943,7 @@
         <v>2516.25</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="16">
         <v>43458</v>
       </c>
@@ -22942,7 +22954,7 @@
         <v>2527.0100000000002</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="16">
         <v>43459</v>
       </c>
@@ -22953,7 +22965,7 @@
         <v>2504.8200000000002</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="16">
         <v>43460</v>
       </c>
@@ -22964,7 +22976,7 @@
         <v>2498.29</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="16">
         <v>43461</v>
       </c>
@@ -22975,7 +22987,7 @@
         <v>2483.09</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="16">
         <v>43462</v>
       </c>
@@ -22986,7 +22998,7 @@
         <v>2493.9</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="16">
         <v>43467</v>
       </c>
@@ -22997,7 +23009,7 @@
         <v>2465.29</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="16">
         <v>43468</v>
       </c>
@@ -23008,7 +23020,7 @@
         <v>2464.36</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="16">
         <v>43469</v>
       </c>
@@ -23019,7 +23031,7 @@
         <v>2514.87</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="16">
         <v>43472</v>
       </c>
@@ -23030,7 +23042,7 @@
         <v>2533.09</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="16">
         <v>43473</v>
       </c>
@@ -23041,7 +23053,7 @@
         <v>2525.46</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="16">
         <v>43474</v>
       </c>
@@ -23052,7 +23064,7 @@
         <v>2544.34</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="16">
         <v>43475</v>
       </c>
@@ -23063,7 +23075,7 @@
         <v>2535.1</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="16">
         <v>43476</v>
       </c>
@@ -23074,7 +23086,7 @@
         <v>2553.83</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="16">
         <v>43479</v>
       </c>
@@ -23085,7 +23097,7 @@
         <v>2535.77</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="16">
         <v>43480</v>
       </c>
@@ -23096,7 +23108,7 @@
         <v>2570.34</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="16">
         <v>43481</v>
       </c>
@@ -23107,7 +23119,7 @@
         <v>2570.42</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="16">
         <v>43482</v>
       </c>
@@ -23118,7 +23130,7 @@
         <v>2559.64</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="16">
         <v>43483</v>
       </c>
@@ -23129,7 +23141,7 @@
         <v>2596.0100000000002</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="16">
         <v>43486</v>
       </c>
@@ -23140,7 +23152,7 @@
         <v>2610.5100000000002</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="16">
         <v>43487</v>
       </c>
@@ -23151,7 +23163,7 @@
         <v>2579.6999999999998</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="16">
         <v>43488</v>
       </c>
@@ -23162,7 +23174,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="16">
         <v>43489</v>
       </c>
@@ -23173,7 +23185,7 @@
         <v>2591.69</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="16">
         <v>43490</v>
       </c>
@@ -23184,7 +23196,7 @@
         <v>2601.7199999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="16">
         <v>43493</v>
       </c>
@@ -23195,7 +23207,7 @@
         <v>2596.98</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="16">
         <v>43494</v>
       </c>
@@ -23206,7 +23218,7 @@
         <v>2594.25</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="16">
         <v>43495</v>
       </c>
@@ -23217,7 +23229,7 @@
         <v>2575.58</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="16">
         <v>43496</v>
       </c>
@@ -23228,7 +23240,7 @@
         <v>2584.5700000000002</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="16">
         <v>43497</v>
       </c>
@@ -23239,7 +23251,7 @@
         <v>2618.23</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="16">
         <v>43507</v>
       </c>
@@ -23250,7 +23262,7 @@
         <v>2653.9</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="16">
         <v>43508</v>
       </c>
@@ -23261,7 +23273,7 @@
         <v>2671.89</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="16">
         <v>43509</v>
       </c>
@@ -23272,7 +23284,7 @@
         <v>2721.07</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="16">
         <v>43510</v>
       </c>
@@ -23283,7 +23295,7 @@
         <v>2719.7</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="16">
         <v>43511</v>
       </c>
@@ -23294,7 +23306,7 @@
         <v>2682.39</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="16">
         <v>43514</v>
       </c>
@@ -23305,7 +23317,7 @@
         <v>2754.36</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="16">
         <v>43515</v>
       </c>
@@ -23316,7 +23328,7 @@
         <v>2755.65</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="16">
         <v>43516</v>
       </c>
@@ -23327,7 +23339,7 @@
         <v>2761.22</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="16">
         <v>43517</v>
       </c>
@@ -23338,7 +23350,7 @@
         <v>2751.8</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="16">
         <v>43518</v>
       </c>
@@ -23349,7 +23361,7 @@
         <v>2804.23</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="16">
         <v>43521</v>
       </c>
@@ -23360,7 +23372,7 @@
         <v>2961.28</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="16">
         <v>43522</v>
       </c>
@@ -23371,7 +23383,7 @@
         <v>2941.52</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="16">
         <v>43523</v>
       </c>
@@ -23382,7 +23394,7 @@
         <v>2953.82</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="16">
         <v>43524</v>
       </c>
@@ -23393,7 +23405,7 @@
         <v>2940.95</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="16">
         <v>43525</v>
       </c>
@@ -23404,7 +23416,7 @@
         <v>2994.01</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="16">
         <v>43528</v>
       </c>
@@ -23415,7 +23427,7 @@
         <v>3027.58</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="16">
         <v>43529</v>
       </c>
@@ -23426,7 +23438,7 @@
         <v>3054.25</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="16">
         <v>43530</v>
       </c>
@@ -23437,7 +23449,7 @@
         <v>3102.1</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="16">
         <v>43531</v>
       </c>
@@ -23448,7 +23460,7 @@
         <v>3106.42</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="16">
         <v>43532</v>
       </c>
@@ -23459,7 +23471,7 @@
         <v>2969.86</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="16">
         <v>43535</v>
       </c>
@@ -23470,7 +23482,7 @@
         <v>3026.99</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="16">
         <v>43536</v>
       </c>
@@ -23481,7 +23493,7 @@
         <v>3060.31</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="16">
         <v>43537</v>
       </c>
@@ -23492,7 +23504,7 @@
         <v>3026.95</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="16">
         <v>43538</v>
       </c>
@@ -23503,7 +23515,7 @@
         <v>2990.69</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" s="16">
         <v>43539</v>
       </c>
@@ -23514,7 +23526,7 @@
         <v>3021.75</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" s="16">
         <v>43542</v>
       </c>
@@ -23525,7 +23537,7 @@
         <v>3096.42</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="16">
         <v>43543</v>
       </c>
@@ -23536,7 +23548,7 @@
         <v>3090.98</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="16">
         <v>43544</v>
       </c>
@@ -23547,7 +23559,7 @@
         <v>3090.64</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="16">
         <v>43545</v>
       </c>
@@ -23558,7 +23570,7 @@
         <v>3101.46</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="16">
         <v>43546</v>
       </c>
@@ -23569,7 +23581,7 @@
         <v>3104.15</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="16">
         <v>43549</v>
       </c>
@@ -23580,7 +23592,7 @@
         <v>3043.03</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="16">
         <v>43550</v>
       </c>
@@ -23591,7 +23603,7 @@
         <v>2997.1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="16">
         <v>43551</v>
       </c>
@@ -23602,7 +23614,7 @@
         <v>3022.72</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="16">
         <v>43552</v>
       </c>
@@ -23613,7 +23625,7 @@
         <v>2994.94</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="16">
         <v>43553</v>
       </c>
@@ -23624,7 +23636,7 @@
         <v>3090.76</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="16">
         <v>43556</v>
       </c>
@@ -23635,7 +23647,7 @@
         <v>3170.36</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="16">
         <v>43557</v>
       </c>
@@ -23646,7 +23658,7 @@
         <v>3176.82</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="16">
         <v>43558</v>
       </c>
@@ -23657,7 +23669,7 @@
         <v>3216.3</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="16">
         <v>43559</v>
       </c>
@@ -23668,7 +23680,7 @@
         <v>3246.57</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="16">
         <v>43563</v>
       </c>
@@ -23679,7 +23691,7 @@
         <v>3244.81</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="16">
         <v>43564</v>
       </c>
@@ -23690,7 +23702,7 @@
         <v>3239.66</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="16">
         <v>43565</v>
       </c>
@@ -23701,7 +23713,7 @@
         <v>3241.93</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="16">
         <v>43566</v>
       </c>
@@ -23712,7 +23724,7 @@
         <v>3189.96</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="16">
         <v>43567</v>
       </c>
@@ -23723,7 +23735,7 @@
         <v>3188.63</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="16">
         <v>43570</v>
       </c>
@@ -23734,7 +23746,7 @@
         <v>3177.79</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="16">
         <v>43571</v>
       </c>
@@ -23745,7 +23757,7 @@
         <v>3253.6</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="16">
         <v>43572</v>
       </c>
@@ -23756,7 +23768,7 @@
         <v>3263.12</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="16">
         <v>43573</v>
       </c>
@@ -23767,7 +23779,7 @@
         <v>3250.2</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="16">
         <v>43574</v>
       </c>
@@ -23778,7 +23790,7 @@
         <v>3270.8</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="16">
         <v>43577</v>
       </c>
@@ -23789,7 +23801,7 @@
         <v>3215.04</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" s="16">
         <v>43578</v>
       </c>
@@ -23800,7 +23812,7 @@
         <v>3198.59</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" s="16">
         <v>43579</v>
       </c>
@@ -23811,7 +23823,7 @@
         <v>3201.61</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="16">
         <v>43580</v>
       </c>
@@ -23822,7 +23834,7 @@
         <v>3123.83</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="16">
         <v>43581</v>
       </c>
@@ -23833,7 +23845,7 @@
         <v>3086.4</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="16">
         <v>43584</v>
       </c>
@@ -23844,7 +23856,7 @@
         <v>3062.5</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="16">
         <v>43585</v>
       </c>
@@ -23855,7 +23867,7 @@
         <v>3078.34</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="16">
         <v>43591</v>
       </c>
@@ -23866,7 +23878,7 @@
         <v>2906.46</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="16">
         <v>43592</v>
       </c>
@@ -23877,7 +23889,7 @@
         <v>2926.39</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="16">
         <v>43593</v>
       </c>
@@ -23888,7 +23900,7 @@
         <v>2893.76</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="16">
         <v>43594</v>
       </c>
@@ -23899,7 +23911,7 @@
         <v>2850.95</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="16">
         <v>43595</v>
       </c>
@@ -23910,7 +23922,7 @@
         <v>2939.21</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="16">
         <v>43598</v>
       </c>
@@ -23921,7 +23933,7 @@
         <v>2903.71</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="16">
         <v>43599</v>
       </c>
@@ -23932,7 +23944,7 @@
         <v>2883.61</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="16">
         <v>43600</v>
       </c>
@@ -23943,7 +23955,7 @@
         <v>2938.68</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="16">
         <v>43601</v>
       </c>
@@ -23954,7 +23966,7 @@
         <v>2955.71</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="16">
         <v>43602</v>
       </c>
@@ -23965,7 +23977,7 @@
         <v>2882.3</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="16">
         <v>43605</v>
       </c>
@@ -23976,7 +23988,7 @@
         <v>2870.6</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="16">
         <v>43606</v>
       </c>
@@ -23987,7 +23999,7 @@
         <v>2905.97</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" s="16">
         <v>43607</v>
       </c>
@@ -23998,7 +24010,7 @@
         <v>2891.7</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" s="16">
         <v>43608</v>
       </c>
@@ -24009,12 +24021,38 @@
         <v>2852.52</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="16">
         <v>43609</v>
       </c>
+      <c r="B826" s="15">
+        <v>59.59</v>
+      </c>
       <c r="C826">
         <v>2852.99</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A827" s="16">
+        <v>43612</v>
+      </c>
+      <c r="C827">
+        <v>2892.38</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A828" s="16">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A829" s="16">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A830" s="16">
+        <v>43615</v>
       </c>
     </row>
   </sheetData>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67248715-0133-4432-8955-F3BFE1F10AF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C042158-33D9-425C-9955-FD24BFAC08A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18383359340847805</c:v>
+                  <c:v>0.20738957541159642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$826</c:f>
+              <c:f>Sheet1!$A$2:$A$827</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="825"/>
+                <c:ptCount val="826"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3872,16 +3872,19 @@
                 </c:pt>
                 <c:pt idx="824">
                   <c:v>43609</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>43612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$826</c:f>
+              <c:f>Sheet1!$B$2:$B$827</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="825"/>
+                <c:ptCount val="826"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6356,6 +6359,9 @@
                 </c:pt>
                 <c:pt idx="824">
                   <c:v>59.59</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>59.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6411,10 +6417,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$826</c:f>
+              <c:f>Sheet1!$A$2:$A$827</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="825"/>
+                <c:ptCount val="826"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8889,16 +8895,19 @@
                 </c:pt>
                 <c:pt idx="824">
                   <c:v>43609</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>43612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$826</c:f>
+              <c:f>Sheet1!$C$2:$C$827</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="825"/>
+                <c:ptCount val="826"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11373,6 +11382,9 @@
                 </c:pt>
                 <c:pt idx="824">
                   <c:v>2852.99</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>2892.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14412,7 +14424,7 @@
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-24</v>
+        <v>说明:2017年统计范围为年初至2019-5-27</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14426,11 +14438,11 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14440,7 +14452,7 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>18.383359340847804</v>
+        <v>20.738957541159643</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -14552,7 +14564,7 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.18383359340847805</v>
+        <v>0.20738957541159642</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -14781,7 +14793,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-24</v>
+        <v>说明:2019年统计范围为年初至2019-5-27</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -24036,6 +24048,9 @@
       <c r="A827" s="16">
         <v>43612</v>
       </c>
+      <c r="B827" s="15">
+        <v>59.31</v>
+      </c>
       <c r="C827">
         <v>2892.38</v>
       </c>
@@ -24043,6 +24058,9 @@
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="16">
         <v>43613</v>
+      </c>
+      <c r="C828">
+        <v>2909.91</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C042158-33D9-425C-9955-FD24BFAC08A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCDEAE6-FE90-46E4-B95C-81DCB52E66AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20738957541159642</c:v>
+                  <c:v>0.21447045058924075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$827</c:f>
+              <c:f>Sheet1!$A$2:$A$828</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="826"/>
+                <c:ptCount val="827"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3875,16 +3875,19 @@
                 </c:pt>
                 <c:pt idx="825">
                   <c:v>43612</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>43613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$827</c:f>
+              <c:f>Sheet1!$B$2:$B$828</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="826"/>
+                <c:ptCount val="827"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6362,6 +6365,9 @@
                 </c:pt>
                 <c:pt idx="825">
                   <c:v>59.31</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>59.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,10 +6423,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$827</c:f>
+              <c:f>Sheet1!$A$2:$A$828</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="826"/>
+                <c:ptCount val="827"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8898,16 +8904,19 @@
                 </c:pt>
                 <c:pt idx="825">
                   <c:v>43612</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>43613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$827</c:f>
+              <c:f>Sheet1!$C$2:$C$828</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="826"/>
+                <c:ptCount val="827"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11385,6 +11394,9 @@
                 </c:pt>
                 <c:pt idx="825">
                   <c:v>2892.38</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>2909.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14424,7 +14436,7 @@
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-27</v>
+        <v>说明:2017年统计范围为年初至2019-5-28</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14438,11 +14450,11 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14452,7 +14464,7 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>20.738957541159643</v>
+        <v>21.447045058924076</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -14564,7 +14576,7 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.20738957541159642</v>
+        <v>0.21447045058924075</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -14793,7 +14805,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-27</v>
+        <v>说明:2019年统计范围为年初至2019-5-28</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14944,7 +14956,7 @@
   <dimension ref="A1:N830"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="B827" sqref="B827"/>
+      <selection activeCell="B829" sqref="B829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24059,6 +24071,9 @@
       <c r="A828" s="16">
         <v>43613</v>
       </c>
+      <c r="B828" s="15">
+        <v>59.33</v>
+      </c>
       <c r="C828">
         <v>2909.91</v>
       </c>
@@ -24066,6 +24081,9 @@
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="16">
         <v>43614</v>
+      </c>
+      <c r="C829">
+        <v>2914.7</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCDEAE6-FE90-46E4-B95C-81DCB52E66AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEE8A00-AC82-499C-9028-16B84273D091}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21447045058924075</c:v>
+                  <c:v>0.21471008850670237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$828</c:f>
+              <c:f>Sheet1!$A$2:$A$829</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="827"/>
+                <c:ptCount val="828"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3878,16 +3878,19 @@
                 </c:pt>
                 <c:pt idx="826">
                   <c:v>43613</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>43614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$828</c:f>
+              <c:f>Sheet1!$B$2:$B$829</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="827"/>
+                <c:ptCount val="828"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6368,6 +6371,9 @@
                 </c:pt>
                 <c:pt idx="826">
                   <c:v>59.33</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>59.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6423,10 +6429,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$828</c:f>
+              <c:f>Sheet1!$A$2:$A$829</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="827"/>
+                <c:ptCount val="828"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8907,16 +8913,19 @@
                 </c:pt>
                 <c:pt idx="826">
                   <c:v>43613</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>43614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$828</c:f>
+              <c:f>Sheet1!$C$2:$C$829</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="827"/>
+                <c:ptCount val="828"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11397,6 +11406,9 @@
                 </c:pt>
                 <c:pt idx="826">
                   <c:v>2909.91</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>2914.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14436,7 +14448,7 @@
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-28</v>
+        <v>说明:2017年统计范围为年初至2019-5-29</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14450,11 +14462,11 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14464,7 +14476,7 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>21.447045058924076</v>
+        <v>21.471008850670238</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -14576,7 +14588,7 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.21447045058924075</v>
+        <v>0.21471008850670237</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -14805,7 +14817,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-28</v>
+        <v>说明:2019年统计范围为年初至2019-5-29</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14956,7 +14968,7 @@
   <dimension ref="A1:N830"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="B829" sqref="B829"/>
+      <selection activeCell="D828" sqref="D828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24082,6 +24094,9 @@
       <c r="A829" s="16">
         <v>43614</v>
       </c>
+      <c r="B829" s="15">
+        <v>59.26</v>
+      </c>
       <c r="C829">
         <v>2914.7</v>
       </c>
@@ -24089,6 +24104,9 @@
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="16">
         <v>43615</v>
+      </c>
+      <c r="C830">
+        <v>2905.81</v>
       </c>
     </row>
   </sheetData>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEE8A00-AC82-499C-9028-16B84273D091}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BE700-6514-418E-BF4B-F5804B53587F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21471008850670237</c:v>
+                  <c:v>0.20609788512449789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$829</c:f>
+              <c:f>Sheet1!$A$2:$A$831</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="828"/>
+                <c:ptCount val="830"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3881,16 +3881,22 @@
                 </c:pt>
                 <c:pt idx="827">
                   <c:v>43614</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>43615</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>43616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$829</c:f>
+              <c:f>Sheet1!$B$2:$B$831</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="828"/>
+                <c:ptCount val="830"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6374,6 +6380,12 @@
                 </c:pt>
                 <c:pt idx="827">
                   <c:v>59.26</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>59.15</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>59.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6429,10 +6441,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$829</c:f>
+              <c:f>Sheet1!$A$2:$A$831</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="828"/>
+                <c:ptCount val="830"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8916,16 +8928,22 @@
                 </c:pt>
                 <c:pt idx="827">
                   <c:v>43614</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>43615</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>43616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$829</c:f>
+              <c:f>Sheet1!$C$2:$C$831</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="828"/>
+                <c:ptCount val="830"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11409,6 +11427,12 @@
                 </c:pt>
                 <c:pt idx="827">
                   <c:v>2914.7</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>2905.81</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>2898.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14448,7 +14472,7 @@
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-29</v>
+        <v>说明:2017年统计范围为年初至2019-5-31</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14462,11 +14486,11 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43615</v>
+        <v>43619</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43614</v>
+        <v>43616</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14476,7 +14500,7 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>21.471008850670238</v>
+        <v>20.609788512449789</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -14588,7 +14612,7 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.21471008850670237</v>
+        <v>0.20609788512449789</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -14817,7 +14841,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-29</v>
+        <v>说明:2019年统计范围为年初至2019-5-31</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14965,10 +14989,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N830"/>
+  <dimension ref="A1:N835"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="D828" sqref="D828"/>
+      <selection activeCell="C833" sqref="C833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15076,9 +15100,9 @@
       <c r="C9">
         <v>2949.5970000000002</v>
       </c>
-      <c r="N9" s="18" t="str">
+      <c r="N9" s="18">
         <f>[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>服务器返回出错！</v>
+        <v>43616</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -24105,8 +24129,45 @@
       <c r="A830" s="16">
         <v>43615</v>
       </c>
+      <c r="B830" s="15">
+        <v>59.15</v>
+      </c>
       <c r="C830">
         <v>2905.81</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A831" s="16">
+        <v>43616</v>
+      </c>
+      <c r="B831" s="15">
+        <v>59.05</v>
+      </c>
+      <c r="C831">
+        <v>2898.7</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A832" s="16">
+        <v>43619</v>
+      </c>
+      <c r="C832">
+        <v>2890.08</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" s="16">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" s="16">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" s="16">
+        <v>43622</v>
       </c>
     </row>
   </sheetData>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BE700-6514-418E-BF4B-F5804B53587F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A157C8FE-87D0-4487-BB5C-6E4FAE92B831}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20609788512449789</c:v>
+                  <c:v>0.19873166947903242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$831</c:f>
+              <c:f>Sheet1!$A$2:$A$832</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="830"/>
+                <c:ptCount val="831"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3887,16 +3887,19 @@
                 </c:pt>
                 <c:pt idx="829">
                   <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>43619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$831</c:f>
+              <c:f>Sheet1!$B$2:$B$832</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="830"/>
+                <c:ptCount val="831"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6386,6 +6389,9 @@
                 </c:pt>
                 <c:pt idx="829">
                   <c:v>59.05</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>58.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6441,10 +6447,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$831</c:f>
+              <c:f>Sheet1!$A$2:$A$832</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="830"/>
+                <c:ptCount val="831"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8934,16 +8940,19 @@
                 </c:pt>
                 <c:pt idx="829">
                   <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>43619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$831</c:f>
+              <c:f>Sheet1!$C$2:$C$832</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="830"/>
+                <c:ptCount val="831"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11433,6 +11442,9 @@
                 </c:pt>
                 <c:pt idx="829">
                   <c:v>2898.7</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>2890.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14472,7 +14484,7 @@
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-5-31</v>
+        <v>说明:2017年统计范围为年初至2019-6-3</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14486,11 +14498,11 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43616</v>
+        <v>43619</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14500,7 +14512,7 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>20.609788512449789</v>
+        <v>19.873166947903243</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -14612,7 +14624,7 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.20609788512449789</v>
+        <v>0.19873166947903242</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -14841,7 +14853,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-5-31</v>
+        <v>说明:2019年统计范围为年初至2019-6-3</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14992,7 +15004,7 @@
   <dimension ref="A1:N835"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="C833" sqref="C833"/>
+      <selection activeCell="C834" sqref="C834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15102,7 +15114,7 @@
       </c>
       <c r="N9" s="18">
         <f>[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43616</v>
+        <v>43619</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -24151,21 +24163,27 @@
       <c r="A832" s="16">
         <v>43619</v>
       </c>
+      <c r="B832" s="15">
+        <v>58.76</v>
+      </c>
       <c r="C832">
         <v>2890.08</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="16">
         <v>43620</v>
       </c>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C833">
+        <v>2862.28</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="16">
         <v>43621</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="16">
         <v>43622</v>
       </c>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A157C8FE-87D0-4487-BB5C-6E4FAE92B831}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE87C398-71B0-4339-8D97-6A09C16FF39D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19873166947903242</c:v>
+                  <c:v>0.18440171648054604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$832</c:f>
+              <c:f>Sheet1!$A$2:$A$833</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="831"/>
+                <c:ptCount val="832"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3890,16 +3890,19 @@
                 </c:pt>
                 <c:pt idx="830">
                   <c:v>43619</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>43620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$832</c:f>
+              <c:f>Sheet1!$B$2:$B$833</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="831"/>
+                <c:ptCount val="832"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6392,6 +6395,9 @@
                 </c:pt>
                 <c:pt idx="830">
                   <c:v>58.76</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>58.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,10 +6453,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$832</c:f>
+              <c:f>Sheet1!$A$2:$A$833</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="831"/>
+                <c:ptCount val="832"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8943,16 +8949,19 @@
                 </c:pt>
                 <c:pt idx="830">
                   <c:v>43619</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>43620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$832</c:f>
+              <c:f>Sheet1!$C$2:$C$833</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="831"/>
+                <c:ptCount val="832"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11445,6 +11454,9 @@
                 </c:pt>
                 <c:pt idx="830">
                   <c:v>2890.08</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>2862.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13950,13 +13962,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>811</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>834</xdr:row>
-      <xdr:rowOff>176215</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>833</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14277,26 +14289,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -14309,7 +14321,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2010</v>
@@ -14336,7 +14348,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -14365,7 +14377,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -14394,7 +14406,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -14423,7 +14435,7 @@
         <v>0.17810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -14452,7 +14464,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -14481,10 +14493,10 @@
         <v>-0.1615</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-6-3</v>
+        <v>说明:2017年统计范围为年初至2019-6-4</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14495,14 +14507,14 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14512,10 +14524,10 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>19.873166947903243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>18.440171648054605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O10" s="13">
         <v>2010</v>
       </c>
@@ -14526,7 +14538,7 @@
         <v>-6.88E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O11" s="13">
         <v>2011</v>
       </c>
@@ -14537,7 +14549,7 @@
         <v>-0.22420000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O12" s="13">
         <v>2012</v>
       </c>
@@ -14548,7 +14560,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O13" s="13">
         <v>2013</v>
       </c>
@@ -14559,7 +14571,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O14" s="13">
         <v>2014</v>
       </c>
@@ -14570,7 +14582,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O15" s="13">
         <v>2015</v>
       </c>
@@ -14581,7 +14593,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O16" s="13">
         <v>2016</v>
       </c>
@@ -14592,7 +14604,7 @@
         <v>-0.12909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O17" s="13">
         <v>2017</v>
       </c>
@@ -14603,7 +14615,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" s="13">
         <v>2018</v>
       </c>
@@ -14614,7 +14626,7 @@
         <v>-0.28253486362704305</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O19" s="13">
         <v>2019</v>
       </c>
@@ -14624,10 +14636,10 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.19873166947903242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.18440171648054604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
@@ -14642,7 +14654,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>2010</v>
@@ -14675,7 +14687,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -14710,7 +14722,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -14745,7 +14757,7 @@
         <v>0.54120000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>2</v>
       </c>
@@ -14780,7 +14792,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -14815,7 +14827,7 @@
         <v>0.27760000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -14850,10 +14862,10 @@
         <v>-1.46E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-6-3</v>
+        <v>说明:2019年统计范围为年初至2019-6-4</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14866,7 +14878,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -14879,7 +14891,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -14892,7 +14904,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -14905,7 +14917,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -14918,7 +14930,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -14931,7 +14943,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -14944,7 +14956,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -14957,7 +14969,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -14970,7 +14982,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -15003,18 +15015,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="C834" sqref="C834"/>
+    <sheetView tabSelected="1" topLeftCell="A817" workbookViewId="0">
+      <selection activeCell="B834" sqref="B834"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -15025,7 +15037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>42373</v>
       </c>
@@ -15036,7 +15048,7 @@
         <v>3296.2579999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>42374</v>
       </c>
@@ -15047,7 +15059,7 @@
         <v>3287.7109999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>42375</v>
       </c>
@@ -15058,7 +15070,7 @@
         <v>3361.84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>42376</v>
       </c>
@@ -15069,7 +15081,7 @@
         <v>3125.002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>42377</v>
       </c>
@@ -15080,7 +15092,7 @@
         <v>3186.4119999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>42380</v>
       </c>
@@ -15091,7 +15103,7 @@
         <v>3016.7040000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>42381</v>
       </c>
@@ -15102,7 +15114,7 @@
         <v>3022.8609999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>42382</v>
       </c>
@@ -15114,10 +15126,10 @@
       </c>
       <c r="N9" s="18">
         <f>[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43619</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>42383</v>
       </c>
@@ -15128,7 +15140,7 @@
         <v>3007.6489999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>42384</v>
       </c>
@@ -15139,7 +15151,7 @@
         <v>2900.9697999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>42387</v>
       </c>
@@ -15150,7 +15162,7 @@
         <v>2913.8366999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>42388</v>
       </c>
@@ -15161,7 +15173,7 @@
         <v>3007.7393000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>42389</v>
       </c>
@@ -15172,7 +15184,7 @@
         <v>2976.694</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>42390</v>
       </c>
@@ -15183,7 +15195,7 @@
         <v>2880.482</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>42391</v>
       </c>
@@ -15194,7 +15206,7 @@
         <v>2916.5619999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>42394</v>
       </c>
@@ -15205,7 +15217,7 @@
         <v>2938.5149999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>42395</v>
       </c>
@@ -15216,7 +15228,7 @@
         <v>2749.7849999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>42396</v>
       </c>
@@ -15227,7 +15239,7 @@
         <v>2735.558</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>42397</v>
       </c>
@@ -15238,7 +15250,7 @@
         <v>2655.6610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>42398</v>
       </c>
@@ -15249,7 +15261,7 @@
         <v>2737.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>42401</v>
       </c>
@@ -15260,7 +15272,7 @@
         <v>2688.8539999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>42402</v>
       </c>
@@ -15271,7 +15283,7 @@
         <v>2749.57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>42403</v>
       </c>
@@ -15282,7 +15294,7 @@
         <v>2739.2469999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>42404</v>
       </c>
@@ -15293,7 +15305,7 @@
         <v>2781.0230000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>42405</v>
       </c>
@@ -15304,7 +15316,7 @@
         <v>2763.4920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>42415</v>
       </c>
@@ -15315,7 +15327,7 @@
         <v>2746.1959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>42416</v>
       </c>
@@ -15326,7 +15338,7 @@
         <v>2836.5709999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>42417</v>
       </c>
@@ -15337,7 +15349,7 @@
         <v>2867.3380000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>42418</v>
       </c>
@@ -15348,7 +15360,7 @@
         <v>2862.893</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>42419</v>
       </c>
@@ -15359,7 +15371,7 @@
         <v>2860.0210000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>42422</v>
       </c>
@@ -15370,7 +15382,7 @@
         <v>2927.1750000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>42423</v>
       </c>
@@ -15381,7 +15393,7 @@
         <v>2903.3310000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>42424</v>
       </c>
@@ -15392,7 +15404,7 @@
         <v>2928.8960000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>42425</v>
       </c>
@@ -15403,7 +15415,7 @@
         <v>2741.2449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>42426</v>
       </c>
@@ -15414,7 +15426,7 @@
         <v>2767.21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>42429</v>
       </c>
@@ -15425,7 +15437,7 @@
         <v>2687.9789999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>42430</v>
       </c>
@@ -15436,7 +15448,7 @@
         <v>2733.17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>42431</v>
       </c>
@@ -15447,7 +15459,7 @@
         <v>2849.681</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>42432</v>
       </c>
@@ -15458,7 +15470,7 @@
         <v>2859.7579999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>42433</v>
       </c>
@@ -15469,7 +15481,7 @@
         <v>2874.1469999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>42436</v>
       </c>
@@ -15480,7 +15492,7 @@
         <v>2897.34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>42437</v>
       </c>
@@ -15491,7 +15503,7 @@
         <v>2901.3870000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>42438</v>
       </c>
@@ -15502,7 +15514,7 @@
         <v>2862.556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>42439</v>
       </c>
@@ -15513,7 +15525,7 @@
         <v>2804.7260000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>42440</v>
       </c>
@@ -15524,7 +15536,7 @@
         <v>2810.3069999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>42443</v>
       </c>
@@ -15535,7 +15547,7 @@
         <v>2859.4989999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>42444</v>
       </c>
@@ -15546,7 +15558,7 @@
         <v>2864.3679999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>42445</v>
       </c>
@@ -15557,7 +15569,7 @@
         <v>2870.43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>42446</v>
       </c>
@@ -15568,7 +15580,7 @@
         <v>2904.8319999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>42447</v>
       </c>
@@ -15579,7 +15591,7 @@
         <v>2955.15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>42450</v>
       </c>
@@ -15590,7 +15602,7 @@
         <v>3018.8020000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>42451</v>
       </c>
@@ -15601,7 +15613,7 @@
         <v>2999.3629999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>42452</v>
       </c>
@@ -15612,7 +15624,7 @@
         <v>3009.96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>42453</v>
       </c>
@@ -15623,7 +15635,7 @@
         <v>2960.97</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>42454</v>
       </c>
@@ -15634,7 +15646,7 @@
         <v>2979.4340000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>42457</v>
       </c>
@@ -15645,7 +15657,7 @@
         <v>2957.82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>42458</v>
       </c>
@@ -15656,7 +15668,7 @@
         <v>2919.8319999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>42459</v>
       </c>
@@ -15667,7 +15679,7 @@
         <v>3000.645</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>42460</v>
       </c>
@@ -15678,7 +15690,7 @@
         <v>3003.915</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>42461</v>
       </c>
@@ -15689,7 +15701,7 @@
         <v>3009.53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>42465</v>
       </c>
@@ -15700,7 +15712,7 @@
         <v>3053.0650000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>42466</v>
       </c>
@@ -15711,7 +15723,7 @@
         <v>3050.5920000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>42467</v>
       </c>
@@ -15722,7 +15734,7 @@
         <v>3008.42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>42468</v>
       </c>
@@ -15733,7 +15745,7 @@
         <v>2984.9580000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>42471</v>
       </c>
@@ -15744,7 +15756,7 @@
         <v>3033.9569999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>42472</v>
       </c>
@@ -15755,7 +15767,7 @@
         <v>3023.6460000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>42473</v>
       </c>
@@ -15766,7 +15778,7 @@
         <v>3066.6379999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>42474</v>
       </c>
@@ -15777,7 +15789,7 @@
         <v>3082.3620000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>42475</v>
       </c>
@@ -15788,7 +15800,7 @@
         <v>3078.1170000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>42478</v>
       </c>
@@ -15799,7 +15811,7 @@
         <v>3033.66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>42479</v>
       </c>
@@ -15810,7 +15822,7 @@
         <v>3042.8229999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>42480</v>
       </c>
@@ -15821,7 +15833,7 @@
         <v>2972.5839999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>42481</v>
       </c>
@@ -15832,7 +15844,7 @@
         <v>2952.8910000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>42482</v>
       </c>
@@ -15843,7 +15855,7 @@
         <v>2959.24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>42485</v>
       </c>
@@ -15854,7 +15866,7 @@
         <v>2946.67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>42486</v>
       </c>
@@ -15865,7 +15877,7 @@
         <v>2964.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>42487</v>
       </c>
@@ -15876,7 +15888,7 @@
         <v>2953.6709999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>42488</v>
       </c>
@@ -15887,7 +15899,7 @@
         <v>2945.5889999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>42489</v>
       </c>
@@ -15898,7 +15910,7 @@
         <v>2938.3240000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>42493</v>
       </c>
@@ -15909,7 +15921,7 @@
         <v>2992.643</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>42494</v>
       </c>
@@ -15920,7 +15932,7 @@
         <v>2991.2719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>42495</v>
       </c>
@@ -15931,7 +15943,7 @@
         <v>2997.8420000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>42496</v>
       </c>
@@ -15942,7 +15954,7 @@
         <v>2913.248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>42499</v>
       </c>
@@ -15953,7 +15965,7 @@
         <v>2832.1129999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>42500</v>
       </c>
@@ -15964,7 +15976,7 @@
         <v>2832.5909999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>42501</v>
       </c>
@@ -15975,7 +15987,7 @@
         <v>2837.0369999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>42502</v>
       </c>
@@ -15986,7 +15998,7 @@
         <v>2835.8620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>42503</v>
       </c>
@@ -15997,7 +16009,7 @@
         <v>2827.1089999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>42506</v>
       </c>
@@ -16008,7 +16020,7 @@
         <v>2850.8620000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>42507</v>
       </c>
@@ -16019,7 +16031,7 @@
         <v>2843.6840000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>42508</v>
       </c>
@@ -16030,7 +16042,7 @@
         <v>2807.5140000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>42509</v>
       </c>
@@ -16041,7 +16053,7 @@
         <v>2806.9059999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>42510</v>
       </c>
@@ -16052,7 +16064,7 @@
         <v>2825.4830000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>42513</v>
       </c>
@@ -16063,7 +16075,7 @@
         <v>2843.645</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>42514</v>
       </c>
@@ -16074,7 +16086,7 @@
         <v>2821.6660000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>42515</v>
       </c>
@@ -16085,7 +16097,7 @@
         <v>2815.0862999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>42516</v>
       </c>
@@ -16096,7 +16108,7 @@
         <v>2822.4430000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>42517</v>
       </c>
@@ -16107,7 +16119,7 @@
         <v>2821.0459999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>42520</v>
       </c>
@@ -16118,7 +16130,7 @@
         <v>2822.451</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>42521</v>
       </c>
@@ -16129,7 +16141,7 @@
         <v>2916.616</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>42522</v>
       </c>
@@ -16140,7 +16152,7 @@
         <v>2913.5079999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>42523</v>
       </c>
@@ -16151,7 +16163,7 @@
         <v>2925.2289999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>42524</v>
       </c>
@@ -16162,7 +16174,7 @@
         <v>2938.6819999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>42527</v>
       </c>
@@ -16173,7 +16185,7 @@
         <v>2934.098</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>42528</v>
       </c>
@@ -16184,7 +16196,7 @@
         <v>2936.0450000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>42529</v>
       </c>
@@ -16195,7 +16207,7 @@
         <v>2927.1590000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>42534</v>
       </c>
@@ -16206,7 +16218,7 @@
         <v>2833.0709999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>42535</v>
       </c>
@@ -16217,7 +16229,7 @@
         <v>2842.1889999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>42536</v>
       </c>
@@ -16228,7 +16240,7 @@
         <v>2887.21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>42537</v>
       </c>
@@ -16239,7 +16251,7 @@
         <v>2872.817</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>42538</v>
       </c>
@@ -16250,7 +16262,7 @@
         <v>2885.105</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>42541</v>
       </c>
@@ -16261,7 +16273,7 @@
         <v>2888.8090000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>42542</v>
       </c>
@@ -16272,7 +16284,7 @@
         <v>2878.558</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>42543</v>
       </c>
@@ -16283,7 +16295,7 @@
         <v>2905.55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>42544</v>
       </c>
@@ -16294,7 +16306,7 @@
         <v>2891.96</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>42545</v>
       </c>
@@ -16305,7 +16317,7 @@
         <v>2854.2860000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>42548</v>
       </c>
@@ -16316,7 +16328,7 @@
         <v>2895.703</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>42549</v>
       </c>
@@ -16327,7 +16339,7 @@
         <v>2912.5569999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>42550</v>
       </c>
@@ -16338,7 +16350,7 @@
         <v>2931.5920000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>42551</v>
       </c>
@@ -16349,7 +16361,7 @@
         <v>2929.6060000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>42552</v>
       </c>
@@ -16360,7 +16372,7 @@
         <v>2932.4760000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>42555</v>
       </c>
@@ -16371,7 +16383,7 @@
         <v>2988.6039999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>42556</v>
       </c>
@@ -16382,7 +16394,7 @@
         <v>3006.3919999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>42557</v>
       </c>
@@ -16393,7 +16405,7 @@
         <v>3017.2919999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>42558</v>
       </c>
@@ -16404,7 +16416,7 @@
         <v>3016.8470000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>42559</v>
       </c>
@@ -16415,7 +16427,7 @@
         <v>2988.0940000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>42562</v>
       </c>
@@ -16426,7 +16438,7 @@
         <v>2994.9169999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>42563</v>
       </c>
@@ -16437,7 +16449,7 @@
         <v>3049.3809999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>42564</v>
       </c>
@@ -16448,7 +16460,7 @@
         <v>3060.6889999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>42565</v>
       </c>
@@ -16459,7 +16471,7 @@
         <v>3054.018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>42566</v>
       </c>
@@ -16470,7 +16482,7 @@
         <v>3054.2959999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>42569</v>
       </c>
@@ -16481,7 +16493,7 @@
         <v>3043.5639999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>42570</v>
       </c>
@@ -16492,7 +16504,7 @@
         <v>3036.598</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>42571</v>
       </c>
@@ -16503,7 +16515,7 @@
         <v>3027.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>42572</v>
       </c>
@@ -16514,7 +16526,7 @@
         <v>3039.009</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>42573</v>
       </c>
@@ -16525,7 +16537,7 @@
         <v>3012.8159999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>42576</v>
       </c>
@@ -16536,7 +16548,7 @@
         <v>3015.828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>42577</v>
       </c>
@@ -16547,7 +16559,7 @@
         <v>3050.1660000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>42578</v>
       </c>
@@ -16558,7 +16570,7 @@
         <v>2991.9989999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>42579</v>
       </c>
@@ -16569,7 +16581,7 @@
         <v>2994.3229999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>42580</v>
       </c>
@@ -16580,7 +16592,7 @@
         <v>2979.3389999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>42583</v>
       </c>
@@ -16591,7 +16603,7 @@
         <v>2953.3850000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>42584</v>
       </c>
@@ -16602,7 +16614,7 @@
         <v>2971.279</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>42585</v>
       </c>
@@ -16613,7 +16625,7 @@
         <v>2978.4609999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>42586</v>
       </c>
@@ -16624,7 +16636,7 @@
         <v>2982.4259999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>42587</v>
       </c>
@@ -16635,7 +16647,7 @@
         <v>2976.6959999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>42590</v>
       </c>
@@ -16646,7 +16658,7 @@
         <v>3004.277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>42591</v>
       </c>
@@ -16657,7 +16669,7 @@
         <v>3025.681</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>42592</v>
       </c>
@@ -16668,7 +16680,7 @@
         <v>3018.7460000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>42593</v>
       </c>
@@ -16679,7 +16691,7 @@
         <v>3002.6379999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>42594</v>
       </c>
@@ -16690,7 +16702,7 @@
         <v>3050.6669999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>42597</v>
       </c>
@@ -16701,7 +16713,7 @@
         <v>3125.1950000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>42598</v>
       </c>
@@ -16712,7 +16724,7 @@
         <v>3110.0369999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>42599</v>
       </c>
@@ -16723,7 +16735,7 @@
         <v>3109.5549999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>42600</v>
       </c>
@@ -16734,7 +16746,7 @@
         <v>3104.114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>42601</v>
       </c>
@@ -16745,7 +16757,7 @@
         <v>3108.1019999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>42604</v>
       </c>
@@ -16756,7 +16768,7 @@
         <v>3084.8049999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>42605</v>
       </c>
@@ -16767,7 +16779,7 @@
         <v>3089.7060000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>42606</v>
       </c>
@@ -16778,7 +16790,7 @@
         <v>3085.88</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>42607</v>
       </c>
@@ -16789,7 +16801,7 @@
         <v>3068.3290000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>42608</v>
       </c>
@@ -16800,7 +16812,7 @@
         <v>3070.3090000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>42611</v>
       </c>
@@ -16811,7 +16823,7 @@
         <v>3070.027</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>42612</v>
       </c>
@@ -16822,7 +16834,7 @@
         <v>3074.6770000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>42613</v>
       </c>
@@ -16833,7 +16845,7 @@
         <v>3085.491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>42614</v>
       </c>
@@ -16844,7 +16856,7 @@
         <v>3063.3049999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>42615</v>
       </c>
@@ -16855,7 +16867,7 @@
         <v>3067.3519999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>42618</v>
       </c>
@@ -16866,7 +16878,7 @@
         <v>3072.0949999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>42619</v>
       </c>
@@ -16877,7 +16889,7 @@
         <v>3090.7130000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>42620</v>
       </c>
@@ -16888,7 +16900,7 @@
         <v>3091.9279999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>42621</v>
       </c>
@@ -16899,7 +16911,7 @@
         <v>3095.9540000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>42622</v>
       </c>
@@ -16910,7 +16922,7 @@
         <v>3078.855</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>42625</v>
       </c>
@@ -16921,7 +16933,7 @@
         <v>3021.9769999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>42626</v>
       </c>
@@ -16932,7 +16944,7 @@
         <v>3023.51</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>42627</v>
       </c>
@@ -16943,7 +16955,7 @@
         <v>3002.8490000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>42632</v>
       </c>
@@ -16954,7 +16966,7 @@
         <v>3026.0509999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>42633</v>
       </c>
@@ -16965,7 +16977,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>42634</v>
       </c>
@@ -16976,7 +16988,7 @@
         <v>3025.8739999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>42635</v>
       </c>
@@ -16987,7 +16999,7 @@
         <v>3042.3130000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>42636</v>
       </c>
@@ -16998,7 +17010,7 @@
         <v>3033.8960000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>42639</v>
       </c>
@@ -17009,7 +17021,7 @@
         <v>2980.43</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>42640</v>
       </c>
@@ -17020,7 +17032,7 @@
         <v>2998.172</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>42641</v>
       </c>
@@ -17031,7 +17043,7 @@
         <v>2987.8580000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>42642</v>
       </c>
@@ -17042,7 +17054,7 @@
         <v>2998.4830000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>42643</v>
       </c>
@@ -17053,7 +17065,7 @@
         <v>3004.703</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>42653</v>
       </c>
@@ -17064,7 +17076,7 @@
         <v>3048.143</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>42654</v>
       </c>
@@ -17075,7 +17087,7 @@
         <v>3065.25</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>42655</v>
       </c>
@@ -17086,7 +17098,7 @@
         <v>3058.498</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>42656</v>
       </c>
@@ -17097,7 +17109,7 @@
         <v>3061.346</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="16">
         <v>42657</v>
       </c>
@@ -17108,7 +17120,7 @@
         <v>3063.8090000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>42660</v>
       </c>
@@ -17119,7 +17131,7 @@
         <v>3041.1660000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>42661</v>
       </c>
@@ -17130,7 +17142,7 @@
         <v>3083.875</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>42662</v>
       </c>
@@ -17141,7 +17153,7 @@
         <v>3084.7190000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>42663</v>
       </c>
@@ -17152,7 +17164,7 @@
         <v>3084.4580000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>42664</v>
       </c>
@@ -17163,7 +17175,7 @@
         <v>3090.9409999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>42667</v>
       </c>
@@ -17174,7 +17186,7 @@
         <v>3128.2469999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>42668</v>
       </c>
@@ -17185,7 +17197,7 @@
         <v>3131.9389999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>42669</v>
       </c>
@@ -17196,7 +17208,7 @@
         <v>3116.3119999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>42670</v>
       </c>
@@ -17207,7 +17219,7 @@
         <v>3112.35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>42671</v>
       </c>
@@ -17218,7 +17230,7 @@
         <v>3104.27</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>42674</v>
       </c>
@@ -17229,7 +17241,7 @@
         <v>3100.4920000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>42675</v>
       </c>
@@ -17240,7 +17252,7 @@
         <v>3122.4360000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>42676</v>
       </c>
@@ -17251,7 +17263,7 @@
         <v>3102.7330000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>42677</v>
       </c>
@@ -17262,7 +17274,7 @@
         <v>3128.9360000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>42678</v>
       </c>
@@ -17273,7 +17285,7 @@
         <v>3125.317</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>42681</v>
       </c>
@@ -17284,7 +17296,7 @@
         <v>3133.3330000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>42682</v>
       </c>
@@ -17295,7 +17307,7 @@
         <v>3147.8879999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>42683</v>
       </c>
@@ -17306,7 +17318,7 @@
         <v>3128.37</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>42684</v>
       </c>
@@ -17317,7 +17329,7 @@
         <v>3171.2820000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>42685</v>
       </c>
@@ -17328,7 +17340,7 @@
         <v>3196.0439999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>42688</v>
       </c>
@@ -17339,7 +17351,7 @@
         <v>3210.3710000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="16">
         <v>42689</v>
       </c>
@@ -17350,7 +17362,7 @@
         <v>3206.9859999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="16">
         <v>42690</v>
       </c>
@@ -17361,7 +17373,7 @@
         <v>3205.0569999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>42691</v>
       </c>
@@ -17372,7 +17384,7 @@
         <v>3208.453</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>42692</v>
       </c>
@@ -17383,7 +17395,7 @@
         <v>3192.8560000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="16">
         <v>42695</v>
       </c>
@@ -17394,7 +17406,7 @@
         <v>3218.1480000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>42696</v>
       </c>
@@ -17405,7 +17417,7 @@
         <v>3248.3519999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>42697</v>
       </c>
@@ -17416,7 +17428,7 @@
         <v>3241.1370000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>42698</v>
       </c>
@@ -17427,7 +17439,7 @@
         <v>3241.7359999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>42699</v>
       </c>
@@ -17438,7 +17450,7 @@
         <v>3261.9380000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>42702</v>
       </c>
@@ -17449,7 +17461,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>42703</v>
       </c>
@@ -17460,7 +17472,7 @@
         <v>3282.924</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="16">
         <v>42704</v>
       </c>
@@ -17471,7 +17483,7 @@
         <v>3250.0340000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>42705</v>
       </c>
@@ -17482,7 +17494,7 @@
         <v>3273.3090000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>42706</v>
       </c>
@@ -17493,7 +17505,7 @@
         <v>3243.8429999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="16">
         <v>42709</v>
       </c>
@@ -17504,7 +17516,7 @@
         <v>3204.7089999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>42710</v>
       </c>
@@ -17515,7 +17527,7 @@
         <v>3199.6469999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="16">
         <v>42711</v>
       </c>
@@ -17526,7 +17538,7 @@
         <v>3222.2420000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="16">
         <v>42712</v>
       </c>
@@ -17537,7 +17549,7 @@
         <v>3215.366</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="16">
         <v>42713</v>
       </c>
@@ -17548,7 +17560,7 @@
         <v>3232.8829999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="16">
         <v>42716</v>
       </c>
@@ -17559,7 +17571,7 @@
         <v>3152.97</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="16">
         <v>42717</v>
       </c>
@@ -17570,7 +17582,7 @@
         <v>3155.0369999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>42718</v>
       </c>
@@ -17581,7 +17593,7 @@
         <v>3140.5309999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="16">
         <v>42719</v>
       </c>
@@ -17592,7 +17604,7 @@
         <v>3117.6770000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="16">
         <v>42720</v>
       </c>
@@ -17603,7 +17615,7 @@
         <v>3122.982</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>42723</v>
       </c>
@@ -17614,7 +17626,7 @@
         <v>3118.0846000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>42724</v>
       </c>
@@ -17625,7 +17637,7 @@
         <v>3102.8759</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>42725</v>
       </c>
@@ -17636,7 +17648,7 @@
         <v>3137.4297000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>42726</v>
       </c>
@@ -17647,7 +17659,7 @@
         <v>3139.558</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
         <v>42727</v>
       </c>
@@ -17658,7 +17670,7 @@
         <v>3110.1543999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>42730</v>
       </c>
@@ -17669,7 +17681,7 @@
         <v>3122.569</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>42731</v>
       </c>
@@ -17680,7 +17692,7 @@
         <v>3114.6640000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="16">
         <v>42732</v>
       </c>
@@ -17691,7 +17703,7 @@
         <v>3102.2357000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>42733</v>
       </c>
@@ -17702,7 +17714,7 @@
         <v>3096.0967999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="16">
         <v>42734</v>
       </c>
@@ -17713,7 +17725,7 @@
         <v>3103.6372999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>42738</v>
       </c>
@@ -17724,7 +17736,7 @@
         <v>3135.9207999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="16">
         <v>42739</v>
       </c>
@@ -17735,7 +17747,7 @@
         <v>3158.7939999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>42740</v>
       </c>
@@ -17746,7 +17758,7 @@
         <v>3165.4108999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="16">
         <v>42741</v>
       </c>
@@ -17757,7 +17769,7 @@
         <v>3154.3209999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="16">
         <v>42744</v>
       </c>
@@ -17768,7 +17780,7 @@
         <v>3171.2361999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>42745</v>
       </c>
@@ -17779,7 +17791,7 @@
         <v>3161.6713</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="16">
         <v>42746</v>
       </c>
@@ -17790,7 +17802,7 @@
         <v>3136.7534999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="16">
         <v>42747</v>
       </c>
@@ -17801,7 +17813,7 @@
         <v>3119.2885999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>42748</v>
       </c>
@@ -17812,7 +17824,7 @@
         <v>3112.7644</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>42751</v>
       </c>
@@ -17823,7 +17835,7 @@
         <v>3103.4279999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="16">
         <v>42752</v>
       </c>
@@ -17834,7 +17846,7 @@
         <v>3108.7746000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>42753</v>
       </c>
@@ -17845,7 +17857,7 @@
         <v>3113.0122999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>42754</v>
       </c>
@@ -17856,7 +17868,7 @@
         <v>3101.2991999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>42755</v>
       </c>
@@ -17867,7 +17879,7 @@
         <v>3123.1388999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="16">
         <v>42758</v>
       </c>
@@ -17878,7 +17890,7 @@
         <v>3136.7748000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>42759</v>
       </c>
@@ -17889,7 +17901,7 @@
         <v>3142.5533</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="16">
         <v>42760</v>
       </c>
@@ -17900,7 +17912,7 @@
         <v>3149.5547000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>42761</v>
       </c>
@@ -17911,7 +17923,7 @@
         <v>3159.1660000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="16">
         <v>42769</v>
       </c>
@@ -17922,7 +17934,7 @@
         <v>3140.17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="16">
         <v>42772</v>
       </c>
@@ -17933,7 +17945,7 @@
         <v>3156.9838</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>42773</v>
       </c>
@@ -17944,7 +17956,7 @@
         <v>3153.0877999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="16">
         <v>42774</v>
       </c>
@@ -17955,7 +17967,7 @@
         <v>3166.9818</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>42775</v>
       </c>
@@ -17966,7 +17978,7 @@
         <v>3183.1794</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>42776</v>
       </c>
@@ -17977,7 +17989,7 @@
         <v>3196.6990000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>42779</v>
       </c>
@@ -17988,7 +18000,7 @@
         <v>3216.8393999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>42780</v>
       </c>
@@ -17999,7 +18011,7 @@
         <v>3217.9279999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="16">
         <v>42781</v>
       </c>
@@ -18010,7 +18022,7 @@
         <v>3212.9857000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="16">
         <v>42782</v>
       </c>
@@ -18021,7 +18033,7 @@
         <v>3229.6183999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>42783</v>
       </c>
@@ -18032,7 +18044,7 @@
         <v>3202.0756000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="16">
         <v>42786</v>
       </c>
@@ -18043,7 +18055,7 @@
         <v>3239.9612999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>42787</v>
       </c>
@@ -18054,7 +18066,7 @@
         <v>3253.3256999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>42788</v>
       </c>
@@ -18065,7 +18077,7 @@
         <v>3261.2184000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="16">
         <v>42789</v>
       </c>
@@ -18076,7 +18088,7 @@
         <v>3251.375</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="16">
         <v>42790</v>
       </c>
@@ -18087,7 +18099,7 @@
         <v>3253.4326999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>42793</v>
       </c>
@@ -18098,7 +18110,7 @@
         <v>3228.6601999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>42794</v>
       </c>
@@ -18109,7 +18121,7 @@
         <v>3241.7330999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="16">
         <v>42795</v>
       </c>
@@ -18120,7 +18132,7 @@
         <v>3246.9335000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="16">
         <v>42796</v>
       </c>
@@ -18131,7 +18143,7 @@
         <v>3230.0281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="16">
         <v>42797</v>
       </c>
@@ -18142,7 +18154,7 @@
         <v>3218.3117999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>42800</v>
       </c>
@@ -18153,7 +18165,7 @@
         <v>3233.8656999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>42801</v>
       </c>
@@ -18164,7 +18176,7 @@
         <v>3242.4063000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>42802</v>
       </c>
@@ -18175,7 +18187,7 @@
         <v>3240.6646000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>42803</v>
       </c>
@@ -18186,7 +18198,7 @@
         <v>3216.7456999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>42804</v>
       </c>
@@ -18197,7 +18209,7 @@
         <v>3212.7601</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>42807</v>
       </c>
@@ -18208,7 +18220,7 @@
         <v>3237.0243999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="16">
         <v>42808</v>
       </c>
@@ -18219,7 +18231,7 @@
         <v>3239.3278</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="16">
         <v>42809</v>
       </c>
@@ -18230,7 +18242,7 @@
         <v>3241.7597000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="16">
         <v>42810</v>
       </c>
@@ -18241,7 +18253,7 @@
         <v>3268.9353999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="16">
         <v>42811</v>
       </c>
@@ -18252,7 +18264,7 @@
         <v>3237.4470999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="16">
         <v>42814</v>
       </c>
@@ -18263,7 +18275,7 @@
         <v>3250.8081999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>42815</v>
       </c>
@@ -18274,7 +18286,7 @@
         <v>3261.6107999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="16">
         <v>42816</v>
       </c>
@@ -18285,7 +18297,7 @@
         <v>3245.2197999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>42817</v>
       </c>
@@ -18296,7 +18308,7 @@
         <v>3248.5495000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="16">
         <v>42818</v>
       </c>
@@ -18307,7 +18319,7 @@
         <v>3269.4450999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>42821</v>
       </c>
@@ -18318,7 +18330,7 @@
         <v>3266.9551999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>42822</v>
       </c>
@@ -18329,7 +18341,7 @@
         <v>3252.9479000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>42823</v>
       </c>
@@ -18340,7 +18352,7 @@
         <v>3241.3144000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>42824</v>
       </c>
@@ -18351,7 +18363,7 @@
         <v>3210.2368999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="16">
         <v>42825</v>
       </c>
@@ -18362,7 +18374,7 @@
         <v>3222.5142000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="16">
         <v>42830</v>
       </c>
@@ -18373,7 +18385,7 @@
         <v>3270.3054000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="16">
         <v>42831</v>
       </c>
@@ -18384,7 +18396,7 @@
         <v>3281.0047</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>42832</v>
       </c>
@@ -18395,7 +18407,7 @@
         <v>3286.616</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>42835</v>
       </c>
@@ -18406,7 +18418,7 @@
         <v>3269.3926000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="16">
         <v>42836</v>
       </c>
@@ -18417,7 +18429,7 @@
         <v>3288.9657000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="16">
         <v>42837</v>
       </c>
@@ -18428,7 +18440,7 @@
         <v>3273.8301000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="16">
         <v>42838</v>
       </c>
@@ -18439,7 +18451,7 @@
         <v>3275.9603000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="16">
         <v>42839</v>
       </c>
@@ -18450,7 +18462,7 @@
         <v>3246.0668000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="16">
         <v>42842</v>
       </c>
@@ -18461,7 +18473,7 @@
         <v>3222.1673000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="16">
         <v>42843</v>
       </c>
@@ -18472,7 +18484,7 @@
         <v>3196.7132999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="16">
         <v>42844</v>
       </c>
@@ -18483,7 +18495,7 @@
         <v>3170.6867000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="16">
         <v>42845</v>
       </c>
@@ -18494,7 +18506,7 @@
         <v>3172.1003000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="16">
         <v>42846</v>
       </c>
@@ -18505,7 +18517,7 @@
         <v>3173.1511999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="16">
         <v>42849</v>
       </c>
@@ -18516,7 +18528,7 @@
         <v>3129.5311999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="16">
         <v>42850</v>
       </c>
@@ -18527,7 +18539,7 @@
         <v>3134.5673999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="16">
         <v>42851</v>
       </c>
@@ -18538,7 +18550,7 @@
         <v>3140.8471</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="16">
         <v>42852</v>
       </c>
@@ -18549,7 +18561,7 @@
         <v>3152.1869000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="16">
         <v>42853</v>
       </c>
@@ -18560,7 +18572,7 @@
         <v>3154.6583999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="16">
         <v>42857</v>
       </c>
@@ -18571,7 +18583,7 @@
         <v>3143.7121000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="16">
         <v>42858</v>
       </c>
@@ -18582,7 +18594,7 @@
         <v>3135.346</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="16">
         <v>42859</v>
       </c>
@@ -18593,7 +18605,7 @@
         <v>3127.3687</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>42860</v>
       </c>
@@ -18604,7 +18616,7 @@
         <v>3103.0378000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>42863</v>
       </c>
@@ -18615,7 +18627,7 @@
         <v>3078.6129000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>42864</v>
       </c>
@@ -18626,7 +18638,7 @@
         <v>3080.5268999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="16">
         <v>42865</v>
       </c>
@@ -18637,7 +18649,7 @@
         <v>3052.7849999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>42866</v>
       </c>
@@ -18648,7 +18660,7 @@
         <v>3061.5003000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="16">
         <v>42867</v>
       </c>
@@ -18659,7 +18671,7 @@
         <v>3083.5131999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>42870</v>
       </c>
@@ -18670,7 +18682,7 @@
         <v>3090.2289000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="16">
         <v>42871</v>
       </c>
@@ -18681,7 +18693,7 @@
         <v>3112.9641999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>42872</v>
       </c>
@@ -18692,7 +18704,7 @@
         <v>3104.4414999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>42873</v>
       </c>
@@ -18703,7 +18715,7 @@
         <v>3090.1390000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="16">
         <v>42874</v>
       </c>
@@ -18714,7 +18726,7 @@
         <v>3090.6309000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>42877</v>
       </c>
@@ -18725,7 +18737,7 @@
         <v>3075.6756</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>42878</v>
       </c>
@@ -18736,7 +18748,7 @@
         <v>3061.9470000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>42879</v>
       </c>
@@ -18747,7 +18759,7 @@
         <v>3064.0758999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="16">
         <v>42880</v>
       </c>
@@ -18758,7 +18770,7 @@
         <v>3107.8310999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="16">
         <v>42881</v>
       </c>
@@ -18769,7 +18781,7 @@
         <v>3110.0587</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>42886</v>
       </c>
@@ -18780,7 +18792,7 @@
         <v>3117.1777999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>42887</v>
       </c>
@@ -18791,7 +18803,7 @@
         <v>3102.6232</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>42888</v>
       </c>
@@ -18802,7 +18814,7 @@
         <v>3105.54</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>42891</v>
       </c>
@@ -18813,7 +18825,7 @@
         <v>3091.6561000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>42892</v>
       </c>
@@ -18824,7 +18836,7 @@
         <v>3102.1260000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="16">
         <v>42893</v>
       </c>
@@ -18835,7 +18847,7 @@
         <v>3140.3249000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>42894</v>
       </c>
@@ -18846,7 +18858,7 @@
         <v>3150.3335999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>42895</v>
       </c>
@@ -18857,7 +18869,7 @@
         <v>3158.4004</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="16">
         <v>42898</v>
       </c>
@@ -18868,7 +18880,7 @@
         <v>3139.8766000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>42899</v>
       </c>
@@ -18879,7 +18891,7 @@
         <v>3153.7429000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="16">
         <v>42900</v>
       </c>
@@ -18890,7 +18902,7 @@
         <v>3130.674</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="16">
         <v>42901</v>
       </c>
@@ -18901,7 +18913,7 @@
         <v>3132.4863</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>42902</v>
       </c>
@@ -18912,7 +18924,7 @@
         <v>3123.1662000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>42905</v>
       </c>
@@ -18923,7 +18935,7 @@
         <v>3144.3739</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>42906</v>
       </c>
@@ -18934,7 +18946,7 @@
         <v>3140.0136000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>42907</v>
       </c>
@@ -18945,7 +18957,7 @@
         <v>3156.2118</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="16">
         <v>42908</v>
       </c>
@@ -18956,7 +18968,7 @@
         <v>3147.4531999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="16">
         <v>42909</v>
       </c>
@@ -18967,7 +18979,7 @@
         <v>3157.873</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>42912</v>
       </c>
@@ -18978,7 +18990,7 @@
         <v>3185.4439000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="16">
         <v>42913</v>
       </c>
@@ -18989,7 +19001,7 @@
         <v>3191.1968999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="16">
         <v>42914</v>
       </c>
@@ -19000,7 +19012,7 @@
         <v>3173.2013999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="16">
         <v>42915</v>
       </c>
@@ -19011,7 +19023,7 @@
         <v>3188.0625</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>42916</v>
       </c>
@@ -19022,7 +19034,7 @@
         <v>3192.4268999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="16">
         <v>42919</v>
       </c>
@@ -19033,7 +19045,7 @@
         <v>3195.9115999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="16">
         <v>42920</v>
       </c>
@@ -19044,7 +19056,7 @@
         <v>3182.8038999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="16">
         <v>42921</v>
       </c>
@@ -19055,7 +19067,7 @@
         <v>3207.1342</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="16">
         <v>42922</v>
       </c>
@@ -19066,7 +19078,7 @@
         <v>3212.444</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="16">
         <v>42923</v>
       </c>
@@ -19077,7 +19089,7 @@
         <v>3217.9567000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="16">
         <v>42926</v>
       </c>
@@ -19088,7 +19100,7 @@
         <v>3212.6318999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="16">
         <v>42927</v>
       </c>
@@ -19099,7 +19111,7 @@
         <v>3203.0374999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="16">
         <v>42928</v>
       </c>
@@ -19110,7 +19122,7 @@
         <v>3197.5439000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>42929</v>
       </c>
@@ -19121,7 +19133,7 @@
         <v>3218.1632</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>42930</v>
       </c>
@@ -19132,7 +19144,7 @@
         <v>3222.4168</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="16">
         <v>42933</v>
       </c>
@@ -19143,7 +19155,7 @@
         <v>3176.4648000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="16">
         <v>42934</v>
       </c>
@@ -19154,7 +19166,7 @@
         <v>3187.5672</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>42935</v>
       </c>
@@ -19165,7 +19177,7 @@
         <v>3230.9762000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>42936</v>
       </c>
@@ -19176,7 +19188,7 @@
         <v>3244.8647000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>42937</v>
       </c>
@@ -19187,7 +19199,7 @@
         <v>3237.9816999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="16">
         <v>42940</v>
       </c>
@@ -19198,7 +19210,7 @@
         <v>3250.5989</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="16">
         <v>42941</v>
       </c>
@@ -19209,7 +19221,7 @@
         <v>3243.6894000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>42942</v>
       </c>
@@ -19220,7 +19232,7 @@
         <v>3247.6747999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>42943</v>
       </c>
@@ -19231,7 +19243,7 @@
         <v>3249.7813999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="16">
         <v>42944</v>
       </c>
@@ -19242,7 +19254,7 @@
         <v>3253.2404000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>42947</v>
       </c>
@@ -19253,7 +19265,7 @@
         <v>3273.0282999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="16">
         <v>42948</v>
       </c>
@@ -19264,7 +19276,7 @@
         <v>3292.6383000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>42949</v>
       </c>
@@ -19275,7 +19287,7 @@
         <v>3285.0567999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>42950</v>
       </c>
@@ -19286,7 +19298,7 @@
         <v>3272.9286000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>42951</v>
       </c>
@@ -19297,7 +19309,7 @@
         <v>3262.0808999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="16">
         <v>42954</v>
       </c>
@@ -19308,7 +19320,7 @@
         <v>3279.4566</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>42955</v>
       </c>
@@ -19319,7 +19331,7 @@
         <v>3281.8728000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>42956</v>
       </c>
@@ -19330,7 +19342,7 @@
         <v>3275.5729999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>42957</v>
       </c>
@@ -19341,7 +19353,7 @@
         <v>3261.7494000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>42958</v>
       </c>
@@ -19352,7 +19364,7 @@
         <v>3208.5412999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>42961</v>
       </c>
@@ -19363,7 +19375,7 @@
         <v>3237.3602000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="16">
         <v>42962</v>
       </c>
@@ -19374,7 +19386,7 @@
         <v>3251.2617</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="16">
         <v>42963</v>
       </c>
@@ -19385,7 +19397,7 @@
         <v>3246.4512</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="16">
         <v>42964</v>
       </c>
@@ -19396,7 +19408,7 @@
         <v>3268.4297999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>42965</v>
       </c>
@@ -19407,7 +19419,7 @@
         <v>3268.7242999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="16">
         <v>42968</v>
       </c>
@@ -19418,7 +19430,7 @@
         <v>3286.9054999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="16">
         <v>42969</v>
       </c>
@@ -19429,7 +19441,7 @@
         <v>3290.2257</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="16">
         <v>42970</v>
       </c>
@@ -19440,7 +19452,7 @@
         <v>3287.7049000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="16">
         <v>42971</v>
       </c>
@@ -19451,7 +19463,7 @@
         <v>3271.5117</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="16">
         <v>42972</v>
       </c>
@@ -19462,7 +19474,7 @@
         <v>3331.5221000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="16">
         <v>42975</v>
       </c>
@@ -19473,7 +19485,7 @@
         <v>3362.6514000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="16">
         <v>42976</v>
       </c>
@@ -19484,7 +19496,7 @@
         <v>3365.2260999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="16">
         <v>42977</v>
       </c>
@@ -19495,7 +19507,7 @@
         <v>3363.6266000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="16">
         <v>42978</v>
       </c>
@@ -19506,7 +19518,7 @@
         <v>3360.8103000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="16">
         <v>42979</v>
       </c>
@@ -19517,7 +19529,7 @@
         <v>3367.1194</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="16">
         <v>42982</v>
       </c>
@@ -19528,7 +19540,7 @@
         <v>3379.5830000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="16">
         <v>42983</v>
       </c>
@@ -19539,7 +19551,7 @@
         <v>3384.317</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="16">
         <v>42984</v>
       </c>
@@ -19550,7 +19562,7 @@
         <v>3385.3888000000002</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="16">
         <v>42985</v>
       </c>
@@ -19561,7 +19573,7 @@
         <v>3365.4974000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="16">
         <v>42986</v>
       </c>
@@ -19572,7 +19584,7 @@
         <v>3365.2426</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="16">
         <v>42989</v>
       </c>
@@ -19583,7 +19595,7 @@
         <v>3376.4187999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="16">
         <v>42990</v>
       </c>
@@ -19594,7 +19606,7 @@
         <v>3379.4879999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="16">
         <v>42991</v>
       </c>
@@ -19605,7 +19617,7 @@
         <v>3384.1469999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="16">
         <v>42992</v>
       </c>
@@ -19616,7 +19628,7 @@
         <v>3371.4256</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="16">
         <v>42993</v>
       </c>
@@ -19627,7 +19639,7 @@
         <v>3353.6192000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="16">
         <v>42996</v>
       </c>
@@ -19638,7 +19650,7 @@
         <v>3362.8587000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="16">
         <v>42997</v>
       </c>
@@ -19649,7 +19661,7 @@
         <v>3356.8445999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="16">
         <v>42998</v>
       </c>
@@ -19660,7 +19672,7 @@
         <v>3365.9958999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="16">
         <v>42999</v>
       </c>
@@ -19671,7 +19683,7 @@
         <v>3357.8123000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="16">
         <v>43000</v>
       </c>
@@ -19682,7 +19694,7 @@
         <v>3352.5293999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="16">
         <v>43003</v>
       </c>
@@ -19693,7 +19705,7 @@
         <v>3341.5486999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="16">
         <v>43004</v>
       </c>
@@ -19704,7 +19716,7 @@
         <v>3343.5826000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="16">
         <v>43005</v>
       </c>
@@ -19715,7 +19727,7 @@
         <v>3345.2716999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="16">
         <v>43006</v>
       </c>
@@ -19726,7 +19738,7 @@
         <v>3339.6421</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="16">
         <v>43007</v>
       </c>
@@ -19737,7 +19749,7 @@
         <v>3348.9431</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="16">
         <v>43017</v>
       </c>
@@ -19748,7 +19760,7 @@
         <v>3374.3780999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="16">
         <v>43018</v>
       </c>
@@ -19759,7 +19771,7 @@
         <v>3382.9879000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="16">
         <v>43019</v>
       </c>
@@ -19770,7 +19782,7 @@
         <v>3388.2838000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="16">
         <v>43020</v>
       </c>
@@ -19781,7 +19793,7 @@
         <v>3386.1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="16">
         <v>43021</v>
       </c>
@@ -19792,7 +19804,7 @@
         <v>3390.5232999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="16">
         <v>43024</v>
       </c>
@@ -19803,7 +19815,7 @@
         <v>3378.4704000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="16">
         <v>43025</v>
       </c>
@@ -19814,7 +19826,7 @@
         <v>3372.0407</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="16">
         <v>43026</v>
       </c>
@@ -19825,7 +19837,7 @@
         <v>3381.7937000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="16">
         <v>43027</v>
       </c>
@@ -19836,7 +19848,7 @@
         <v>3370.1720999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="16">
         <v>43028</v>
       </c>
@@ -19847,7 +19859,7 @@
         <v>3378.6480999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="16">
         <v>43031</v>
       </c>
@@ -19858,7 +19870,7 @@
         <v>3380.6990000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="16">
         <v>43032</v>
       </c>
@@ -19869,7 +19881,7 @@
         <v>3388.2476999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="16">
         <v>43033</v>
       </c>
@@ -19880,7 +19892,7 @@
         <v>3396.8975</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="16">
         <v>43034</v>
       </c>
@@ -19891,7 +19903,7 @@
         <v>3407.5671000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="16">
         <v>43035</v>
       </c>
@@ -19902,7 +19914,7 @@
         <v>3416.8123999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="16">
         <v>43038</v>
       </c>
@@ -19913,7 +19925,7 @@
         <v>3390.3371000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="16">
         <v>43039</v>
       </c>
@@ -19924,7 +19936,7 @@
         <v>3393.3416999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="16">
         <v>43040</v>
       </c>
@@ -19935,7 +19947,7 @@
         <v>3395.9124999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="16">
         <v>43041</v>
       </c>
@@ -19946,7 +19958,7 @@
         <v>3383.3094999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="16">
         <v>43042</v>
       </c>
@@ -19957,7 +19969,7 @@
         <v>3371.7440999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="16">
         <v>43045</v>
       </c>
@@ -19968,7 +19980,7 @@
         <v>3388.1741999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="16">
         <v>43046</v>
       </c>
@@ -19979,7 +19991,7 @@
         <v>3413.5747999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="16">
         <v>43047</v>
       </c>
@@ -19990,7 +20002,7 @@
         <v>3415.4602</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="16">
         <v>43048</v>
       </c>
@@ -20001,7 +20013,7 @@
         <v>3427.7946000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="16">
         <v>43049</v>
       </c>
@@ -20012,7 +20024,7 @@
         <v>3432.6731</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="16">
         <v>43052</v>
       </c>
@@ -20023,7 +20035,7 @@
         <v>3447.8357999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="16">
         <v>43053</v>
       </c>
@@ -20034,7 +20046,7 @@
         <v>3429.5482000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="16">
         <v>43054</v>
       </c>
@@ -20045,7 +20057,7 @@
         <v>3402.5245</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="16">
         <v>43055</v>
       </c>
@@ -20056,7 +20068,7 @@
         <v>3399.2503000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="16">
         <v>43056</v>
       </c>
@@ -20067,7 +20079,7 @@
         <v>3382.9074999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="16">
         <v>43059</v>
       </c>
@@ -20078,7 +20090,7 @@
         <v>3392.3987999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="16">
         <v>43060</v>
       </c>
@@ -20089,7 +20101,7 @@
         <v>3410.4976999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="16">
         <v>43061</v>
       </c>
@@ -20100,7 +20112,7 @@
         <v>3430.4643000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="16">
         <v>43062</v>
       </c>
@@ -20111,7 +20123,7 @@
         <v>3351.9182000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="16">
         <v>43063</v>
       </c>
@@ -20122,7 +20134,7 @@
         <v>3353.8207000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="16">
         <v>43066</v>
       </c>
@@ -20133,7 +20145,7 @@
         <v>3322.2298000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="16">
         <v>43067</v>
       </c>
@@ -20144,7 +20156,7 @@
         <v>3333.6570000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="16">
         <v>43068</v>
       </c>
@@ -20155,7 +20167,7 @@
         <v>3337.8620000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="16">
         <v>43069</v>
       </c>
@@ -20166,7 +20178,7 @@
         <v>3317.1884</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="16">
         <v>43070</v>
       </c>
@@ -20177,7 +20189,7 @@
         <v>3317.6174000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="16">
         <v>43073</v>
       </c>
@@ -20188,7 +20200,7 @@
         <v>3309.6183000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="16">
         <v>43074</v>
       </c>
@@ -20199,7 +20211,7 @@
         <v>3303.6750999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="16">
         <v>43075</v>
       </c>
@@ -20210,7 +20222,7 @@
         <v>3293.9648000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="16">
         <v>43076</v>
       </c>
@@ -20221,7 +20233,7 @@
         <v>3272.0542</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="16">
         <v>43077</v>
       </c>
@@ -20232,7 +20244,7 @@
         <v>3289.9924000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="16">
         <v>43080</v>
       </c>
@@ -20243,7 +20255,7 @@
         <v>3322.1956</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="16">
         <v>43081</v>
       </c>
@@ -20254,7 +20266,7 @@
         <v>3280.8136</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="16">
         <v>43082</v>
       </c>
@@ -20265,7 +20277,7 @@
         <v>3303.0373</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="16">
         <v>43083</v>
       </c>
@@ -20276,7 +20288,7 @@
         <v>3292.4385000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="16">
         <v>43084</v>
       </c>
@@ -20287,7 +20299,7 @@
         <v>3266.1370999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="16">
         <v>43087</v>
       </c>
@@ -20298,7 +20310,7 @@
         <v>3267.9223999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="16">
         <v>43088</v>
       </c>
@@ -20309,7 +20321,7 @@
         <v>3296.5383999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="16">
         <v>43089</v>
       </c>
@@ -20320,7 +20332,7 @@
         <v>3287.6057000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="16">
         <v>43090</v>
       </c>
@@ -20331,7 +20343,7 @@
         <v>3300.0592999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="16">
         <v>43091</v>
       </c>
@@ -20342,7 +20354,7 @@
         <v>3297.0630000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="16">
         <v>43094</v>
       </c>
@@ -20353,7 +20365,7 @@
         <v>3280.4609999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="16">
         <v>43095</v>
       </c>
@@ -20364,7 +20376,7 @@
         <v>3306.1246000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="16">
         <v>43096</v>
       </c>
@@ -20375,7 +20387,7 @@
         <v>3275.7828</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="16">
         <v>43097</v>
       </c>
@@ -20386,7 +20398,7 @@
         <v>3296.3847000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="16">
         <v>43098</v>
       </c>
@@ -20397,7 +20409,7 @@
         <v>3307.1720999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="16">
         <v>43102</v>
       </c>
@@ -20408,7 +20420,7 @@
         <v>3348.3258999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="16">
         <v>43103</v>
       </c>
@@ -20419,7 +20431,7 @@
         <v>3369.1084000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="16">
         <v>43104</v>
       </c>
@@ -20430,7 +20442,7 @@
         <v>3385.7102</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="16">
         <v>43105</v>
       </c>
@@ -20441,7 +20453,7 @@
         <v>3391.7501000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="16">
         <v>43108</v>
       </c>
@@ -20452,7 +20464,7 @@
         <v>3409.4794999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="16">
         <v>43109</v>
       </c>
@@ -20463,7 +20475,7 @@
         <v>3413.8996000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="16">
         <v>43110</v>
       </c>
@@ -20474,7 +20486,7 @@
         <v>3421.8343</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="16">
         <v>43111</v>
       </c>
@@ -20485,7 +20497,7 @@
         <v>3425.3449000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="16">
         <v>43112</v>
       </c>
@@ -20496,7 +20508,7 @@
         <v>3428.9407000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="16">
         <v>43115</v>
       </c>
@@ -20507,7 +20519,7 @@
         <v>3410.4881999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="16">
         <v>43116</v>
       </c>
@@ -20518,7 +20530,7 @@
         <v>3436.5940000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="16">
         <v>43117</v>
       </c>
@@ -20529,7 +20541,7 @@
         <v>3444.6713</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="16">
         <v>43118</v>
       </c>
@@ -20540,7 +20552,7 @@
         <v>3474.7539999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="16">
         <v>43119</v>
       </c>
@@ -20551,7 +20563,7 @@
         <v>3487.864</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="16">
         <v>43122</v>
       </c>
@@ -20562,7 +20574,7 @@
         <v>3501.3622</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="16">
         <v>43123</v>
       </c>
@@ -20573,7 +20585,7 @@
         <v>3546.5048000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="16">
         <v>43124</v>
       </c>
@@ -20584,7 +20596,7 @@
         <v>3559.4652999999998</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="16">
         <v>43125</v>
       </c>
@@ -20595,7 +20607,7 @@
         <v>3548.3069999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="16">
         <v>43126</v>
       </c>
@@ -20606,7 +20618,7 @@
         <v>3558.1288</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="16">
         <v>43129</v>
       </c>
@@ -20617,7 +20629,7 @@
         <v>3523.0007000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="16">
         <v>43130</v>
       </c>
@@ -20628,7 +20640,7 @@
         <v>3488.009</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="16">
         <v>43131</v>
       </c>
@@ -20639,7 +20651,7 @@
         <v>3480.8334</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="16">
         <v>43132</v>
       </c>
@@ -20650,7 +20662,7 @@
         <v>3446.9798999999998</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="16">
         <v>43133</v>
       </c>
@@ -20661,7 +20673,7 @@
         <v>3462.0808000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="16">
         <v>43136</v>
       </c>
@@ -20672,7 +20684,7 @@
         <v>3487.4969999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="16">
         <v>43137</v>
       </c>
@@ -20683,7 +20695,7 @@
         <v>3370.652</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="16">
         <v>43138</v>
       </c>
@@ -20694,7 +20706,7 @@
         <v>3309.2597999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="16">
         <v>43139</v>
       </c>
@@ -20705,7 +20717,7 @@
         <v>3262.0504000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="16">
         <v>43140</v>
       </c>
@@ -20716,7 +20728,7 @@
         <v>3129.8508000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="16">
         <v>43143</v>
       </c>
@@ -20727,7 +20739,7 @@
         <v>3154.1253999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="16">
         <v>43144</v>
       </c>
@@ -20738,7 +20750,7 @@
         <v>3184.9587000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="16">
         <v>43145</v>
       </c>
@@ -20749,7 +20761,7 @@
         <v>3199.1588999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="16">
         <v>43153</v>
       </c>
@@ -20760,7 +20772,7 @@
         <v>3268.56</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="16">
         <v>43154</v>
       </c>
@@ -20771,7 +20783,7 @@
         <v>3289.02</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="16">
         <v>43157</v>
       </c>
@@ -20782,7 +20794,7 @@
         <v>3329.57</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="16">
         <v>43158</v>
       </c>
@@ -20793,7 +20805,7 @@
         <v>3292.07</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="16">
         <v>43159</v>
       </c>
@@ -20804,7 +20816,7 @@
         <v>3259.41</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="16">
         <v>43160</v>
       </c>
@@ -20815,7 +20827,7 @@
         <v>3273.76</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="16">
         <v>43161</v>
       </c>
@@ -20826,7 +20838,7 @@
         <v>3254.53</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="16">
         <v>43164</v>
       </c>
@@ -20837,7 +20849,7 @@
         <v>3256.93</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="16">
         <v>43165</v>
       </c>
@@ -20848,7 +20860,7 @@
         <v>3289.64</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="16">
         <v>43166</v>
       </c>
@@ -20859,7 +20871,7 @@
         <v>3271.67</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="16">
         <v>43167</v>
       </c>
@@ -20870,7 +20882,7 @@
         <v>3288.41</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="16">
         <v>43168</v>
       </c>
@@ -20881,7 +20893,7 @@
         <v>3307.17</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="16">
         <v>43171</v>
       </c>
@@ -20892,7 +20904,7 @@
         <v>3326.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="16">
         <v>43172</v>
       </c>
@@ -20903,7 +20915,7 @@
         <v>3310.24</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="16">
         <v>43173</v>
       </c>
@@ -20914,7 +20926,7 @@
         <v>3291.38</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="16">
         <v>43174</v>
       </c>
@@ -20925,7 +20937,7 @@
         <v>3291.11</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="16">
         <v>43175</v>
       </c>
@@ -20936,7 +20948,7 @@
         <v>3269.88</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="16">
         <v>43178</v>
       </c>
@@ -20947,7 +20959,7 @@
         <v>3279.25</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="16">
         <v>43179</v>
       </c>
@@ -20958,7 +20970,7 @@
         <v>3290.64</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="16">
         <v>43180</v>
       </c>
@@ -20969,7 +20981,7 @@
         <v>3280.95</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="16">
         <v>43181</v>
       </c>
@@ -20980,7 +20992,7 @@
         <v>3263.48</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="16">
         <v>43182</v>
       </c>
@@ -20991,7 +21003,7 @@
         <v>3152.76</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="16">
         <v>43185</v>
       </c>
@@ -21002,7 +21014,7 @@
         <v>3133.72</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="16">
         <v>43186</v>
       </c>
@@ -21013,7 +21025,7 @@
         <v>3166.65</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="16">
         <v>43187</v>
       </c>
@@ -21024,7 +21036,7 @@
         <v>3122.29</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="16">
         <v>43188</v>
       </c>
@@ -21035,7 +21047,7 @@
         <v>3160.53</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="16">
         <v>43189</v>
       </c>
@@ -21046,7 +21058,7 @@
         <v>3168.9</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="16">
         <v>43192</v>
       </c>
@@ -21057,7 +21069,7 @@
         <v>3163.18</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="16">
         <v>43193</v>
       </c>
@@ -21068,7 +21080,7 @@
         <v>3136.63</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="16">
         <v>43194</v>
       </c>
@@ -21079,7 +21091,7 @@
         <v>3131.11</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="16">
         <v>43199</v>
       </c>
@@ -21090,7 +21102,7 @@
         <v>3138.29</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="16">
         <v>43200</v>
       </c>
@@ -21101,7 +21113,7 @@
         <v>3190.32</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="16">
         <v>43201</v>
       </c>
@@ -21112,7 +21124,7 @@
         <v>3208.08</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="16">
         <v>43202</v>
       </c>
@@ -21123,7 +21135,7 @@
         <v>3180.16</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="16">
         <v>43203</v>
       </c>
@@ -21134,7 +21146,7 @@
         <v>3159.05</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="16">
         <v>43206</v>
       </c>
@@ -21145,7 +21157,7 @@
         <v>3110.65</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="16">
         <v>43207</v>
       </c>
@@ -21156,7 +21168,7 @@
         <v>3066.8</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="16">
         <v>43208</v>
       </c>
@@ -21167,7 +21179,7 @@
         <v>3091.4</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="16">
         <v>43209</v>
       </c>
@@ -21178,7 +21190,7 @@
         <v>3117.48</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="16">
         <v>43210</v>
       </c>
@@ -21189,7 +21201,7 @@
         <v>3071.54</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="16">
         <v>43213</v>
       </c>
@@ -21200,7 +21212,7 @@
         <v>3068.01</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="16">
         <v>43214</v>
       </c>
@@ -21211,7 +21223,7 @@
         <v>3128.93</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="16">
         <v>43215</v>
       </c>
@@ -21222,7 +21234,7 @@
         <v>3117.97</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="16">
         <v>43216</v>
       </c>
@@ -21233,7 +21245,7 @@
         <v>3075.03</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="16">
         <v>43217</v>
       </c>
@@ -21244,7 +21256,7 @@
         <v>3082.23</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="16">
         <v>43222</v>
       </c>
@@ -21255,7 +21267,7 @@
         <v>3081.18</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="16">
         <v>43223</v>
       </c>
@@ -21266,7 +21278,7 @@
         <v>3100.86</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="16">
         <v>43224</v>
       </c>
@@ -21277,7 +21289,7 @@
         <v>3091.03</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="16">
         <v>43227</v>
       </c>
@@ -21288,7 +21300,7 @@
         <v>3136.64</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="16">
         <v>43228</v>
       </c>
@@ -21299,7 +21311,7 @@
         <v>3160.5</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="16">
         <v>43229</v>
       </c>
@@ -21310,7 +21322,7 @@
         <v>3159.15</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="16">
         <v>43230</v>
       </c>
@@ -21321,7 +21333,7 @@
         <v>3169.05</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="16">
         <v>43231</v>
       </c>
@@ -21332,7 +21344,7 @@
         <v>3163.26</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="16">
         <v>43234</v>
       </c>
@@ -21343,7 +21355,7 @@
         <v>3174.03</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="16">
         <v>43235</v>
       </c>
@@ -21354,7 +21366,7 @@
         <v>3192.12</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="16">
         <v>43236</v>
       </c>
@@ -21365,7 +21377,7 @@
         <v>3169.57</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="16">
         <v>43237</v>
       </c>
@@ -21376,7 +21388,7 @@
         <v>3154.28</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="16">
         <v>43238</v>
       </c>
@@ -21387,7 +21399,7 @@
         <v>3193.3</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="16">
         <v>43241</v>
       </c>
@@ -21398,7 +21410,7 @@
         <v>3213.84</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="16">
         <v>43242</v>
       </c>
@@ -21409,7 +21421,7 @@
         <v>3214.35</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="16">
         <v>43243</v>
       </c>
@@ -21420,7 +21432,7 @@
         <v>3168.96</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="16">
         <v>43244</v>
       </c>
@@ -21431,7 +21443,7 @@
         <v>3154.65</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="16">
         <v>43245</v>
       </c>
@@ -21442,7 +21454,7 @@
         <v>3141.3</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="16">
         <v>43248</v>
       </c>
@@ -21453,7 +21465,7 @@
         <v>3135.08</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="16">
         <v>43249</v>
       </c>
@@ -21464,7 +21476,7 @@
         <v>3120.46</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="16">
         <v>43250</v>
       </c>
@@ -21475,7 +21487,7 @@
         <v>3041.44</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="16">
         <v>43251</v>
       </c>
@@ -21486,7 +21498,7 @@
         <v>3095.47</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="16">
         <v>43252</v>
       </c>
@@ -21497,7 +21509,7 @@
         <v>3075.14</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="16">
         <v>43255</v>
       </c>
@@ -21508,7 +21520,7 @@
         <v>3091.19</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="16">
         <v>43256</v>
       </c>
@@ -21519,7 +21531,7 @@
         <v>3114.21</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="16">
         <v>43257</v>
       </c>
@@ -21530,7 +21542,7 @@
         <v>3115.18</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="16">
         <v>43258</v>
       </c>
@@ -21541,7 +21553,7 @@
         <v>3109.5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="16">
         <v>43259</v>
       </c>
@@ -21552,7 +21564,7 @@
         <v>3067.15</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="16">
         <v>43262</v>
       </c>
@@ -21563,7 +21575,7 @@
         <v>3052.78</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="16">
         <v>43263</v>
       </c>
@@ -21574,7 +21586,7 @@
         <v>3079.8</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="16">
         <v>43264</v>
       </c>
@@ -21585,7 +21597,7 @@
         <v>3049.8</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="16">
         <v>43265</v>
       </c>
@@ -21596,7 +21608,7 @@
         <v>3044.16</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="16">
         <v>43266</v>
       </c>
@@ -21607,7 +21619,7 @@
         <v>3021.9</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="16">
         <v>43270</v>
       </c>
@@ -21618,7 +21630,7 @@
         <v>2907.82</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="16">
         <v>43271</v>
       </c>
@@ -21629,7 +21641,7 @@
         <v>2915.73</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="16">
         <v>43272</v>
       </c>
@@ -21640,7 +21652,7 @@
         <v>2875.81</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="16">
         <v>43273</v>
       </c>
@@ -21651,7 +21663,7 @@
         <v>2889.76</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="16">
         <v>43276</v>
       </c>
@@ -21662,7 +21674,7 @@
         <v>2859.34</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="16">
         <v>43277</v>
       </c>
@@ -21673,7 +21685,7 @@
         <v>2844.51</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="16">
         <v>43278</v>
       </c>
@@ -21684,7 +21696,7 @@
         <v>2813.18</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="16">
         <v>43279</v>
       </c>
@@ -21695,7 +21707,7 @@
         <v>2786.9</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="16">
         <v>43280</v>
       </c>
@@ -21706,7 +21718,7 @@
         <v>2847.42</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="16">
         <v>43283</v>
       </c>
@@ -21717,7 +21729,7 @@
         <v>2775.56</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="16">
         <v>43284</v>
       </c>
@@ -21728,7 +21740,7 @@
         <v>2786.89</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="16">
         <v>43285</v>
       </c>
@@ -21739,7 +21751,7 @@
         <v>2759.13</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="16">
         <v>43286</v>
       </c>
@@ -21750,7 +21762,7 @@
         <v>2733.88</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="16">
         <v>43287</v>
       </c>
@@ -21761,7 +21773,7 @@
         <v>2747.23</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="16">
         <v>43290</v>
       </c>
@@ -21772,7 +21784,7 @@
         <v>2815.11</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="16">
         <v>43291</v>
       </c>
@@ -21783,7 +21795,7 @@
         <v>2827.63</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="16">
         <v>43292</v>
       </c>
@@ -21794,7 +21806,7 @@
         <v>2777.77</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="16">
         <v>43293</v>
       </c>
@@ -21805,7 +21817,7 @@
         <v>2837.66</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="16">
         <v>43294</v>
       </c>
@@ -21816,7 +21828,7 @@
         <v>2831.18</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="16">
         <v>43297</v>
       </c>
@@ -21827,7 +21839,7 @@
         <v>2814.04</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="16">
         <v>43298</v>
       </c>
@@ -21838,7 +21850,7 @@
         <v>2798.13</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="16">
         <v>43299</v>
       </c>
@@ -21849,7 +21861,7 @@
         <v>2787.26</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="16">
         <v>43300</v>
       </c>
@@ -21860,7 +21872,7 @@
         <v>2772.55</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="16">
         <v>43301</v>
       </c>
@@ -21871,7 +21883,7 @@
         <v>2829.27</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="16">
         <v>43304</v>
       </c>
@@ -21882,7 +21894,7 @@
         <v>2859.54</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="16">
         <v>43305</v>
       </c>
@@ -21893,7 +21905,7 @@
         <v>2905.56</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="16">
         <v>43306</v>
       </c>
@@ -21904,7 +21916,7 @@
         <v>2903.65</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="16">
         <v>43307</v>
       </c>
@@ -21915,7 +21927,7 @@
         <v>2882.23</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="16">
         <v>43308</v>
       </c>
@@ -21926,7 +21938,7 @@
         <v>2873.59</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="16">
         <v>43311</v>
       </c>
@@ -21937,7 +21949,7 @@
         <v>2869.05</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="16">
         <v>43312</v>
       </c>
@@ -21948,7 +21960,7 @@
         <v>2876.4</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="16">
         <v>43313</v>
       </c>
@@ -21959,7 +21971,7 @@
         <v>2824.53</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="16">
         <v>43314</v>
       </c>
@@ -21970,7 +21982,7 @@
         <v>2768.02</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="16">
         <v>43315</v>
       </c>
@@ -21981,7 +21993,7 @@
         <v>2740.44</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="16">
         <v>43318</v>
       </c>
@@ -21992,7 +22004,7 @@
         <v>2705.16</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="16">
         <v>43319</v>
       </c>
@@ -22003,7 +22015,7 @@
         <v>2779.37</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="16">
         <v>43320</v>
       </c>
@@ -22014,7 +22026,7 @@
         <v>2744.07</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="16">
         <v>43321</v>
       </c>
@@ -22025,7 +22037,7 @@
         <v>2794.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="16">
         <v>43322</v>
       </c>
@@ -22036,7 +22048,7 @@
         <v>2795.31</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="16">
         <v>43325</v>
       </c>
@@ -22047,7 +22059,7 @@
         <v>2785.87</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="16">
         <v>43326</v>
       </c>
@@ -22058,7 +22070,7 @@
         <v>2780.96</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="16">
         <v>43327</v>
       </c>
@@ -22069,7 +22081,7 @@
         <v>2723.26</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="16">
         <v>43328</v>
       </c>
@@ -22080,7 +22092,7 @@
         <v>2705.19</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="16">
         <v>43329</v>
       </c>
@@ -22091,7 +22103,7 @@
         <v>2668.97</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="16">
         <v>43332</v>
       </c>
@@ -22102,7 +22114,7 @@
         <v>2698.47</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="16">
         <v>43333</v>
       </c>
@@ -22113,7 +22125,7 @@
         <v>2733.83</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="16">
         <v>43334</v>
       </c>
@@ -22124,7 +22136,7 @@
         <v>2714.61</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="16">
         <v>43335</v>
       </c>
@@ -22135,7 +22147,7 @@
         <v>2724.62</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="16">
         <v>43336</v>
       </c>
@@ -22146,7 +22158,7 @@
         <v>2729.43</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="16">
         <v>43339</v>
       </c>
@@ -22157,7 +22169,7 @@
         <v>2780.9</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="16">
         <v>43340</v>
       </c>
@@ -22168,7 +22180,7 @@
         <v>2777.98</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="16">
         <v>43341</v>
       </c>
@@ -22179,7 +22191,7 @@
         <v>2769.29</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="16">
         <v>43342</v>
       </c>
@@ -22190,7 +22202,7 @@
         <v>2737.74</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="16">
         <v>43343</v>
       </c>
@@ -22201,7 +22213,7 @@
         <v>2725.25</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="16">
         <v>43346</v>
       </c>
@@ -22212,7 +22224,7 @@
         <v>2720.73</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="16">
         <v>43347</v>
       </c>
@@ -22223,7 +22235,7 @@
         <v>2750.58</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="16">
         <v>43348</v>
       </c>
@@ -22234,7 +22246,7 @@
         <v>2704.34</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="16">
         <v>43349</v>
       </c>
@@ -22245,7 +22257,7 @@
         <v>2691.59</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="16">
         <v>43350</v>
       </c>
@@ -22256,7 +22268,7 @@
         <v>2702.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="16">
         <v>43353</v>
       </c>
@@ -22267,7 +22279,7 @@
         <v>2669.48</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="16">
         <v>43354</v>
       </c>
@@ -22278,7 +22290,7 @@
         <v>2664.8</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="16">
         <v>43355</v>
       </c>
@@ -22289,7 +22301,7 @@
         <v>2656.11</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="16">
         <v>43356</v>
       </c>
@@ -22300,7 +22312,7 @@
         <v>2686.58</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="16">
         <v>43357</v>
       </c>
@@ -22311,7 +22323,7 @@
         <v>2681.64</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="16">
         <v>43360</v>
       </c>
@@ -22322,7 +22334,7 @@
         <v>2651.79</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="16">
         <v>43361</v>
       </c>
@@ -22333,7 +22345,7 @@
         <v>2669.95</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="16">
         <v>43362</v>
       </c>
@@ -22344,7 +22356,7 @@
         <v>2730.85</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="16">
         <v>43363</v>
       </c>
@@ -22355,7 +22367,7 @@
         <v>2729.24</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="16">
         <v>43364</v>
       </c>
@@ -22366,7 +22378,7 @@
         <v>2797.48</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="16">
         <v>43368</v>
       </c>
@@ -22377,7 +22389,7 @@
         <v>2781.14</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="16">
         <v>43369</v>
       </c>
@@ -22388,7 +22400,7 @@
         <v>2806.81</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="16">
         <v>43370</v>
       </c>
@@ -22399,7 +22411,7 @@
         <v>2791.77</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="16">
         <v>43371</v>
       </c>
@@ -22410,7 +22422,7 @@
         <v>2821.35</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="16">
         <v>43381</v>
       </c>
@@ -22421,7 +22433,7 @@
         <v>2716.51</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="16">
         <v>43382</v>
       </c>
@@ -22432,7 +22444,7 @@
         <v>2721.01</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="16">
         <v>43383</v>
       </c>
@@ -22443,7 +22455,7 @@
         <v>2725.84</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="16">
         <v>43384</v>
       </c>
@@ -22454,7 +22466,7 @@
         <v>2583.46</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="16">
         <v>43385</v>
       </c>
@@ -22465,7 +22477,7 @@
         <v>2606.91</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="16">
         <v>43388</v>
       </c>
@@ -22476,7 +22488,7 @@
         <v>2568.1</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="16">
         <v>43389</v>
       </c>
@@ -22487,7 +22499,7 @@
         <v>2546.33</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="16">
         <v>43390</v>
       </c>
@@ -22498,7 +22510,7 @@
         <v>2561.61</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="16">
         <v>43391</v>
       </c>
@@ -22509,7 +22521,7 @@
         <v>2486.42</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="16">
         <v>43392</v>
       </c>
@@ -22520,7 +22532,7 @@
         <v>2550.4699999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="16">
         <v>43395</v>
       </c>
@@ -22531,7 +22543,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="16">
         <v>43396</v>
       </c>
@@ -22542,7 +22554,7 @@
         <v>2594.83</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="16">
         <v>43397</v>
       </c>
@@ -22553,7 +22565,7 @@
         <v>2603.3000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="16">
         <v>43398</v>
       </c>
@@ -22564,7 +22576,7 @@
         <v>2603.8000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="16">
         <v>43399</v>
       </c>
@@ -22575,7 +22587,7 @@
         <v>2598.85</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="16">
         <v>43402</v>
       </c>
@@ -22586,7 +22598,7 @@
         <v>2542.1</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="16">
         <v>43403</v>
       </c>
@@ -22597,7 +22609,7 @@
         <v>2568.0500000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="16">
         <v>43404</v>
       </c>
@@ -22608,7 +22620,7 @@
         <v>2602.7800000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="16">
         <v>43405</v>
       </c>
@@ -22619,7 +22631,7 @@
         <v>2606.2399999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="16">
         <v>43406</v>
       </c>
@@ -22630,7 +22642,7 @@
         <v>2676.48</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="16">
         <v>43409</v>
       </c>
@@ -22641,7 +22653,7 @@
         <v>2665.43</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="16">
         <v>43410</v>
       </c>
@@ -22652,7 +22664,7 @@
         <v>2659.36</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="16">
         <v>43411</v>
       </c>
@@ -22663,7 +22675,7 @@
         <v>2641.34</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="16">
         <v>43412</v>
       </c>
@@ -22674,7 +22686,7 @@
         <v>2635.63</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="16">
         <v>43413</v>
       </c>
@@ -22685,7 +22697,7 @@
         <v>2598.87</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="16">
         <v>43416</v>
       </c>
@@ -22696,7 +22708,7 @@
         <v>2630.52</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="16">
         <v>43417</v>
       </c>
@@ -22707,7 +22719,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="16">
         <v>43418</v>
       </c>
@@ -22718,7 +22730,7 @@
         <v>2632.24</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="16">
         <v>43419</v>
       </c>
@@ -22729,7 +22741,7 @@
         <v>2668.17</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="16">
         <v>43420</v>
       </c>
@@ -22740,7 +22752,7 @@
         <v>2679.11</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="16">
         <v>43423</v>
       </c>
@@ -22751,7 +22763,7 @@
         <v>2703.51</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="16">
         <v>43424</v>
       </c>
@@ -22762,7 +22774,7 @@
         <v>2645.85</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="16">
         <v>43425</v>
       </c>
@@ -22773,7 +22785,7 @@
         <v>2651.51</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="16">
         <v>43426</v>
       </c>
@@ -22784,7 +22796,7 @@
         <v>2645.43</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="16">
         <v>43427</v>
       </c>
@@ -22795,7 +22807,7 @@
         <v>2579.48</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="16">
         <v>43430</v>
       </c>
@@ -22806,7 +22818,7 @@
         <v>2575.81</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="16">
         <v>43431</v>
       </c>
@@ -22817,7 +22829,7 @@
         <v>2574.6799999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="16">
         <v>43432</v>
       </c>
@@ -22828,7 +22840,7 @@
         <v>2601.7399999999998</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="16">
         <v>43433</v>
       </c>
@@ -22839,7 +22851,7 @@
         <v>2567.44</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="16">
         <v>43434</v>
       </c>
@@ -22850,7 +22862,7 @@
         <v>2588.19</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="16">
         <v>43437</v>
       </c>
@@ -22861,7 +22873,7 @@
         <v>2654.8</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="16">
         <v>43438</v>
       </c>
@@ -22872,7 +22884,7 @@
         <v>2665.96</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="16">
         <v>43439</v>
       </c>
@@ -22883,7 +22895,7 @@
         <v>2649.81</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="16">
         <v>43440</v>
       </c>
@@ -22894,7 +22906,7 @@
         <v>2605.1799999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="16">
         <v>43441</v>
       </c>
@@ -22905,7 +22917,7 @@
         <v>2605.89</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="16">
         <v>43444</v>
       </c>
@@ -22916,7 +22928,7 @@
         <v>2584.58</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="16">
         <v>43445</v>
       </c>
@@ -22927,7 +22939,7 @@
         <v>2594.09</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="16">
         <v>43446</v>
       </c>
@@ -22938,7 +22950,7 @@
         <v>2602.15</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="16">
         <v>43447</v>
       </c>
@@ -22949,7 +22961,7 @@
         <v>2634.05</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="16">
         <v>43448</v>
       </c>
@@ -22960,7 +22972,7 @@
         <v>2593.7399999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="16">
         <v>43451</v>
       </c>
@@ -22971,7 +22983,7 @@
         <v>2597.9699999999998</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="16">
         <v>43452</v>
       </c>
@@ -22982,7 +22994,7 @@
         <v>2576.65</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="16">
         <v>43453</v>
       </c>
@@ -22993,7 +23005,7 @@
         <v>2549.56</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="16">
         <v>43454</v>
       </c>
@@ -23004,7 +23016,7 @@
         <v>2536.27</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="16">
         <v>43455</v>
       </c>
@@ -23015,7 +23027,7 @@
         <v>2516.25</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="16">
         <v>43458</v>
       </c>
@@ -23026,7 +23038,7 @@
         <v>2527.0100000000002</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="16">
         <v>43459</v>
       </c>
@@ -23037,7 +23049,7 @@
         <v>2504.8200000000002</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="16">
         <v>43460</v>
       </c>
@@ -23048,7 +23060,7 @@
         <v>2498.29</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="16">
         <v>43461</v>
       </c>
@@ -23059,7 +23071,7 @@
         <v>2483.09</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="16">
         <v>43462</v>
       </c>
@@ -23070,7 +23082,7 @@
         <v>2493.9</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="16">
         <v>43467</v>
       </c>
@@ -23081,7 +23093,7 @@
         <v>2465.29</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="16">
         <v>43468</v>
       </c>
@@ -23092,7 +23104,7 @@
         <v>2464.36</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="16">
         <v>43469</v>
       </c>
@@ -23103,7 +23115,7 @@
         <v>2514.87</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="16">
         <v>43472</v>
       </c>
@@ -23114,7 +23126,7 @@
         <v>2533.09</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="16">
         <v>43473</v>
       </c>
@@ -23125,7 +23137,7 @@
         <v>2525.46</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="16">
         <v>43474</v>
       </c>
@@ -23136,7 +23148,7 @@
         <v>2544.34</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="16">
         <v>43475</v>
       </c>
@@ -23147,7 +23159,7 @@
         <v>2535.1</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="16">
         <v>43476</v>
       </c>
@@ -23158,7 +23170,7 @@
         <v>2553.83</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="16">
         <v>43479</v>
       </c>
@@ -23169,7 +23181,7 @@
         <v>2535.77</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="16">
         <v>43480</v>
       </c>
@@ -23180,7 +23192,7 @@
         <v>2570.34</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="16">
         <v>43481</v>
       </c>
@@ -23191,7 +23203,7 @@
         <v>2570.42</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="16">
         <v>43482</v>
       </c>
@@ -23202,7 +23214,7 @@
         <v>2559.64</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="16">
         <v>43483</v>
       </c>
@@ -23213,7 +23225,7 @@
         <v>2596.0100000000002</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="16">
         <v>43486</v>
       </c>
@@ -23224,7 +23236,7 @@
         <v>2610.5100000000002</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="16">
         <v>43487</v>
       </c>
@@ -23235,7 +23247,7 @@
         <v>2579.6999999999998</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="16">
         <v>43488</v>
       </c>
@@ -23246,7 +23258,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="16">
         <v>43489</v>
       </c>
@@ -23257,7 +23269,7 @@
         <v>2591.69</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="16">
         <v>43490</v>
       </c>
@@ -23268,7 +23280,7 @@
         <v>2601.7199999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="16">
         <v>43493</v>
       </c>
@@ -23279,7 +23291,7 @@
         <v>2596.98</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="16">
         <v>43494</v>
       </c>
@@ -23290,7 +23302,7 @@
         <v>2594.25</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="16">
         <v>43495</v>
       </c>
@@ -23301,7 +23313,7 @@
         <v>2575.58</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="16">
         <v>43496</v>
       </c>
@@ -23312,7 +23324,7 @@
         <v>2584.5700000000002</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="16">
         <v>43497</v>
       </c>
@@ -23323,7 +23335,7 @@
         <v>2618.23</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="16">
         <v>43507</v>
       </c>
@@ -23334,7 +23346,7 @@
         <v>2653.9</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="16">
         <v>43508</v>
       </c>
@@ -23345,7 +23357,7 @@
         <v>2671.89</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="16">
         <v>43509</v>
       </c>
@@ -23356,7 +23368,7 @@
         <v>2721.07</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="16">
         <v>43510</v>
       </c>
@@ -23367,7 +23379,7 @@
         <v>2719.7</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="16">
         <v>43511</v>
       </c>
@@ -23378,7 +23390,7 @@
         <v>2682.39</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="16">
         <v>43514</v>
       </c>
@@ -23389,7 +23401,7 @@
         <v>2754.36</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="16">
         <v>43515</v>
       </c>
@@ -23400,7 +23412,7 @@
         <v>2755.65</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="16">
         <v>43516</v>
       </c>
@@ -23411,7 +23423,7 @@
         <v>2761.22</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="16">
         <v>43517</v>
       </c>
@@ -23422,7 +23434,7 @@
         <v>2751.8</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="16">
         <v>43518</v>
       </c>
@@ -23433,7 +23445,7 @@
         <v>2804.23</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="16">
         <v>43521</v>
       </c>
@@ -23444,7 +23456,7 @@
         <v>2961.28</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="16">
         <v>43522</v>
       </c>
@@ -23455,7 +23467,7 @@
         <v>2941.52</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="16">
         <v>43523</v>
       </c>
@@ -23466,7 +23478,7 @@
         <v>2953.82</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="16">
         <v>43524</v>
       </c>
@@ -23477,7 +23489,7 @@
         <v>2940.95</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="16">
         <v>43525</v>
       </c>
@@ -23488,7 +23500,7 @@
         <v>2994.01</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="16">
         <v>43528</v>
       </c>
@@ -23499,7 +23511,7 @@
         <v>3027.58</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="16">
         <v>43529</v>
       </c>
@@ -23510,7 +23522,7 @@
         <v>3054.25</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="16">
         <v>43530</v>
       </c>
@@ -23521,7 +23533,7 @@
         <v>3102.1</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="16">
         <v>43531</v>
       </c>
@@ -23532,7 +23544,7 @@
         <v>3106.42</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="16">
         <v>43532</v>
       </c>
@@ -23543,7 +23555,7 @@
         <v>2969.86</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="16">
         <v>43535</v>
       </c>
@@ -23554,7 +23566,7 @@
         <v>3026.99</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="16">
         <v>43536</v>
       </c>
@@ -23565,7 +23577,7 @@
         <v>3060.31</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="16">
         <v>43537</v>
       </c>
@@ -23576,7 +23588,7 @@
         <v>3026.95</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="16">
         <v>43538</v>
       </c>
@@ -23587,7 +23599,7 @@
         <v>2990.69</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="16">
         <v>43539</v>
       </c>
@@ -23598,7 +23610,7 @@
         <v>3021.75</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="16">
         <v>43542</v>
       </c>
@@ -23609,7 +23621,7 @@
         <v>3096.42</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="16">
         <v>43543</v>
       </c>
@@ -23620,7 +23632,7 @@
         <v>3090.98</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="16">
         <v>43544</v>
       </c>
@@ -23631,7 +23643,7 @@
         <v>3090.64</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="16">
         <v>43545</v>
       </c>
@@ -23642,7 +23654,7 @@
         <v>3101.46</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="16">
         <v>43546</v>
       </c>
@@ -23653,7 +23665,7 @@
         <v>3104.15</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="16">
         <v>43549</v>
       </c>
@@ -23664,7 +23676,7 @@
         <v>3043.03</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="16">
         <v>43550</v>
       </c>
@@ -23675,7 +23687,7 @@
         <v>2997.1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="16">
         <v>43551</v>
       </c>
@@ -23686,7 +23698,7 @@
         <v>3022.72</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="16">
         <v>43552</v>
       </c>
@@ -23697,7 +23709,7 @@
         <v>2994.94</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="16">
         <v>43553</v>
       </c>
@@ -23708,7 +23720,7 @@
         <v>3090.76</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="16">
         <v>43556</v>
       </c>
@@ -23719,7 +23731,7 @@
         <v>3170.36</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="16">
         <v>43557</v>
       </c>
@@ -23730,7 +23742,7 @@
         <v>3176.82</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="16">
         <v>43558</v>
       </c>
@@ -23741,7 +23753,7 @@
         <v>3216.3</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="16">
         <v>43559</v>
       </c>
@@ -23752,7 +23764,7 @@
         <v>3246.57</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="16">
         <v>43563</v>
       </c>
@@ -23763,7 +23775,7 @@
         <v>3244.81</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="16">
         <v>43564</v>
       </c>
@@ -23774,7 +23786,7 @@
         <v>3239.66</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="16">
         <v>43565</v>
       </c>
@@ -23785,7 +23797,7 @@
         <v>3241.93</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="16">
         <v>43566</v>
       </c>
@@ -23796,7 +23808,7 @@
         <v>3189.96</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="16">
         <v>43567</v>
       </c>
@@ -23807,7 +23819,7 @@
         <v>3188.63</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="16">
         <v>43570</v>
       </c>
@@ -23818,7 +23830,7 @@
         <v>3177.79</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="16">
         <v>43571</v>
       </c>
@@ -23829,7 +23841,7 @@
         <v>3253.6</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="16">
         <v>43572</v>
       </c>
@@ -23840,7 +23852,7 @@
         <v>3263.12</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="16">
         <v>43573</v>
       </c>
@@ -23851,7 +23863,7 @@
         <v>3250.2</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="16">
         <v>43574</v>
       </c>
@@ -23862,7 +23874,7 @@
         <v>3270.8</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="16">
         <v>43577</v>
       </c>
@@ -23873,7 +23885,7 @@
         <v>3215.04</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="16">
         <v>43578</v>
       </c>
@@ -23884,7 +23896,7 @@
         <v>3198.59</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="16">
         <v>43579</v>
       </c>
@@ -23895,7 +23907,7 @@
         <v>3201.61</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="16">
         <v>43580</v>
       </c>
@@ -23906,7 +23918,7 @@
         <v>3123.83</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="16">
         <v>43581</v>
       </c>
@@ -23917,7 +23929,7 @@
         <v>3086.4</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="16">
         <v>43584</v>
       </c>
@@ -23928,7 +23940,7 @@
         <v>3062.5</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="16">
         <v>43585</v>
       </c>
@@ -23939,7 +23951,7 @@
         <v>3078.34</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="16">
         <v>43591</v>
       </c>
@@ -23950,7 +23962,7 @@
         <v>2906.46</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="16">
         <v>43592</v>
       </c>
@@ -23961,7 +23973,7 @@
         <v>2926.39</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="16">
         <v>43593</v>
       </c>
@@ -23972,7 +23984,7 @@
         <v>2893.76</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="16">
         <v>43594</v>
       </c>
@@ -23983,7 +23995,7 @@
         <v>2850.95</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="16">
         <v>43595</v>
       </c>
@@ -23994,7 +24006,7 @@
         <v>2939.21</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="16">
         <v>43598</v>
       </c>
@@ -24005,7 +24017,7 @@
         <v>2903.71</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="16">
         <v>43599</v>
       </c>
@@ -24016,7 +24028,7 @@
         <v>2883.61</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="16">
         <v>43600</v>
       </c>
@@ -24027,7 +24039,7 @@
         <v>2938.68</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="16">
         <v>43601</v>
       </c>
@@ -24038,7 +24050,7 @@
         <v>2955.71</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" s="16">
         <v>43602</v>
       </c>
@@ -24049,7 +24061,7 @@
         <v>2882.3</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="16">
         <v>43605</v>
       </c>
@@ -24060,7 +24072,7 @@
         <v>2870.6</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="16">
         <v>43606</v>
       </c>
@@ -24071,7 +24083,7 @@
         <v>2905.97</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="16">
         <v>43607</v>
       </c>
@@ -24082,7 +24094,7 @@
         <v>2891.7</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="16">
         <v>43608</v>
       </c>
@@ -24093,7 +24105,7 @@
         <v>2852.52</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="16">
         <v>43609</v>
       </c>
@@ -24104,7 +24116,7 @@
         <v>2852.99</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" s="16">
         <v>43612</v>
       </c>
@@ -24115,7 +24127,7 @@
         <v>2892.38</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" s="16">
         <v>43613</v>
       </c>
@@ -24126,7 +24138,7 @@
         <v>2909.91</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="16">
         <v>43614</v>
       </c>
@@ -24137,7 +24149,7 @@
         <v>2914.7</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="16">
         <v>43615</v>
       </c>
@@ -24148,7 +24160,7 @@
         <v>2905.81</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="16">
         <v>43616</v>
       </c>
@@ -24159,7 +24171,7 @@
         <v>2898.7</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="16">
         <v>43619</v>
       </c>
@@ -24170,20 +24182,26 @@
         <v>2890.08</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="16">
         <v>43620</v>
       </c>
+      <c r="B833" s="15">
+        <v>58.73</v>
+      </c>
       <c r="C833">
         <v>2862.28</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="16">
         <v>43621</v>
       </c>
-    </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C834">
+        <v>2861.42</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="16">
         <v>43622</v>
       </c>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE87C398-71B0-4339-8D97-6A09C16FF39D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A498DC-DE70-4342-ACD3-29F83AB96DFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18440171648054604</c:v>
+                  <c:v>0.18425160378816519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$833</c:f>
+              <c:f>Sheet1!$A$2:$A$834</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="832"/>
+                <c:ptCount val="833"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3893,16 +3893,19 @@
                 </c:pt>
                 <c:pt idx="831">
                   <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>43621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$833</c:f>
+              <c:f>Sheet1!$B$2:$B$834</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="832"/>
+                <c:ptCount val="833"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6398,6 +6401,9 @@
                 </c:pt>
                 <c:pt idx="831">
                   <c:v>58.73</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>58.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6453,10 +6459,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$833</c:f>
+              <c:f>Sheet1!$A$2:$A$834</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="832"/>
+                <c:ptCount val="833"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8952,16 +8958,19 @@
                 </c:pt>
                 <c:pt idx="831">
                   <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>43621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$833</c:f>
+              <c:f>Sheet1!$C$2:$C$834</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="832"/>
+                <c:ptCount val="833"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11457,6 +11466,9 @@
                 </c:pt>
                 <c:pt idx="831">
                   <c:v>2862.28</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>2861.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14289,26 +14301,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -14321,7 +14333,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2010</v>
@@ -14348,7 +14360,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -14377,7 +14389,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -14406,7 +14418,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -14435,7 +14447,7 @@
         <v>0.17810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -14464,7 +14476,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -14493,10 +14505,10 @@
         <v>-0.1615</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-6-4</v>
+        <v>说明:2017年统计范围为年初至2019-6-5</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14507,14 +14519,14 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14524,10 +14536,10 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>18.440171648054605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>18.425160378816518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O10" s="13">
         <v>2010</v>
       </c>
@@ -14538,7 +14550,7 @@
         <v>-6.88E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O11" s="13">
         <v>2011</v>
       </c>
@@ -14549,7 +14561,7 @@
         <v>-0.22420000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O12" s="13">
         <v>2012</v>
       </c>
@@ -14560,7 +14572,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O13" s="13">
         <v>2013</v>
       </c>
@@ -14571,7 +14583,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O14" s="13">
         <v>2014</v>
       </c>
@@ -14582,7 +14594,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O15" s="13">
         <v>2015</v>
       </c>
@@ -14593,7 +14605,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O16" s="13">
         <v>2016</v>
       </c>
@@ -14604,7 +14616,7 @@
         <v>-0.12909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O17" s="13">
         <v>2017</v>
       </c>
@@ -14615,7 +14627,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O18" s="13">
         <v>2018</v>
       </c>
@@ -14626,7 +14638,7 @@
         <v>-0.28253486362704305</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O19" s="13">
         <v>2019</v>
       </c>
@@ -14636,10 +14648,10 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.18440171648054604</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+        <v>0.18425160378816519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
@@ -14654,7 +14666,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>2010</v>
@@ -14687,7 +14699,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -14722,7 +14734,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -14757,7 +14769,7 @@
         <v>0.54120000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>2</v>
       </c>
@@ -14792,7 +14804,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -14827,7 +14839,7 @@
         <v>0.27760000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -14862,10 +14874,10 @@
         <v>-1.46E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-6-4</v>
+        <v>说明:2019年统计范围为年初至2019-6-5</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14878,7 +14890,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -14891,7 +14903,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -14904,7 +14916,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -14917,7 +14929,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -14930,7 +14942,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -14943,7 +14955,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -14956,7 +14968,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -14969,7 +14981,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -14982,7 +14994,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -15015,18 +15027,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A817" workbookViewId="0">
-      <selection activeCell="B834" sqref="B834"/>
+    <sheetView tabSelected="1" topLeftCell="A808" workbookViewId="0">
+      <selection activeCell="B835" sqref="B835"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -15037,7 +15049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>42373</v>
       </c>
@@ -15048,7 +15060,7 @@
         <v>3296.2579999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>42374</v>
       </c>
@@ -15059,7 +15071,7 @@
         <v>3287.7109999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>42375</v>
       </c>
@@ -15070,7 +15082,7 @@
         <v>3361.84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>42376</v>
       </c>
@@ -15081,7 +15093,7 @@
         <v>3125.002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>42377</v>
       </c>
@@ -15092,7 +15104,7 @@
         <v>3186.4119999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>42380</v>
       </c>
@@ -15103,7 +15115,7 @@
         <v>3016.7040000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>42381</v>
       </c>
@@ -15114,7 +15126,7 @@
         <v>3022.8609999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>42382</v>
       </c>
@@ -15126,10 +15138,10 @@
       </c>
       <c r="N9" s="18">
         <f>[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43620</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>42383</v>
       </c>
@@ -15140,7 +15152,7 @@
         <v>3007.6489999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>42384</v>
       </c>
@@ -15151,7 +15163,7 @@
         <v>2900.9697999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>42387</v>
       </c>
@@ -15162,7 +15174,7 @@
         <v>2913.8366999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>42388</v>
       </c>
@@ -15173,7 +15185,7 @@
         <v>3007.7393000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>42389</v>
       </c>
@@ -15184,7 +15196,7 @@
         <v>2976.694</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>42390</v>
       </c>
@@ -15195,7 +15207,7 @@
         <v>2880.482</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>42391</v>
       </c>
@@ -15206,7 +15218,7 @@
         <v>2916.5619999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>42394</v>
       </c>
@@ -15217,7 +15229,7 @@
         <v>2938.5149999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>42395</v>
       </c>
@@ -15228,7 +15240,7 @@
         <v>2749.7849999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>42396</v>
       </c>
@@ -15239,7 +15251,7 @@
         <v>2735.558</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>42397</v>
       </c>
@@ -15250,7 +15262,7 @@
         <v>2655.6610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>42398</v>
       </c>
@@ -15261,7 +15273,7 @@
         <v>2737.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>42401</v>
       </c>
@@ -15272,7 +15284,7 @@
         <v>2688.8539999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>42402</v>
       </c>
@@ -15283,7 +15295,7 @@
         <v>2749.57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>42403</v>
       </c>
@@ -15294,7 +15306,7 @@
         <v>2739.2469999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>42404</v>
       </c>
@@ -15305,7 +15317,7 @@
         <v>2781.0230000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>42405</v>
       </c>
@@ -15316,7 +15328,7 @@
         <v>2763.4920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>42415</v>
       </c>
@@ -15327,7 +15339,7 @@
         <v>2746.1959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>42416</v>
       </c>
@@ -15338,7 +15350,7 @@
         <v>2836.5709999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>42417</v>
       </c>
@@ -15349,7 +15361,7 @@
         <v>2867.3380000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>42418</v>
       </c>
@@ -15360,7 +15372,7 @@
         <v>2862.893</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>42419</v>
       </c>
@@ -15371,7 +15383,7 @@
         <v>2860.0210000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>42422</v>
       </c>
@@ -15382,7 +15394,7 @@
         <v>2927.1750000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>42423</v>
       </c>
@@ -15393,7 +15405,7 @@
         <v>2903.3310000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>42424</v>
       </c>
@@ -15404,7 +15416,7 @@
         <v>2928.8960000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>42425</v>
       </c>
@@ -15415,7 +15427,7 @@
         <v>2741.2449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>42426</v>
       </c>
@@ -15426,7 +15438,7 @@
         <v>2767.21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>42429</v>
       </c>
@@ -15437,7 +15449,7 @@
         <v>2687.9789999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>42430</v>
       </c>
@@ -15448,7 +15460,7 @@
         <v>2733.17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>42431</v>
       </c>
@@ -15459,7 +15471,7 @@
         <v>2849.681</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>42432</v>
       </c>
@@ -15470,7 +15482,7 @@
         <v>2859.7579999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>42433</v>
       </c>
@@ -15481,7 +15493,7 @@
         <v>2874.1469999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>42436</v>
       </c>
@@ -15492,7 +15504,7 @@
         <v>2897.34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>42437</v>
       </c>
@@ -15503,7 +15515,7 @@
         <v>2901.3870000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>42438</v>
       </c>
@@ -15514,7 +15526,7 @@
         <v>2862.556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>42439</v>
       </c>
@@ -15525,7 +15537,7 @@
         <v>2804.7260000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>42440</v>
       </c>
@@ -15536,7 +15548,7 @@
         <v>2810.3069999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>42443</v>
       </c>
@@ -15547,7 +15559,7 @@
         <v>2859.4989999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>42444</v>
       </c>
@@ -15558,7 +15570,7 @@
         <v>2864.3679999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>42445</v>
       </c>
@@ -15569,7 +15581,7 @@
         <v>2870.43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>42446</v>
       </c>
@@ -15580,7 +15592,7 @@
         <v>2904.8319999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>42447</v>
       </c>
@@ -15591,7 +15603,7 @@
         <v>2955.15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>42450</v>
       </c>
@@ -15602,7 +15614,7 @@
         <v>3018.8020000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>42451</v>
       </c>
@@ -15613,7 +15625,7 @@
         <v>2999.3629999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>42452</v>
       </c>
@@ -15624,7 +15636,7 @@
         <v>3009.96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>42453</v>
       </c>
@@ -15635,7 +15647,7 @@
         <v>2960.97</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>42454</v>
       </c>
@@ -15646,7 +15658,7 @@
         <v>2979.4340000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>42457</v>
       </c>
@@ -15657,7 +15669,7 @@
         <v>2957.82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>42458</v>
       </c>
@@ -15668,7 +15680,7 @@
         <v>2919.8319999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>42459</v>
       </c>
@@ -15679,7 +15691,7 @@
         <v>3000.645</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>42460</v>
       </c>
@@ -15690,7 +15702,7 @@
         <v>3003.915</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>42461</v>
       </c>
@@ -15701,7 +15713,7 @@
         <v>3009.53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>42465</v>
       </c>
@@ -15712,7 +15724,7 @@
         <v>3053.0650000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>42466</v>
       </c>
@@ -15723,7 +15735,7 @@
         <v>3050.5920000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>42467</v>
       </c>
@@ -15734,7 +15746,7 @@
         <v>3008.42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>42468</v>
       </c>
@@ -15745,7 +15757,7 @@
         <v>2984.9580000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>42471</v>
       </c>
@@ -15756,7 +15768,7 @@
         <v>3033.9569999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>42472</v>
       </c>
@@ -15767,7 +15779,7 @@
         <v>3023.6460000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>42473</v>
       </c>
@@ -15778,7 +15790,7 @@
         <v>3066.6379999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>42474</v>
       </c>
@@ -15789,7 +15801,7 @@
         <v>3082.3620000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>42475</v>
       </c>
@@ -15800,7 +15812,7 @@
         <v>3078.1170000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>42478</v>
       </c>
@@ -15811,7 +15823,7 @@
         <v>3033.66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>42479</v>
       </c>
@@ -15822,7 +15834,7 @@
         <v>3042.8229999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>42480</v>
       </c>
@@ -15833,7 +15845,7 @@
         <v>2972.5839999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>42481</v>
       </c>
@@ -15844,7 +15856,7 @@
         <v>2952.8910000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>42482</v>
       </c>
@@ -15855,7 +15867,7 @@
         <v>2959.24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>42485</v>
       </c>
@@ -15866,7 +15878,7 @@
         <v>2946.67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>42486</v>
       </c>
@@ -15877,7 +15889,7 @@
         <v>2964.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>42487</v>
       </c>
@@ -15888,7 +15900,7 @@
         <v>2953.6709999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>42488</v>
       </c>
@@ -15899,7 +15911,7 @@
         <v>2945.5889999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>42489</v>
       </c>
@@ -15910,7 +15922,7 @@
         <v>2938.3240000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>42493</v>
       </c>
@@ -15921,7 +15933,7 @@
         <v>2992.643</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>42494</v>
       </c>
@@ -15932,7 +15944,7 @@
         <v>2991.2719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>42495</v>
       </c>
@@ -15943,7 +15955,7 @@
         <v>2997.8420000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>42496</v>
       </c>
@@ -15954,7 +15966,7 @@
         <v>2913.248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>42499</v>
       </c>
@@ -15965,7 +15977,7 @@
         <v>2832.1129999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>42500</v>
       </c>
@@ -15976,7 +15988,7 @@
         <v>2832.5909999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>42501</v>
       </c>
@@ -15987,7 +15999,7 @@
         <v>2837.0369999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>42502</v>
       </c>
@@ -15998,7 +16010,7 @@
         <v>2835.8620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>42503</v>
       </c>
@@ -16009,7 +16021,7 @@
         <v>2827.1089999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>42506</v>
       </c>
@@ -16020,7 +16032,7 @@
         <v>2850.8620000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>42507</v>
       </c>
@@ -16031,7 +16043,7 @@
         <v>2843.6840000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>42508</v>
       </c>
@@ -16042,7 +16054,7 @@
         <v>2807.5140000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>42509</v>
       </c>
@@ -16053,7 +16065,7 @@
         <v>2806.9059999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>42510</v>
       </c>
@@ -16064,7 +16076,7 @@
         <v>2825.4830000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
         <v>42513</v>
       </c>
@@ -16075,7 +16087,7 @@
         <v>2843.645</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
         <v>42514</v>
       </c>
@@ -16086,7 +16098,7 @@
         <v>2821.6660000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
         <v>42515</v>
       </c>
@@ -16097,7 +16109,7 @@
         <v>2815.0862999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
         <v>42516</v>
       </c>
@@ -16108,7 +16120,7 @@
         <v>2822.4430000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
         <v>42517</v>
       </c>
@@ -16119,7 +16131,7 @@
         <v>2821.0459999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
         <v>42520</v>
       </c>
@@ -16130,7 +16142,7 @@
         <v>2822.451</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
         <v>42521</v>
       </c>
@@ -16141,7 +16153,7 @@
         <v>2916.616</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
         <v>42522</v>
       </c>
@@ -16152,7 +16164,7 @@
         <v>2913.5079999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
         <v>42523</v>
       </c>
@@ -16163,7 +16175,7 @@
         <v>2925.2289999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
         <v>42524</v>
       </c>
@@ -16174,7 +16186,7 @@
         <v>2938.6819999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
         <v>42527</v>
       </c>
@@ -16185,7 +16197,7 @@
         <v>2934.098</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
         <v>42528</v>
       </c>
@@ -16196,7 +16208,7 @@
         <v>2936.0450000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
         <v>42529</v>
       </c>
@@ -16207,7 +16219,7 @@
         <v>2927.1590000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
         <v>42534</v>
       </c>
@@ -16218,7 +16230,7 @@
         <v>2833.0709999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>42535</v>
       </c>
@@ -16229,7 +16241,7 @@
         <v>2842.1889999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
         <v>42536</v>
       </c>
@@ -16240,7 +16252,7 @@
         <v>2887.21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
         <v>42537</v>
       </c>
@@ -16251,7 +16263,7 @@
         <v>2872.817</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
         <v>42538</v>
       </c>
@@ -16262,7 +16274,7 @@
         <v>2885.105</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
         <v>42541</v>
       </c>
@@ -16273,7 +16285,7 @@
         <v>2888.8090000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
         <v>42542</v>
       </c>
@@ -16284,7 +16296,7 @@
         <v>2878.558</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
         <v>42543</v>
       </c>
@@ -16295,7 +16307,7 @@
         <v>2905.55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
         <v>42544</v>
       </c>
@@ -16306,7 +16318,7 @@
         <v>2891.96</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
         <v>42545</v>
       </c>
@@ -16317,7 +16329,7 @@
         <v>2854.2860000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="16">
         <v>42548</v>
       </c>
@@ -16328,7 +16340,7 @@
         <v>2895.703</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="16">
         <v>42549</v>
       </c>
@@ -16339,7 +16351,7 @@
         <v>2912.5569999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="16">
         <v>42550</v>
       </c>
@@ -16350,7 +16362,7 @@
         <v>2931.5920000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="16">
         <v>42551</v>
       </c>
@@ -16361,7 +16373,7 @@
         <v>2929.6060000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="16">
         <v>42552</v>
       </c>
@@ -16372,7 +16384,7 @@
         <v>2932.4760000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="16">
         <v>42555</v>
       </c>
@@ -16383,7 +16395,7 @@
         <v>2988.6039999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="16">
         <v>42556</v>
       </c>
@@ -16394,7 +16406,7 @@
         <v>3006.3919999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="16">
         <v>42557</v>
       </c>
@@ -16405,7 +16417,7 @@
         <v>3017.2919999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
         <v>42558</v>
       </c>
@@ -16416,7 +16428,7 @@
         <v>3016.8470000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
         <v>42559</v>
       </c>
@@ -16427,7 +16439,7 @@
         <v>2988.0940000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
         <v>42562</v>
       </c>
@@ -16438,7 +16450,7 @@
         <v>2994.9169999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="16">
         <v>42563</v>
       </c>
@@ -16449,7 +16461,7 @@
         <v>3049.3809999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="16">
         <v>42564</v>
       </c>
@@ -16460,7 +16472,7 @@
         <v>3060.6889999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="16">
         <v>42565</v>
       </c>
@@ -16471,7 +16483,7 @@
         <v>3054.018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="16">
         <v>42566</v>
       </c>
@@ -16482,7 +16494,7 @@
         <v>3054.2959999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="16">
         <v>42569</v>
       </c>
@@ -16493,7 +16505,7 @@
         <v>3043.5639999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="16">
         <v>42570</v>
       </c>
@@ -16504,7 +16516,7 @@
         <v>3036.598</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="16">
         <v>42571</v>
       </c>
@@ -16515,7 +16527,7 @@
         <v>3027.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="16">
         <v>42572</v>
       </c>
@@ -16526,7 +16538,7 @@
         <v>3039.009</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="16">
         <v>42573</v>
       </c>
@@ -16537,7 +16549,7 @@
         <v>3012.8159999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="16">
         <v>42576</v>
       </c>
@@ -16548,7 +16560,7 @@
         <v>3015.828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
         <v>42577</v>
       </c>
@@ -16559,7 +16571,7 @@
         <v>3050.1660000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
         <v>42578</v>
       </c>
@@ -16570,7 +16582,7 @@
         <v>2991.9989999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
         <v>42579</v>
       </c>
@@ -16581,7 +16593,7 @@
         <v>2994.3229999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
         <v>42580</v>
       </c>
@@ -16592,7 +16604,7 @@
         <v>2979.3389999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
         <v>42583</v>
       </c>
@@ -16603,7 +16615,7 @@
         <v>2953.3850000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="16">
         <v>42584</v>
       </c>
@@ -16614,7 +16626,7 @@
         <v>2971.279</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="16">
         <v>42585</v>
       </c>
@@ -16625,7 +16637,7 @@
         <v>2978.4609999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="16">
         <v>42586</v>
       </c>
@@ -16636,7 +16648,7 @@
         <v>2982.4259999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="16">
         <v>42587</v>
       </c>
@@ -16647,7 +16659,7 @@
         <v>2976.6959999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="16">
         <v>42590</v>
       </c>
@@ -16658,7 +16670,7 @@
         <v>3004.277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="16">
         <v>42591</v>
       </c>
@@ -16669,7 +16681,7 @@
         <v>3025.681</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="16">
         <v>42592</v>
       </c>
@@ -16680,7 +16692,7 @@
         <v>3018.7460000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="16">
         <v>42593</v>
       </c>
@@ -16691,7 +16703,7 @@
         <v>3002.6379999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="16">
         <v>42594</v>
       </c>
@@ -16702,7 +16714,7 @@
         <v>3050.6669999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
         <v>42597</v>
       </c>
@@ -16713,7 +16725,7 @@
         <v>3125.1950000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="16">
         <v>42598</v>
       </c>
@@ -16724,7 +16736,7 @@
         <v>3110.0369999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
         <v>42599</v>
       </c>
@@ -16735,7 +16747,7 @@
         <v>3109.5549999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
         <v>42600</v>
       </c>
@@ -16746,7 +16758,7 @@
         <v>3104.114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
         <v>42601</v>
       </c>
@@ -16757,7 +16769,7 @@
         <v>3108.1019999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
         <v>42604</v>
       </c>
@@ -16768,7 +16780,7 @@
         <v>3084.8049999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
         <v>42605</v>
       </c>
@@ -16779,7 +16791,7 @@
         <v>3089.7060000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
         <v>42606</v>
       </c>
@@ -16790,7 +16802,7 @@
         <v>3085.88</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
         <v>42607</v>
       </c>
@@ -16801,7 +16813,7 @@
         <v>3068.3290000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
         <v>42608</v>
       </c>
@@ -16812,7 +16824,7 @@
         <v>3070.3090000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
         <v>42611</v>
       </c>
@@ -16823,7 +16835,7 @@
         <v>3070.027</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
         <v>42612</v>
       </c>
@@ -16834,7 +16846,7 @@
         <v>3074.6770000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
         <v>42613</v>
       </c>
@@ -16845,7 +16857,7 @@
         <v>3085.491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="16">
         <v>42614</v>
       </c>
@@ -16856,7 +16868,7 @@
         <v>3063.3049999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="16">
         <v>42615</v>
       </c>
@@ -16867,7 +16879,7 @@
         <v>3067.3519999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="16">
         <v>42618</v>
       </c>
@@ -16878,7 +16890,7 @@
         <v>3072.0949999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="16">
         <v>42619</v>
       </c>
@@ -16889,7 +16901,7 @@
         <v>3090.7130000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="16">
         <v>42620</v>
       </c>
@@ -16900,7 +16912,7 @@
         <v>3091.9279999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
         <v>42621</v>
       </c>
@@ -16911,7 +16923,7 @@
         <v>3095.9540000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
         <v>42622</v>
       </c>
@@ -16922,7 +16934,7 @@
         <v>3078.855</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
         <v>42625</v>
       </c>
@@ -16933,7 +16945,7 @@
         <v>3021.9769999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
         <v>42626</v>
       </c>
@@ -16944,7 +16956,7 @@
         <v>3023.51</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
         <v>42627</v>
       </c>
@@ -16955,7 +16967,7 @@
         <v>3002.8490000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
         <v>42632</v>
       </c>
@@ -16966,7 +16978,7 @@
         <v>3026.0509999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
         <v>42633</v>
       </c>
@@ -16977,7 +16989,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
         <v>42634</v>
       </c>
@@ -16988,7 +17000,7 @@
         <v>3025.8739999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
         <v>42635</v>
       </c>
@@ -16999,7 +17011,7 @@
         <v>3042.3130000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
         <v>42636</v>
       </c>
@@ -17010,7 +17022,7 @@
         <v>3033.8960000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
         <v>42639</v>
       </c>
@@ -17021,7 +17033,7 @@
         <v>2980.43</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="16">
         <v>42640</v>
       </c>
@@ -17032,7 +17044,7 @@
         <v>2998.172</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="16">
         <v>42641</v>
       </c>
@@ -17043,7 +17055,7 @@
         <v>2987.8580000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="16">
         <v>42642</v>
       </c>
@@ -17054,7 +17066,7 @@
         <v>2998.4830000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
         <v>42643</v>
       </c>
@@ -17065,7 +17077,7 @@
         <v>3004.703</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
         <v>42653</v>
       </c>
@@ -17076,7 +17088,7 @@
         <v>3048.143</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
         <v>42654</v>
       </c>
@@ -17087,7 +17099,7 @@
         <v>3065.25</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
         <v>42655</v>
       </c>
@@ -17098,7 +17110,7 @@
         <v>3058.498</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
         <v>42656</v>
       </c>
@@ -17109,7 +17121,7 @@
         <v>3061.346</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
         <v>42657</v>
       </c>
@@ -17120,7 +17132,7 @@
         <v>3063.8090000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
         <v>42660</v>
       </c>
@@ -17131,7 +17143,7 @@
         <v>3041.1660000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
         <v>42661</v>
       </c>
@@ -17142,7 +17154,7 @@
         <v>3083.875</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
         <v>42662</v>
       </c>
@@ -17153,7 +17165,7 @@
         <v>3084.7190000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
         <v>42663</v>
       </c>
@@ -17164,7 +17176,7 @@
         <v>3084.4580000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
         <v>42664</v>
       </c>
@@ -17175,7 +17187,7 @@
         <v>3090.9409999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
         <v>42667</v>
       </c>
@@ -17186,7 +17198,7 @@
         <v>3128.2469999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
         <v>42668</v>
       </c>
@@ -17197,7 +17209,7 @@
         <v>3131.9389999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
         <v>42669</v>
       </c>
@@ -17208,7 +17220,7 @@
         <v>3116.3119999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="16">
         <v>42670</v>
       </c>
@@ -17219,7 +17231,7 @@
         <v>3112.35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="16">
         <v>42671</v>
       </c>
@@ -17230,7 +17242,7 @@
         <v>3104.27</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
         <v>42674</v>
       </c>
@@ -17241,7 +17253,7 @@
         <v>3100.4920000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
         <v>42675</v>
       </c>
@@ -17252,7 +17264,7 @@
         <v>3122.4360000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
         <v>42676</v>
       </c>
@@ -17263,7 +17275,7 @@
         <v>3102.7330000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
         <v>42677</v>
       </c>
@@ -17274,7 +17286,7 @@
         <v>3128.9360000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
         <v>42678</v>
       </c>
@@ -17285,7 +17297,7 @@
         <v>3125.317</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
         <v>42681</v>
       </c>
@@ -17296,7 +17308,7 @@
         <v>3133.3330000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
         <v>42682</v>
       </c>
@@ -17307,7 +17319,7 @@
         <v>3147.8879999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
         <v>42683</v>
       </c>
@@ -17318,7 +17330,7 @@
         <v>3128.37</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
         <v>42684</v>
       </c>
@@ -17329,7 +17341,7 @@
         <v>3171.2820000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
         <v>42685</v>
       </c>
@@ -17340,7 +17352,7 @@
         <v>3196.0439999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
         <v>42688</v>
       </c>
@@ -17351,7 +17363,7 @@
         <v>3210.3710000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
         <v>42689</v>
       </c>
@@ -17362,7 +17374,7 @@
         <v>3206.9859999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="16">
         <v>42690</v>
       </c>
@@ -17373,7 +17385,7 @@
         <v>3205.0569999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="16">
         <v>42691</v>
       </c>
@@ -17384,7 +17396,7 @@
         <v>3208.453</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="16">
         <v>42692</v>
       </c>
@@ -17395,7 +17407,7 @@
         <v>3192.8560000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="16">
         <v>42695</v>
       </c>
@@ -17406,7 +17418,7 @@
         <v>3218.1480000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="16">
         <v>42696</v>
       </c>
@@ -17417,7 +17429,7 @@
         <v>3248.3519999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="16">
         <v>42697</v>
       </c>
@@ -17428,7 +17440,7 @@
         <v>3241.1370000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="16">
         <v>42698</v>
       </c>
@@ -17439,7 +17451,7 @@
         <v>3241.7359999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="16">
         <v>42699</v>
       </c>
@@ -17450,7 +17462,7 @@
         <v>3261.9380000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="16">
         <v>42702</v>
       </c>
@@ -17461,7 +17473,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="16">
         <v>42703</v>
       </c>
@@ -17472,7 +17484,7 @@
         <v>3282.924</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="16">
         <v>42704</v>
       </c>
@@ -17483,7 +17495,7 @@
         <v>3250.0340000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="16">
         <v>42705</v>
       </c>
@@ -17494,7 +17506,7 @@
         <v>3273.3090000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="16">
         <v>42706</v>
       </c>
@@ -17505,7 +17517,7 @@
         <v>3243.8429999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="16">
         <v>42709</v>
       </c>
@@ -17516,7 +17528,7 @@
         <v>3204.7089999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="16">
         <v>42710</v>
       </c>
@@ -17527,7 +17539,7 @@
         <v>3199.6469999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="16">
         <v>42711</v>
       </c>
@@ -17538,7 +17550,7 @@
         <v>3222.2420000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="16">
         <v>42712</v>
       </c>
@@ -17549,7 +17561,7 @@
         <v>3215.366</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="16">
         <v>42713</v>
       </c>
@@ -17560,7 +17572,7 @@
         <v>3232.8829999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="16">
         <v>42716</v>
       </c>
@@ -17571,7 +17583,7 @@
         <v>3152.97</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="16">
         <v>42717</v>
       </c>
@@ -17582,7 +17594,7 @@
         <v>3155.0369999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="16">
         <v>42718</v>
       </c>
@@ -17593,7 +17605,7 @@
         <v>3140.5309999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="16">
         <v>42719</v>
       </c>
@@ -17604,7 +17616,7 @@
         <v>3117.6770000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="16">
         <v>42720</v>
       </c>
@@ -17615,7 +17627,7 @@
         <v>3122.982</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="16">
         <v>42723</v>
       </c>
@@ -17626,7 +17638,7 @@
         <v>3118.0846000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="16">
         <v>42724</v>
       </c>
@@ -17637,7 +17649,7 @@
         <v>3102.8759</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="16">
         <v>42725</v>
       </c>
@@ -17648,7 +17660,7 @@
         <v>3137.4297000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="16">
         <v>42726</v>
       </c>
@@ -17659,7 +17671,7 @@
         <v>3139.558</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="16">
         <v>42727</v>
       </c>
@@ -17670,7 +17682,7 @@
         <v>3110.1543999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="16">
         <v>42730</v>
       </c>
@@ -17681,7 +17693,7 @@
         <v>3122.569</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="16">
         <v>42731</v>
       </c>
@@ -17692,7 +17704,7 @@
         <v>3114.6640000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="16">
         <v>42732</v>
       </c>
@@ -17703,7 +17715,7 @@
         <v>3102.2357000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="16">
         <v>42733</v>
       </c>
@@ -17714,7 +17726,7 @@
         <v>3096.0967999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="16">
         <v>42734</v>
       </c>
@@ -17725,7 +17737,7 @@
         <v>3103.6372999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="16">
         <v>42738</v>
       </c>
@@ -17736,7 +17748,7 @@
         <v>3135.9207999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="16">
         <v>42739</v>
       </c>
@@ -17747,7 +17759,7 @@
         <v>3158.7939999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="16">
         <v>42740</v>
       </c>
@@ -17758,7 +17770,7 @@
         <v>3165.4108999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="16">
         <v>42741</v>
       </c>
@@ -17769,7 +17781,7 @@
         <v>3154.3209999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="16">
         <v>42744</v>
       </c>
@@ -17780,7 +17792,7 @@
         <v>3171.2361999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="16">
         <v>42745</v>
       </c>
@@ -17791,7 +17803,7 @@
         <v>3161.6713</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="16">
         <v>42746</v>
       </c>
@@ -17802,7 +17814,7 @@
         <v>3136.7534999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="16">
         <v>42747</v>
       </c>
@@ -17813,7 +17825,7 @@
         <v>3119.2885999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="16">
         <v>42748</v>
       </c>
@@ -17824,7 +17836,7 @@
         <v>3112.7644</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="16">
         <v>42751</v>
       </c>
@@ -17835,7 +17847,7 @@
         <v>3103.4279999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="16">
         <v>42752</v>
       </c>
@@ -17846,7 +17858,7 @@
         <v>3108.7746000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="16">
         <v>42753</v>
       </c>
@@ -17857,7 +17869,7 @@
         <v>3113.0122999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="16">
         <v>42754</v>
       </c>
@@ -17868,7 +17880,7 @@
         <v>3101.2991999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="16">
         <v>42755</v>
       </c>
@@ -17879,7 +17891,7 @@
         <v>3123.1388999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="16">
         <v>42758</v>
       </c>
@@ -17890,7 +17902,7 @@
         <v>3136.7748000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="16">
         <v>42759</v>
       </c>
@@ -17901,7 +17913,7 @@
         <v>3142.5533</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="16">
         <v>42760</v>
       </c>
@@ -17912,7 +17924,7 @@
         <v>3149.5547000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="16">
         <v>42761</v>
       </c>
@@ -17923,7 +17935,7 @@
         <v>3159.1660000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="16">
         <v>42769</v>
       </c>
@@ -17934,7 +17946,7 @@
         <v>3140.17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="16">
         <v>42772</v>
       </c>
@@ -17945,7 +17957,7 @@
         <v>3156.9838</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="16">
         <v>42773</v>
       </c>
@@ -17956,7 +17968,7 @@
         <v>3153.0877999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="16">
         <v>42774</v>
       </c>
@@ -17967,7 +17979,7 @@
         <v>3166.9818</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="16">
         <v>42775</v>
       </c>
@@ -17978,7 +17990,7 @@
         <v>3183.1794</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="16">
         <v>42776</v>
       </c>
@@ -17989,7 +18001,7 @@
         <v>3196.6990000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="16">
         <v>42779</v>
       </c>
@@ -18000,7 +18012,7 @@
         <v>3216.8393999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="16">
         <v>42780</v>
       </c>
@@ -18011,7 +18023,7 @@
         <v>3217.9279999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="16">
         <v>42781</v>
       </c>
@@ -18022,7 +18034,7 @@
         <v>3212.9857000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="16">
         <v>42782</v>
       </c>
@@ -18033,7 +18045,7 @@
         <v>3229.6183999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="16">
         <v>42783</v>
       </c>
@@ -18044,7 +18056,7 @@
         <v>3202.0756000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="16">
         <v>42786</v>
       </c>
@@ -18055,7 +18067,7 @@
         <v>3239.9612999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="16">
         <v>42787</v>
       </c>
@@ -18066,7 +18078,7 @@
         <v>3253.3256999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="16">
         <v>42788</v>
       </c>
@@ -18077,7 +18089,7 @@
         <v>3261.2184000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="16">
         <v>42789</v>
       </c>
@@ -18088,7 +18100,7 @@
         <v>3251.375</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="16">
         <v>42790</v>
       </c>
@@ -18099,7 +18111,7 @@
         <v>3253.4326999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="16">
         <v>42793</v>
       </c>
@@ -18110,7 +18122,7 @@
         <v>3228.6601999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="16">
         <v>42794</v>
       </c>
@@ -18121,7 +18133,7 @@
         <v>3241.7330999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="16">
         <v>42795</v>
       </c>
@@ -18132,7 +18144,7 @@
         <v>3246.9335000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="16">
         <v>42796</v>
       </c>
@@ -18143,7 +18155,7 @@
         <v>3230.0281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="16">
         <v>42797</v>
       </c>
@@ -18154,7 +18166,7 @@
         <v>3218.3117999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="16">
         <v>42800</v>
       </c>
@@ -18165,7 +18177,7 @@
         <v>3233.8656999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="16">
         <v>42801</v>
       </c>
@@ -18176,7 +18188,7 @@
         <v>3242.4063000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="16">
         <v>42802</v>
       </c>
@@ -18187,7 +18199,7 @@
         <v>3240.6646000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="16">
         <v>42803</v>
       </c>
@@ -18198,7 +18210,7 @@
         <v>3216.7456999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="16">
         <v>42804</v>
       </c>
@@ -18209,7 +18221,7 @@
         <v>3212.7601</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="16">
         <v>42807</v>
       </c>
@@ -18220,7 +18232,7 @@
         <v>3237.0243999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
         <v>42808</v>
       </c>
@@ -18231,7 +18243,7 @@
         <v>3239.3278</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="16">
         <v>42809</v>
       </c>
@@ -18242,7 +18254,7 @@
         <v>3241.7597000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="16">
         <v>42810</v>
       </c>
@@ -18253,7 +18265,7 @@
         <v>3268.9353999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="16">
         <v>42811</v>
       </c>
@@ -18264,7 +18276,7 @@
         <v>3237.4470999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="16">
         <v>42814</v>
       </c>
@@ -18275,7 +18287,7 @@
         <v>3250.8081999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="16">
         <v>42815</v>
       </c>
@@ -18286,7 +18298,7 @@
         <v>3261.6107999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="16">
         <v>42816</v>
       </c>
@@ -18297,7 +18309,7 @@
         <v>3245.2197999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="16">
         <v>42817</v>
       </c>
@@ -18308,7 +18320,7 @@
         <v>3248.5495000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="16">
         <v>42818</v>
       </c>
@@ -18319,7 +18331,7 @@
         <v>3269.4450999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="16">
         <v>42821</v>
       </c>
@@ -18330,7 +18342,7 @@
         <v>3266.9551999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="16">
         <v>42822</v>
       </c>
@@ -18341,7 +18353,7 @@
         <v>3252.9479000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="16">
         <v>42823</v>
       </c>
@@ -18352,7 +18364,7 @@
         <v>3241.3144000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="16">
         <v>42824</v>
       </c>
@@ -18363,7 +18375,7 @@
         <v>3210.2368999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="16">
         <v>42825</v>
       </c>
@@ -18374,7 +18386,7 @@
         <v>3222.5142000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="16">
         <v>42830</v>
       </c>
@@ -18385,7 +18397,7 @@
         <v>3270.3054000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="16">
         <v>42831</v>
       </c>
@@ -18396,7 +18408,7 @@
         <v>3281.0047</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="16">
         <v>42832</v>
       </c>
@@ -18407,7 +18419,7 @@
         <v>3286.616</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="16">
         <v>42835</v>
       </c>
@@ -18418,7 +18430,7 @@
         <v>3269.3926000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="16">
         <v>42836</v>
       </c>
@@ -18429,7 +18441,7 @@
         <v>3288.9657000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="16">
         <v>42837</v>
       </c>
@@ -18440,7 +18452,7 @@
         <v>3273.8301000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="16">
         <v>42838</v>
       </c>
@@ -18451,7 +18463,7 @@
         <v>3275.9603000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
         <v>42839</v>
       </c>
@@ -18462,7 +18474,7 @@
         <v>3246.0668000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="16">
         <v>42842</v>
       </c>
@@ -18473,7 +18485,7 @@
         <v>3222.1673000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="16">
         <v>42843</v>
       </c>
@@ -18484,7 +18496,7 @@
         <v>3196.7132999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="16">
         <v>42844</v>
       </c>
@@ -18495,7 +18507,7 @@
         <v>3170.6867000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="16">
         <v>42845</v>
       </c>
@@ -18506,7 +18518,7 @@
         <v>3172.1003000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="16">
         <v>42846</v>
       </c>
@@ -18517,7 +18529,7 @@
         <v>3173.1511999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="16">
         <v>42849</v>
       </c>
@@ -18528,7 +18540,7 @@
         <v>3129.5311999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="16">
         <v>42850</v>
       </c>
@@ -18539,7 +18551,7 @@
         <v>3134.5673999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="16">
         <v>42851</v>
       </c>
@@ -18550,7 +18562,7 @@
         <v>3140.8471</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="16">
         <v>42852</v>
       </c>
@@ -18561,7 +18573,7 @@
         <v>3152.1869000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="16">
         <v>42853</v>
       </c>
@@ -18572,7 +18584,7 @@
         <v>3154.6583999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="16">
         <v>42857</v>
       </c>
@@ -18583,7 +18595,7 @@
         <v>3143.7121000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="16">
         <v>42858</v>
       </c>
@@ -18594,7 +18606,7 @@
         <v>3135.346</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="16">
         <v>42859</v>
       </c>
@@ -18605,7 +18617,7 @@
         <v>3127.3687</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="16">
         <v>42860</v>
       </c>
@@ -18616,7 +18628,7 @@
         <v>3103.0378000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="16">
         <v>42863</v>
       </c>
@@ -18627,7 +18639,7 @@
         <v>3078.6129000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="16">
         <v>42864</v>
       </c>
@@ -18638,7 +18650,7 @@
         <v>3080.5268999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="16">
         <v>42865</v>
       </c>
@@ -18649,7 +18661,7 @@
         <v>3052.7849999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="16">
         <v>42866</v>
       </c>
@@ -18660,7 +18672,7 @@
         <v>3061.5003000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="16">
         <v>42867</v>
       </c>
@@ -18671,7 +18683,7 @@
         <v>3083.5131999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="16">
         <v>42870</v>
       </c>
@@ -18682,7 +18694,7 @@
         <v>3090.2289000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="16">
         <v>42871</v>
       </c>
@@ -18693,7 +18705,7 @@
         <v>3112.9641999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="16">
         <v>42872</v>
       </c>
@@ -18704,7 +18716,7 @@
         <v>3104.4414999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="16">
         <v>42873</v>
       </c>
@@ -18715,7 +18727,7 @@
         <v>3090.1390000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="16">
         <v>42874</v>
       </c>
@@ -18726,7 +18738,7 @@
         <v>3090.6309000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="16">
         <v>42877</v>
       </c>
@@ -18737,7 +18749,7 @@
         <v>3075.6756</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="16">
         <v>42878</v>
       </c>
@@ -18748,7 +18760,7 @@
         <v>3061.9470000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="16">
         <v>42879</v>
       </c>
@@ -18759,7 +18771,7 @@
         <v>3064.0758999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="16">
         <v>42880</v>
       </c>
@@ -18770,7 +18782,7 @@
         <v>3107.8310999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="16">
         <v>42881</v>
       </c>
@@ -18781,7 +18793,7 @@
         <v>3110.0587</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="16">
         <v>42886</v>
       </c>
@@ -18792,7 +18804,7 @@
         <v>3117.1777999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="16">
         <v>42887</v>
       </c>
@@ -18803,7 +18815,7 @@
         <v>3102.6232</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="16">
         <v>42888</v>
       </c>
@@ -18814,7 +18826,7 @@
         <v>3105.54</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="16">
         <v>42891</v>
       </c>
@@ -18825,7 +18837,7 @@
         <v>3091.6561000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="16">
         <v>42892</v>
       </c>
@@ -18836,7 +18848,7 @@
         <v>3102.1260000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="16">
         <v>42893</v>
       </c>
@@ -18847,7 +18859,7 @@
         <v>3140.3249000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="16">
         <v>42894</v>
       </c>
@@ -18858,7 +18870,7 @@
         <v>3150.3335999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="16">
         <v>42895</v>
       </c>
@@ -18869,7 +18881,7 @@
         <v>3158.4004</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="16">
         <v>42898</v>
       </c>
@@ -18880,7 +18892,7 @@
         <v>3139.8766000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="16">
         <v>42899</v>
       </c>
@@ -18891,7 +18903,7 @@
         <v>3153.7429000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="16">
         <v>42900</v>
       </c>
@@ -18902,7 +18914,7 @@
         <v>3130.674</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="16">
         <v>42901</v>
       </c>
@@ -18913,7 +18925,7 @@
         <v>3132.4863</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="16">
         <v>42902</v>
       </c>
@@ -18924,7 +18936,7 @@
         <v>3123.1662000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="16">
         <v>42905</v>
       </c>
@@ -18935,7 +18947,7 @@
         <v>3144.3739</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="16">
         <v>42906</v>
       </c>
@@ -18946,7 +18958,7 @@
         <v>3140.0136000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="16">
         <v>42907</v>
       </c>
@@ -18957,7 +18969,7 @@
         <v>3156.2118</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="16">
         <v>42908</v>
       </c>
@@ -18968,7 +18980,7 @@
         <v>3147.4531999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="16">
         <v>42909</v>
       </c>
@@ -18979,7 +18991,7 @@
         <v>3157.873</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="16">
         <v>42912</v>
       </c>
@@ -18990,7 +19002,7 @@
         <v>3185.4439000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="16">
         <v>42913</v>
       </c>
@@ -19001,7 +19013,7 @@
         <v>3191.1968999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="16">
         <v>42914</v>
       </c>
@@ -19012,7 +19024,7 @@
         <v>3173.2013999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="16">
         <v>42915</v>
       </c>
@@ -19023,7 +19035,7 @@
         <v>3188.0625</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="16">
         <v>42916</v>
       </c>
@@ -19034,7 +19046,7 @@
         <v>3192.4268999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="16">
         <v>42919</v>
       </c>
@@ -19045,7 +19057,7 @@
         <v>3195.9115999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="16">
         <v>42920</v>
       </c>
@@ -19056,7 +19068,7 @@
         <v>3182.8038999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="16">
         <v>42921</v>
       </c>
@@ -19067,7 +19079,7 @@
         <v>3207.1342</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="16">
         <v>42922</v>
       </c>
@@ -19078,7 +19090,7 @@
         <v>3212.444</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="16">
         <v>42923</v>
       </c>
@@ -19089,7 +19101,7 @@
         <v>3217.9567000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="16">
         <v>42926</v>
       </c>
@@ -19100,7 +19112,7 @@
         <v>3212.6318999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="16">
         <v>42927</v>
       </c>
@@ -19111,7 +19123,7 @@
         <v>3203.0374999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="16">
         <v>42928</v>
       </c>
@@ -19122,7 +19134,7 @@
         <v>3197.5439000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="16">
         <v>42929</v>
       </c>
@@ -19133,7 +19145,7 @@
         <v>3218.1632</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="16">
         <v>42930</v>
       </c>
@@ -19144,7 +19156,7 @@
         <v>3222.4168</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="16">
         <v>42933</v>
       </c>
@@ -19155,7 +19167,7 @@
         <v>3176.4648000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="16">
         <v>42934</v>
       </c>
@@ -19166,7 +19178,7 @@
         <v>3187.5672</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="16">
         <v>42935</v>
       </c>
@@ -19177,7 +19189,7 @@
         <v>3230.9762000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="16">
         <v>42936</v>
       </c>
@@ -19188,7 +19200,7 @@
         <v>3244.8647000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="16">
         <v>42937</v>
       </c>
@@ -19199,7 +19211,7 @@
         <v>3237.9816999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="16">
         <v>42940</v>
       </c>
@@ -19210,7 +19222,7 @@
         <v>3250.5989</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="16">
         <v>42941</v>
       </c>
@@ -19221,7 +19233,7 @@
         <v>3243.6894000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="16">
         <v>42942</v>
       </c>
@@ -19232,7 +19244,7 @@
         <v>3247.6747999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="16">
         <v>42943</v>
       </c>
@@ -19243,7 +19255,7 @@
         <v>3249.7813999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="16">
         <v>42944</v>
       </c>
@@ -19254,7 +19266,7 @@
         <v>3253.2404000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="16">
         <v>42947</v>
       </c>
@@ -19265,7 +19277,7 @@
         <v>3273.0282999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="16">
         <v>42948</v>
       </c>
@@ -19276,7 +19288,7 @@
         <v>3292.6383000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="16">
         <v>42949</v>
       </c>
@@ -19287,7 +19299,7 @@
         <v>3285.0567999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="16">
         <v>42950</v>
       </c>
@@ -19298,7 +19310,7 @@
         <v>3272.9286000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="16">
         <v>42951</v>
       </c>
@@ -19309,7 +19321,7 @@
         <v>3262.0808999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
         <v>42954</v>
       </c>
@@ -19320,7 +19332,7 @@
         <v>3279.4566</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
         <v>42955</v>
       </c>
@@ -19331,7 +19343,7 @@
         <v>3281.8728000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
         <v>42956</v>
       </c>
@@ -19342,7 +19354,7 @@
         <v>3275.5729999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
         <v>42957</v>
       </c>
@@ -19353,7 +19365,7 @@
         <v>3261.7494000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="16">
         <v>42958</v>
       </c>
@@ -19364,7 +19376,7 @@
         <v>3208.5412999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="16">
         <v>42961</v>
       </c>
@@ -19375,7 +19387,7 @@
         <v>3237.3602000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="16">
         <v>42962</v>
       </c>
@@ -19386,7 +19398,7 @@
         <v>3251.2617</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="16">
         <v>42963</v>
       </c>
@@ -19397,7 +19409,7 @@
         <v>3246.4512</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="16">
         <v>42964</v>
       </c>
@@ -19408,7 +19420,7 @@
         <v>3268.4297999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="16">
         <v>42965</v>
       </c>
@@ -19419,7 +19431,7 @@
         <v>3268.7242999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="16">
         <v>42968</v>
       </c>
@@ -19430,7 +19442,7 @@
         <v>3286.9054999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="16">
         <v>42969</v>
       </c>
@@ -19441,7 +19453,7 @@
         <v>3290.2257</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="16">
         <v>42970</v>
       </c>
@@ -19452,7 +19464,7 @@
         <v>3287.7049000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="16">
         <v>42971</v>
       </c>
@@ -19463,7 +19475,7 @@
         <v>3271.5117</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="16">
         <v>42972</v>
       </c>
@@ -19474,7 +19486,7 @@
         <v>3331.5221000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="16">
         <v>42975</v>
       </c>
@@ -19485,7 +19497,7 @@
         <v>3362.6514000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="16">
         <v>42976</v>
       </c>
@@ -19496,7 +19508,7 @@
         <v>3365.2260999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="16">
         <v>42977</v>
       </c>
@@ -19507,7 +19519,7 @@
         <v>3363.6266000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="16">
         <v>42978</v>
       </c>
@@ -19518,7 +19530,7 @@
         <v>3360.8103000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="16">
         <v>42979</v>
       </c>
@@ -19529,7 +19541,7 @@
         <v>3367.1194</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="16">
         <v>42982</v>
       </c>
@@ -19540,7 +19552,7 @@
         <v>3379.5830000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="16">
         <v>42983</v>
       </c>
@@ -19551,7 +19563,7 @@
         <v>3384.317</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="16">
         <v>42984</v>
       </c>
@@ -19562,7 +19574,7 @@
         <v>3385.3888000000002</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="16">
         <v>42985</v>
       </c>
@@ -19573,7 +19585,7 @@
         <v>3365.4974000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="16">
         <v>42986</v>
       </c>
@@ -19584,7 +19596,7 @@
         <v>3365.2426</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="16">
         <v>42989</v>
       </c>
@@ -19595,7 +19607,7 @@
         <v>3376.4187999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="16">
         <v>42990</v>
       </c>
@@ -19606,7 +19618,7 @@
         <v>3379.4879999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="16">
         <v>42991</v>
       </c>
@@ -19617,7 +19629,7 @@
         <v>3384.1469999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="16">
         <v>42992</v>
       </c>
@@ -19628,7 +19640,7 @@
         <v>3371.4256</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="16">
         <v>42993</v>
       </c>
@@ -19639,7 +19651,7 @@
         <v>3353.6192000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="16">
         <v>42996</v>
       </c>
@@ -19650,7 +19662,7 @@
         <v>3362.8587000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="16">
         <v>42997</v>
       </c>
@@ -19661,7 +19673,7 @@
         <v>3356.8445999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="16">
         <v>42998</v>
       </c>
@@ -19672,7 +19684,7 @@
         <v>3365.9958999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="16">
         <v>42999</v>
       </c>
@@ -19683,7 +19695,7 @@
         <v>3357.8123000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="16">
         <v>43000</v>
       </c>
@@ -19694,7 +19706,7 @@
         <v>3352.5293999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="16">
         <v>43003</v>
       </c>
@@ -19705,7 +19717,7 @@
         <v>3341.5486999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="16">
         <v>43004</v>
       </c>
@@ -19716,7 +19728,7 @@
         <v>3343.5826000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="16">
         <v>43005</v>
       </c>
@@ -19727,7 +19739,7 @@
         <v>3345.2716999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="16">
         <v>43006</v>
       </c>
@@ -19738,7 +19750,7 @@
         <v>3339.6421</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="16">
         <v>43007</v>
       </c>
@@ -19749,7 +19761,7 @@
         <v>3348.9431</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="16">
         <v>43017</v>
       </c>
@@ -19760,7 +19772,7 @@
         <v>3374.3780999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="16">
         <v>43018</v>
       </c>
@@ -19771,7 +19783,7 @@
         <v>3382.9879000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="16">
         <v>43019</v>
       </c>
@@ -19782,7 +19794,7 @@
         <v>3388.2838000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="16">
         <v>43020</v>
       </c>
@@ -19793,7 +19805,7 @@
         <v>3386.1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="16">
         <v>43021</v>
       </c>
@@ -19804,7 +19816,7 @@
         <v>3390.5232999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="16">
         <v>43024</v>
       </c>
@@ -19815,7 +19827,7 @@
         <v>3378.4704000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="16">
         <v>43025</v>
       </c>
@@ -19826,7 +19838,7 @@
         <v>3372.0407</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="16">
         <v>43026</v>
       </c>
@@ -19837,7 +19849,7 @@
         <v>3381.7937000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="16">
         <v>43027</v>
       </c>
@@ -19848,7 +19860,7 @@
         <v>3370.1720999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="16">
         <v>43028</v>
       </c>
@@ -19859,7 +19871,7 @@
         <v>3378.6480999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="16">
         <v>43031</v>
       </c>
@@ -19870,7 +19882,7 @@
         <v>3380.6990000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="16">
         <v>43032</v>
       </c>
@@ -19881,7 +19893,7 @@
         <v>3388.2476999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="16">
         <v>43033</v>
       </c>
@@ -19892,7 +19904,7 @@
         <v>3396.8975</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="16">
         <v>43034</v>
       </c>
@@ -19903,7 +19915,7 @@
         <v>3407.5671000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="16">
         <v>43035</v>
       </c>
@@ -19914,7 +19926,7 @@
         <v>3416.8123999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="16">
         <v>43038</v>
       </c>
@@ -19925,7 +19937,7 @@
         <v>3390.3371000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="16">
         <v>43039</v>
       </c>
@@ -19936,7 +19948,7 @@
         <v>3393.3416999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="16">
         <v>43040</v>
       </c>
@@ -19947,7 +19959,7 @@
         <v>3395.9124999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="16">
         <v>43041</v>
       </c>
@@ -19958,7 +19970,7 @@
         <v>3383.3094999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="16">
         <v>43042</v>
       </c>
@@ -19969,7 +19981,7 @@
         <v>3371.7440999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="16">
         <v>43045</v>
       </c>
@@ -19980,7 +19992,7 @@
         <v>3388.1741999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="16">
         <v>43046</v>
       </c>
@@ -19991,7 +20003,7 @@
         <v>3413.5747999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="16">
         <v>43047</v>
       </c>
@@ -20002,7 +20014,7 @@
         <v>3415.4602</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="16">
         <v>43048</v>
       </c>
@@ -20013,7 +20025,7 @@
         <v>3427.7946000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="16">
         <v>43049</v>
       </c>
@@ -20024,7 +20036,7 @@
         <v>3432.6731</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="16">
         <v>43052</v>
       </c>
@@ -20035,7 +20047,7 @@
         <v>3447.8357999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="16">
         <v>43053</v>
       </c>
@@ -20046,7 +20058,7 @@
         <v>3429.5482000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="16">
         <v>43054</v>
       </c>
@@ -20057,7 +20069,7 @@
         <v>3402.5245</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="16">
         <v>43055</v>
       </c>
@@ -20068,7 +20080,7 @@
         <v>3399.2503000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="16">
         <v>43056</v>
       </c>
@@ -20079,7 +20091,7 @@
         <v>3382.9074999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="16">
         <v>43059</v>
       </c>
@@ -20090,7 +20102,7 @@
         <v>3392.3987999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="16">
         <v>43060</v>
       </c>
@@ -20101,7 +20113,7 @@
         <v>3410.4976999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="16">
         <v>43061</v>
       </c>
@@ -20112,7 +20124,7 @@
         <v>3430.4643000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="16">
         <v>43062</v>
       </c>
@@ -20123,7 +20135,7 @@
         <v>3351.9182000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="16">
         <v>43063</v>
       </c>
@@ -20134,7 +20146,7 @@
         <v>3353.8207000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="16">
         <v>43066</v>
       </c>
@@ -20145,7 +20157,7 @@
         <v>3322.2298000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="16">
         <v>43067</v>
       </c>
@@ -20156,7 +20168,7 @@
         <v>3333.6570000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="16">
         <v>43068</v>
       </c>
@@ -20167,7 +20179,7 @@
         <v>3337.8620000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="16">
         <v>43069</v>
       </c>
@@ -20178,7 +20190,7 @@
         <v>3317.1884</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="16">
         <v>43070</v>
       </c>
@@ -20189,7 +20201,7 @@
         <v>3317.6174000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="16">
         <v>43073</v>
       </c>
@@ -20200,7 +20212,7 @@
         <v>3309.6183000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="16">
         <v>43074</v>
       </c>
@@ -20211,7 +20223,7 @@
         <v>3303.6750999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="16">
         <v>43075</v>
       </c>
@@ -20222,7 +20234,7 @@
         <v>3293.9648000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="16">
         <v>43076</v>
       </c>
@@ -20233,7 +20245,7 @@
         <v>3272.0542</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="16">
         <v>43077</v>
       </c>
@@ -20244,7 +20256,7 @@
         <v>3289.9924000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="16">
         <v>43080</v>
       </c>
@@ -20255,7 +20267,7 @@
         <v>3322.1956</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="16">
         <v>43081</v>
       </c>
@@ -20266,7 +20278,7 @@
         <v>3280.8136</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="16">
         <v>43082</v>
       </c>
@@ -20277,7 +20289,7 @@
         <v>3303.0373</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="16">
         <v>43083</v>
       </c>
@@ -20288,7 +20300,7 @@
         <v>3292.4385000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="16">
         <v>43084</v>
       </c>
@@ -20299,7 +20311,7 @@
         <v>3266.1370999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="16">
         <v>43087</v>
       </c>
@@ -20310,7 +20322,7 @@
         <v>3267.9223999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="16">
         <v>43088</v>
       </c>
@@ -20321,7 +20333,7 @@
         <v>3296.5383999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="16">
         <v>43089</v>
       </c>
@@ -20332,7 +20344,7 @@
         <v>3287.6057000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="16">
         <v>43090</v>
       </c>
@@ -20343,7 +20355,7 @@
         <v>3300.0592999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="16">
         <v>43091</v>
       </c>
@@ -20354,7 +20366,7 @@
         <v>3297.0630000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="16">
         <v>43094</v>
       </c>
@@ -20365,7 +20377,7 @@
         <v>3280.4609999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="16">
         <v>43095</v>
       </c>
@@ -20376,7 +20388,7 @@
         <v>3306.1246000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="16">
         <v>43096</v>
       </c>
@@ -20387,7 +20399,7 @@
         <v>3275.7828</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="16">
         <v>43097</v>
       </c>
@@ -20398,7 +20410,7 @@
         <v>3296.3847000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="16">
         <v>43098</v>
       </c>
@@ -20409,7 +20421,7 @@
         <v>3307.1720999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="16">
         <v>43102</v>
       </c>
@@ -20420,7 +20432,7 @@
         <v>3348.3258999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="16">
         <v>43103</v>
       </c>
@@ -20431,7 +20443,7 @@
         <v>3369.1084000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="16">
         <v>43104</v>
       </c>
@@ -20442,7 +20454,7 @@
         <v>3385.7102</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="16">
         <v>43105</v>
       </c>
@@ -20453,7 +20465,7 @@
         <v>3391.7501000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="16">
         <v>43108</v>
       </c>
@@ -20464,7 +20476,7 @@
         <v>3409.4794999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="16">
         <v>43109</v>
       </c>
@@ -20475,7 +20487,7 @@
         <v>3413.8996000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="16">
         <v>43110</v>
       </c>
@@ -20486,7 +20498,7 @@
         <v>3421.8343</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="16">
         <v>43111</v>
       </c>
@@ -20497,7 +20509,7 @@
         <v>3425.3449000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="16">
         <v>43112</v>
       </c>
@@ -20508,7 +20520,7 @@
         <v>3428.9407000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="16">
         <v>43115</v>
       </c>
@@ -20519,7 +20531,7 @@
         <v>3410.4881999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="16">
         <v>43116</v>
       </c>
@@ -20530,7 +20542,7 @@
         <v>3436.5940000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="16">
         <v>43117</v>
       </c>
@@ -20541,7 +20553,7 @@
         <v>3444.6713</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="16">
         <v>43118</v>
       </c>
@@ -20552,7 +20564,7 @@
         <v>3474.7539999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="16">
         <v>43119</v>
       </c>
@@ -20563,7 +20575,7 @@
         <v>3487.864</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="16">
         <v>43122</v>
       </c>
@@ -20574,7 +20586,7 @@
         <v>3501.3622</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="16">
         <v>43123</v>
       </c>
@@ -20585,7 +20597,7 @@
         <v>3546.5048000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="16">
         <v>43124</v>
       </c>
@@ -20596,7 +20608,7 @@
         <v>3559.4652999999998</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="16">
         <v>43125</v>
       </c>
@@ -20607,7 +20619,7 @@
         <v>3548.3069999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="16">
         <v>43126</v>
       </c>
@@ -20618,7 +20630,7 @@
         <v>3558.1288</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="16">
         <v>43129</v>
       </c>
@@ -20629,7 +20641,7 @@
         <v>3523.0007000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="16">
         <v>43130</v>
       </c>
@@ -20640,7 +20652,7 @@
         <v>3488.009</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="16">
         <v>43131</v>
       </c>
@@ -20651,7 +20663,7 @@
         <v>3480.8334</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="16">
         <v>43132</v>
       </c>
@@ -20662,7 +20674,7 @@
         <v>3446.9798999999998</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="16">
         <v>43133</v>
       </c>
@@ -20673,7 +20685,7 @@
         <v>3462.0808000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="16">
         <v>43136</v>
       </c>
@@ -20684,7 +20696,7 @@
         <v>3487.4969999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="16">
         <v>43137</v>
       </c>
@@ -20695,7 +20707,7 @@
         <v>3370.652</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="16">
         <v>43138</v>
       </c>
@@ -20706,7 +20718,7 @@
         <v>3309.2597999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="16">
         <v>43139</v>
       </c>
@@ -20717,7 +20729,7 @@
         <v>3262.0504000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="16">
         <v>43140</v>
       </c>
@@ -20728,7 +20740,7 @@
         <v>3129.8508000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="16">
         <v>43143</v>
       </c>
@@ -20739,7 +20751,7 @@
         <v>3154.1253999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="16">
         <v>43144</v>
       </c>
@@ -20750,7 +20762,7 @@
         <v>3184.9587000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="16">
         <v>43145</v>
       </c>
@@ -20761,7 +20773,7 @@
         <v>3199.1588999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="16">
         <v>43153</v>
       </c>
@@ -20772,7 +20784,7 @@
         <v>3268.56</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="16">
         <v>43154</v>
       </c>
@@ -20783,7 +20795,7 @@
         <v>3289.02</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="16">
         <v>43157</v>
       </c>
@@ -20794,7 +20806,7 @@
         <v>3329.57</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="16">
         <v>43158</v>
       </c>
@@ -20805,7 +20817,7 @@
         <v>3292.07</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="16">
         <v>43159</v>
       </c>
@@ -20816,7 +20828,7 @@
         <v>3259.41</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="16">
         <v>43160</v>
       </c>
@@ -20827,7 +20839,7 @@
         <v>3273.76</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="16">
         <v>43161</v>
       </c>
@@ -20838,7 +20850,7 @@
         <v>3254.53</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="16">
         <v>43164</v>
       </c>
@@ -20849,7 +20861,7 @@
         <v>3256.93</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="16">
         <v>43165</v>
       </c>
@@ -20860,7 +20872,7 @@
         <v>3289.64</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="16">
         <v>43166</v>
       </c>
@@ -20871,7 +20883,7 @@
         <v>3271.67</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="16">
         <v>43167</v>
       </c>
@@ -20882,7 +20894,7 @@
         <v>3288.41</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="16">
         <v>43168</v>
       </c>
@@ -20893,7 +20905,7 @@
         <v>3307.17</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="16">
         <v>43171</v>
       </c>
@@ -20904,7 +20916,7 @@
         <v>3326.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="16">
         <v>43172</v>
       </c>
@@ -20915,7 +20927,7 @@
         <v>3310.24</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="16">
         <v>43173</v>
       </c>
@@ -20926,7 +20938,7 @@
         <v>3291.38</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="16">
         <v>43174</v>
       </c>
@@ -20937,7 +20949,7 @@
         <v>3291.11</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="16">
         <v>43175</v>
       </c>
@@ -20948,7 +20960,7 @@
         <v>3269.88</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="16">
         <v>43178</v>
       </c>
@@ -20959,7 +20971,7 @@
         <v>3279.25</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="16">
         <v>43179</v>
       </c>
@@ -20970,7 +20982,7 @@
         <v>3290.64</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="16">
         <v>43180</v>
       </c>
@@ -20981,7 +20993,7 @@
         <v>3280.95</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="16">
         <v>43181</v>
       </c>
@@ -20992,7 +21004,7 @@
         <v>3263.48</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="16">
         <v>43182</v>
       </c>
@@ -21003,7 +21015,7 @@
         <v>3152.76</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="16">
         <v>43185</v>
       </c>
@@ -21014,7 +21026,7 @@
         <v>3133.72</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="16">
         <v>43186</v>
       </c>
@@ -21025,7 +21037,7 @@
         <v>3166.65</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="16">
         <v>43187</v>
       </c>
@@ -21036,7 +21048,7 @@
         <v>3122.29</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="16">
         <v>43188</v>
       </c>
@@ -21047,7 +21059,7 @@
         <v>3160.53</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="16">
         <v>43189</v>
       </c>
@@ -21058,7 +21070,7 @@
         <v>3168.9</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="16">
         <v>43192</v>
       </c>
@@ -21069,7 +21081,7 @@
         <v>3163.18</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="16">
         <v>43193</v>
       </c>
@@ -21080,7 +21092,7 @@
         <v>3136.63</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="16">
         <v>43194</v>
       </c>
@@ -21091,7 +21103,7 @@
         <v>3131.11</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="16">
         <v>43199</v>
       </c>
@@ -21102,7 +21114,7 @@
         <v>3138.29</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="16">
         <v>43200</v>
       </c>
@@ -21113,7 +21125,7 @@
         <v>3190.32</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="16">
         <v>43201</v>
       </c>
@@ -21124,7 +21136,7 @@
         <v>3208.08</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="16">
         <v>43202</v>
       </c>
@@ -21135,7 +21147,7 @@
         <v>3180.16</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="16">
         <v>43203</v>
       </c>
@@ -21146,7 +21158,7 @@
         <v>3159.05</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="16">
         <v>43206</v>
       </c>
@@ -21157,7 +21169,7 @@
         <v>3110.65</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="16">
         <v>43207</v>
       </c>
@@ -21168,7 +21180,7 @@
         <v>3066.8</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="16">
         <v>43208</v>
       </c>
@@ -21179,7 +21191,7 @@
         <v>3091.4</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="16">
         <v>43209</v>
       </c>
@@ -21190,7 +21202,7 @@
         <v>3117.48</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="16">
         <v>43210</v>
       </c>
@@ -21201,7 +21213,7 @@
         <v>3071.54</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="16">
         <v>43213</v>
       </c>
@@ -21212,7 +21224,7 @@
         <v>3068.01</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="16">
         <v>43214</v>
       </c>
@@ -21223,7 +21235,7 @@
         <v>3128.93</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="16">
         <v>43215</v>
       </c>
@@ -21234,7 +21246,7 @@
         <v>3117.97</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="16">
         <v>43216</v>
       </c>
@@ -21245,7 +21257,7 @@
         <v>3075.03</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="16">
         <v>43217</v>
       </c>
@@ -21256,7 +21268,7 @@
         <v>3082.23</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="16">
         <v>43222</v>
       </c>
@@ -21267,7 +21279,7 @@
         <v>3081.18</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="16">
         <v>43223</v>
       </c>
@@ -21278,7 +21290,7 @@
         <v>3100.86</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="16">
         <v>43224</v>
       </c>
@@ -21289,7 +21301,7 @@
         <v>3091.03</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="16">
         <v>43227</v>
       </c>
@@ -21300,7 +21312,7 @@
         <v>3136.64</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="16">
         <v>43228</v>
       </c>
@@ -21311,7 +21323,7 @@
         <v>3160.5</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="16">
         <v>43229</v>
       </c>
@@ -21322,7 +21334,7 @@
         <v>3159.15</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="16">
         <v>43230</v>
       </c>
@@ -21333,7 +21345,7 @@
         <v>3169.05</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="16">
         <v>43231</v>
       </c>
@@ -21344,7 +21356,7 @@
         <v>3163.26</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="16">
         <v>43234</v>
       </c>
@@ -21355,7 +21367,7 @@
         <v>3174.03</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="16">
         <v>43235</v>
       </c>
@@ -21366,7 +21378,7 @@
         <v>3192.12</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="16">
         <v>43236</v>
       </c>
@@ -21377,7 +21389,7 @@
         <v>3169.57</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="16">
         <v>43237</v>
       </c>
@@ -21388,7 +21400,7 @@
         <v>3154.28</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="16">
         <v>43238</v>
       </c>
@@ -21399,7 +21411,7 @@
         <v>3193.3</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="16">
         <v>43241</v>
       </c>
@@ -21410,7 +21422,7 @@
         <v>3213.84</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="16">
         <v>43242</v>
       </c>
@@ -21421,7 +21433,7 @@
         <v>3214.35</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="16">
         <v>43243</v>
       </c>
@@ -21432,7 +21444,7 @@
         <v>3168.96</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="16">
         <v>43244</v>
       </c>
@@ -21443,7 +21455,7 @@
         <v>3154.65</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="16">
         <v>43245</v>
       </c>
@@ -21454,7 +21466,7 @@
         <v>3141.3</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="16">
         <v>43248</v>
       </c>
@@ -21465,7 +21477,7 @@
         <v>3135.08</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="16">
         <v>43249</v>
       </c>
@@ -21476,7 +21488,7 @@
         <v>3120.46</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="16">
         <v>43250</v>
       </c>
@@ -21487,7 +21499,7 @@
         <v>3041.44</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="16">
         <v>43251</v>
       </c>
@@ -21498,7 +21510,7 @@
         <v>3095.47</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="16">
         <v>43252</v>
       </c>
@@ -21509,7 +21521,7 @@
         <v>3075.14</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="16">
         <v>43255</v>
       </c>
@@ -21520,7 +21532,7 @@
         <v>3091.19</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="16">
         <v>43256</v>
       </c>
@@ -21531,7 +21543,7 @@
         <v>3114.21</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="16">
         <v>43257</v>
       </c>
@@ -21542,7 +21554,7 @@
         <v>3115.18</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="16">
         <v>43258</v>
       </c>
@@ -21553,7 +21565,7 @@
         <v>3109.5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="16">
         <v>43259</v>
       </c>
@@ -21564,7 +21576,7 @@
         <v>3067.15</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="16">
         <v>43262</v>
       </c>
@@ -21575,7 +21587,7 @@
         <v>3052.78</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="16">
         <v>43263</v>
       </c>
@@ -21586,7 +21598,7 @@
         <v>3079.8</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="16">
         <v>43264</v>
       </c>
@@ -21597,7 +21609,7 @@
         <v>3049.8</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="16">
         <v>43265</v>
       </c>
@@ -21608,7 +21620,7 @@
         <v>3044.16</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="16">
         <v>43266</v>
       </c>
@@ -21619,7 +21631,7 @@
         <v>3021.9</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="16">
         <v>43270</v>
       </c>
@@ -21630,7 +21642,7 @@
         <v>2907.82</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="16">
         <v>43271</v>
       </c>
@@ -21641,7 +21653,7 @@
         <v>2915.73</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="16">
         <v>43272</v>
       </c>
@@ -21652,7 +21664,7 @@
         <v>2875.81</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="16">
         <v>43273</v>
       </c>
@@ -21663,7 +21675,7 @@
         <v>2889.76</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="16">
         <v>43276</v>
       </c>
@@ -21674,7 +21686,7 @@
         <v>2859.34</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="16">
         <v>43277</v>
       </c>
@@ -21685,7 +21697,7 @@
         <v>2844.51</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="16">
         <v>43278</v>
       </c>
@@ -21696,7 +21708,7 @@
         <v>2813.18</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="16">
         <v>43279</v>
       </c>
@@ -21707,7 +21719,7 @@
         <v>2786.9</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="16">
         <v>43280</v>
       </c>
@@ -21718,7 +21730,7 @@
         <v>2847.42</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="16">
         <v>43283</v>
       </c>
@@ -21729,7 +21741,7 @@
         <v>2775.56</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="16">
         <v>43284</v>
       </c>
@@ -21740,7 +21752,7 @@
         <v>2786.89</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="16">
         <v>43285</v>
       </c>
@@ -21751,7 +21763,7 @@
         <v>2759.13</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="16">
         <v>43286</v>
       </c>
@@ -21762,7 +21774,7 @@
         <v>2733.88</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="16">
         <v>43287</v>
       </c>
@@ -21773,7 +21785,7 @@
         <v>2747.23</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="16">
         <v>43290</v>
       </c>
@@ -21784,7 +21796,7 @@
         <v>2815.11</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="16">
         <v>43291</v>
       </c>
@@ -21795,7 +21807,7 @@
         <v>2827.63</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="16">
         <v>43292</v>
       </c>
@@ -21806,7 +21818,7 @@
         <v>2777.77</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="16">
         <v>43293</v>
       </c>
@@ -21817,7 +21829,7 @@
         <v>2837.66</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="16">
         <v>43294</v>
       </c>
@@ -21828,7 +21840,7 @@
         <v>2831.18</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="16">
         <v>43297</v>
       </c>
@@ -21839,7 +21851,7 @@
         <v>2814.04</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="16">
         <v>43298</v>
       </c>
@@ -21850,7 +21862,7 @@
         <v>2798.13</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="16">
         <v>43299</v>
       </c>
@@ -21861,7 +21873,7 @@
         <v>2787.26</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="16">
         <v>43300</v>
       </c>
@@ -21872,7 +21884,7 @@
         <v>2772.55</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="16">
         <v>43301</v>
       </c>
@@ -21883,7 +21895,7 @@
         <v>2829.27</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="16">
         <v>43304</v>
       </c>
@@ -21894,7 +21906,7 @@
         <v>2859.54</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="16">
         <v>43305</v>
       </c>
@@ -21905,7 +21917,7 @@
         <v>2905.56</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="16">
         <v>43306</v>
       </c>
@@ -21916,7 +21928,7 @@
         <v>2903.65</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="16">
         <v>43307</v>
       </c>
@@ -21927,7 +21939,7 @@
         <v>2882.23</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="16">
         <v>43308</v>
       </c>
@@ -21938,7 +21950,7 @@
         <v>2873.59</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="16">
         <v>43311</v>
       </c>
@@ -21949,7 +21961,7 @@
         <v>2869.05</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="16">
         <v>43312</v>
       </c>
@@ -21960,7 +21972,7 @@
         <v>2876.4</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="16">
         <v>43313</v>
       </c>
@@ -21971,7 +21983,7 @@
         <v>2824.53</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="16">
         <v>43314</v>
       </c>
@@ -21982,7 +21994,7 @@
         <v>2768.02</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="16">
         <v>43315</v>
       </c>
@@ -21993,7 +22005,7 @@
         <v>2740.44</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="16">
         <v>43318</v>
       </c>
@@ -22004,7 +22016,7 @@
         <v>2705.16</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="16">
         <v>43319</v>
       </c>
@@ -22015,7 +22027,7 @@
         <v>2779.37</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="16">
         <v>43320</v>
       </c>
@@ -22026,7 +22038,7 @@
         <v>2744.07</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="16">
         <v>43321</v>
       </c>
@@ -22037,7 +22049,7 @@
         <v>2794.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="16">
         <v>43322</v>
       </c>
@@ -22048,7 +22060,7 @@
         <v>2795.31</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="16">
         <v>43325</v>
       </c>
@@ -22059,7 +22071,7 @@
         <v>2785.87</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="16">
         <v>43326</v>
       </c>
@@ -22070,7 +22082,7 @@
         <v>2780.96</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="16">
         <v>43327</v>
       </c>
@@ -22081,7 +22093,7 @@
         <v>2723.26</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="16">
         <v>43328</v>
       </c>
@@ -22092,7 +22104,7 @@
         <v>2705.19</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="16">
         <v>43329</v>
       </c>
@@ -22103,7 +22115,7 @@
         <v>2668.97</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="16">
         <v>43332</v>
       </c>
@@ -22114,7 +22126,7 @@
         <v>2698.47</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="16">
         <v>43333</v>
       </c>
@@ -22125,7 +22137,7 @@
         <v>2733.83</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="16">
         <v>43334</v>
       </c>
@@ -22136,7 +22148,7 @@
         <v>2714.61</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="16">
         <v>43335</v>
       </c>
@@ -22147,7 +22159,7 @@
         <v>2724.62</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="16">
         <v>43336</v>
       </c>
@@ -22158,7 +22170,7 @@
         <v>2729.43</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="16">
         <v>43339</v>
       </c>
@@ -22169,7 +22181,7 @@
         <v>2780.9</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="16">
         <v>43340</v>
       </c>
@@ -22180,7 +22192,7 @@
         <v>2777.98</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="16">
         <v>43341</v>
       </c>
@@ -22191,7 +22203,7 @@
         <v>2769.29</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="16">
         <v>43342</v>
       </c>
@@ -22202,7 +22214,7 @@
         <v>2737.74</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="16">
         <v>43343</v>
       </c>
@@ -22213,7 +22225,7 @@
         <v>2725.25</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="16">
         <v>43346</v>
       </c>
@@ -22224,7 +22236,7 @@
         <v>2720.73</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="16">
         <v>43347</v>
       </c>
@@ -22235,7 +22247,7 @@
         <v>2750.58</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="16">
         <v>43348</v>
       </c>
@@ -22246,7 +22258,7 @@
         <v>2704.34</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="16">
         <v>43349</v>
       </c>
@@ -22257,7 +22269,7 @@
         <v>2691.59</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="16">
         <v>43350</v>
       </c>
@@ -22268,7 +22280,7 @@
         <v>2702.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="16">
         <v>43353</v>
       </c>
@@ -22279,7 +22291,7 @@
         <v>2669.48</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="16">
         <v>43354</v>
       </c>
@@ -22290,7 +22302,7 @@
         <v>2664.8</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="16">
         <v>43355</v>
       </c>
@@ -22301,7 +22313,7 @@
         <v>2656.11</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="16">
         <v>43356</v>
       </c>
@@ -22312,7 +22324,7 @@
         <v>2686.58</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="16">
         <v>43357</v>
       </c>
@@ -22323,7 +22335,7 @@
         <v>2681.64</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="16">
         <v>43360</v>
       </c>
@@ -22334,7 +22346,7 @@
         <v>2651.79</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="16">
         <v>43361</v>
       </c>
@@ -22345,7 +22357,7 @@
         <v>2669.95</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="16">
         <v>43362</v>
       </c>
@@ -22356,7 +22368,7 @@
         <v>2730.85</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="16">
         <v>43363</v>
       </c>
@@ -22367,7 +22379,7 @@
         <v>2729.24</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="16">
         <v>43364</v>
       </c>
@@ -22378,7 +22390,7 @@
         <v>2797.48</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="16">
         <v>43368</v>
       </c>
@@ -22389,7 +22401,7 @@
         <v>2781.14</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="16">
         <v>43369</v>
       </c>
@@ -22400,7 +22412,7 @@
         <v>2806.81</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="16">
         <v>43370</v>
       </c>
@@ -22411,7 +22423,7 @@
         <v>2791.77</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="16">
         <v>43371</v>
       </c>
@@ -22422,7 +22434,7 @@
         <v>2821.35</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="16">
         <v>43381</v>
       </c>
@@ -22433,7 +22445,7 @@
         <v>2716.51</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="16">
         <v>43382</v>
       </c>
@@ -22444,7 +22456,7 @@
         <v>2721.01</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="16">
         <v>43383</v>
       </c>
@@ -22455,7 +22467,7 @@
         <v>2725.84</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="16">
         <v>43384</v>
       </c>
@@ -22466,7 +22478,7 @@
         <v>2583.46</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="16">
         <v>43385</v>
       </c>
@@ -22477,7 +22489,7 @@
         <v>2606.91</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="16">
         <v>43388</v>
       </c>
@@ -22488,7 +22500,7 @@
         <v>2568.1</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="16">
         <v>43389</v>
       </c>
@@ -22499,7 +22511,7 @@
         <v>2546.33</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="16">
         <v>43390</v>
       </c>
@@ -22510,7 +22522,7 @@
         <v>2561.61</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="16">
         <v>43391</v>
       </c>
@@ -22521,7 +22533,7 @@
         <v>2486.42</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="16">
         <v>43392</v>
       </c>
@@ -22532,7 +22544,7 @@
         <v>2550.4699999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="16">
         <v>43395</v>
       </c>
@@ -22543,7 +22555,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="16">
         <v>43396</v>
       </c>
@@ -22554,7 +22566,7 @@
         <v>2594.83</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="16">
         <v>43397</v>
       </c>
@@ -22565,7 +22577,7 @@
         <v>2603.3000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="16">
         <v>43398</v>
       </c>
@@ -22576,7 +22588,7 @@
         <v>2603.8000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="16">
         <v>43399</v>
       </c>
@@ -22587,7 +22599,7 @@
         <v>2598.85</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="16">
         <v>43402</v>
       </c>
@@ -22598,7 +22610,7 @@
         <v>2542.1</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="16">
         <v>43403</v>
       </c>
@@ -22609,7 +22621,7 @@
         <v>2568.0500000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="16">
         <v>43404</v>
       </c>
@@ -22620,7 +22632,7 @@
         <v>2602.7800000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="16">
         <v>43405</v>
       </c>
@@ -22631,7 +22643,7 @@
         <v>2606.2399999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="16">
         <v>43406</v>
       </c>
@@ -22642,7 +22654,7 @@
         <v>2676.48</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="16">
         <v>43409</v>
       </c>
@@ -22653,7 +22665,7 @@
         <v>2665.43</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="16">
         <v>43410</v>
       </c>
@@ -22664,7 +22676,7 @@
         <v>2659.36</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="16">
         <v>43411</v>
       </c>
@@ -22675,7 +22687,7 @@
         <v>2641.34</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="16">
         <v>43412</v>
       </c>
@@ -22686,7 +22698,7 @@
         <v>2635.63</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="16">
         <v>43413</v>
       </c>
@@ -22697,7 +22709,7 @@
         <v>2598.87</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="16">
         <v>43416</v>
       </c>
@@ -22708,7 +22720,7 @@
         <v>2630.52</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="16">
         <v>43417</v>
       </c>
@@ -22719,7 +22731,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="16">
         <v>43418</v>
       </c>
@@ -22730,7 +22742,7 @@
         <v>2632.24</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="16">
         <v>43419</v>
       </c>
@@ -22741,7 +22753,7 @@
         <v>2668.17</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="16">
         <v>43420</v>
       </c>
@@ -22752,7 +22764,7 @@
         <v>2679.11</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="16">
         <v>43423</v>
       </c>
@@ -22763,7 +22775,7 @@
         <v>2703.51</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="16">
         <v>43424</v>
       </c>
@@ -22774,7 +22786,7 @@
         <v>2645.85</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="16">
         <v>43425</v>
       </c>
@@ -22785,7 +22797,7 @@
         <v>2651.51</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="16">
         <v>43426</v>
       </c>
@@ -22796,7 +22808,7 @@
         <v>2645.43</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="16">
         <v>43427</v>
       </c>
@@ -22807,7 +22819,7 @@
         <v>2579.48</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="16">
         <v>43430</v>
       </c>
@@ -22818,7 +22830,7 @@
         <v>2575.81</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="16">
         <v>43431</v>
       </c>
@@ -22829,7 +22841,7 @@
         <v>2574.6799999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="16">
         <v>43432</v>
       </c>
@@ -22840,7 +22852,7 @@
         <v>2601.7399999999998</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="16">
         <v>43433</v>
       </c>
@@ -22851,7 +22863,7 @@
         <v>2567.44</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="16">
         <v>43434</v>
       </c>
@@ -22862,7 +22874,7 @@
         <v>2588.19</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="16">
         <v>43437</v>
       </c>
@@ -22873,7 +22885,7 @@
         <v>2654.8</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="16">
         <v>43438</v>
       </c>
@@ -22884,7 +22896,7 @@
         <v>2665.96</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="16">
         <v>43439</v>
       </c>
@@ -22895,7 +22907,7 @@
         <v>2649.81</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="16">
         <v>43440</v>
       </c>
@@ -22906,7 +22918,7 @@
         <v>2605.1799999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="16">
         <v>43441</v>
       </c>
@@ -22917,7 +22929,7 @@
         <v>2605.89</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="16">
         <v>43444</v>
       </c>
@@ -22928,7 +22940,7 @@
         <v>2584.58</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="16">
         <v>43445</v>
       </c>
@@ -22939,7 +22951,7 @@
         <v>2594.09</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="16">
         <v>43446</v>
       </c>
@@ -22950,7 +22962,7 @@
         <v>2602.15</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="16">
         <v>43447</v>
       </c>
@@ -22961,7 +22973,7 @@
         <v>2634.05</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="16">
         <v>43448</v>
       </c>
@@ -22972,7 +22984,7 @@
         <v>2593.7399999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="16">
         <v>43451</v>
       </c>
@@ -22983,7 +22995,7 @@
         <v>2597.9699999999998</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="16">
         <v>43452</v>
       </c>
@@ -22994,7 +23006,7 @@
         <v>2576.65</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="16">
         <v>43453</v>
       </c>
@@ -23005,7 +23017,7 @@
         <v>2549.56</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="16">
         <v>43454</v>
       </c>
@@ -23016,7 +23028,7 @@
         <v>2536.27</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="16">
         <v>43455</v>
       </c>
@@ -23027,7 +23039,7 @@
         <v>2516.25</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="16">
         <v>43458</v>
       </c>
@@ -23038,7 +23050,7 @@
         <v>2527.0100000000002</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="16">
         <v>43459</v>
       </c>
@@ -23049,7 +23061,7 @@
         <v>2504.8200000000002</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="16">
         <v>43460</v>
       </c>
@@ -23060,7 +23072,7 @@
         <v>2498.29</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="16">
         <v>43461</v>
       </c>
@@ -23071,7 +23083,7 @@
         <v>2483.09</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="16">
         <v>43462</v>
       </c>
@@ -23082,7 +23094,7 @@
         <v>2493.9</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="16">
         <v>43467</v>
       </c>
@@ -23093,7 +23105,7 @@
         <v>2465.29</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="16">
         <v>43468</v>
       </c>
@@ -23104,7 +23116,7 @@
         <v>2464.36</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="16">
         <v>43469</v>
       </c>
@@ -23115,7 +23127,7 @@
         <v>2514.87</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="16">
         <v>43472</v>
       </c>
@@ -23126,7 +23138,7 @@
         <v>2533.09</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="16">
         <v>43473</v>
       </c>
@@ -23137,7 +23149,7 @@
         <v>2525.46</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="16">
         <v>43474</v>
       </c>
@@ -23148,7 +23160,7 @@
         <v>2544.34</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="16">
         <v>43475</v>
       </c>
@@ -23159,7 +23171,7 @@
         <v>2535.1</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="16">
         <v>43476</v>
       </c>
@@ -23170,7 +23182,7 @@
         <v>2553.83</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="16">
         <v>43479</v>
       </c>
@@ -23181,7 +23193,7 @@
         <v>2535.77</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="16">
         <v>43480</v>
       </c>
@@ -23192,7 +23204,7 @@
         <v>2570.34</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="16">
         <v>43481</v>
       </c>
@@ -23203,7 +23215,7 @@
         <v>2570.42</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="16">
         <v>43482</v>
       </c>
@@ -23214,7 +23226,7 @@
         <v>2559.64</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="16">
         <v>43483</v>
       </c>
@@ -23225,7 +23237,7 @@
         <v>2596.0100000000002</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="16">
         <v>43486</v>
       </c>
@@ -23236,7 +23248,7 @@
         <v>2610.5100000000002</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="16">
         <v>43487</v>
       </c>
@@ -23247,7 +23259,7 @@
         <v>2579.6999999999998</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="16">
         <v>43488</v>
       </c>
@@ -23258,7 +23270,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="16">
         <v>43489</v>
       </c>
@@ -23269,7 +23281,7 @@
         <v>2591.69</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="16">
         <v>43490</v>
       </c>
@@ -23280,7 +23292,7 @@
         <v>2601.7199999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="16">
         <v>43493</v>
       </c>
@@ -23291,7 +23303,7 @@
         <v>2596.98</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="16">
         <v>43494</v>
       </c>
@@ -23302,7 +23314,7 @@
         <v>2594.25</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="16">
         <v>43495</v>
       </c>
@@ -23313,7 +23325,7 @@
         <v>2575.58</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="16">
         <v>43496</v>
       </c>
@@ -23324,7 +23336,7 @@
         <v>2584.5700000000002</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="16">
         <v>43497</v>
       </c>
@@ -23335,7 +23347,7 @@
         <v>2618.23</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="16">
         <v>43507</v>
       </c>
@@ -23346,7 +23358,7 @@
         <v>2653.9</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="16">
         <v>43508</v>
       </c>
@@ -23357,7 +23369,7 @@
         <v>2671.89</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="16">
         <v>43509</v>
       </c>
@@ -23368,7 +23380,7 @@
         <v>2721.07</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="16">
         <v>43510</v>
       </c>
@@ -23379,7 +23391,7 @@
         <v>2719.7</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="16">
         <v>43511</v>
       </c>
@@ -23390,7 +23402,7 @@
         <v>2682.39</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="16">
         <v>43514</v>
       </c>
@@ -23401,7 +23413,7 @@
         <v>2754.36</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="16">
         <v>43515</v>
       </c>
@@ -23412,7 +23424,7 @@
         <v>2755.65</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="16">
         <v>43516</v>
       </c>
@@ -23423,7 +23435,7 @@
         <v>2761.22</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="16">
         <v>43517</v>
       </c>
@@ -23434,7 +23446,7 @@
         <v>2751.8</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="16">
         <v>43518</v>
       </c>
@@ -23445,7 +23457,7 @@
         <v>2804.23</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="16">
         <v>43521</v>
       </c>
@@ -23456,7 +23468,7 @@
         <v>2961.28</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="16">
         <v>43522</v>
       </c>
@@ -23467,7 +23479,7 @@
         <v>2941.52</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="16">
         <v>43523</v>
       </c>
@@ -23478,7 +23490,7 @@
         <v>2953.82</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="16">
         <v>43524</v>
       </c>
@@ -23489,7 +23501,7 @@
         <v>2940.95</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="16">
         <v>43525</v>
       </c>
@@ -23500,7 +23512,7 @@
         <v>2994.01</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="16">
         <v>43528</v>
       </c>
@@ -23511,7 +23523,7 @@
         <v>3027.58</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="16">
         <v>43529</v>
       </c>
@@ -23522,7 +23534,7 @@
         <v>3054.25</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="16">
         <v>43530</v>
       </c>
@@ -23533,7 +23545,7 @@
         <v>3102.1</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="16">
         <v>43531</v>
       </c>
@@ -23544,7 +23556,7 @@
         <v>3106.42</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="16">
         <v>43532</v>
       </c>
@@ -23555,7 +23567,7 @@
         <v>2969.86</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="16">
         <v>43535</v>
       </c>
@@ -23566,7 +23578,7 @@
         <v>3026.99</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="16">
         <v>43536</v>
       </c>
@@ -23577,7 +23589,7 @@
         <v>3060.31</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="16">
         <v>43537</v>
       </c>
@@ -23588,7 +23600,7 @@
         <v>3026.95</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="16">
         <v>43538</v>
       </c>
@@ -23599,7 +23611,7 @@
         <v>2990.69</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" s="16">
         <v>43539</v>
       </c>
@@ -23610,7 +23622,7 @@
         <v>3021.75</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" s="16">
         <v>43542</v>
       </c>
@@ -23621,7 +23633,7 @@
         <v>3096.42</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="16">
         <v>43543</v>
       </c>
@@ -23632,7 +23644,7 @@
         <v>3090.98</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="16">
         <v>43544</v>
       </c>
@@ -23643,7 +23655,7 @@
         <v>3090.64</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="16">
         <v>43545</v>
       </c>
@@ -23654,7 +23666,7 @@
         <v>3101.46</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="16">
         <v>43546</v>
       </c>
@@ -23665,7 +23677,7 @@
         <v>3104.15</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="16">
         <v>43549</v>
       </c>
@@ -23676,7 +23688,7 @@
         <v>3043.03</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="16">
         <v>43550</v>
       </c>
@@ -23687,7 +23699,7 @@
         <v>2997.1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="16">
         <v>43551</v>
       </c>
@@ -23698,7 +23710,7 @@
         <v>3022.72</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="16">
         <v>43552</v>
       </c>
@@ -23709,7 +23721,7 @@
         <v>2994.94</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="16">
         <v>43553</v>
       </c>
@@ -23720,7 +23732,7 @@
         <v>3090.76</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="16">
         <v>43556</v>
       </c>
@@ -23731,7 +23743,7 @@
         <v>3170.36</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="16">
         <v>43557</v>
       </c>
@@ -23742,7 +23754,7 @@
         <v>3176.82</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="16">
         <v>43558</v>
       </c>
@@ -23753,7 +23765,7 @@
         <v>3216.3</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="16">
         <v>43559</v>
       </c>
@@ -23764,7 +23776,7 @@
         <v>3246.57</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="16">
         <v>43563</v>
       </c>
@@ -23775,7 +23787,7 @@
         <v>3244.81</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="16">
         <v>43564</v>
       </c>
@@ -23786,7 +23798,7 @@
         <v>3239.66</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="16">
         <v>43565</v>
       </c>
@@ -23797,7 +23809,7 @@
         <v>3241.93</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="16">
         <v>43566</v>
       </c>
@@ -23808,7 +23820,7 @@
         <v>3189.96</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="16">
         <v>43567</v>
       </c>
@@ -23819,7 +23831,7 @@
         <v>3188.63</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="16">
         <v>43570</v>
       </c>
@@ -23830,7 +23842,7 @@
         <v>3177.79</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="16">
         <v>43571</v>
       </c>
@@ -23841,7 +23853,7 @@
         <v>3253.6</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="16">
         <v>43572</v>
       </c>
@@ -23852,7 +23864,7 @@
         <v>3263.12</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="16">
         <v>43573</v>
       </c>
@@ -23863,7 +23875,7 @@
         <v>3250.2</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="16">
         <v>43574</v>
       </c>
@@ -23874,7 +23886,7 @@
         <v>3270.8</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="16">
         <v>43577</v>
       </c>
@@ -23885,7 +23897,7 @@
         <v>3215.04</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" s="16">
         <v>43578</v>
       </c>
@@ -23896,7 +23908,7 @@
         <v>3198.59</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" s="16">
         <v>43579</v>
       </c>
@@ -23907,7 +23919,7 @@
         <v>3201.61</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="16">
         <v>43580</v>
       </c>
@@ -23918,7 +23930,7 @@
         <v>3123.83</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="16">
         <v>43581</v>
       </c>
@@ -23929,7 +23941,7 @@
         <v>3086.4</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="16">
         <v>43584</v>
       </c>
@@ -23940,7 +23952,7 @@
         <v>3062.5</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="16">
         <v>43585</v>
       </c>
@@ -23951,7 +23963,7 @@
         <v>3078.34</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="16">
         <v>43591</v>
       </c>
@@ -23962,7 +23974,7 @@
         <v>2906.46</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="16">
         <v>43592</v>
       </c>
@@ -23973,7 +23985,7 @@
         <v>2926.39</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="16">
         <v>43593</v>
       </c>
@@ -23984,7 +23996,7 @@
         <v>2893.76</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="16">
         <v>43594</v>
       </c>
@@ -23995,7 +24007,7 @@
         <v>2850.95</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="16">
         <v>43595</v>
       </c>
@@ -24006,7 +24018,7 @@
         <v>2939.21</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="16">
         <v>43598</v>
       </c>
@@ -24017,7 +24029,7 @@
         <v>2903.71</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="16">
         <v>43599</v>
       </c>
@@ -24028,7 +24040,7 @@
         <v>2883.61</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="16">
         <v>43600</v>
       </c>
@@ -24039,7 +24051,7 @@
         <v>2938.68</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="16">
         <v>43601</v>
       </c>
@@ -24050,7 +24062,7 @@
         <v>2955.71</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="16">
         <v>43602</v>
       </c>
@@ -24061,7 +24073,7 @@
         <v>2882.3</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="16">
         <v>43605</v>
       </c>
@@ -24072,7 +24084,7 @@
         <v>2870.6</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="16">
         <v>43606</v>
       </c>
@@ -24083,7 +24095,7 @@
         <v>2905.97</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" s="16">
         <v>43607</v>
       </c>
@@ -24094,7 +24106,7 @@
         <v>2891.7</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" s="16">
         <v>43608</v>
       </c>
@@ -24105,7 +24117,7 @@
         <v>2852.52</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="16">
         <v>43609</v>
       </c>
@@ -24116,7 +24128,7 @@
         <v>2852.99</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" s="16">
         <v>43612</v>
       </c>
@@ -24127,7 +24139,7 @@
         <v>2892.38</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="16">
         <v>43613</v>
       </c>
@@ -24138,7 +24150,7 @@
         <v>2909.91</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="16">
         <v>43614</v>
       </c>
@@ -24149,7 +24161,7 @@
         <v>2914.7</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="16">
         <v>43615</v>
       </c>
@@ -24160,7 +24172,7 @@
         <v>2905.81</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" s="16">
         <v>43616</v>
       </c>
@@ -24171,7 +24183,7 @@
         <v>2898.7</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" s="16">
         <v>43619</v>
       </c>
@@ -24182,7 +24194,7 @@
         <v>2890.08</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="16">
         <v>43620</v>
       </c>
@@ -24193,17 +24205,23 @@
         <v>2862.28</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="16">
         <v>43621</v>
       </c>
+      <c r="B834" s="15">
+        <v>58.59</v>
+      </c>
       <c r="C834">
         <v>2861.42</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="16">
         <v>43622</v>
+      </c>
+      <c r="C835">
+        <v>2827.8</v>
       </c>
     </row>
   </sheetData>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A498DC-DE70-4342-ACD3-29F83AB96DFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AF1C77-7FB7-4F44-BEDC-CD7052EBB59D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18425160378816519</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$834</c:f>
+              <c:f>Sheet1!$A$2:$A$835</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="833"/>
+                <c:ptCount val="834"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3896,16 +3896,19 @@
                 </c:pt>
                 <c:pt idx="832">
                   <c:v>43621</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>43622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$834</c:f>
+              <c:f>Sheet1!$B$2:$B$835</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="833"/>
+                <c:ptCount val="834"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6404,6 +6407,9 @@
                 </c:pt>
                 <c:pt idx="832">
                   <c:v>58.59</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>58.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6459,10 +6465,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$834</c:f>
+              <c:f>Sheet1!$A$2:$A$835</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="833"/>
+                <c:ptCount val="834"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8961,16 +8967,19 @@
                 </c:pt>
                 <c:pt idx="832">
                   <c:v>43621</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>43622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$834</c:f>
+              <c:f>Sheet1!$C$2:$C$835</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="833"/>
+                <c:ptCount val="834"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11469,6 +11478,9 @@
                 </c:pt>
                 <c:pt idx="832">
                   <c:v>2861.42</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>2827.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14301,26 +14313,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -14333,7 +14345,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2010</v>
@@ -14360,7 +14372,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -14389,7 +14401,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -14418,7 +14430,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -14447,7 +14459,7 @@
         <v>0.17810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -14476,7 +14488,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -14505,10 +14517,10 @@
         <v>-0.1615</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-6-5</v>
+        <v>说明:2017年统计范围为年初至1900-1-0</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14519,14 +14531,14 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43622</v>
+        <v>43626</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43621</v>
+        <v>0</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14536,10 +14548,10 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>18.425160378816518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O10" s="13">
         <v>2010</v>
       </c>
@@ -14550,7 +14562,7 @@
         <v>-6.88E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O11" s="13">
         <v>2011</v>
       </c>
@@ -14561,7 +14573,7 @@
         <v>-0.22420000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O12" s="13">
         <v>2012</v>
       </c>
@@ -14572,7 +14584,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O13" s="13">
         <v>2013</v>
       </c>
@@ -14583,7 +14595,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O14" s="13">
         <v>2014</v>
       </c>
@@ -14594,7 +14606,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O15" s="13">
         <v>2015</v>
       </c>
@@ -14605,7 +14617,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O16" s="13">
         <v>2016</v>
       </c>
@@ -14616,7 +14628,7 @@
         <v>-0.12909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O17" s="13">
         <v>2017</v>
       </c>
@@ -14627,7 +14639,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" s="13">
         <v>2018</v>
       </c>
@@ -14638,7 +14650,7 @@
         <v>-0.28253486362704305</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O19" s="13">
         <v>2019</v>
       </c>
@@ -14648,10 +14660,10 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.18425160378816519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
@@ -14666,7 +14678,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>2010</v>
@@ -14699,7 +14711,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -14734,7 +14746,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -14769,7 +14781,7 @@
         <v>0.54120000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>2</v>
       </c>
@@ -14804,7 +14816,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -14839,7 +14851,7 @@
         <v>0.27760000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -14874,10 +14886,10 @@
         <v>-1.46E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-6-5</v>
+        <v>说明:2019年统计范围为年初至1900-1-0</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14890,7 +14902,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -14903,7 +14915,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -14916,7 +14928,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -14929,7 +14941,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -14942,7 +14954,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -14955,7 +14967,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -14968,7 +14980,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -14981,7 +14993,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -14994,7 +15006,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -15025,20 +15037,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N835"/>
+  <dimension ref="A1:N840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A808" workbookViewId="0">
-      <selection activeCell="B835" sqref="B835"/>
+    <sheetView tabSelected="1" topLeftCell="B812" workbookViewId="0">
+      <selection activeCell="B836" sqref="B836"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -15049,7 +15061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>42373</v>
       </c>
@@ -15060,7 +15072,7 @@
         <v>3296.2579999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>42374</v>
       </c>
@@ -15071,7 +15083,7 @@
         <v>3287.7109999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>42375</v>
       </c>
@@ -15082,7 +15094,7 @@
         <v>3361.84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>42376</v>
       </c>
@@ -15093,7 +15105,7 @@
         <v>3125.002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>42377</v>
       </c>
@@ -15104,7 +15116,7 @@
         <v>3186.4119999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>42380</v>
       </c>
@@ -15115,7 +15127,7 @@
         <v>3016.7040000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>42381</v>
       </c>
@@ -15126,7 +15138,7 @@
         <v>3022.8609999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>42382</v>
       </c>
@@ -15138,10 +15150,10 @@
       </c>
       <c r="N9" s="18">
         <f>[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>42383</v>
       </c>
@@ -15152,7 +15164,7 @@
         <v>3007.6489999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>42384</v>
       </c>
@@ -15163,7 +15175,7 @@
         <v>2900.9697999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>42387</v>
       </c>
@@ -15174,7 +15186,7 @@
         <v>2913.8366999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>42388</v>
       </c>
@@ -15185,7 +15197,7 @@
         <v>3007.7393000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>42389</v>
       </c>
@@ -15196,7 +15208,7 @@
         <v>2976.694</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>42390</v>
       </c>
@@ -15207,7 +15219,7 @@
         <v>2880.482</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>42391</v>
       </c>
@@ -15218,7 +15230,7 @@
         <v>2916.5619999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>42394</v>
       </c>
@@ -15229,7 +15241,7 @@
         <v>2938.5149999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>42395</v>
       </c>
@@ -15240,7 +15252,7 @@
         <v>2749.7849999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>42396</v>
       </c>
@@ -15251,7 +15263,7 @@
         <v>2735.558</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>42397</v>
       </c>
@@ -15262,7 +15274,7 @@
         <v>2655.6610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>42398</v>
       </c>
@@ -15273,7 +15285,7 @@
         <v>2737.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>42401</v>
       </c>
@@ -15284,7 +15296,7 @@
         <v>2688.8539999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>42402</v>
       </c>
@@ -15295,7 +15307,7 @@
         <v>2749.57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>42403</v>
       </c>
@@ -15306,7 +15318,7 @@
         <v>2739.2469999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>42404</v>
       </c>
@@ -15317,7 +15329,7 @@
         <v>2781.0230000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>42405</v>
       </c>
@@ -15328,7 +15340,7 @@
         <v>2763.4920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>42415</v>
       </c>
@@ -15339,7 +15351,7 @@
         <v>2746.1959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>42416</v>
       </c>
@@ -15350,7 +15362,7 @@
         <v>2836.5709999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>42417</v>
       </c>
@@ -15361,7 +15373,7 @@
         <v>2867.3380000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>42418</v>
       </c>
@@ -15372,7 +15384,7 @@
         <v>2862.893</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>42419</v>
       </c>
@@ -15383,7 +15395,7 @@
         <v>2860.0210000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>42422</v>
       </c>
@@ -15394,7 +15406,7 @@
         <v>2927.1750000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>42423</v>
       </c>
@@ -15405,7 +15417,7 @@
         <v>2903.3310000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>42424</v>
       </c>
@@ -15416,7 +15428,7 @@
         <v>2928.8960000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>42425</v>
       </c>
@@ -15427,7 +15439,7 @@
         <v>2741.2449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>42426</v>
       </c>
@@ -15438,7 +15450,7 @@
         <v>2767.21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>42429</v>
       </c>
@@ -15449,7 +15461,7 @@
         <v>2687.9789999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>42430</v>
       </c>
@@ -15460,7 +15472,7 @@
         <v>2733.17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>42431</v>
       </c>
@@ -15471,7 +15483,7 @@
         <v>2849.681</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>42432</v>
       </c>
@@ -15482,7 +15494,7 @@
         <v>2859.7579999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>42433</v>
       </c>
@@ -15493,7 +15505,7 @@
         <v>2874.1469999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>42436</v>
       </c>
@@ -15504,7 +15516,7 @@
         <v>2897.34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>42437</v>
       </c>
@@ -15515,7 +15527,7 @@
         <v>2901.3870000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>42438</v>
       </c>
@@ -15526,7 +15538,7 @@
         <v>2862.556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>42439</v>
       </c>
@@ -15537,7 +15549,7 @@
         <v>2804.7260000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>42440</v>
       </c>
@@ -15548,7 +15560,7 @@
         <v>2810.3069999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>42443</v>
       </c>
@@ -15559,7 +15571,7 @@
         <v>2859.4989999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>42444</v>
       </c>
@@ -15570,7 +15582,7 @@
         <v>2864.3679999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>42445</v>
       </c>
@@ -15581,7 +15593,7 @@
         <v>2870.43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>42446</v>
       </c>
@@ -15592,7 +15604,7 @@
         <v>2904.8319999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>42447</v>
       </c>
@@ -15603,7 +15615,7 @@
         <v>2955.15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>42450</v>
       </c>
@@ -15614,7 +15626,7 @@
         <v>3018.8020000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>42451</v>
       </c>
@@ -15625,7 +15637,7 @@
         <v>2999.3629999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>42452</v>
       </c>
@@ -15636,7 +15648,7 @@
         <v>3009.96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>42453</v>
       </c>
@@ -15647,7 +15659,7 @@
         <v>2960.97</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>42454</v>
       </c>
@@ -15658,7 +15670,7 @@
         <v>2979.4340000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>42457</v>
       </c>
@@ -15669,7 +15681,7 @@
         <v>2957.82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>42458</v>
       </c>
@@ -15680,7 +15692,7 @@
         <v>2919.8319999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>42459</v>
       </c>
@@ -15691,7 +15703,7 @@
         <v>3000.645</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>42460</v>
       </c>
@@ -15702,7 +15714,7 @@
         <v>3003.915</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>42461</v>
       </c>
@@ -15713,7 +15725,7 @@
         <v>3009.53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>42465</v>
       </c>
@@ -15724,7 +15736,7 @@
         <v>3053.0650000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>42466</v>
       </c>
@@ -15735,7 +15747,7 @@
         <v>3050.5920000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>42467</v>
       </c>
@@ -15746,7 +15758,7 @@
         <v>3008.42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>42468</v>
       </c>
@@ -15757,7 +15769,7 @@
         <v>2984.9580000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>42471</v>
       </c>
@@ -15768,7 +15780,7 @@
         <v>3033.9569999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>42472</v>
       </c>
@@ -15779,7 +15791,7 @@
         <v>3023.6460000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>42473</v>
       </c>
@@ -15790,7 +15802,7 @@
         <v>3066.6379999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>42474</v>
       </c>
@@ -15801,7 +15813,7 @@
         <v>3082.3620000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>42475</v>
       </c>
@@ -15812,7 +15824,7 @@
         <v>3078.1170000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>42478</v>
       </c>
@@ -15823,7 +15835,7 @@
         <v>3033.66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>42479</v>
       </c>
@@ -15834,7 +15846,7 @@
         <v>3042.8229999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>42480</v>
       </c>
@@ -15845,7 +15857,7 @@
         <v>2972.5839999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>42481</v>
       </c>
@@ -15856,7 +15868,7 @@
         <v>2952.8910000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>42482</v>
       </c>
@@ -15867,7 +15879,7 @@
         <v>2959.24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>42485</v>
       </c>
@@ -15878,7 +15890,7 @@
         <v>2946.67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>42486</v>
       </c>
@@ -15889,7 +15901,7 @@
         <v>2964.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>42487</v>
       </c>
@@ -15900,7 +15912,7 @@
         <v>2953.6709999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>42488</v>
       </c>
@@ -15911,7 +15923,7 @@
         <v>2945.5889999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>42489</v>
       </c>
@@ -15922,7 +15934,7 @@
         <v>2938.3240000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>42493</v>
       </c>
@@ -15933,7 +15945,7 @@
         <v>2992.643</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>42494</v>
       </c>
@@ -15944,7 +15956,7 @@
         <v>2991.2719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>42495</v>
       </c>
@@ -15955,7 +15967,7 @@
         <v>2997.8420000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>42496</v>
       </c>
@@ -15966,7 +15978,7 @@
         <v>2913.248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>42499</v>
       </c>
@@ -15977,7 +15989,7 @@
         <v>2832.1129999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>42500</v>
       </c>
@@ -15988,7 +16000,7 @@
         <v>2832.5909999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>42501</v>
       </c>
@@ -15999,7 +16011,7 @@
         <v>2837.0369999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>42502</v>
       </c>
@@ -16010,7 +16022,7 @@
         <v>2835.8620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>42503</v>
       </c>
@@ -16021,7 +16033,7 @@
         <v>2827.1089999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>42506</v>
       </c>
@@ -16032,7 +16044,7 @@
         <v>2850.8620000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>42507</v>
       </c>
@@ -16043,7 +16055,7 @@
         <v>2843.6840000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>42508</v>
       </c>
@@ -16054,7 +16066,7 @@
         <v>2807.5140000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>42509</v>
       </c>
@@ -16065,7 +16077,7 @@
         <v>2806.9059999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>42510</v>
       </c>
@@ -16076,7 +16088,7 @@
         <v>2825.4830000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>42513</v>
       </c>
@@ -16087,7 +16099,7 @@
         <v>2843.645</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>42514</v>
       </c>
@@ -16098,7 +16110,7 @@
         <v>2821.6660000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>42515</v>
       </c>
@@ -16109,7 +16121,7 @@
         <v>2815.0862999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>42516</v>
       </c>
@@ -16120,7 +16132,7 @@
         <v>2822.4430000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>42517</v>
       </c>
@@ -16131,7 +16143,7 @@
         <v>2821.0459999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>42520</v>
       </c>
@@ -16142,7 +16154,7 @@
         <v>2822.451</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>42521</v>
       </c>
@@ -16153,7 +16165,7 @@
         <v>2916.616</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>42522</v>
       </c>
@@ -16164,7 +16176,7 @@
         <v>2913.5079999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>42523</v>
       </c>
@@ -16175,7 +16187,7 @@
         <v>2925.2289999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>42524</v>
       </c>
@@ -16186,7 +16198,7 @@
         <v>2938.6819999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>42527</v>
       </c>
@@ -16197,7 +16209,7 @@
         <v>2934.098</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>42528</v>
       </c>
@@ -16208,7 +16220,7 @@
         <v>2936.0450000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>42529</v>
       </c>
@@ -16219,7 +16231,7 @@
         <v>2927.1590000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>42534</v>
       </c>
@@ -16230,7 +16242,7 @@
         <v>2833.0709999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>42535</v>
       </c>
@@ -16241,7 +16253,7 @@
         <v>2842.1889999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>42536</v>
       </c>
@@ -16252,7 +16264,7 @@
         <v>2887.21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>42537</v>
       </c>
@@ -16263,7 +16275,7 @@
         <v>2872.817</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>42538</v>
       </c>
@@ -16274,7 +16286,7 @@
         <v>2885.105</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>42541</v>
       </c>
@@ -16285,7 +16297,7 @@
         <v>2888.8090000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>42542</v>
       </c>
@@ -16296,7 +16308,7 @@
         <v>2878.558</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>42543</v>
       </c>
@@ -16307,7 +16319,7 @@
         <v>2905.55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>42544</v>
       </c>
@@ -16318,7 +16330,7 @@
         <v>2891.96</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>42545</v>
       </c>
@@ -16329,7 +16341,7 @@
         <v>2854.2860000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>42548</v>
       </c>
@@ -16340,7 +16352,7 @@
         <v>2895.703</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>42549</v>
       </c>
@@ -16351,7 +16363,7 @@
         <v>2912.5569999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>42550</v>
       </c>
@@ -16362,7 +16374,7 @@
         <v>2931.5920000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>42551</v>
       </c>
@@ -16373,7 +16385,7 @@
         <v>2929.6060000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>42552</v>
       </c>
@@ -16384,7 +16396,7 @@
         <v>2932.4760000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>42555</v>
       </c>
@@ -16395,7 +16407,7 @@
         <v>2988.6039999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>42556</v>
       </c>
@@ -16406,7 +16418,7 @@
         <v>3006.3919999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>42557</v>
       </c>
@@ -16417,7 +16429,7 @@
         <v>3017.2919999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>42558</v>
       </c>
@@ -16428,7 +16440,7 @@
         <v>3016.8470000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>42559</v>
       </c>
@@ -16439,7 +16451,7 @@
         <v>2988.0940000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>42562</v>
       </c>
@@ -16450,7 +16462,7 @@
         <v>2994.9169999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>42563</v>
       </c>
@@ -16461,7 +16473,7 @@
         <v>3049.3809999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>42564</v>
       </c>
@@ -16472,7 +16484,7 @@
         <v>3060.6889999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>42565</v>
       </c>
@@ -16483,7 +16495,7 @@
         <v>3054.018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>42566</v>
       </c>
@@ -16494,7 +16506,7 @@
         <v>3054.2959999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>42569</v>
       </c>
@@ -16505,7 +16517,7 @@
         <v>3043.5639999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>42570</v>
       </c>
@@ -16516,7 +16528,7 @@
         <v>3036.598</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>42571</v>
       </c>
@@ -16527,7 +16539,7 @@
         <v>3027.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>42572</v>
       </c>
@@ -16538,7 +16550,7 @@
         <v>3039.009</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>42573</v>
       </c>
@@ -16549,7 +16561,7 @@
         <v>3012.8159999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>42576</v>
       </c>
@@ -16560,7 +16572,7 @@
         <v>3015.828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>42577</v>
       </c>
@@ -16571,7 +16583,7 @@
         <v>3050.1660000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>42578</v>
       </c>
@@ -16582,7 +16594,7 @@
         <v>2991.9989999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>42579</v>
       </c>
@@ -16593,7 +16605,7 @@
         <v>2994.3229999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>42580</v>
       </c>
@@ -16604,7 +16616,7 @@
         <v>2979.3389999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>42583</v>
       </c>
@@ -16615,7 +16627,7 @@
         <v>2953.3850000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>42584</v>
       </c>
@@ -16626,7 +16638,7 @@
         <v>2971.279</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>42585</v>
       </c>
@@ -16637,7 +16649,7 @@
         <v>2978.4609999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>42586</v>
       </c>
@@ -16648,7 +16660,7 @@
         <v>2982.4259999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>42587</v>
       </c>
@@ -16659,7 +16671,7 @@
         <v>2976.6959999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>42590</v>
       </c>
@@ -16670,7 +16682,7 @@
         <v>3004.277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>42591</v>
       </c>
@@ -16681,7 +16693,7 @@
         <v>3025.681</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>42592</v>
       </c>
@@ -16692,7 +16704,7 @@
         <v>3018.7460000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>42593</v>
       </c>
@@ -16703,7 +16715,7 @@
         <v>3002.6379999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>42594</v>
       </c>
@@ -16714,7 +16726,7 @@
         <v>3050.6669999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>42597</v>
       </c>
@@ -16725,7 +16737,7 @@
         <v>3125.1950000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>42598</v>
       </c>
@@ -16736,7 +16748,7 @@
         <v>3110.0369999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>42599</v>
       </c>
@@ -16747,7 +16759,7 @@
         <v>3109.5549999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>42600</v>
       </c>
@@ -16758,7 +16770,7 @@
         <v>3104.114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>42601</v>
       </c>
@@ -16769,7 +16781,7 @@
         <v>3108.1019999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>42604</v>
       </c>
@@ -16780,7 +16792,7 @@
         <v>3084.8049999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>42605</v>
       </c>
@@ -16791,7 +16803,7 @@
         <v>3089.7060000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>42606</v>
       </c>
@@ -16802,7 +16814,7 @@
         <v>3085.88</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>42607</v>
       </c>
@@ -16813,7 +16825,7 @@
         <v>3068.3290000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>42608</v>
       </c>
@@ -16824,7 +16836,7 @@
         <v>3070.3090000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>42611</v>
       </c>
@@ -16835,7 +16847,7 @@
         <v>3070.027</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>42612</v>
       </c>
@@ -16846,7 +16858,7 @@
         <v>3074.6770000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>42613</v>
       </c>
@@ -16857,7 +16869,7 @@
         <v>3085.491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>42614</v>
       </c>
@@ -16868,7 +16880,7 @@
         <v>3063.3049999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>42615</v>
       </c>
@@ -16879,7 +16891,7 @@
         <v>3067.3519999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>42618</v>
       </c>
@@ -16890,7 +16902,7 @@
         <v>3072.0949999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>42619</v>
       </c>
@@ -16901,7 +16913,7 @@
         <v>3090.7130000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>42620</v>
       </c>
@@ -16912,7 +16924,7 @@
         <v>3091.9279999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>42621</v>
       </c>
@@ -16923,7 +16935,7 @@
         <v>3095.9540000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>42622</v>
       </c>
@@ -16934,7 +16946,7 @@
         <v>3078.855</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>42625</v>
       </c>
@@ -16945,7 +16957,7 @@
         <v>3021.9769999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>42626</v>
       </c>
@@ -16956,7 +16968,7 @@
         <v>3023.51</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>42627</v>
       </c>
@@ -16967,7 +16979,7 @@
         <v>3002.8490000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>42632</v>
       </c>
@@ -16978,7 +16990,7 @@
         <v>3026.0509999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>42633</v>
       </c>
@@ -16989,7 +17001,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>42634</v>
       </c>
@@ -17000,7 +17012,7 @@
         <v>3025.8739999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>42635</v>
       </c>
@@ -17011,7 +17023,7 @@
         <v>3042.3130000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>42636</v>
       </c>
@@ -17022,7 +17034,7 @@
         <v>3033.8960000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>42639</v>
       </c>
@@ -17033,7 +17045,7 @@
         <v>2980.43</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>42640</v>
       </c>
@@ -17044,7 +17056,7 @@
         <v>2998.172</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>42641</v>
       </c>
@@ -17055,7 +17067,7 @@
         <v>2987.8580000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>42642</v>
       </c>
@@ -17066,7 +17078,7 @@
         <v>2998.4830000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>42643</v>
       </c>
@@ -17077,7 +17089,7 @@
         <v>3004.703</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>42653</v>
       </c>
@@ -17088,7 +17100,7 @@
         <v>3048.143</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>42654</v>
       </c>
@@ -17099,7 +17111,7 @@
         <v>3065.25</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>42655</v>
       </c>
@@ -17110,7 +17122,7 @@
         <v>3058.498</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>42656</v>
       </c>
@@ -17121,7 +17133,7 @@
         <v>3061.346</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="16">
         <v>42657</v>
       </c>
@@ -17132,7 +17144,7 @@
         <v>3063.8090000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>42660</v>
       </c>
@@ -17143,7 +17155,7 @@
         <v>3041.1660000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>42661</v>
       </c>
@@ -17154,7 +17166,7 @@
         <v>3083.875</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>42662</v>
       </c>
@@ -17165,7 +17177,7 @@
         <v>3084.7190000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>42663</v>
       </c>
@@ -17176,7 +17188,7 @@
         <v>3084.4580000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>42664</v>
       </c>
@@ -17187,7 +17199,7 @@
         <v>3090.9409999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>42667</v>
       </c>
@@ -17198,7 +17210,7 @@
         <v>3128.2469999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>42668</v>
       </c>
@@ -17209,7 +17221,7 @@
         <v>3131.9389999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>42669</v>
       </c>
@@ -17220,7 +17232,7 @@
         <v>3116.3119999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>42670</v>
       </c>
@@ -17231,7 +17243,7 @@
         <v>3112.35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>42671</v>
       </c>
@@ -17242,7 +17254,7 @@
         <v>3104.27</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>42674</v>
       </c>
@@ -17253,7 +17265,7 @@
         <v>3100.4920000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>42675</v>
       </c>
@@ -17264,7 +17276,7 @@
         <v>3122.4360000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>42676</v>
       </c>
@@ -17275,7 +17287,7 @@
         <v>3102.7330000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>42677</v>
       </c>
@@ -17286,7 +17298,7 @@
         <v>3128.9360000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>42678</v>
       </c>
@@ -17297,7 +17309,7 @@
         <v>3125.317</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>42681</v>
       </c>
@@ -17308,7 +17320,7 @@
         <v>3133.3330000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>42682</v>
       </c>
@@ -17319,7 +17331,7 @@
         <v>3147.8879999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>42683</v>
       </c>
@@ -17330,7 +17342,7 @@
         <v>3128.37</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>42684</v>
       </c>
@@ -17341,7 +17353,7 @@
         <v>3171.2820000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>42685</v>
       </c>
@@ -17352,7 +17364,7 @@
         <v>3196.0439999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>42688</v>
       </c>
@@ -17363,7 +17375,7 @@
         <v>3210.3710000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="16">
         <v>42689</v>
       </c>
@@ -17374,7 +17386,7 @@
         <v>3206.9859999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="16">
         <v>42690</v>
       </c>
@@ -17385,7 +17397,7 @@
         <v>3205.0569999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>42691</v>
       </c>
@@ -17396,7 +17408,7 @@
         <v>3208.453</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>42692</v>
       </c>
@@ -17407,7 +17419,7 @@
         <v>3192.8560000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="16">
         <v>42695</v>
       </c>
@@ -17418,7 +17430,7 @@
         <v>3218.1480000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>42696</v>
       </c>
@@ -17429,7 +17441,7 @@
         <v>3248.3519999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>42697</v>
       </c>
@@ -17440,7 +17452,7 @@
         <v>3241.1370000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>42698</v>
       </c>
@@ -17451,7 +17463,7 @@
         <v>3241.7359999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>42699</v>
       </c>
@@ -17462,7 +17474,7 @@
         <v>3261.9380000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>42702</v>
       </c>
@@ -17473,7 +17485,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>42703</v>
       </c>
@@ -17484,7 +17496,7 @@
         <v>3282.924</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="16">
         <v>42704</v>
       </c>
@@ -17495,7 +17507,7 @@
         <v>3250.0340000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>42705</v>
       </c>
@@ -17506,7 +17518,7 @@
         <v>3273.3090000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>42706</v>
       </c>
@@ -17517,7 +17529,7 @@
         <v>3243.8429999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="16">
         <v>42709</v>
       </c>
@@ -17528,7 +17540,7 @@
         <v>3204.7089999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>42710</v>
       </c>
@@ -17539,7 +17551,7 @@
         <v>3199.6469999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="16">
         <v>42711</v>
       </c>
@@ -17550,7 +17562,7 @@
         <v>3222.2420000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="16">
         <v>42712</v>
       </c>
@@ -17561,7 +17573,7 @@
         <v>3215.366</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="16">
         <v>42713</v>
       </c>
@@ -17572,7 +17584,7 @@
         <v>3232.8829999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="16">
         <v>42716</v>
       </c>
@@ -17583,7 +17595,7 @@
         <v>3152.97</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="16">
         <v>42717</v>
       </c>
@@ -17594,7 +17606,7 @@
         <v>3155.0369999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>42718</v>
       </c>
@@ -17605,7 +17617,7 @@
         <v>3140.5309999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="16">
         <v>42719</v>
       </c>
@@ -17616,7 +17628,7 @@
         <v>3117.6770000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="16">
         <v>42720</v>
       </c>
@@ -17627,7 +17639,7 @@
         <v>3122.982</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>42723</v>
       </c>
@@ -17638,7 +17650,7 @@
         <v>3118.0846000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>42724</v>
       </c>
@@ -17649,7 +17661,7 @@
         <v>3102.8759</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>42725</v>
       </c>
@@ -17660,7 +17672,7 @@
         <v>3137.4297000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>42726</v>
       </c>
@@ -17671,7 +17683,7 @@
         <v>3139.558</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
         <v>42727</v>
       </c>
@@ -17682,7 +17694,7 @@
         <v>3110.1543999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>42730</v>
       </c>
@@ -17693,7 +17705,7 @@
         <v>3122.569</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>42731</v>
       </c>
@@ -17704,7 +17716,7 @@
         <v>3114.6640000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="16">
         <v>42732</v>
       </c>
@@ -17715,7 +17727,7 @@
         <v>3102.2357000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>42733</v>
       </c>
@@ -17726,7 +17738,7 @@
         <v>3096.0967999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="16">
         <v>42734</v>
       </c>
@@ -17737,7 +17749,7 @@
         <v>3103.6372999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>42738</v>
       </c>
@@ -17748,7 +17760,7 @@
         <v>3135.9207999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="16">
         <v>42739</v>
       </c>
@@ -17759,7 +17771,7 @@
         <v>3158.7939999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>42740</v>
       </c>
@@ -17770,7 +17782,7 @@
         <v>3165.4108999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="16">
         <v>42741</v>
       </c>
@@ -17781,7 +17793,7 @@
         <v>3154.3209999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="16">
         <v>42744</v>
       </c>
@@ -17792,7 +17804,7 @@
         <v>3171.2361999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>42745</v>
       </c>
@@ -17803,7 +17815,7 @@
         <v>3161.6713</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="16">
         <v>42746</v>
       </c>
@@ -17814,7 +17826,7 @@
         <v>3136.7534999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="16">
         <v>42747</v>
       </c>
@@ -17825,7 +17837,7 @@
         <v>3119.2885999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>42748</v>
       </c>
@@ -17836,7 +17848,7 @@
         <v>3112.7644</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>42751</v>
       </c>
@@ -17847,7 +17859,7 @@
         <v>3103.4279999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="16">
         <v>42752</v>
       </c>
@@ -17858,7 +17870,7 @@
         <v>3108.7746000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>42753</v>
       </c>
@@ -17869,7 +17881,7 @@
         <v>3113.0122999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>42754</v>
       </c>
@@ -17880,7 +17892,7 @@
         <v>3101.2991999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>42755</v>
       </c>
@@ -17891,7 +17903,7 @@
         <v>3123.1388999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="16">
         <v>42758</v>
       </c>
@@ -17902,7 +17914,7 @@
         <v>3136.7748000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>42759</v>
       </c>
@@ -17913,7 +17925,7 @@
         <v>3142.5533</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="16">
         <v>42760</v>
       </c>
@@ -17924,7 +17936,7 @@
         <v>3149.5547000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>42761</v>
       </c>
@@ -17935,7 +17947,7 @@
         <v>3159.1660000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="16">
         <v>42769</v>
       </c>
@@ -17946,7 +17958,7 @@
         <v>3140.17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="16">
         <v>42772</v>
       </c>
@@ -17957,7 +17969,7 @@
         <v>3156.9838</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>42773</v>
       </c>
@@ -17968,7 +17980,7 @@
         <v>3153.0877999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="16">
         <v>42774</v>
       </c>
@@ -17979,7 +17991,7 @@
         <v>3166.9818</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>42775</v>
       </c>
@@ -17990,7 +18002,7 @@
         <v>3183.1794</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>42776</v>
       </c>
@@ -18001,7 +18013,7 @@
         <v>3196.6990000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>42779</v>
       </c>
@@ -18012,7 +18024,7 @@
         <v>3216.8393999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>42780</v>
       </c>
@@ -18023,7 +18035,7 @@
         <v>3217.9279999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="16">
         <v>42781</v>
       </c>
@@ -18034,7 +18046,7 @@
         <v>3212.9857000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="16">
         <v>42782</v>
       </c>
@@ -18045,7 +18057,7 @@
         <v>3229.6183999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>42783</v>
       </c>
@@ -18056,7 +18068,7 @@
         <v>3202.0756000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="16">
         <v>42786</v>
       </c>
@@ -18067,7 +18079,7 @@
         <v>3239.9612999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>42787</v>
       </c>
@@ -18078,7 +18090,7 @@
         <v>3253.3256999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>42788</v>
       </c>
@@ -18089,7 +18101,7 @@
         <v>3261.2184000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="16">
         <v>42789</v>
       </c>
@@ -18100,7 +18112,7 @@
         <v>3251.375</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="16">
         <v>42790</v>
       </c>
@@ -18111,7 +18123,7 @@
         <v>3253.4326999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>42793</v>
       </c>
@@ -18122,7 +18134,7 @@
         <v>3228.6601999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>42794</v>
       </c>
@@ -18133,7 +18145,7 @@
         <v>3241.7330999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="16">
         <v>42795</v>
       </c>
@@ -18144,7 +18156,7 @@
         <v>3246.9335000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="16">
         <v>42796</v>
       </c>
@@ -18155,7 +18167,7 @@
         <v>3230.0281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="16">
         <v>42797</v>
       </c>
@@ -18166,7 +18178,7 @@
         <v>3218.3117999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>42800</v>
       </c>
@@ -18177,7 +18189,7 @@
         <v>3233.8656999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>42801</v>
       </c>
@@ -18188,7 +18200,7 @@
         <v>3242.4063000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>42802</v>
       </c>
@@ -18199,7 +18211,7 @@
         <v>3240.6646000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>42803</v>
       </c>
@@ -18210,7 +18222,7 @@
         <v>3216.7456999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>42804</v>
       </c>
@@ -18221,7 +18233,7 @@
         <v>3212.7601</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>42807</v>
       </c>
@@ -18232,7 +18244,7 @@
         <v>3237.0243999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="16">
         <v>42808</v>
       </c>
@@ -18243,7 +18255,7 @@
         <v>3239.3278</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="16">
         <v>42809</v>
       </c>
@@ -18254,7 +18266,7 @@
         <v>3241.7597000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="16">
         <v>42810</v>
       </c>
@@ -18265,7 +18277,7 @@
         <v>3268.9353999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="16">
         <v>42811</v>
       </c>
@@ -18276,7 +18288,7 @@
         <v>3237.4470999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="16">
         <v>42814</v>
       </c>
@@ -18287,7 +18299,7 @@
         <v>3250.8081999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>42815</v>
       </c>
@@ -18298,7 +18310,7 @@
         <v>3261.6107999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="16">
         <v>42816</v>
       </c>
@@ -18309,7 +18321,7 @@
         <v>3245.2197999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>42817</v>
       </c>
@@ -18320,7 +18332,7 @@
         <v>3248.5495000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="16">
         <v>42818</v>
       </c>
@@ -18331,7 +18343,7 @@
         <v>3269.4450999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>42821</v>
       </c>
@@ -18342,7 +18354,7 @@
         <v>3266.9551999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>42822</v>
       </c>
@@ -18353,7 +18365,7 @@
         <v>3252.9479000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>42823</v>
       </c>
@@ -18364,7 +18376,7 @@
         <v>3241.3144000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>42824</v>
       </c>
@@ -18375,7 +18387,7 @@
         <v>3210.2368999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="16">
         <v>42825</v>
       </c>
@@ -18386,7 +18398,7 @@
         <v>3222.5142000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="16">
         <v>42830</v>
       </c>
@@ -18397,7 +18409,7 @@
         <v>3270.3054000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="16">
         <v>42831</v>
       </c>
@@ -18408,7 +18420,7 @@
         <v>3281.0047</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>42832</v>
       </c>
@@ -18419,7 +18431,7 @@
         <v>3286.616</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>42835</v>
       </c>
@@ -18430,7 +18442,7 @@
         <v>3269.3926000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="16">
         <v>42836</v>
       </c>
@@ -18441,7 +18453,7 @@
         <v>3288.9657000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="16">
         <v>42837</v>
       </c>
@@ -18452,7 +18464,7 @@
         <v>3273.8301000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="16">
         <v>42838</v>
       </c>
@@ -18463,7 +18475,7 @@
         <v>3275.9603000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="16">
         <v>42839</v>
       </c>
@@ -18474,7 +18486,7 @@
         <v>3246.0668000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="16">
         <v>42842</v>
       </c>
@@ -18485,7 +18497,7 @@
         <v>3222.1673000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="16">
         <v>42843</v>
       </c>
@@ -18496,7 +18508,7 @@
         <v>3196.7132999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="16">
         <v>42844</v>
       </c>
@@ -18507,7 +18519,7 @@
         <v>3170.6867000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="16">
         <v>42845</v>
       </c>
@@ -18518,7 +18530,7 @@
         <v>3172.1003000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="16">
         <v>42846</v>
       </c>
@@ -18529,7 +18541,7 @@
         <v>3173.1511999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="16">
         <v>42849</v>
       </c>
@@ -18540,7 +18552,7 @@
         <v>3129.5311999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="16">
         <v>42850</v>
       </c>
@@ -18551,7 +18563,7 @@
         <v>3134.5673999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="16">
         <v>42851</v>
       </c>
@@ -18562,7 +18574,7 @@
         <v>3140.8471</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="16">
         <v>42852</v>
       </c>
@@ -18573,7 +18585,7 @@
         <v>3152.1869000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="16">
         <v>42853</v>
       </c>
@@ -18584,7 +18596,7 @@
         <v>3154.6583999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="16">
         <v>42857</v>
       </c>
@@ -18595,7 +18607,7 @@
         <v>3143.7121000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="16">
         <v>42858</v>
       </c>
@@ -18606,7 +18618,7 @@
         <v>3135.346</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="16">
         <v>42859</v>
       </c>
@@ -18617,7 +18629,7 @@
         <v>3127.3687</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>42860</v>
       </c>
@@ -18628,7 +18640,7 @@
         <v>3103.0378000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>42863</v>
       </c>
@@ -18639,7 +18651,7 @@
         <v>3078.6129000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>42864</v>
       </c>
@@ -18650,7 +18662,7 @@
         <v>3080.5268999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="16">
         <v>42865</v>
       </c>
@@ -18661,7 +18673,7 @@
         <v>3052.7849999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>42866</v>
       </c>
@@ -18672,7 +18684,7 @@
         <v>3061.5003000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="16">
         <v>42867</v>
       </c>
@@ -18683,7 +18695,7 @@
         <v>3083.5131999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>42870</v>
       </c>
@@ -18694,7 +18706,7 @@
         <v>3090.2289000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="16">
         <v>42871</v>
       </c>
@@ -18705,7 +18717,7 @@
         <v>3112.9641999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>42872</v>
       </c>
@@ -18716,7 +18728,7 @@
         <v>3104.4414999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>42873</v>
       </c>
@@ -18727,7 +18739,7 @@
         <v>3090.1390000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="16">
         <v>42874</v>
       </c>
@@ -18738,7 +18750,7 @@
         <v>3090.6309000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>42877</v>
       </c>
@@ -18749,7 +18761,7 @@
         <v>3075.6756</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>42878</v>
       </c>
@@ -18760,7 +18772,7 @@
         <v>3061.9470000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>42879</v>
       </c>
@@ -18771,7 +18783,7 @@
         <v>3064.0758999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="16">
         <v>42880</v>
       </c>
@@ -18782,7 +18794,7 @@
         <v>3107.8310999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="16">
         <v>42881</v>
       </c>
@@ -18793,7 +18805,7 @@
         <v>3110.0587</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>42886</v>
       </c>
@@ -18804,7 +18816,7 @@
         <v>3117.1777999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>42887</v>
       </c>
@@ -18815,7 +18827,7 @@
         <v>3102.6232</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>42888</v>
       </c>
@@ -18826,7 +18838,7 @@
         <v>3105.54</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>42891</v>
       </c>
@@ -18837,7 +18849,7 @@
         <v>3091.6561000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>42892</v>
       </c>
@@ -18848,7 +18860,7 @@
         <v>3102.1260000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="16">
         <v>42893</v>
       </c>
@@ -18859,7 +18871,7 @@
         <v>3140.3249000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>42894</v>
       </c>
@@ -18870,7 +18882,7 @@
         <v>3150.3335999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>42895</v>
       </c>
@@ -18881,7 +18893,7 @@
         <v>3158.4004</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="16">
         <v>42898</v>
       </c>
@@ -18892,7 +18904,7 @@
         <v>3139.8766000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>42899</v>
       </c>
@@ -18903,7 +18915,7 @@
         <v>3153.7429000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="16">
         <v>42900</v>
       </c>
@@ -18914,7 +18926,7 @@
         <v>3130.674</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="16">
         <v>42901</v>
       </c>
@@ -18925,7 +18937,7 @@
         <v>3132.4863</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>42902</v>
       </c>
@@ -18936,7 +18948,7 @@
         <v>3123.1662000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>42905</v>
       </c>
@@ -18947,7 +18959,7 @@
         <v>3144.3739</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>42906</v>
       </c>
@@ -18958,7 +18970,7 @@
         <v>3140.0136000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>42907</v>
       </c>
@@ -18969,7 +18981,7 @@
         <v>3156.2118</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="16">
         <v>42908</v>
       </c>
@@ -18980,7 +18992,7 @@
         <v>3147.4531999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="16">
         <v>42909</v>
       </c>
@@ -18991,7 +19003,7 @@
         <v>3157.873</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>42912</v>
       </c>
@@ -19002,7 +19014,7 @@
         <v>3185.4439000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="16">
         <v>42913</v>
       </c>
@@ -19013,7 +19025,7 @@
         <v>3191.1968999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="16">
         <v>42914</v>
       </c>
@@ -19024,7 +19036,7 @@
         <v>3173.2013999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="16">
         <v>42915</v>
       </c>
@@ -19035,7 +19047,7 @@
         <v>3188.0625</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>42916</v>
       </c>
@@ -19046,7 +19058,7 @@
         <v>3192.4268999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="16">
         <v>42919</v>
       </c>
@@ -19057,7 +19069,7 @@
         <v>3195.9115999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="16">
         <v>42920</v>
       </c>
@@ -19068,7 +19080,7 @@
         <v>3182.8038999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="16">
         <v>42921</v>
       </c>
@@ -19079,7 +19091,7 @@
         <v>3207.1342</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="16">
         <v>42922</v>
       </c>
@@ -19090,7 +19102,7 @@
         <v>3212.444</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="16">
         <v>42923</v>
       </c>
@@ -19101,7 +19113,7 @@
         <v>3217.9567000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="16">
         <v>42926</v>
       </c>
@@ -19112,7 +19124,7 @@
         <v>3212.6318999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="16">
         <v>42927</v>
       </c>
@@ -19123,7 +19135,7 @@
         <v>3203.0374999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="16">
         <v>42928</v>
       </c>
@@ -19134,7 +19146,7 @@
         <v>3197.5439000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>42929</v>
       </c>
@@ -19145,7 +19157,7 @@
         <v>3218.1632</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>42930</v>
       </c>
@@ -19156,7 +19168,7 @@
         <v>3222.4168</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="16">
         <v>42933</v>
       </c>
@@ -19167,7 +19179,7 @@
         <v>3176.4648000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="16">
         <v>42934</v>
       </c>
@@ -19178,7 +19190,7 @@
         <v>3187.5672</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>42935</v>
       </c>
@@ -19189,7 +19201,7 @@
         <v>3230.9762000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>42936</v>
       </c>
@@ -19200,7 +19212,7 @@
         <v>3244.8647000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>42937</v>
       </c>
@@ -19211,7 +19223,7 @@
         <v>3237.9816999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="16">
         <v>42940</v>
       </c>
@@ -19222,7 +19234,7 @@
         <v>3250.5989</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="16">
         <v>42941</v>
       </c>
@@ -19233,7 +19245,7 @@
         <v>3243.6894000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>42942</v>
       </c>
@@ -19244,7 +19256,7 @@
         <v>3247.6747999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>42943</v>
       </c>
@@ -19255,7 +19267,7 @@
         <v>3249.7813999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="16">
         <v>42944</v>
       </c>
@@ -19266,7 +19278,7 @@
         <v>3253.2404000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>42947</v>
       </c>
@@ -19277,7 +19289,7 @@
         <v>3273.0282999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="16">
         <v>42948</v>
       </c>
@@ -19288,7 +19300,7 @@
         <v>3292.6383000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>42949</v>
       </c>
@@ -19299,7 +19311,7 @@
         <v>3285.0567999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>42950</v>
       </c>
@@ -19310,7 +19322,7 @@
         <v>3272.9286000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>42951</v>
       </c>
@@ -19321,7 +19333,7 @@
         <v>3262.0808999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="16">
         <v>42954</v>
       </c>
@@ -19332,7 +19344,7 @@
         <v>3279.4566</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>42955</v>
       </c>
@@ -19343,7 +19355,7 @@
         <v>3281.8728000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>42956</v>
       </c>
@@ -19354,7 +19366,7 @@
         <v>3275.5729999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>42957</v>
       </c>
@@ -19365,7 +19377,7 @@
         <v>3261.7494000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>42958</v>
       </c>
@@ -19376,7 +19388,7 @@
         <v>3208.5412999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>42961</v>
       </c>
@@ -19387,7 +19399,7 @@
         <v>3237.3602000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="16">
         <v>42962</v>
       </c>
@@ -19398,7 +19410,7 @@
         <v>3251.2617</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="16">
         <v>42963</v>
       </c>
@@ -19409,7 +19421,7 @@
         <v>3246.4512</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="16">
         <v>42964</v>
       </c>
@@ -19420,7 +19432,7 @@
         <v>3268.4297999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>42965</v>
       </c>
@@ -19431,7 +19443,7 @@
         <v>3268.7242999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="16">
         <v>42968</v>
       </c>
@@ -19442,7 +19454,7 @@
         <v>3286.9054999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="16">
         <v>42969</v>
       </c>
@@ -19453,7 +19465,7 @@
         <v>3290.2257</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="16">
         <v>42970</v>
       </c>
@@ -19464,7 +19476,7 @@
         <v>3287.7049000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="16">
         <v>42971</v>
       </c>
@@ -19475,7 +19487,7 @@
         <v>3271.5117</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="16">
         <v>42972</v>
       </c>
@@ -19486,7 +19498,7 @@
         <v>3331.5221000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="16">
         <v>42975</v>
       </c>
@@ -19497,7 +19509,7 @@
         <v>3362.6514000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="16">
         <v>42976</v>
       </c>
@@ -19508,7 +19520,7 @@
         <v>3365.2260999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="16">
         <v>42977</v>
       </c>
@@ -19519,7 +19531,7 @@
         <v>3363.6266000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="16">
         <v>42978</v>
       </c>
@@ -19530,7 +19542,7 @@
         <v>3360.8103000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="16">
         <v>42979</v>
       </c>
@@ -19541,7 +19553,7 @@
         <v>3367.1194</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="16">
         <v>42982</v>
       </c>
@@ -19552,7 +19564,7 @@
         <v>3379.5830000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="16">
         <v>42983</v>
       </c>
@@ -19563,7 +19575,7 @@
         <v>3384.317</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="16">
         <v>42984</v>
       </c>
@@ -19574,7 +19586,7 @@
         <v>3385.3888000000002</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="16">
         <v>42985</v>
       </c>
@@ -19585,7 +19597,7 @@
         <v>3365.4974000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="16">
         <v>42986</v>
       </c>
@@ -19596,7 +19608,7 @@
         <v>3365.2426</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="16">
         <v>42989</v>
       </c>
@@ -19607,7 +19619,7 @@
         <v>3376.4187999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="16">
         <v>42990</v>
       </c>
@@ -19618,7 +19630,7 @@
         <v>3379.4879999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="16">
         <v>42991</v>
       </c>
@@ -19629,7 +19641,7 @@
         <v>3384.1469999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="16">
         <v>42992</v>
       </c>
@@ -19640,7 +19652,7 @@
         <v>3371.4256</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="16">
         <v>42993</v>
       </c>
@@ -19651,7 +19663,7 @@
         <v>3353.6192000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="16">
         <v>42996</v>
       </c>
@@ -19662,7 +19674,7 @@
         <v>3362.8587000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="16">
         <v>42997</v>
       </c>
@@ -19673,7 +19685,7 @@
         <v>3356.8445999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="16">
         <v>42998</v>
       </c>
@@ -19684,7 +19696,7 @@
         <v>3365.9958999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="16">
         <v>42999</v>
       </c>
@@ -19695,7 +19707,7 @@
         <v>3357.8123000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="16">
         <v>43000</v>
       </c>
@@ -19706,7 +19718,7 @@
         <v>3352.5293999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="16">
         <v>43003</v>
       </c>
@@ -19717,7 +19729,7 @@
         <v>3341.5486999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="16">
         <v>43004</v>
       </c>
@@ -19728,7 +19740,7 @@
         <v>3343.5826000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="16">
         <v>43005</v>
       </c>
@@ -19739,7 +19751,7 @@
         <v>3345.2716999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="16">
         <v>43006</v>
       </c>
@@ -19750,7 +19762,7 @@
         <v>3339.6421</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="16">
         <v>43007</v>
       </c>
@@ -19761,7 +19773,7 @@
         <v>3348.9431</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="16">
         <v>43017</v>
       </c>
@@ -19772,7 +19784,7 @@
         <v>3374.3780999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="16">
         <v>43018</v>
       </c>
@@ -19783,7 +19795,7 @@
         <v>3382.9879000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="16">
         <v>43019</v>
       </c>
@@ -19794,7 +19806,7 @@
         <v>3388.2838000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="16">
         <v>43020</v>
       </c>
@@ -19805,7 +19817,7 @@
         <v>3386.1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="16">
         <v>43021</v>
       </c>
@@ -19816,7 +19828,7 @@
         <v>3390.5232999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="16">
         <v>43024</v>
       </c>
@@ -19827,7 +19839,7 @@
         <v>3378.4704000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="16">
         <v>43025</v>
       </c>
@@ -19838,7 +19850,7 @@
         <v>3372.0407</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="16">
         <v>43026</v>
       </c>
@@ -19849,7 +19861,7 @@
         <v>3381.7937000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="16">
         <v>43027</v>
       </c>
@@ -19860,7 +19872,7 @@
         <v>3370.1720999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="16">
         <v>43028</v>
       </c>
@@ -19871,7 +19883,7 @@
         <v>3378.6480999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="16">
         <v>43031</v>
       </c>
@@ -19882,7 +19894,7 @@
         <v>3380.6990000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="16">
         <v>43032</v>
       </c>
@@ -19893,7 +19905,7 @@
         <v>3388.2476999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="16">
         <v>43033</v>
       </c>
@@ -19904,7 +19916,7 @@
         <v>3396.8975</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="16">
         <v>43034</v>
       </c>
@@ -19915,7 +19927,7 @@
         <v>3407.5671000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="16">
         <v>43035</v>
       </c>
@@ -19926,7 +19938,7 @@
         <v>3416.8123999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="16">
         <v>43038</v>
       </c>
@@ -19937,7 +19949,7 @@
         <v>3390.3371000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="16">
         <v>43039</v>
       </c>
@@ -19948,7 +19960,7 @@
         <v>3393.3416999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="16">
         <v>43040</v>
       </c>
@@ -19959,7 +19971,7 @@
         <v>3395.9124999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="16">
         <v>43041</v>
       </c>
@@ -19970,7 +19982,7 @@
         <v>3383.3094999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="16">
         <v>43042</v>
       </c>
@@ -19981,7 +19993,7 @@
         <v>3371.7440999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="16">
         <v>43045</v>
       </c>
@@ -19992,7 +20004,7 @@
         <v>3388.1741999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="16">
         <v>43046</v>
       </c>
@@ -20003,7 +20015,7 @@
         <v>3413.5747999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="16">
         <v>43047</v>
       </c>
@@ -20014,7 +20026,7 @@
         <v>3415.4602</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="16">
         <v>43048</v>
       </c>
@@ -20025,7 +20037,7 @@
         <v>3427.7946000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="16">
         <v>43049</v>
       </c>
@@ -20036,7 +20048,7 @@
         <v>3432.6731</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="16">
         <v>43052</v>
       </c>
@@ -20047,7 +20059,7 @@
         <v>3447.8357999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="16">
         <v>43053</v>
       </c>
@@ -20058,7 +20070,7 @@
         <v>3429.5482000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="16">
         <v>43054</v>
       </c>
@@ -20069,7 +20081,7 @@
         <v>3402.5245</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="16">
         <v>43055</v>
       </c>
@@ -20080,7 +20092,7 @@
         <v>3399.2503000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="16">
         <v>43056</v>
       </c>
@@ -20091,7 +20103,7 @@
         <v>3382.9074999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="16">
         <v>43059</v>
       </c>
@@ -20102,7 +20114,7 @@
         <v>3392.3987999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="16">
         <v>43060</v>
       </c>
@@ -20113,7 +20125,7 @@
         <v>3410.4976999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="16">
         <v>43061</v>
       </c>
@@ -20124,7 +20136,7 @@
         <v>3430.4643000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="16">
         <v>43062</v>
       </c>
@@ -20135,7 +20147,7 @@
         <v>3351.9182000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="16">
         <v>43063</v>
       </c>
@@ -20146,7 +20158,7 @@
         <v>3353.8207000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="16">
         <v>43066</v>
       </c>
@@ -20157,7 +20169,7 @@
         <v>3322.2298000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="16">
         <v>43067</v>
       </c>
@@ -20168,7 +20180,7 @@
         <v>3333.6570000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="16">
         <v>43068</v>
       </c>
@@ -20179,7 +20191,7 @@
         <v>3337.8620000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="16">
         <v>43069</v>
       </c>
@@ -20190,7 +20202,7 @@
         <v>3317.1884</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="16">
         <v>43070</v>
       </c>
@@ -20201,7 +20213,7 @@
         <v>3317.6174000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="16">
         <v>43073</v>
       </c>
@@ -20212,7 +20224,7 @@
         <v>3309.6183000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="16">
         <v>43074</v>
       </c>
@@ -20223,7 +20235,7 @@
         <v>3303.6750999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="16">
         <v>43075</v>
       </c>
@@ -20234,7 +20246,7 @@
         <v>3293.9648000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="16">
         <v>43076</v>
       </c>
@@ -20245,7 +20257,7 @@
         <v>3272.0542</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="16">
         <v>43077</v>
       </c>
@@ -20256,7 +20268,7 @@
         <v>3289.9924000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="16">
         <v>43080</v>
       </c>
@@ -20267,7 +20279,7 @@
         <v>3322.1956</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="16">
         <v>43081</v>
       </c>
@@ -20278,7 +20290,7 @@
         <v>3280.8136</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="16">
         <v>43082</v>
       </c>
@@ -20289,7 +20301,7 @@
         <v>3303.0373</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="16">
         <v>43083</v>
       </c>
@@ -20300,7 +20312,7 @@
         <v>3292.4385000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="16">
         <v>43084</v>
       </c>
@@ -20311,7 +20323,7 @@
         <v>3266.1370999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="16">
         <v>43087</v>
       </c>
@@ -20322,7 +20334,7 @@
         <v>3267.9223999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="16">
         <v>43088</v>
       </c>
@@ -20333,7 +20345,7 @@
         <v>3296.5383999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="16">
         <v>43089</v>
       </c>
@@ -20344,7 +20356,7 @@
         <v>3287.6057000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="16">
         <v>43090</v>
       </c>
@@ -20355,7 +20367,7 @@
         <v>3300.0592999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="16">
         <v>43091</v>
       </c>
@@ -20366,7 +20378,7 @@
         <v>3297.0630000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="16">
         <v>43094</v>
       </c>
@@ -20377,7 +20389,7 @@
         <v>3280.4609999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="16">
         <v>43095</v>
       </c>
@@ -20388,7 +20400,7 @@
         <v>3306.1246000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="16">
         <v>43096</v>
       </c>
@@ -20399,7 +20411,7 @@
         <v>3275.7828</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="16">
         <v>43097</v>
       </c>
@@ -20410,7 +20422,7 @@
         <v>3296.3847000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="16">
         <v>43098</v>
       </c>
@@ -20421,7 +20433,7 @@
         <v>3307.1720999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="16">
         <v>43102</v>
       </c>
@@ -20432,7 +20444,7 @@
         <v>3348.3258999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="16">
         <v>43103</v>
       </c>
@@ -20443,7 +20455,7 @@
         <v>3369.1084000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="16">
         <v>43104</v>
       </c>
@@ -20454,7 +20466,7 @@
         <v>3385.7102</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="16">
         <v>43105</v>
       </c>
@@ -20465,7 +20477,7 @@
         <v>3391.7501000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="16">
         <v>43108</v>
       </c>
@@ -20476,7 +20488,7 @@
         <v>3409.4794999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="16">
         <v>43109</v>
       </c>
@@ -20487,7 +20499,7 @@
         <v>3413.8996000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="16">
         <v>43110</v>
       </c>
@@ -20498,7 +20510,7 @@
         <v>3421.8343</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="16">
         <v>43111</v>
       </c>
@@ -20509,7 +20521,7 @@
         <v>3425.3449000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="16">
         <v>43112</v>
       </c>
@@ -20520,7 +20532,7 @@
         <v>3428.9407000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="16">
         <v>43115</v>
       </c>
@@ -20531,7 +20543,7 @@
         <v>3410.4881999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="16">
         <v>43116</v>
       </c>
@@ -20542,7 +20554,7 @@
         <v>3436.5940000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="16">
         <v>43117</v>
       </c>
@@ -20553,7 +20565,7 @@
         <v>3444.6713</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="16">
         <v>43118</v>
       </c>
@@ -20564,7 +20576,7 @@
         <v>3474.7539999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="16">
         <v>43119</v>
       </c>
@@ -20575,7 +20587,7 @@
         <v>3487.864</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="16">
         <v>43122</v>
       </c>
@@ -20586,7 +20598,7 @@
         <v>3501.3622</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="16">
         <v>43123</v>
       </c>
@@ -20597,7 +20609,7 @@
         <v>3546.5048000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="16">
         <v>43124</v>
       </c>
@@ -20608,7 +20620,7 @@
         <v>3559.4652999999998</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="16">
         <v>43125</v>
       </c>
@@ -20619,7 +20631,7 @@
         <v>3548.3069999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="16">
         <v>43126</v>
       </c>
@@ -20630,7 +20642,7 @@
         <v>3558.1288</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="16">
         <v>43129</v>
       </c>
@@ -20641,7 +20653,7 @@
         <v>3523.0007000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="16">
         <v>43130</v>
       </c>
@@ -20652,7 +20664,7 @@
         <v>3488.009</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="16">
         <v>43131</v>
       </c>
@@ -20663,7 +20675,7 @@
         <v>3480.8334</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="16">
         <v>43132</v>
       </c>
@@ -20674,7 +20686,7 @@
         <v>3446.9798999999998</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="16">
         <v>43133</v>
       </c>
@@ -20685,7 +20697,7 @@
         <v>3462.0808000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="16">
         <v>43136</v>
       </c>
@@ -20696,7 +20708,7 @@
         <v>3487.4969999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="16">
         <v>43137</v>
       </c>
@@ -20707,7 +20719,7 @@
         <v>3370.652</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="16">
         <v>43138</v>
       </c>
@@ -20718,7 +20730,7 @@
         <v>3309.2597999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="16">
         <v>43139</v>
       </c>
@@ -20729,7 +20741,7 @@
         <v>3262.0504000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="16">
         <v>43140</v>
       </c>
@@ -20740,7 +20752,7 @@
         <v>3129.8508000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="16">
         <v>43143</v>
       </c>
@@ -20751,7 +20763,7 @@
         <v>3154.1253999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="16">
         <v>43144</v>
       </c>
@@ -20762,7 +20774,7 @@
         <v>3184.9587000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="16">
         <v>43145</v>
       </c>
@@ -20773,7 +20785,7 @@
         <v>3199.1588999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="16">
         <v>43153</v>
       </c>
@@ -20784,7 +20796,7 @@
         <v>3268.56</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="16">
         <v>43154</v>
       </c>
@@ -20795,7 +20807,7 @@
         <v>3289.02</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="16">
         <v>43157</v>
       </c>
@@ -20806,7 +20818,7 @@
         <v>3329.57</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="16">
         <v>43158</v>
       </c>
@@ -20817,7 +20829,7 @@
         <v>3292.07</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="16">
         <v>43159</v>
       </c>
@@ -20828,7 +20840,7 @@
         <v>3259.41</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="16">
         <v>43160</v>
       </c>
@@ -20839,7 +20851,7 @@
         <v>3273.76</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="16">
         <v>43161</v>
       </c>
@@ -20850,7 +20862,7 @@
         <v>3254.53</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="16">
         <v>43164</v>
       </c>
@@ -20861,7 +20873,7 @@
         <v>3256.93</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="16">
         <v>43165</v>
       </c>
@@ -20872,7 +20884,7 @@
         <v>3289.64</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="16">
         <v>43166</v>
       </c>
@@ -20883,7 +20895,7 @@
         <v>3271.67</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="16">
         <v>43167</v>
       </c>
@@ -20894,7 +20906,7 @@
         <v>3288.41</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="16">
         <v>43168</v>
       </c>
@@ -20905,7 +20917,7 @@
         <v>3307.17</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="16">
         <v>43171</v>
       </c>
@@ -20916,7 +20928,7 @@
         <v>3326.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="16">
         <v>43172</v>
       </c>
@@ -20927,7 +20939,7 @@
         <v>3310.24</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="16">
         <v>43173</v>
       </c>
@@ -20938,7 +20950,7 @@
         <v>3291.38</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="16">
         <v>43174</v>
       </c>
@@ -20949,7 +20961,7 @@
         <v>3291.11</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="16">
         <v>43175</v>
       </c>
@@ -20960,7 +20972,7 @@
         <v>3269.88</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="16">
         <v>43178</v>
       </c>
@@ -20971,7 +20983,7 @@
         <v>3279.25</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="16">
         <v>43179</v>
       </c>
@@ -20982,7 +20994,7 @@
         <v>3290.64</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="16">
         <v>43180</v>
       </c>
@@ -20993,7 +21005,7 @@
         <v>3280.95</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="16">
         <v>43181</v>
       </c>
@@ -21004,7 +21016,7 @@
         <v>3263.48</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="16">
         <v>43182</v>
       </c>
@@ -21015,7 +21027,7 @@
         <v>3152.76</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="16">
         <v>43185</v>
       </c>
@@ -21026,7 +21038,7 @@
         <v>3133.72</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="16">
         <v>43186</v>
       </c>
@@ -21037,7 +21049,7 @@
         <v>3166.65</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="16">
         <v>43187</v>
       </c>
@@ -21048,7 +21060,7 @@
         <v>3122.29</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="16">
         <v>43188</v>
       </c>
@@ -21059,7 +21071,7 @@
         <v>3160.53</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="16">
         <v>43189</v>
       </c>
@@ -21070,7 +21082,7 @@
         <v>3168.9</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="16">
         <v>43192</v>
       </c>
@@ -21081,7 +21093,7 @@
         <v>3163.18</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="16">
         <v>43193</v>
       </c>
@@ -21092,7 +21104,7 @@
         <v>3136.63</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="16">
         <v>43194</v>
       </c>
@@ -21103,7 +21115,7 @@
         <v>3131.11</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="16">
         <v>43199</v>
       </c>
@@ -21114,7 +21126,7 @@
         <v>3138.29</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="16">
         <v>43200</v>
       </c>
@@ -21125,7 +21137,7 @@
         <v>3190.32</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="16">
         <v>43201</v>
       </c>
@@ -21136,7 +21148,7 @@
         <v>3208.08</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="16">
         <v>43202</v>
       </c>
@@ -21147,7 +21159,7 @@
         <v>3180.16</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="16">
         <v>43203</v>
       </c>
@@ -21158,7 +21170,7 @@
         <v>3159.05</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="16">
         <v>43206</v>
       </c>
@@ -21169,7 +21181,7 @@
         <v>3110.65</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="16">
         <v>43207</v>
       </c>
@@ -21180,7 +21192,7 @@
         <v>3066.8</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="16">
         <v>43208</v>
       </c>
@@ -21191,7 +21203,7 @@
         <v>3091.4</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="16">
         <v>43209</v>
       </c>
@@ -21202,7 +21214,7 @@
         <v>3117.48</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="16">
         <v>43210</v>
       </c>
@@ -21213,7 +21225,7 @@
         <v>3071.54</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="16">
         <v>43213</v>
       </c>
@@ -21224,7 +21236,7 @@
         <v>3068.01</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="16">
         <v>43214</v>
       </c>
@@ -21235,7 +21247,7 @@
         <v>3128.93</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="16">
         <v>43215</v>
       </c>
@@ -21246,7 +21258,7 @@
         <v>3117.97</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="16">
         <v>43216</v>
       </c>
@@ -21257,7 +21269,7 @@
         <v>3075.03</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="16">
         <v>43217</v>
       </c>
@@ -21268,7 +21280,7 @@
         <v>3082.23</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="16">
         <v>43222</v>
       </c>
@@ -21279,7 +21291,7 @@
         <v>3081.18</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="16">
         <v>43223</v>
       </c>
@@ -21290,7 +21302,7 @@
         <v>3100.86</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="16">
         <v>43224</v>
       </c>
@@ -21301,7 +21313,7 @@
         <v>3091.03</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="16">
         <v>43227</v>
       </c>
@@ -21312,7 +21324,7 @@
         <v>3136.64</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="16">
         <v>43228</v>
       </c>
@@ -21323,7 +21335,7 @@
         <v>3160.5</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="16">
         <v>43229</v>
       </c>
@@ -21334,7 +21346,7 @@
         <v>3159.15</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="16">
         <v>43230</v>
       </c>
@@ -21345,7 +21357,7 @@
         <v>3169.05</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="16">
         <v>43231</v>
       </c>
@@ -21356,7 +21368,7 @@
         <v>3163.26</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="16">
         <v>43234</v>
       </c>
@@ -21367,7 +21379,7 @@
         <v>3174.03</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="16">
         <v>43235</v>
       </c>
@@ -21378,7 +21390,7 @@
         <v>3192.12</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="16">
         <v>43236</v>
       </c>
@@ -21389,7 +21401,7 @@
         <v>3169.57</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="16">
         <v>43237</v>
       </c>
@@ -21400,7 +21412,7 @@
         <v>3154.28</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="16">
         <v>43238</v>
       </c>
@@ -21411,7 +21423,7 @@
         <v>3193.3</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="16">
         <v>43241</v>
       </c>
@@ -21422,7 +21434,7 @@
         <v>3213.84</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="16">
         <v>43242</v>
       </c>
@@ -21433,7 +21445,7 @@
         <v>3214.35</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="16">
         <v>43243</v>
       </c>
@@ -21444,7 +21456,7 @@
         <v>3168.96</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="16">
         <v>43244</v>
       </c>
@@ -21455,7 +21467,7 @@
         <v>3154.65</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="16">
         <v>43245</v>
       </c>
@@ -21466,7 +21478,7 @@
         <v>3141.3</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="16">
         <v>43248</v>
       </c>
@@ -21477,7 +21489,7 @@
         <v>3135.08</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="16">
         <v>43249</v>
       </c>
@@ -21488,7 +21500,7 @@
         <v>3120.46</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="16">
         <v>43250</v>
       </c>
@@ -21499,7 +21511,7 @@
         <v>3041.44</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="16">
         <v>43251</v>
       </c>
@@ -21510,7 +21522,7 @@
         <v>3095.47</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="16">
         <v>43252</v>
       </c>
@@ -21521,7 +21533,7 @@
         <v>3075.14</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="16">
         <v>43255</v>
       </c>
@@ -21532,7 +21544,7 @@
         <v>3091.19</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="16">
         <v>43256</v>
       </c>
@@ -21543,7 +21555,7 @@
         <v>3114.21</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="16">
         <v>43257</v>
       </c>
@@ -21554,7 +21566,7 @@
         <v>3115.18</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="16">
         <v>43258</v>
       </c>
@@ -21565,7 +21577,7 @@
         <v>3109.5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="16">
         <v>43259</v>
       </c>
@@ -21576,7 +21588,7 @@
         <v>3067.15</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="16">
         <v>43262</v>
       </c>
@@ -21587,7 +21599,7 @@
         <v>3052.78</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="16">
         <v>43263</v>
       </c>
@@ -21598,7 +21610,7 @@
         <v>3079.8</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="16">
         <v>43264</v>
       </c>
@@ -21609,7 +21621,7 @@
         <v>3049.8</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="16">
         <v>43265</v>
       </c>
@@ -21620,7 +21632,7 @@
         <v>3044.16</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="16">
         <v>43266</v>
       </c>
@@ -21631,7 +21643,7 @@
         <v>3021.9</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="16">
         <v>43270</v>
       </c>
@@ -21642,7 +21654,7 @@
         <v>2907.82</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="16">
         <v>43271</v>
       </c>
@@ -21653,7 +21665,7 @@
         <v>2915.73</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="16">
         <v>43272</v>
       </c>
@@ -21664,7 +21676,7 @@
         <v>2875.81</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="16">
         <v>43273</v>
       </c>
@@ -21675,7 +21687,7 @@
         <v>2889.76</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="16">
         <v>43276</v>
       </c>
@@ -21686,7 +21698,7 @@
         <v>2859.34</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="16">
         <v>43277</v>
       </c>
@@ -21697,7 +21709,7 @@
         <v>2844.51</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="16">
         <v>43278</v>
       </c>
@@ -21708,7 +21720,7 @@
         <v>2813.18</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="16">
         <v>43279</v>
       </c>
@@ -21719,7 +21731,7 @@
         <v>2786.9</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="16">
         <v>43280</v>
       </c>
@@ -21730,7 +21742,7 @@
         <v>2847.42</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="16">
         <v>43283</v>
       </c>
@@ -21741,7 +21753,7 @@
         <v>2775.56</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="16">
         <v>43284</v>
       </c>
@@ -21752,7 +21764,7 @@
         <v>2786.89</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="16">
         <v>43285</v>
       </c>
@@ -21763,7 +21775,7 @@
         <v>2759.13</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="16">
         <v>43286</v>
       </c>
@@ -21774,7 +21786,7 @@
         <v>2733.88</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="16">
         <v>43287</v>
       </c>
@@ -21785,7 +21797,7 @@
         <v>2747.23</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="16">
         <v>43290</v>
       </c>
@@ -21796,7 +21808,7 @@
         <v>2815.11</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="16">
         <v>43291</v>
       </c>
@@ -21807,7 +21819,7 @@
         <v>2827.63</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="16">
         <v>43292</v>
       </c>
@@ -21818,7 +21830,7 @@
         <v>2777.77</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="16">
         <v>43293</v>
       </c>
@@ -21829,7 +21841,7 @@
         <v>2837.66</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="16">
         <v>43294</v>
       </c>
@@ -21840,7 +21852,7 @@
         <v>2831.18</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="16">
         <v>43297</v>
       </c>
@@ -21851,7 +21863,7 @@
         <v>2814.04</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="16">
         <v>43298</v>
       </c>
@@ -21862,7 +21874,7 @@
         <v>2798.13</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="16">
         <v>43299</v>
       </c>
@@ -21873,7 +21885,7 @@
         <v>2787.26</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="16">
         <v>43300</v>
       </c>
@@ -21884,7 +21896,7 @@
         <v>2772.55</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="16">
         <v>43301</v>
       </c>
@@ -21895,7 +21907,7 @@
         <v>2829.27</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="16">
         <v>43304</v>
       </c>
@@ -21906,7 +21918,7 @@
         <v>2859.54</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="16">
         <v>43305</v>
       </c>
@@ -21917,7 +21929,7 @@
         <v>2905.56</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="16">
         <v>43306</v>
       </c>
@@ -21928,7 +21940,7 @@
         <v>2903.65</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="16">
         <v>43307</v>
       </c>
@@ -21939,7 +21951,7 @@
         <v>2882.23</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="16">
         <v>43308</v>
       </c>
@@ -21950,7 +21962,7 @@
         <v>2873.59</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="16">
         <v>43311</v>
       </c>
@@ -21961,7 +21973,7 @@
         <v>2869.05</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="16">
         <v>43312</v>
       </c>
@@ -21972,7 +21984,7 @@
         <v>2876.4</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="16">
         <v>43313</v>
       </c>
@@ -21983,7 +21995,7 @@
         <v>2824.53</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="16">
         <v>43314</v>
       </c>
@@ -21994,7 +22006,7 @@
         <v>2768.02</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="16">
         <v>43315</v>
       </c>
@@ -22005,7 +22017,7 @@
         <v>2740.44</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="16">
         <v>43318</v>
       </c>
@@ -22016,7 +22028,7 @@
         <v>2705.16</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="16">
         <v>43319</v>
       </c>
@@ -22027,7 +22039,7 @@
         <v>2779.37</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="16">
         <v>43320</v>
       </c>
@@ -22038,7 +22050,7 @@
         <v>2744.07</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="16">
         <v>43321</v>
       </c>
@@ -22049,7 +22061,7 @@
         <v>2794.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="16">
         <v>43322</v>
       </c>
@@ -22060,7 +22072,7 @@
         <v>2795.31</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="16">
         <v>43325</v>
       </c>
@@ -22071,7 +22083,7 @@
         <v>2785.87</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="16">
         <v>43326</v>
       </c>
@@ -22082,7 +22094,7 @@
         <v>2780.96</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="16">
         <v>43327</v>
       </c>
@@ -22093,7 +22105,7 @@
         <v>2723.26</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="16">
         <v>43328</v>
       </c>
@@ -22104,7 +22116,7 @@
         <v>2705.19</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="16">
         <v>43329</v>
       </c>
@@ -22115,7 +22127,7 @@
         <v>2668.97</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="16">
         <v>43332</v>
       </c>
@@ -22126,7 +22138,7 @@
         <v>2698.47</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="16">
         <v>43333</v>
       </c>
@@ -22137,7 +22149,7 @@
         <v>2733.83</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="16">
         <v>43334</v>
       </c>
@@ -22148,7 +22160,7 @@
         <v>2714.61</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="16">
         <v>43335</v>
       </c>
@@ -22159,7 +22171,7 @@
         <v>2724.62</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="16">
         <v>43336</v>
       </c>
@@ -22170,7 +22182,7 @@
         <v>2729.43</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="16">
         <v>43339</v>
       </c>
@@ -22181,7 +22193,7 @@
         <v>2780.9</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="16">
         <v>43340</v>
       </c>
@@ -22192,7 +22204,7 @@
         <v>2777.98</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="16">
         <v>43341</v>
       </c>
@@ -22203,7 +22215,7 @@
         <v>2769.29</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="16">
         <v>43342</v>
       </c>
@@ -22214,7 +22226,7 @@
         <v>2737.74</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="16">
         <v>43343</v>
       </c>
@@ -22225,7 +22237,7 @@
         <v>2725.25</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="16">
         <v>43346</v>
       </c>
@@ -22236,7 +22248,7 @@
         <v>2720.73</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="16">
         <v>43347</v>
       </c>
@@ -22247,7 +22259,7 @@
         <v>2750.58</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="16">
         <v>43348</v>
       </c>
@@ -22258,7 +22270,7 @@
         <v>2704.34</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="16">
         <v>43349</v>
       </c>
@@ -22269,7 +22281,7 @@
         <v>2691.59</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="16">
         <v>43350</v>
       </c>
@@ -22280,7 +22292,7 @@
         <v>2702.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="16">
         <v>43353</v>
       </c>
@@ -22291,7 +22303,7 @@
         <v>2669.48</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="16">
         <v>43354</v>
       </c>
@@ -22302,7 +22314,7 @@
         <v>2664.8</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="16">
         <v>43355</v>
       </c>
@@ -22313,7 +22325,7 @@
         <v>2656.11</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="16">
         <v>43356</v>
       </c>
@@ -22324,7 +22336,7 @@
         <v>2686.58</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="16">
         <v>43357</v>
       </c>
@@ -22335,7 +22347,7 @@
         <v>2681.64</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="16">
         <v>43360</v>
       </c>
@@ -22346,7 +22358,7 @@
         <v>2651.79</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="16">
         <v>43361</v>
       </c>
@@ -22357,7 +22369,7 @@
         <v>2669.95</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="16">
         <v>43362</v>
       </c>
@@ -22368,7 +22380,7 @@
         <v>2730.85</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="16">
         <v>43363</v>
       </c>
@@ -22379,7 +22391,7 @@
         <v>2729.24</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="16">
         <v>43364</v>
       </c>
@@ -22390,7 +22402,7 @@
         <v>2797.48</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="16">
         <v>43368</v>
       </c>
@@ -22401,7 +22413,7 @@
         <v>2781.14</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="16">
         <v>43369</v>
       </c>
@@ -22412,7 +22424,7 @@
         <v>2806.81</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="16">
         <v>43370</v>
       </c>
@@ -22423,7 +22435,7 @@
         <v>2791.77</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="16">
         <v>43371</v>
       </c>
@@ -22434,7 +22446,7 @@
         <v>2821.35</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="16">
         <v>43381</v>
       </c>
@@ -22445,7 +22457,7 @@
         <v>2716.51</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="16">
         <v>43382</v>
       </c>
@@ -22456,7 +22468,7 @@
         <v>2721.01</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="16">
         <v>43383</v>
       </c>
@@ -22467,7 +22479,7 @@
         <v>2725.84</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="16">
         <v>43384</v>
       </c>
@@ -22478,7 +22490,7 @@
         <v>2583.46</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="16">
         <v>43385</v>
       </c>
@@ -22489,7 +22501,7 @@
         <v>2606.91</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="16">
         <v>43388</v>
       </c>
@@ -22500,7 +22512,7 @@
         <v>2568.1</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="16">
         <v>43389</v>
       </c>
@@ -22511,7 +22523,7 @@
         <v>2546.33</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="16">
         <v>43390</v>
       </c>
@@ -22522,7 +22534,7 @@
         <v>2561.61</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="16">
         <v>43391</v>
       </c>
@@ -22533,7 +22545,7 @@
         <v>2486.42</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="16">
         <v>43392</v>
       </c>
@@ -22544,7 +22556,7 @@
         <v>2550.4699999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="16">
         <v>43395</v>
       </c>
@@ -22555,7 +22567,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="16">
         <v>43396</v>
       </c>
@@ -22566,7 +22578,7 @@
         <v>2594.83</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="16">
         <v>43397</v>
       </c>
@@ -22577,7 +22589,7 @@
         <v>2603.3000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="16">
         <v>43398</v>
       </c>
@@ -22588,7 +22600,7 @@
         <v>2603.8000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="16">
         <v>43399</v>
       </c>
@@ -22599,7 +22611,7 @@
         <v>2598.85</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="16">
         <v>43402</v>
       </c>
@@ -22610,7 +22622,7 @@
         <v>2542.1</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="16">
         <v>43403</v>
       </c>
@@ -22621,7 +22633,7 @@
         <v>2568.0500000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="16">
         <v>43404</v>
       </c>
@@ -22632,7 +22644,7 @@
         <v>2602.7800000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="16">
         <v>43405</v>
       </c>
@@ -22643,7 +22655,7 @@
         <v>2606.2399999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="16">
         <v>43406</v>
       </c>
@@ -22654,7 +22666,7 @@
         <v>2676.48</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="16">
         <v>43409</v>
       </c>
@@ -22665,7 +22677,7 @@
         <v>2665.43</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="16">
         <v>43410</v>
       </c>
@@ -22676,7 +22688,7 @@
         <v>2659.36</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="16">
         <v>43411</v>
       </c>
@@ -22687,7 +22699,7 @@
         <v>2641.34</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="16">
         <v>43412</v>
       </c>
@@ -22698,7 +22710,7 @@
         <v>2635.63</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="16">
         <v>43413</v>
       </c>
@@ -22709,7 +22721,7 @@
         <v>2598.87</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="16">
         <v>43416</v>
       </c>
@@ -22720,7 +22732,7 @@
         <v>2630.52</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="16">
         <v>43417</v>
       </c>
@@ -22731,7 +22743,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="16">
         <v>43418</v>
       </c>
@@ -22742,7 +22754,7 @@
         <v>2632.24</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="16">
         <v>43419</v>
       </c>
@@ -22753,7 +22765,7 @@
         <v>2668.17</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="16">
         <v>43420</v>
       </c>
@@ -22764,7 +22776,7 @@
         <v>2679.11</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="16">
         <v>43423</v>
       </c>
@@ -22775,7 +22787,7 @@
         <v>2703.51</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="16">
         <v>43424</v>
       </c>
@@ -22786,7 +22798,7 @@
         <v>2645.85</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="16">
         <v>43425</v>
       </c>
@@ -22797,7 +22809,7 @@
         <v>2651.51</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="16">
         <v>43426</v>
       </c>
@@ -22808,7 +22820,7 @@
         <v>2645.43</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="16">
         <v>43427</v>
       </c>
@@ -22819,7 +22831,7 @@
         <v>2579.48</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="16">
         <v>43430</v>
       </c>
@@ -22830,7 +22842,7 @@
         <v>2575.81</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="16">
         <v>43431</v>
       </c>
@@ -22841,7 +22853,7 @@
         <v>2574.6799999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="16">
         <v>43432</v>
       </c>
@@ -22852,7 +22864,7 @@
         <v>2601.7399999999998</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="16">
         <v>43433</v>
       </c>
@@ -22863,7 +22875,7 @@
         <v>2567.44</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="16">
         <v>43434</v>
       </c>
@@ -22874,7 +22886,7 @@
         <v>2588.19</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="16">
         <v>43437</v>
       </c>
@@ -22885,7 +22897,7 @@
         <v>2654.8</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="16">
         <v>43438</v>
       </c>
@@ -22896,7 +22908,7 @@
         <v>2665.96</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="16">
         <v>43439</v>
       </c>
@@ -22907,7 +22919,7 @@
         <v>2649.81</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="16">
         <v>43440</v>
       </c>
@@ -22918,7 +22930,7 @@
         <v>2605.1799999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="16">
         <v>43441</v>
       </c>
@@ -22929,7 +22941,7 @@
         <v>2605.89</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="16">
         <v>43444</v>
       </c>
@@ -22940,7 +22952,7 @@
         <v>2584.58</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="16">
         <v>43445</v>
       </c>
@@ -22951,7 +22963,7 @@
         <v>2594.09</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="16">
         <v>43446</v>
       </c>
@@ -22962,7 +22974,7 @@
         <v>2602.15</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="16">
         <v>43447</v>
       </c>
@@ -22973,7 +22985,7 @@
         <v>2634.05</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="16">
         <v>43448</v>
       </c>
@@ -22984,7 +22996,7 @@
         <v>2593.7399999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="16">
         <v>43451</v>
       </c>
@@ -22995,7 +23007,7 @@
         <v>2597.9699999999998</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="16">
         <v>43452</v>
       </c>
@@ -23006,7 +23018,7 @@
         <v>2576.65</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="16">
         <v>43453</v>
       </c>
@@ -23017,7 +23029,7 @@
         <v>2549.56</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="16">
         <v>43454</v>
       </c>
@@ -23028,7 +23040,7 @@
         <v>2536.27</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="16">
         <v>43455</v>
       </c>
@@ -23039,7 +23051,7 @@
         <v>2516.25</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="16">
         <v>43458</v>
       </c>
@@ -23050,7 +23062,7 @@
         <v>2527.0100000000002</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="16">
         <v>43459</v>
       </c>
@@ -23061,7 +23073,7 @@
         <v>2504.8200000000002</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="16">
         <v>43460</v>
       </c>
@@ -23072,7 +23084,7 @@
         <v>2498.29</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="16">
         <v>43461</v>
       </c>
@@ -23083,7 +23095,7 @@
         <v>2483.09</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="16">
         <v>43462</v>
       </c>
@@ -23094,7 +23106,7 @@
         <v>2493.9</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="16">
         <v>43467</v>
       </c>
@@ -23105,7 +23117,7 @@
         <v>2465.29</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="16">
         <v>43468</v>
       </c>
@@ -23116,7 +23128,7 @@
         <v>2464.36</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="16">
         <v>43469</v>
       </c>
@@ -23127,7 +23139,7 @@
         <v>2514.87</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="16">
         <v>43472</v>
       </c>
@@ -23138,7 +23150,7 @@
         <v>2533.09</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="16">
         <v>43473</v>
       </c>
@@ -23149,7 +23161,7 @@
         <v>2525.46</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="16">
         <v>43474</v>
       </c>
@@ -23160,7 +23172,7 @@
         <v>2544.34</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="16">
         <v>43475</v>
       </c>
@@ -23171,7 +23183,7 @@
         <v>2535.1</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="16">
         <v>43476</v>
       </c>
@@ -23182,7 +23194,7 @@
         <v>2553.83</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="16">
         <v>43479</v>
       </c>
@@ -23193,7 +23205,7 @@
         <v>2535.77</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="16">
         <v>43480</v>
       </c>
@@ -23204,7 +23216,7 @@
         <v>2570.34</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="16">
         <v>43481</v>
       </c>
@@ -23215,7 +23227,7 @@
         <v>2570.42</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="16">
         <v>43482</v>
       </c>
@@ -23226,7 +23238,7 @@
         <v>2559.64</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="16">
         <v>43483</v>
       </c>
@@ -23237,7 +23249,7 @@
         <v>2596.0100000000002</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="16">
         <v>43486</v>
       </c>
@@ -23248,7 +23260,7 @@
         <v>2610.5100000000002</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="16">
         <v>43487</v>
       </c>
@@ -23259,7 +23271,7 @@
         <v>2579.6999999999998</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="16">
         <v>43488</v>
       </c>
@@ -23270,7 +23282,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="16">
         <v>43489</v>
       </c>
@@ -23281,7 +23293,7 @@
         <v>2591.69</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="16">
         <v>43490</v>
       </c>
@@ -23292,7 +23304,7 @@
         <v>2601.7199999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="16">
         <v>43493</v>
       </c>
@@ -23303,7 +23315,7 @@
         <v>2596.98</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="16">
         <v>43494</v>
       </c>
@@ -23314,7 +23326,7 @@
         <v>2594.25</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="16">
         <v>43495</v>
       </c>
@@ -23325,7 +23337,7 @@
         <v>2575.58</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="16">
         <v>43496</v>
       </c>
@@ -23336,7 +23348,7 @@
         <v>2584.5700000000002</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="16">
         <v>43497</v>
       </c>
@@ -23347,7 +23359,7 @@
         <v>2618.23</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="16">
         <v>43507</v>
       </c>
@@ -23358,7 +23370,7 @@
         <v>2653.9</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="16">
         <v>43508</v>
       </c>
@@ -23369,7 +23381,7 @@
         <v>2671.89</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="16">
         <v>43509</v>
       </c>
@@ -23380,7 +23392,7 @@
         <v>2721.07</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="16">
         <v>43510</v>
       </c>
@@ -23391,7 +23403,7 @@
         <v>2719.7</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="16">
         <v>43511</v>
       </c>
@@ -23402,7 +23414,7 @@
         <v>2682.39</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="16">
         <v>43514</v>
       </c>
@@ -23413,7 +23425,7 @@
         <v>2754.36</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="16">
         <v>43515</v>
       </c>
@@ -23424,7 +23436,7 @@
         <v>2755.65</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="16">
         <v>43516</v>
       </c>
@@ -23435,7 +23447,7 @@
         <v>2761.22</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="16">
         <v>43517</v>
       </c>
@@ -23446,7 +23458,7 @@
         <v>2751.8</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="16">
         <v>43518</v>
       </c>
@@ -23457,7 +23469,7 @@
         <v>2804.23</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="16">
         <v>43521</v>
       </c>
@@ -23468,7 +23480,7 @@
         <v>2961.28</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="16">
         <v>43522</v>
       </c>
@@ -23479,7 +23491,7 @@
         <v>2941.52</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="16">
         <v>43523</v>
       </c>
@@ -23490,7 +23502,7 @@
         <v>2953.82</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="16">
         <v>43524</v>
       </c>
@@ -23501,7 +23513,7 @@
         <v>2940.95</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="16">
         <v>43525</v>
       </c>
@@ -23512,7 +23524,7 @@
         <v>2994.01</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="16">
         <v>43528</v>
       </c>
@@ -23523,7 +23535,7 @@
         <v>3027.58</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="16">
         <v>43529</v>
       </c>
@@ -23534,7 +23546,7 @@
         <v>3054.25</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="16">
         <v>43530</v>
       </c>
@@ -23545,7 +23557,7 @@
         <v>3102.1</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="16">
         <v>43531</v>
       </c>
@@ -23556,7 +23568,7 @@
         <v>3106.42</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="16">
         <v>43532</v>
       </c>
@@ -23567,7 +23579,7 @@
         <v>2969.86</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="16">
         <v>43535</v>
       </c>
@@ -23578,7 +23590,7 @@
         <v>3026.99</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="16">
         <v>43536</v>
       </c>
@@ -23589,7 +23601,7 @@
         <v>3060.31</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="16">
         <v>43537</v>
       </c>
@@ -23600,7 +23612,7 @@
         <v>3026.95</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="16">
         <v>43538</v>
       </c>
@@ -23611,7 +23623,7 @@
         <v>2990.69</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="16">
         <v>43539</v>
       </c>
@@ -23622,7 +23634,7 @@
         <v>3021.75</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="16">
         <v>43542</v>
       </c>
@@ -23633,7 +23645,7 @@
         <v>3096.42</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="16">
         <v>43543</v>
       </c>
@@ -23644,7 +23656,7 @@
         <v>3090.98</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="16">
         <v>43544</v>
       </c>
@@ -23655,7 +23667,7 @@
         <v>3090.64</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="16">
         <v>43545</v>
       </c>
@@ -23666,7 +23678,7 @@
         <v>3101.46</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="16">
         <v>43546</v>
       </c>
@@ -23677,7 +23689,7 @@
         <v>3104.15</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="16">
         <v>43549</v>
       </c>
@@ -23688,7 +23700,7 @@
         <v>3043.03</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="16">
         <v>43550</v>
       </c>
@@ -23699,7 +23711,7 @@
         <v>2997.1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="16">
         <v>43551</v>
       </c>
@@ -23710,7 +23722,7 @@
         <v>3022.72</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="16">
         <v>43552</v>
       </c>
@@ -23721,7 +23733,7 @@
         <v>2994.94</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="16">
         <v>43553</v>
       </c>
@@ -23732,7 +23744,7 @@
         <v>3090.76</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="16">
         <v>43556</v>
       </c>
@@ -23743,7 +23755,7 @@
         <v>3170.36</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="16">
         <v>43557</v>
       </c>
@@ -23754,7 +23766,7 @@
         <v>3176.82</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="16">
         <v>43558</v>
       </c>
@@ -23765,7 +23777,7 @@
         <v>3216.3</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="16">
         <v>43559</v>
       </c>
@@ -23776,7 +23788,7 @@
         <v>3246.57</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="16">
         <v>43563</v>
       </c>
@@ -23787,7 +23799,7 @@
         <v>3244.81</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="16">
         <v>43564</v>
       </c>
@@ -23798,7 +23810,7 @@
         <v>3239.66</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="16">
         <v>43565</v>
       </c>
@@ -23809,7 +23821,7 @@
         <v>3241.93</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="16">
         <v>43566</v>
       </c>
@@ -23820,7 +23832,7 @@
         <v>3189.96</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="16">
         <v>43567</v>
       </c>
@@ -23831,7 +23843,7 @@
         <v>3188.63</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="16">
         <v>43570</v>
       </c>
@@ -23842,7 +23854,7 @@
         <v>3177.79</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="16">
         <v>43571</v>
       </c>
@@ -23853,7 +23865,7 @@
         <v>3253.6</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="16">
         <v>43572</v>
       </c>
@@ -23864,7 +23876,7 @@
         <v>3263.12</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="16">
         <v>43573</v>
       </c>
@@ -23875,7 +23887,7 @@
         <v>3250.2</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="16">
         <v>43574</v>
       </c>
@@ -23886,7 +23898,7 @@
         <v>3270.8</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="16">
         <v>43577</v>
       </c>
@@ -23897,7 +23909,7 @@
         <v>3215.04</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="16">
         <v>43578</v>
       </c>
@@ -23908,7 +23920,7 @@
         <v>3198.59</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="16">
         <v>43579</v>
       </c>
@@ -23919,7 +23931,7 @@
         <v>3201.61</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="16">
         <v>43580</v>
       </c>
@@ -23930,7 +23942,7 @@
         <v>3123.83</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="16">
         <v>43581</v>
       </c>
@@ -23941,7 +23953,7 @@
         <v>3086.4</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="16">
         <v>43584</v>
       </c>
@@ -23952,7 +23964,7 @@
         <v>3062.5</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="16">
         <v>43585</v>
       </c>
@@ -23963,7 +23975,7 @@
         <v>3078.34</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="16">
         <v>43591</v>
       </c>
@@ -23974,7 +23986,7 @@
         <v>2906.46</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="16">
         <v>43592</v>
       </c>
@@ -23985,7 +23997,7 @@
         <v>2926.39</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="16">
         <v>43593</v>
       </c>
@@ -23996,7 +24008,7 @@
         <v>2893.76</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="16">
         <v>43594</v>
       </c>
@@ -24007,7 +24019,7 @@
         <v>2850.95</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="16">
         <v>43595</v>
       </c>
@@ -24018,7 +24030,7 @@
         <v>2939.21</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="16">
         <v>43598</v>
       </c>
@@ -24029,7 +24041,7 @@
         <v>2903.71</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="16">
         <v>43599</v>
       </c>
@@ -24040,7 +24052,7 @@
         <v>2883.61</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="16">
         <v>43600</v>
       </c>
@@ -24051,7 +24063,7 @@
         <v>2938.68</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="16">
         <v>43601</v>
       </c>
@@ -24062,7 +24074,7 @@
         <v>2955.71</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" s="16">
         <v>43602</v>
       </c>
@@ -24073,7 +24085,7 @@
         <v>2882.3</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="16">
         <v>43605</v>
       </c>
@@ -24084,7 +24096,7 @@
         <v>2870.6</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="16">
         <v>43606</v>
       </c>
@@ -24095,7 +24107,7 @@
         <v>2905.97</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="16">
         <v>43607</v>
       </c>
@@ -24106,7 +24118,7 @@
         <v>2891.7</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="16">
         <v>43608</v>
       </c>
@@ -24117,7 +24129,7 @@
         <v>2852.52</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="16">
         <v>43609</v>
       </c>
@@ -24128,7 +24140,7 @@
         <v>2852.99</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" s="16">
         <v>43612</v>
       </c>
@@ -24139,7 +24151,7 @@
         <v>2892.38</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" s="16">
         <v>43613</v>
       </c>
@@ -24150,7 +24162,7 @@
         <v>2909.91</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="16">
         <v>43614</v>
       </c>
@@ -24161,7 +24173,7 @@
         <v>2914.7</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="16">
         <v>43615</v>
       </c>
@@ -24172,7 +24184,7 @@
         <v>2905.81</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="16">
         <v>43616</v>
       </c>
@@ -24183,7 +24195,7 @@
         <v>2898.7</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="16">
         <v>43619</v>
       </c>
@@ -24194,7 +24206,7 @@
         <v>2890.08</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="16">
         <v>43620</v>
       </c>
@@ -24205,7 +24217,7 @@
         <v>2862.28</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="16">
         <v>43621</v>
       </c>
@@ -24216,12 +24228,43 @@
         <v>2861.42</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="16">
         <v>43622</v>
       </c>
+      <c r="B835" s="15">
+        <v>58.53</v>
+      </c>
       <c r="C835">
         <v>2827.8</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A836" s="16">
+        <v>43626</v>
+      </c>
+      <c r="C836">
+        <v>2852.13</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A837" s="16">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A838" s="16">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A839" s="16">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A840" s="16">
+        <v>43630</v>
       </c>
     </row>
   </sheetData>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AF1C77-7FB7-4F44-BEDC-CD7052EBB59D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD8300-975F-4D45-AF14-B799C81C21E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.17944648756793558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$835</c:f>
+              <c:f>Sheet1!$A$2:$A$836</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="834"/>
+                <c:ptCount val="835"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3899,16 +3899,19 @@
                 </c:pt>
                 <c:pt idx="833">
                   <c:v>43622</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>43626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$835</c:f>
+              <c:f>Sheet1!$B$2:$B$836</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="834"/>
+                <c:ptCount val="835"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6410,6 +6413,9 @@
                 </c:pt>
                 <c:pt idx="833">
                   <c:v>58.53</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>58.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6465,10 +6471,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$835</c:f>
+              <c:f>Sheet1!$A$2:$A$836</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="834"/>
+                <c:ptCount val="835"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8970,16 +8976,19 @@
                 </c:pt>
                 <c:pt idx="833">
                   <c:v>43622</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>43626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$835</c:f>
+              <c:f>Sheet1!$C$2:$C$836</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="834"/>
+                <c:ptCount val="835"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11481,6 +11490,9 @@
                 </c:pt>
                 <c:pt idx="833">
                   <c:v>2827.8</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>2852.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14313,26 +14325,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -14345,7 +14357,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2010</v>
@@ -14372,7 +14384,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -14401,7 +14413,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -14430,7 +14442,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -14459,7 +14471,7 @@
         <v>0.17810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -14488,7 +14500,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -14517,10 +14529,10 @@
         <v>-0.1615</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至1900-1-0</v>
+        <v>说明:2017年统计范围为年初至2019-6-10</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14531,14 +14543,14 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43626</v>
+        <v>43627</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>0</v>
+        <v>43626</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14548,10 +14560,10 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>17.944648756793558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O10" s="13">
         <v>2010</v>
       </c>
@@ -14562,7 +14574,7 @@
         <v>-6.88E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O11" s="13">
         <v>2011</v>
       </c>
@@ -14573,7 +14585,7 @@
         <v>-0.22420000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O12" s="13">
         <v>2012</v>
       </c>
@@ -14584,7 +14596,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O13" s="13">
         <v>2013</v>
       </c>
@@ -14595,7 +14607,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O14" s="13">
         <v>2014</v>
       </c>
@@ -14606,7 +14618,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O15" s="13">
         <v>2015</v>
       </c>
@@ -14617,7 +14629,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O16" s="13">
         <v>2016</v>
       </c>
@@ -14628,7 +14640,7 @@
         <v>-0.12909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O17" s="13">
         <v>2017</v>
       </c>
@@ -14639,7 +14651,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O18" s="13">
         <v>2018</v>
       </c>
@@ -14650,7 +14662,7 @@
         <v>-0.28253486362704305</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O19" s="13">
         <v>2019</v>
       </c>
@@ -14660,10 +14672,10 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+        <v>0.17944648756793558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
@@ -14678,7 +14690,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>2010</v>
@@ -14711,7 +14723,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -14746,7 +14758,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -14781,7 +14793,7 @@
         <v>0.54120000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>2</v>
       </c>
@@ -14816,7 +14828,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -14851,7 +14863,7 @@
         <v>0.27760000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -14886,10 +14898,10 @@
         <v>-1.46E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至1900-1-0</v>
+        <v>说明:2019年统计范围为年初至2019-6-10</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14902,7 +14914,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -14915,7 +14927,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -14928,7 +14940,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -14941,7 +14953,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -14954,7 +14966,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -14967,7 +14979,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -14980,7 +14992,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -14993,7 +15005,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -15006,7 +15018,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -15039,18 +15051,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B812" workbookViewId="0">
-      <selection activeCell="B836" sqref="B836"/>
+    <sheetView tabSelected="1" topLeftCell="A812" workbookViewId="0">
+      <selection activeCell="B837" sqref="B837"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -15061,7 +15073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>42373</v>
       </c>
@@ -15072,7 +15084,7 @@
         <v>3296.2579999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>42374</v>
       </c>
@@ -15083,7 +15095,7 @@
         <v>3287.7109999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>42375</v>
       </c>
@@ -15094,7 +15106,7 @@
         <v>3361.84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>42376</v>
       </c>
@@ -15105,7 +15117,7 @@
         <v>3125.002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>42377</v>
       </c>
@@ -15116,7 +15128,7 @@
         <v>3186.4119999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>42380</v>
       </c>
@@ -15127,7 +15139,7 @@
         <v>3016.7040000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>42381</v>
       </c>
@@ -15138,7 +15150,7 @@
         <v>3022.8609999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>42382</v>
       </c>
@@ -15150,10 +15162,10 @@
       </c>
       <c r="N9" s="18">
         <f>[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>42383</v>
       </c>
@@ -15164,7 +15176,7 @@
         <v>3007.6489999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>42384</v>
       </c>
@@ -15175,7 +15187,7 @@
         <v>2900.9697999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>42387</v>
       </c>
@@ -15186,7 +15198,7 @@
         <v>2913.8366999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>42388</v>
       </c>
@@ -15197,7 +15209,7 @@
         <v>3007.7393000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>42389</v>
       </c>
@@ -15208,7 +15220,7 @@
         <v>2976.694</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>42390</v>
       </c>
@@ -15219,7 +15231,7 @@
         <v>2880.482</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>42391</v>
       </c>
@@ -15230,7 +15242,7 @@
         <v>2916.5619999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>42394</v>
       </c>
@@ -15241,7 +15253,7 @@
         <v>2938.5149999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>42395</v>
       </c>
@@ -15252,7 +15264,7 @@
         <v>2749.7849999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>42396</v>
       </c>
@@ -15263,7 +15275,7 @@
         <v>2735.558</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>42397</v>
       </c>
@@ -15274,7 +15286,7 @@
         <v>2655.6610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>42398</v>
       </c>
@@ -15285,7 +15297,7 @@
         <v>2737.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>42401</v>
       </c>
@@ -15296,7 +15308,7 @@
         <v>2688.8539999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>42402</v>
       </c>
@@ -15307,7 +15319,7 @@
         <v>2749.57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>42403</v>
       </c>
@@ -15318,7 +15330,7 @@
         <v>2739.2469999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>42404</v>
       </c>
@@ -15329,7 +15341,7 @@
         <v>2781.0230000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>42405</v>
       </c>
@@ -15340,7 +15352,7 @@
         <v>2763.4920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>42415</v>
       </c>
@@ -15351,7 +15363,7 @@
         <v>2746.1959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>42416</v>
       </c>
@@ -15362,7 +15374,7 @@
         <v>2836.5709999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>42417</v>
       </c>
@@ -15373,7 +15385,7 @@
         <v>2867.3380000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>42418</v>
       </c>
@@ -15384,7 +15396,7 @@
         <v>2862.893</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>42419</v>
       </c>
@@ -15395,7 +15407,7 @@
         <v>2860.0210000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>42422</v>
       </c>
@@ -15406,7 +15418,7 @@
         <v>2927.1750000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>42423</v>
       </c>
@@ -15417,7 +15429,7 @@
         <v>2903.3310000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>42424</v>
       </c>
@@ -15428,7 +15440,7 @@
         <v>2928.8960000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>42425</v>
       </c>
@@ -15439,7 +15451,7 @@
         <v>2741.2449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>42426</v>
       </c>
@@ -15450,7 +15462,7 @@
         <v>2767.21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>42429</v>
       </c>
@@ -15461,7 +15473,7 @@
         <v>2687.9789999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>42430</v>
       </c>
@@ -15472,7 +15484,7 @@
         <v>2733.17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>42431</v>
       </c>
@@ -15483,7 +15495,7 @@
         <v>2849.681</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>42432</v>
       </c>
@@ -15494,7 +15506,7 @@
         <v>2859.7579999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>42433</v>
       </c>
@@ -15505,7 +15517,7 @@
         <v>2874.1469999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>42436</v>
       </c>
@@ -15516,7 +15528,7 @@
         <v>2897.34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>42437</v>
       </c>
@@ -15527,7 +15539,7 @@
         <v>2901.3870000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>42438</v>
       </c>
@@ -15538,7 +15550,7 @@
         <v>2862.556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>42439</v>
       </c>
@@ -15549,7 +15561,7 @@
         <v>2804.7260000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>42440</v>
       </c>
@@ -15560,7 +15572,7 @@
         <v>2810.3069999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>42443</v>
       </c>
@@ -15571,7 +15583,7 @@
         <v>2859.4989999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>42444</v>
       </c>
@@ -15582,7 +15594,7 @@
         <v>2864.3679999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>42445</v>
       </c>
@@ -15593,7 +15605,7 @@
         <v>2870.43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>42446</v>
       </c>
@@ -15604,7 +15616,7 @@
         <v>2904.8319999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>42447</v>
       </c>
@@ -15615,7 +15627,7 @@
         <v>2955.15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>42450</v>
       </c>
@@ -15626,7 +15638,7 @@
         <v>3018.8020000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>42451</v>
       </c>
@@ -15637,7 +15649,7 @@
         <v>2999.3629999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>42452</v>
       </c>
@@ -15648,7 +15660,7 @@
         <v>3009.96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>42453</v>
       </c>
@@ -15659,7 +15671,7 @@
         <v>2960.97</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>42454</v>
       </c>
@@ -15670,7 +15682,7 @@
         <v>2979.4340000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>42457</v>
       </c>
@@ -15681,7 +15693,7 @@
         <v>2957.82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>42458</v>
       </c>
@@ -15692,7 +15704,7 @@
         <v>2919.8319999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>42459</v>
       </c>
@@ -15703,7 +15715,7 @@
         <v>3000.645</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>42460</v>
       </c>
@@ -15714,7 +15726,7 @@
         <v>3003.915</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>42461</v>
       </c>
@@ -15725,7 +15737,7 @@
         <v>3009.53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>42465</v>
       </c>
@@ -15736,7 +15748,7 @@
         <v>3053.0650000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>42466</v>
       </c>
@@ -15747,7 +15759,7 @@
         <v>3050.5920000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>42467</v>
       </c>
@@ -15758,7 +15770,7 @@
         <v>3008.42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>42468</v>
       </c>
@@ -15769,7 +15781,7 @@
         <v>2984.9580000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>42471</v>
       </c>
@@ -15780,7 +15792,7 @@
         <v>3033.9569999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>42472</v>
       </c>
@@ -15791,7 +15803,7 @@
         <v>3023.6460000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>42473</v>
       </c>
@@ -15802,7 +15814,7 @@
         <v>3066.6379999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>42474</v>
       </c>
@@ -15813,7 +15825,7 @@
         <v>3082.3620000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>42475</v>
       </c>
@@ -15824,7 +15836,7 @@
         <v>3078.1170000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>42478</v>
       </c>
@@ -15835,7 +15847,7 @@
         <v>3033.66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>42479</v>
       </c>
@@ -15846,7 +15858,7 @@
         <v>3042.8229999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>42480</v>
       </c>
@@ -15857,7 +15869,7 @@
         <v>2972.5839999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>42481</v>
       </c>
@@ -15868,7 +15880,7 @@
         <v>2952.8910000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>42482</v>
       </c>
@@ -15879,7 +15891,7 @@
         <v>2959.24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>42485</v>
       </c>
@@ -15890,7 +15902,7 @@
         <v>2946.67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>42486</v>
       </c>
@@ -15901,7 +15913,7 @@
         <v>2964.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>42487</v>
       </c>
@@ -15912,7 +15924,7 @@
         <v>2953.6709999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>42488</v>
       </c>
@@ -15923,7 +15935,7 @@
         <v>2945.5889999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>42489</v>
       </c>
@@ -15934,7 +15946,7 @@
         <v>2938.3240000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>42493</v>
       </c>
@@ -15945,7 +15957,7 @@
         <v>2992.643</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>42494</v>
       </c>
@@ -15956,7 +15968,7 @@
         <v>2991.2719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>42495</v>
       </c>
@@ -15967,7 +15979,7 @@
         <v>2997.8420000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>42496</v>
       </c>
@@ -15978,7 +15990,7 @@
         <v>2913.248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>42499</v>
       </c>
@@ -15989,7 +16001,7 @@
         <v>2832.1129999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>42500</v>
       </c>
@@ -16000,7 +16012,7 @@
         <v>2832.5909999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>42501</v>
       </c>
@@ -16011,7 +16023,7 @@
         <v>2837.0369999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>42502</v>
       </c>
@@ -16022,7 +16034,7 @@
         <v>2835.8620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>42503</v>
       </c>
@@ -16033,7 +16045,7 @@
         <v>2827.1089999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>42506</v>
       </c>
@@ -16044,7 +16056,7 @@
         <v>2850.8620000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>42507</v>
       </c>
@@ -16055,7 +16067,7 @@
         <v>2843.6840000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>42508</v>
       </c>
@@ -16066,7 +16078,7 @@
         <v>2807.5140000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>42509</v>
       </c>
@@ -16077,7 +16089,7 @@
         <v>2806.9059999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>42510</v>
       </c>
@@ -16088,7 +16100,7 @@
         <v>2825.4830000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
         <v>42513</v>
       </c>
@@ -16099,7 +16111,7 @@
         <v>2843.645</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
         <v>42514</v>
       </c>
@@ -16110,7 +16122,7 @@
         <v>2821.6660000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
         <v>42515</v>
       </c>
@@ -16121,7 +16133,7 @@
         <v>2815.0862999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
         <v>42516</v>
       </c>
@@ -16132,7 +16144,7 @@
         <v>2822.4430000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
         <v>42517</v>
       </c>
@@ -16143,7 +16155,7 @@
         <v>2821.0459999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
         <v>42520</v>
       </c>
@@ -16154,7 +16166,7 @@
         <v>2822.451</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
         <v>42521</v>
       </c>
@@ -16165,7 +16177,7 @@
         <v>2916.616</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
         <v>42522</v>
       </c>
@@ -16176,7 +16188,7 @@
         <v>2913.5079999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
         <v>42523</v>
       </c>
@@ -16187,7 +16199,7 @@
         <v>2925.2289999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
         <v>42524</v>
       </c>
@@ -16198,7 +16210,7 @@
         <v>2938.6819999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
         <v>42527</v>
       </c>
@@ -16209,7 +16221,7 @@
         <v>2934.098</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
         <v>42528</v>
       </c>
@@ -16220,7 +16232,7 @@
         <v>2936.0450000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
         <v>42529</v>
       </c>
@@ -16231,7 +16243,7 @@
         <v>2927.1590000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
         <v>42534</v>
       </c>
@@ -16242,7 +16254,7 @@
         <v>2833.0709999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>42535</v>
       </c>
@@ -16253,7 +16265,7 @@
         <v>2842.1889999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
         <v>42536</v>
       </c>
@@ -16264,7 +16276,7 @@
         <v>2887.21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
         <v>42537</v>
       </c>
@@ -16275,7 +16287,7 @@
         <v>2872.817</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
         <v>42538</v>
       </c>
@@ -16286,7 +16298,7 @@
         <v>2885.105</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
         <v>42541</v>
       </c>
@@ -16297,7 +16309,7 @@
         <v>2888.8090000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
         <v>42542</v>
       </c>
@@ -16308,7 +16320,7 @@
         <v>2878.558</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
         <v>42543</v>
       </c>
@@ -16319,7 +16331,7 @@
         <v>2905.55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
         <v>42544</v>
       </c>
@@ -16330,7 +16342,7 @@
         <v>2891.96</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
         <v>42545</v>
       </c>
@@ -16341,7 +16353,7 @@
         <v>2854.2860000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="16">
         <v>42548</v>
       </c>
@@ -16352,7 +16364,7 @@
         <v>2895.703</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="16">
         <v>42549</v>
       </c>
@@ -16363,7 +16375,7 @@
         <v>2912.5569999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="16">
         <v>42550</v>
       </c>
@@ -16374,7 +16386,7 @@
         <v>2931.5920000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="16">
         <v>42551</v>
       </c>
@@ -16385,7 +16397,7 @@
         <v>2929.6060000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="16">
         <v>42552</v>
       </c>
@@ -16396,7 +16408,7 @@
         <v>2932.4760000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="16">
         <v>42555</v>
       </c>
@@ -16407,7 +16419,7 @@
         <v>2988.6039999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="16">
         <v>42556</v>
       </c>
@@ -16418,7 +16430,7 @@
         <v>3006.3919999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="16">
         <v>42557</v>
       </c>
@@ -16429,7 +16441,7 @@
         <v>3017.2919999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
         <v>42558</v>
       </c>
@@ -16440,7 +16452,7 @@
         <v>3016.8470000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
         <v>42559</v>
       </c>
@@ -16451,7 +16463,7 @@
         <v>2988.0940000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
         <v>42562</v>
       </c>
@@ -16462,7 +16474,7 @@
         <v>2994.9169999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="16">
         <v>42563</v>
       </c>
@@ -16473,7 +16485,7 @@
         <v>3049.3809999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="16">
         <v>42564</v>
       </c>
@@ -16484,7 +16496,7 @@
         <v>3060.6889999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="16">
         <v>42565</v>
       </c>
@@ -16495,7 +16507,7 @@
         <v>3054.018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="16">
         <v>42566</v>
       </c>
@@ -16506,7 +16518,7 @@
         <v>3054.2959999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="16">
         <v>42569</v>
       </c>
@@ -16517,7 +16529,7 @@
         <v>3043.5639999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="16">
         <v>42570</v>
       </c>
@@ -16528,7 +16540,7 @@
         <v>3036.598</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="16">
         <v>42571</v>
       </c>
@@ -16539,7 +16551,7 @@
         <v>3027.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="16">
         <v>42572</v>
       </c>
@@ -16550,7 +16562,7 @@
         <v>3039.009</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="16">
         <v>42573</v>
       </c>
@@ -16561,7 +16573,7 @@
         <v>3012.8159999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="16">
         <v>42576</v>
       </c>
@@ -16572,7 +16584,7 @@
         <v>3015.828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
         <v>42577</v>
       </c>
@@ -16583,7 +16595,7 @@
         <v>3050.1660000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
         <v>42578</v>
       </c>
@@ -16594,7 +16606,7 @@
         <v>2991.9989999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
         <v>42579</v>
       </c>
@@ -16605,7 +16617,7 @@
         <v>2994.3229999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
         <v>42580</v>
       </c>
@@ -16616,7 +16628,7 @@
         <v>2979.3389999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
         <v>42583</v>
       </c>
@@ -16627,7 +16639,7 @@
         <v>2953.3850000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="16">
         <v>42584</v>
       </c>
@@ -16638,7 +16650,7 @@
         <v>2971.279</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="16">
         <v>42585</v>
       </c>
@@ -16649,7 +16661,7 @@
         <v>2978.4609999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="16">
         <v>42586</v>
       </c>
@@ -16660,7 +16672,7 @@
         <v>2982.4259999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="16">
         <v>42587</v>
       </c>
@@ -16671,7 +16683,7 @@
         <v>2976.6959999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="16">
         <v>42590</v>
       </c>
@@ -16682,7 +16694,7 @@
         <v>3004.277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="16">
         <v>42591</v>
       </c>
@@ -16693,7 +16705,7 @@
         <v>3025.681</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="16">
         <v>42592</v>
       </c>
@@ -16704,7 +16716,7 @@
         <v>3018.7460000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="16">
         <v>42593</v>
       </c>
@@ -16715,7 +16727,7 @@
         <v>3002.6379999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="16">
         <v>42594</v>
       </c>
@@ -16726,7 +16738,7 @@
         <v>3050.6669999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
         <v>42597</v>
       </c>
@@ -16737,7 +16749,7 @@
         <v>3125.1950000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="16">
         <v>42598</v>
       </c>
@@ -16748,7 +16760,7 @@
         <v>3110.0369999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
         <v>42599</v>
       </c>
@@ -16759,7 +16771,7 @@
         <v>3109.5549999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
         <v>42600</v>
       </c>
@@ -16770,7 +16782,7 @@
         <v>3104.114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
         <v>42601</v>
       </c>
@@ -16781,7 +16793,7 @@
         <v>3108.1019999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
         <v>42604</v>
       </c>
@@ -16792,7 +16804,7 @@
         <v>3084.8049999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
         <v>42605</v>
       </c>
@@ -16803,7 +16815,7 @@
         <v>3089.7060000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
         <v>42606</v>
       </c>
@@ -16814,7 +16826,7 @@
         <v>3085.88</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
         <v>42607</v>
       </c>
@@ -16825,7 +16837,7 @@
         <v>3068.3290000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
         <v>42608</v>
       </c>
@@ -16836,7 +16848,7 @@
         <v>3070.3090000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
         <v>42611</v>
       </c>
@@ -16847,7 +16859,7 @@
         <v>3070.027</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
         <v>42612</v>
       </c>
@@ -16858,7 +16870,7 @@
         <v>3074.6770000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
         <v>42613</v>
       </c>
@@ -16869,7 +16881,7 @@
         <v>3085.491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="16">
         <v>42614</v>
       </c>
@@ -16880,7 +16892,7 @@
         <v>3063.3049999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="16">
         <v>42615</v>
       </c>
@@ -16891,7 +16903,7 @@
         <v>3067.3519999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="16">
         <v>42618</v>
       </c>
@@ -16902,7 +16914,7 @@
         <v>3072.0949999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="16">
         <v>42619</v>
       </c>
@@ -16913,7 +16925,7 @@
         <v>3090.7130000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="16">
         <v>42620</v>
       </c>
@@ -16924,7 +16936,7 @@
         <v>3091.9279999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
         <v>42621</v>
       </c>
@@ -16935,7 +16947,7 @@
         <v>3095.9540000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
         <v>42622</v>
       </c>
@@ -16946,7 +16958,7 @@
         <v>3078.855</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
         <v>42625</v>
       </c>
@@ -16957,7 +16969,7 @@
         <v>3021.9769999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
         <v>42626</v>
       </c>
@@ -16968,7 +16980,7 @@
         <v>3023.51</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
         <v>42627</v>
       </c>
@@ -16979,7 +16991,7 @@
         <v>3002.8490000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
         <v>42632</v>
       </c>
@@ -16990,7 +17002,7 @@
         <v>3026.0509999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
         <v>42633</v>
       </c>
@@ -17001,7 +17013,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
         <v>42634</v>
       </c>
@@ -17012,7 +17024,7 @@
         <v>3025.8739999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
         <v>42635</v>
       </c>
@@ -17023,7 +17035,7 @@
         <v>3042.3130000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
         <v>42636</v>
       </c>
@@ -17034,7 +17046,7 @@
         <v>3033.8960000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
         <v>42639</v>
       </c>
@@ -17045,7 +17057,7 @@
         <v>2980.43</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="16">
         <v>42640</v>
       </c>
@@ -17056,7 +17068,7 @@
         <v>2998.172</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="16">
         <v>42641</v>
       </c>
@@ -17067,7 +17079,7 @@
         <v>2987.8580000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="16">
         <v>42642</v>
       </c>
@@ -17078,7 +17090,7 @@
         <v>2998.4830000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
         <v>42643</v>
       </c>
@@ -17089,7 +17101,7 @@
         <v>3004.703</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
         <v>42653</v>
       </c>
@@ -17100,7 +17112,7 @@
         <v>3048.143</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
         <v>42654</v>
       </c>
@@ -17111,7 +17123,7 @@
         <v>3065.25</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
         <v>42655</v>
       </c>
@@ -17122,7 +17134,7 @@
         <v>3058.498</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
         <v>42656</v>
       </c>
@@ -17133,7 +17145,7 @@
         <v>3061.346</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
         <v>42657</v>
       </c>
@@ -17144,7 +17156,7 @@
         <v>3063.8090000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
         <v>42660</v>
       </c>
@@ -17155,7 +17167,7 @@
         <v>3041.1660000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
         <v>42661</v>
       </c>
@@ -17166,7 +17178,7 @@
         <v>3083.875</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
         <v>42662</v>
       </c>
@@ -17177,7 +17189,7 @@
         <v>3084.7190000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
         <v>42663</v>
       </c>
@@ -17188,7 +17200,7 @@
         <v>3084.4580000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
         <v>42664</v>
       </c>
@@ -17199,7 +17211,7 @@
         <v>3090.9409999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
         <v>42667</v>
       </c>
@@ -17210,7 +17222,7 @@
         <v>3128.2469999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
         <v>42668</v>
       </c>
@@ -17221,7 +17233,7 @@
         <v>3131.9389999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
         <v>42669</v>
       </c>
@@ -17232,7 +17244,7 @@
         <v>3116.3119999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="16">
         <v>42670</v>
       </c>
@@ -17243,7 +17255,7 @@
         <v>3112.35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="16">
         <v>42671</v>
       </c>
@@ -17254,7 +17266,7 @@
         <v>3104.27</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
         <v>42674</v>
       </c>
@@ -17265,7 +17277,7 @@
         <v>3100.4920000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
         <v>42675</v>
       </c>
@@ -17276,7 +17288,7 @@
         <v>3122.4360000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
         <v>42676</v>
       </c>
@@ -17287,7 +17299,7 @@
         <v>3102.7330000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
         <v>42677</v>
       </c>
@@ -17298,7 +17310,7 @@
         <v>3128.9360000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
         <v>42678</v>
       </c>
@@ -17309,7 +17321,7 @@
         <v>3125.317</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
         <v>42681</v>
       </c>
@@ -17320,7 +17332,7 @@
         <v>3133.3330000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
         <v>42682</v>
       </c>
@@ -17331,7 +17343,7 @@
         <v>3147.8879999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
         <v>42683</v>
       </c>
@@ -17342,7 +17354,7 @@
         <v>3128.37</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
         <v>42684</v>
       </c>
@@ -17353,7 +17365,7 @@
         <v>3171.2820000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
         <v>42685</v>
       </c>
@@ -17364,7 +17376,7 @@
         <v>3196.0439999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
         <v>42688</v>
       </c>
@@ -17375,7 +17387,7 @@
         <v>3210.3710000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
         <v>42689</v>
       </c>
@@ -17386,7 +17398,7 @@
         <v>3206.9859999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="16">
         <v>42690</v>
       </c>
@@ -17397,7 +17409,7 @@
         <v>3205.0569999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="16">
         <v>42691</v>
       </c>
@@ -17408,7 +17420,7 @@
         <v>3208.453</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="16">
         <v>42692</v>
       </c>
@@ -17419,7 +17431,7 @@
         <v>3192.8560000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="16">
         <v>42695</v>
       </c>
@@ -17430,7 +17442,7 @@
         <v>3218.1480000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="16">
         <v>42696</v>
       </c>
@@ -17441,7 +17453,7 @@
         <v>3248.3519999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="16">
         <v>42697</v>
       </c>
@@ -17452,7 +17464,7 @@
         <v>3241.1370000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="16">
         <v>42698</v>
       </c>
@@ -17463,7 +17475,7 @@
         <v>3241.7359999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="16">
         <v>42699</v>
       </c>
@@ -17474,7 +17486,7 @@
         <v>3261.9380000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="16">
         <v>42702</v>
       </c>
@@ -17485,7 +17497,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="16">
         <v>42703</v>
       </c>
@@ -17496,7 +17508,7 @@
         <v>3282.924</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="16">
         <v>42704</v>
       </c>
@@ -17507,7 +17519,7 @@
         <v>3250.0340000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="16">
         <v>42705</v>
       </c>
@@ -17518,7 +17530,7 @@
         <v>3273.3090000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="16">
         <v>42706</v>
       </c>
@@ -17529,7 +17541,7 @@
         <v>3243.8429999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="16">
         <v>42709</v>
       </c>
@@ -17540,7 +17552,7 @@
         <v>3204.7089999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="16">
         <v>42710</v>
       </c>
@@ -17551,7 +17563,7 @@
         <v>3199.6469999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="16">
         <v>42711</v>
       </c>
@@ -17562,7 +17574,7 @@
         <v>3222.2420000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="16">
         <v>42712</v>
       </c>
@@ -17573,7 +17585,7 @@
         <v>3215.366</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="16">
         <v>42713</v>
       </c>
@@ -17584,7 +17596,7 @@
         <v>3232.8829999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="16">
         <v>42716</v>
       </c>
@@ -17595,7 +17607,7 @@
         <v>3152.97</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="16">
         <v>42717</v>
       </c>
@@ -17606,7 +17618,7 @@
         <v>3155.0369999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="16">
         <v>42718</v>
       </c>
@@ -17617,7 +17629,7 @@
         <v>3140.5309999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="16">
         <v>42719</v>
       </c>
@@ -17628,7 +17640,7 @@
         <v>3117.6770000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="16">
         <v>42720</v>
       </c>
@@ -17639,7 +17651,7 @@
         <v>3122.982</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="16">
         <v>42723</v>
       </c>
@@ -17650,7 +17662,7 @@
         <v>3118.0846000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="16">
         <v>42724</v>
       </c>
@@ -17661,7 +17673,7 @@
         <v>3102.8759</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="16">
         <v>42725</v>
       </c>
@@ -17672,7 +17684,7 @@
         <v>3137.4297000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="16">
         <v>42726</v>
       </c>
@@ -17683,7 +17695,7 @@
         <v>3139.558</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="16">
         <v>42727</v>
       </c>
@@ -17694,7 +17706,7 @@
         <v>3110.1543999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="16">
         <v>42730</v>
       </c>
@@ -17705,7 +17717,7 @@
         <v>3122.569</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="16">
         <v>42731</v>
       </c>
@@ -17716,7 +17728,7 @@
         <v>3114.6640000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="16">
         <v>42732</v>
       </c>
@@ -17727,7 +17739,7 @@
         <v>3102.2357000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="16">
         <v>42733</v>
       </c>
@@ -17738,7 +17750,7 @@
         <v>3096.0967999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="16">
         <v>42734</v>
       </c>
@@ -17749,7 +17761,7 @@
         <v>3103.6372999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="16">
         <v>42738</v>
       </c>
@@ -17760,7 +17772,7 @@
         <v>3135.9207999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="16">
         <v>42739</v>
       </c>
@@ -17771,7 +17783,7 @@
         <v>3158.7939999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="16">
         <v>42740</v>
       </c>
@@ -17782,7 +17794,7 @@
         <v>3165.4108999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="16">
         <v>42741</v>
       </c>
@@ -17793,7 +17805,7 @@
         <v>3154.3209999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="16">
         <v>42744</v>
       </c>
@@ -17804,7 +17816,7 @@
         <v>3171.2361999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="16">
         <v>42745</v>
       </c>
@@ -17815,7 +17827,7 @@
         <v>3161.6713</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="16">
         <v>42746</v>
       </c>
@@ -17826,7 +17838,7 @@
         <v>3136.7534999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="16">
         <v>42747</v>
       </c>
@@ -17837,7 +17849,7 @@
         <v>3119.2885999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="16">
         <v>42748</v>
       </c>
@@ -17848,7 +17860,7 @@
         <v>3112.7644</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="16">
         <v>42751</v>
       </c>
@@ -17859,7 +17871,7 @@
         <v>3103.4279999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="16">
         <v>42752</v>
       </c>
@@ -17870,7 +17882,7 @@
         <v>3108.7746000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="16">
         <v>42753</v>
       </c>
@@ -17881,7 +17893,7 @@
         <v>3113.0122999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="16">
         <v>42754</v>
       </c>
@@ -17892,7 +17904,7 @@
         <v>3101.2991999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="16">
         <v>42755</v>
       </c>
@@ -17903,7 +17915,7 @@
         <v>3123.1388999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="16">
         <v>42758</v>
       </c>
@@ -17914,7 +17926,7 @@
         <v>3136.7748000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="16">
         <v>42759</v>
       </c>
@@ -17925,7 +17937,7 @@
         <v>3142.5533</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="16">
         <v>42760</v>
       </c>
@@ -17936,7 +17948,7 @@
         <v>3149.5547000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="16">
         <v>42761</v>
       </c>
@@ -17947,7 +17959,7 @@
         <v>3159.1660000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="16">
         <v>42769</v>
       </c>
@@ -17958,7 +17970,7 @@
         <v>3140.17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="16">
         <v>42772</v>
       </c>
@@ -17969,7 +17981,7 @@
         <v>3156.9838</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="16">
         <v>42773</v>
       </c>
@@ -17980,7 +17992,7 @@
         <v>3153.0877999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="16">
         <v>42774</v>
       </c>
@@ -17991,7 +18003,7 @@
         <v>3166.9818</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="16">
         <v>42775</v>
       </c>
@@ -18002,7 +18014,7 @@
         <v>3183.1794</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="16">
         <v>42776</v>
       </c>
@@ -18013,7 +18025,7 @@
         <v>3196.6990000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="16">
         <v>42779</v>
       </c>
@@ -18024,7 +18036,7 @@
         <v>3216.8393999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="16">
         <v>42780</v>
       </c>
@@ -18035,7 +18047,7 @@
         <v>3217.9279999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="16">
         <v>42781</v>
       </c>
@@ -18046,7 +18058,7 @@
         <v>3212.9857000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="16">
         <v>42782</v>
       </c>
@@ -18057,7 +18069,7 @@
         <v>3229.6183999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="16">
         <v>42783</v>
       </c>
@@ -18068,7 +18080,7 @@
         <v>3202.0756000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="16">
         <v>42786</v>
       </c>
@@ -18079,7 +18091,7 @@
         <v>3239.9612999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="16">
         <v>42787</v>
       </c>
@@ -18090,7 +18102,7 @@
         <v>3253.3256999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="16">
         <v>42788</v>
       </c>
@@ -18101,7 +18113,7 @@
         <v>3261.2184000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="16">
         <v>42789</v>
       </c>
@@ -18112,7 +18124,7 @@
         <v>3251.375</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="16">
         <v>42790</v>
       </c>
@@ -18123,7 +18135,7 @@
         <v>3253.4326999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="16">
         <v>42793</v>
       </c>
@@ -18134,7 +18146,7 @@
         <v>3228.6601999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="16">
         <v>42794</v>
       </c>
@@ -18145,7 +18157,7 @@
         <v>3241.7330999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="16">
         <v>42795</v>
       </c>
@@ -18156,7 +18168,7 @@
         <v>3246.9335000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="16">
         <v>42796</v>
       </c>
@@ -18167,7 +18179,7 @@
         <v>3230.0281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="16">
         <v>42797</v>
       </c>
@@ -18178,7 +18190,7 @@
         <v>3218.3117999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="16">
         <v>42800</v>
       </c>
@@ -18189,7 +18201,7 @@
         <v>3233.8656999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="16">
         <v>42801</v>
       </c>
@@ -18200,7 +18212,7 @@
         <v>3242.4063000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="16">
         <v>42802</v>
       </c>
@@ -18211,7 +18223,7 @@
         <v>3240.6646000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="16">
         <v>42803</v>
       </c>
@@ -18222,7 +18234,7 @@
         <v>3216.7456999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="16">
         <v>42804</v>
       </c>
@@ -18233,7 +18245,7 @@
         <v>3212.7601</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="16">
         <v>42807</v>
       </c>
@@ -18244,7 +18256,7 @@
         <v>3237.0243999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
         <v>42808</v>
       </c>
@@ -18255,7 +18267,7 @@
         <v>3239.3278</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="16">
         <v>42809</v>
       </c>
@@ -18266,7 +18278,7 @@
         <v>3241.7597000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="16">
         <v>42810</v>
       </c>
@@ -18277,7 +18289,7 @@
         <v>3268.9353999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="16">
         <v>42811</v>
       </c>
@@ -18288,7 +18300,7 @@
         <v>3237.4470999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="16">
         <v>42814</v>
       </c>
@@ -18299,7 +18311,7 @@
         <v>3250.8081999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="16">
         <v>42815</v>
       </c>
@@ -18310,7 +18322,7 @@
         <v>3261.6107999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="16">
         <v>42816</v>
       </c>
@@ -18321,7 +18333,7 @@
         <v>3245.2197999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="16">
         <v>42817</v>
       </c>
@@ -18332,7 +18344,7 @@
         <v>3248.5495000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="16">
         <v>42818</v>
       </c>
@@ -18343,7 +18355,7 @@
         <v>3269.4450999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="16">
         <v>42821</v>
       </c>
@@ -18354,7 +18366,7 @@
         <v>3266.9551999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="16">
         <v>42822</v>
       </c>
@@ -18365,7 +18377,7 @@
         <v>3252.9479000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="16">
         <v>42823</v>
       </c>
@@ -18376,7 +18388,7 @@
         <v>3241.3144000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="16">
         <v>42824</v>
       </c>
@@ -18387,7 +18399,7 @@
         <v>3210.2368999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="16">
         <v>42825</v>
       </c>
@@ -18398,7 +18410,7 @@
         <v>3222.5142000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="16">
         <v>42830</v>
       </c>
@@ -18409,7 +18421,7 @@
         <v>3270.3054000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="16">
         <v>42831</v>
       </c>
@@ -18420,7 +18432,7 @@
         <v>3281.0047</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="16">
         <v>42832</v>
       </c>
@@ -18431,7 +18443,7 @@
         <v>3286.616</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="16">
         <v>42835</v>
       </c>
@@ -18442,7 +18454,7 @@
         <v>3269.3926000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="16">
         <v>42836</v>
       </c>
@@ -18453,7 +18465,7 @@
         <v>3288.9657000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="16">
         <v>42837</v>
       </c>
@@ -18464,7 +18476,7 @@
         <v>3273.8301000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="16">
         <v>42838</v>
       </c>
@@ -18475,7 +18487,7 @@
         <v>3275.9603000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
         <v>42839</v>
       </c>
@@ -18486,7 +18498,7 @@
         <v>3246.0668000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="16">
         <v>42842</v>
       </c>
@@ -18497,7 +18509,7 @@
         <v>3222.1673000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="16">
         <v>42843</v>
       </c>
@@ -18508,7 +18520,7 @@
         <v>3196.7132999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="16">
         <v>42844</v>
       </c>
@@ -18519,7 +18531,7 @@
         <v>3170.6867000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="16">
         <v>42845</v>
       </c>
@@ -18530,7 +18542,7 @@
         <v>3172.1003000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="16">
         <v>42846</v>
       </c>
@@ -18541,7 +18553,7 @@
         <v>3173.1511999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="16">
         <v>42849</v>
       </c>
@@ -18552,7 +18564,7 @@
         <v>3129.5311999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="16">
         <v>42850</v>
       </c>
@@ -18563,7 +18575,7 @@
         <v>3134.5673999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="16">
         <v>42851</v>
       </c>
@@ -18574,7 +18586,7 @@
         <v>3140.8471</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="16">
         <v>42852</v>
       </c>
@@ -18585,7 +18597,7 @@
         <v>3152.1869000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="16">
         <v>42853</v>
       </c>
@@ -18596,7 +18608,7 @@
         <v>3154.6583999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="16">
         <v>42857</v>
       </c>
@@ -18607,7 +18619,7 @@
         <v>3143.7121000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="16">
         <v>42858</v>
       </c>
@@ -18618,7 +18630,7 @@
         <v>3135.346</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="16">
         <v>42859</v>
       </c>
@@ -18629,7 +18641,7 @@
         <v>3127.3687</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="16">
         <v>42860</v>
       </c>
@@ -18640,7 +18652,7 @@
         <v>3103.0378000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="16">
         <v>42863</v>
       </c>
@@ -18651,7 +18663,7 @@
         <v>3078.6129000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="16">
         <v>42864</v>
       </c>
@@ -18662,7 +18674,7 @@
         <v>3080.5268999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="16">
         <v>42865</v>
       </c>
@@ -18673,7 +18685,7 @@
         <v>3052.7849999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="16">
         <v>42866</v>
       </c>
@@ -18684,7 +18696,7 @@
         <v>3061.5003000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="16">
         <v>42867</v>
       </c>
@@ -18695,7 +18707,7 @@
         <v>3083.5131999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="16">
         <v>42870</v>
       </c>
@@ -18706,7 +18718,7 @@
         <v>3090.2289000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="16">
         <v>42871</v>
       </c>
@@ -18717,7 +18729,7 @@
         <v>3112.9641999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="16">
         <v>42872</v>
       </c>
@@ -18728,7 +18740,7 @@
         <v>3104.4414999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="16">
         <v>42873</v>
       </c>
@@ -18739,7 +18751,7 @@
         <v>3090.1390000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="16">
         <v>42874</v>
       </c>
@@ -18750,7 +18762,7 @@
         <v>3090.6309000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="16">
         <v>42877</v>
       </c>
@@ -18761,7 +18773,7 @@
         <v>3075.6756</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="16">
         <v>42878</v>
       </c>
@@ -18772,7 +18784,7 @@
         <v>3061.9470000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="16">
         <v>42879</v>
       </c>
@@ -18783,7 +18795,7 @@
         <v>3064.0758999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="16">
         <v>42880</v>
       </c>
@@ -18794,7 +18806,7 @@
         <v>3107.8310999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="16">
         <v>42881</v>
       </c>
@@ -18805,7 +18817,7 @@
         <v>3110.0587</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="16">
         <v>42886</v>
       </c>
@@ -18816,7 +18828,7 @@
         <v>3117.1777999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="16">
         <v>42887</v>
       </c>
@@ -18827,7 +18839,7 @@
         <v>3102.6232</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="16">
         <v>42888</v>
       </c>
@@ -18838,7 +18850,7 @@
         <v>3105.54</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="16">
         <v>42891</v>
       </c>
@@ -18849,7 +18861,7 @@
         <v>3091.6561000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="16">
         <v>42892</v>
       </c>
@@ -18860,7 +18872,7 @@
         <v>3102.1260000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="16">
         <v>42893</v>
       </c>
@@ -18871,7 +18883,7 @@
         <v>3140.3249000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="16">
         <v>42894</v>
       </c>
@@ -18882,7 +18894,7 @@
         <v>3150.3335999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="16">
         <v>42895</v>
       </c>
@@ -18893,7 +18905,7 @@
         <v>3158.4004</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="16">
         <v>42898</v>
       </c>
@@ -18904,7 +18916,7 @@
         <v>3139.8766000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="16">
         <v>42899</v>
       </c>
@@ -18915,7 +18927,7 @@
         <v>3153.7429000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="16">
         <v>42900</v>
       </c>
@@ -18926,7 +18938,7 @@
         <v>3130.674</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="16">
         <v>42901</v>
       </c>
@@ -18937,7 +18949,7 @@
         <v>3132.4863</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="16">
         <v>42902</v>
       </c>
@@ -18948,7 +18960,7 @@
         <v>3123.1662000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="16">
         <v>42905</v>
       </c>
@@ -18959,7 +18971,7 @@
         <v>3144.3739</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="16">
         <v>42906</v>
       </c>
@@ -18970,7 +18982,7 @@
         <v>3140.0136000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="16">
         <v>42907</v>
       </c>
@@ -18981,7 +18993,7 @@
         <v>3156.2118</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="16">
         <v>42908</v>
       </c>
@@ -18992,7 +19004,7 @@
         <v>3147.4531999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="16">
         <v>42909</v>
       </c>
@@ -19003,7 +19015,7 @@
         <v>3157.873</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="16">
         <v>42912</v>
       </c>
@@ -19014,7 +19026,7 @@
         <v>3185.4439000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="16">
         <v>42913</v>
       </c>
@@ -19025,7 +19037,7 @@
         <v>3191.1968999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="16">
         <v>42914</v>
       </c>
@@ -19036,7 +19048,7 @@
         <v>3173.2013999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="16">
         <v>42915</v>
       </c>
@@ -19047,7 +19059,7 @@
         <v>3188.0625</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="16">
         <v>42916</v>
       </c>
@@ -19058,7 +19070,7 @@
         <v>3192.4268999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="16">
         <v>42919</v>
       </c>
@@ -19069,7 +19081,7 @@
         <v>3195.9115999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="16">
         <v>42920</v>
       </c>
@@ -19080,7 +19092,7 @@
         <v>3182.8038999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="16">
         <v>42921</v>
       </c>
@@ -19091,7 +19103,7 @@
         <v>3207.1342</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="16">
         <v>42922</v>
       </c>
@@ -19102,7 +19114,7 @@
         <v>3212.444</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="16">
         <v>42923</v>
       </c>
@@ -19113,7 +19125,7 @@
         <v>3217.9567000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="16">
         <v>42926</v>
       </c>
@@ -19124,7 +19136,7 @@
         <v>3212.6318999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="16">
         <v>42927</v>
       </c>
@@ -19135,7 +19147,7 @@
         <v>3203.0374999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="16">
         <v>42928</v>
       </c>
@@ -19146,7 +19158,7 @@
         <v>3197.5439000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="16">
         <v>42929</v>
       </c>
@@ -19157,7 +19169,7 @@
         <v>3218.1632</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="16">
         <v>42930</v>
       </c>
@@ -19168,7 +19180,7 @@
         <v>3222.4168</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="16">
         <v>42933</v>
       </c>
@@ -19179,7 +19191,7 @@
         <v>3176.4648000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="16">
         <v>42934</v>
       </c>
@@ -19190,7 +19202,7 @@
         <v>3187.5672</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="16">
         <v>42935</v>
       </c>
@@ -19201,7 +19213,7 @@
         <v>3230.9762000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="16">
         <v>42936</v>
       </c>
@@ -19212,7 +19224,7 @@
         <v>3244.8647000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="16">
         <v>42937</v>
       </c>
@@ -19223,7 +19235,7 @@
         <v>3237.9816999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="16">
         <v>42940</v>
       </c>
@@ -19234,7 +19246,7 @@
         <v>3250.5989</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="16">
         <v>42941</v>
       </c>
@@ -19245,7 +19257,7 @@
         <v>3243.6894000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="16">
         <v>42942</v>
       </c>
@@ -19256,7 +19268,7 @@
         <v>3247.6747999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="16">
         <v>42943</v>
       </c>
@@ -19267,7 +19279,7 @@
         <v>3249.7813999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="16">
         <v>42944</v>
       </c>
@@ -19278,7 +19290,7 @@
         <v>3253.2404000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="16">
         <v>42947</v>
       </c>
@@ -19289,7 +19301,7 @@
         <v>3273.0282999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="16">
         <v>42948</v>
       </c>
@@ -19300,7 +19312,7 @@
         <v>3292.6383000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="16">
         <v>42949</v>
       </c>
@@ -19311,7 +19323,7 @@
         <v>3285.0567999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="16">
         <v>42950</v>
       </c>
@@ -19322,7 +19334,7 @@
         <v>3272.9286000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="16">
         <v>42951</v>
       </c>
@@ -19333,7 +19345,7 @@
         <v>3262.0808999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
         <v>42954</v>
       </c>
@@ -19344,7 +19356,7 @@
         <v>3279.4566</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
         <v>42955</v>
       </c>
@@ -19355,7 +19367,7 @@
         <v>3281.8728000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
         <v>42956</v>
       </c>
@@ -19366,7 +19378,7 @@
         <v>3275.5729999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
         <v>42957</v>
       </c>
@@ -19377,7 +19389,7 @@
         <v>3261.7494000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="16">
         <v>42958</v>
       </c>
@@ -19388,7 +19400,7 @@
         <v>3208.5412999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="16">
         <v>42961</v>
       </c>
@@ -19399,7 +19411,7 @@
         <v>3237.3602000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="16">
         <v>42962</v>
       </c>
@@ -19410,7 +19422,7 @@
         <v>3251.2617</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="16">
         <v>42963</v>
       </c>
@@ -19421,7 +19433,7 @@
         <v>3246.4512</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="16">
         <v>42964</v>
       </c>
@@ -19432,7 +19444,7 @@
         <v>3268.4297999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="16">
         <v>42965</v>
       </c>
@@ -19443,7 +19455,7 @@
         <v>3268.7242999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="16">
         <v>42968</v>
       </c>
@@ -19454,7 +19466,7 @@
         <v>3286.9054999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="16">
         <v>42969</v>
       </c>
@@ -19465,7 +19477,7 @@
         <v>3290.2257</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="16">
         <v>42970</v>
       </c>
@@ -19476,7 +19488,7 @@
         <v>3287.7049000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="16">
         <v>42971</v>
       </c>
@@ -19487,7 +19499,7 @@
         <v>3271.5117</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="16">
         <v>42972</v>
       </c>
@@ -19498,7 +19510,7 @@
         <v>3331.5221000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="16">
         <v>42975</v>
       </c>
@@ -19509,7 +19521,7 @@
         <v>3362.6514000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="16">
         <v>42976</v>
       </c>
@@ -19520,7 +19532,7 @@
         <v>3365.2260999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="16">
         <v>42977</v>
       </c>
@@ -19531,7 +19543,7 @@
         <v>3363.6266000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="16">
         <v>42978</v>
       </c>
@@ -19542,7 +19554,7 @@
         <v>3360.8103000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="16">
         <v>42979</v>
       </c>
@@ -19553,7 +19565,7 @@
         <v>3367.1194</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="16">
         <v>42982</v>
       </c>
@@ -19564,7 +19576,7 @@
         <v>3379.5830000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="16">
         <v>42983</v>
       </c>
@@ -19575,7 +19587,7 @@
         <v>3384.317</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="16">
         <v>42984</v>
       </c>
@@ -19586,7 +19598,7 @@
         <v>3385.3888000000002</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="16">
         <v>42985</v>
       </c>
@@ -19597,7 +19609,7 @@
         <v>3365.4974000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="16">
         <v>42986</v>
       </c>
@@ -19608,7 +19620,7 @@
         <v>3365.2426</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="16">
         <v>42989</v>
       </c>
@@ -19619,7 +19631,7 @@
         <v>3376.4187999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="16">
         <v>42990</v>
       </c>
@@ -19630,7 +19642,7 @@
         <v>3379.4879999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="16">
         <v>42991</v>
       </c>
@@ -19641,7 +19653,7 @@
         <v>3384.1469999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="16">
         <v>42992</v>
       </c>
@@ -19652,7 +19664,7 @@
         <v>3371.4256</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="16">
         <v>42993</v>
       </c>
@@ -19663,7 +19675,7 @@
         <v>3353.6192000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="16">
         <v>42996</v>
       </c>
@@ -19674,7 +19686,7 @@
         <v>3362.8587000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="16">
         <v>42997</v>
       </c>
@@ -19685,7 +19697,7 @@
         <v>3356.8445999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="16">
         <v>42998</v>
       </c>
@@ -19696,7 +19708,7 @@
         <v>3365.9958999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="16">
         <v>42999</v>
       </c>
@@ -19707,7 +19719,7 @@
         <v>3357.8123000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="16">
         <v>43000</v>
       </c>
@@ -19718,7 +19730,7 @@
         <v>3352.5293999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="16">
         <v>43003</v>
       </c>
@@ -19729,7 +19741,7 @@
         <v>3341.5486999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="16">
         <v>43004</v>
       </c>
@@ -19740,7 +19752,7 @@
         <v>3343.5826000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="16">
         <v>43005</v>
       </c>
@@ -19751,7 +19763,7 @@
         <v>3345.2716999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="16">
         <v>43006</v>
       </c>
@@ -19762,7 +19774,7 @@
         <v>3339.6421</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="16">
         <v>43007</v>
       </c>
@@ -19773,7 +19785,7 @@
         <v>3348.9431</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="16">
         <v>43017</v>
       </c>
@@ -19784,7 +19796,7 @@
         <v>3374.3780999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="16">
         <v>43018</v>
       </c>
@@ -19795,7 +19807,7 @@
         <v>3382.9879000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="16">
         <v>43019</v>
       </c>
@@ -19806,7 +19818,7 @@
         <v>3388.2838000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="16">
         <v>43020</v>
       </c>
@@ -19817,7 +19829,7 @@
         <v>3386.1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="16">
         <v>43021</v>
       </c>
@@ -19828,7 +19840,7 @@
         <v>3390.5232999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="16">
         <v>43024</v>
       </c>
@@ -19839,7 +19851,7 @@
         <v>3378.4704000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="16">
         <v>43025</v>
       </c>
@@ -19850,7 +19862,7 @@
         <v>3372.0407</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="16">
         <v>43026</v>
       </c>
@@ -19861,7 +19873,7 @@
         <v>3381.7937000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="16">
         <v>43027</v>
       </c>
@@ -19872,7 +19884,7 @@
         <v>3370.1720999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="16">
         <v>43028</v>
       </c>
@@ -19883,7 +19895,7 @@
         <v>3378.6480999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="16">
         <v>43031</v>
       </c>
@@ -19894,7 +19906,7 @@
         <v>3380.6990000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="16">
         <v>43032</v>
       </c>
@@ -19905,7 +19917,7 @@
         <v>3388.2476999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="16">
         <v>43033</v>
       </c>
@@ -19916,7 +19928,7 @@
         <v>3396.8975</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="16">
         <v>43034</v>
       </c>
@@ -19927,7 +19939,7 @@
         <v>3407.5671000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="16">
         <v>43035</v>
       </c>
@@ -19938,7 +19950,7 @@
         <v>3416.8123999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="16">
         <v>43038</v>
       </c>
@@ -19949,7 +19961,7 @@
         <v>3390.3371000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="16">
         <v>43039</v>
       </c>
@@ -19960,7 +19972,7 @@
         <v>3393.3416999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="16">
         <v>43040</v>
       </c>
@@ -19971,7 +19983,7 @@
         <v>3395.9124999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="16">
         <v>43041</v>
       </c>
@@ -19982,7 +19994,7 @@
         <v>3383.3094999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="16">
         <v>43042</v>
       </c>
@@ -19993,7 +20005,7 @@
         <v>3371.7440999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="16">
         <v>43045</v>
       </c>
@@ -20004,7 +20016,7 @@
         <v>3388.1741999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="16">
         <v>43046</v>
       </c>
@@ -20015,7 +20027,7 @@
         <v>3413.5747999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="16">
         <v>43047</v>
       </c>
@@ -20026,7 +20038,7 @@
         <v>3415.4602</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="16">
         <v>43048</v>
       </c>
@@ -20037,7 +20049,7 @@
         <v>3427.7946000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="16">
         <v>43049</v>
       </c>
@@ -20048,7 +20060,7 @@
         <v>3432.6731</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="16">
         <v>43052</v>
       </c>
@@ -20059,7 +20071,7 @@
         <v>3447.8357999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="16">
         <v>43053</v>
       </c>
@@ -20070,7 +20082,7 @@
         <v>3429.5482000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="16">
         <v>43054</v>
       </c>
@@ -20081,7 +20093,7 @@
         <v>3402.5245</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="16">
         <v>43055</v>
       </c>
@@ -20092,7 +20104,7 @@
         <v>3399.2503000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="16">
         <v>43056</v>
       </c>
@@ -20103,7 +20115,7 @@
         <v>3382.9074999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="16">
         <v>43059</v>
       </c>
@@ -20114,7 +20126,7 @@
         <v>3392.3987999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="16">
         <v>43060</v>
       </c>
@@ -20125,7 +20137,7 @@
         <v>3410.4976999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="16">
         <v>43061</v>
       </c>
@@ -20136,7 +20148,7 @@
         <v>3430.4643000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="16">
         <v>43062</v>
       </c>
@@ -20147,7 +20159,7 @@
         <v>3351.9182000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="16">
         <v>43063</v>
       </c>
@@ -20158,7 +20170,7 @@
         <v>3353.8207000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="16">
         <v>43066</v>
       </c>
@@ -20169,7 +20181,7 @@
         <v>3322.2298000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="16">
         <v>43067</v>
       </c>
@@ -20180,7 +20192,7 @@
         <v>3333.6570000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="16">
         <v>43068</v>
       </c>
@@ -20191,7 +20203,7 @@
         <v>3337.8620000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="16">
         <v>43069</v>
       </c>
@@ -20202,7 +20214,7 @@
         <v>3317.1884</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="16">
         <v>43070</v>
       </c>
@@ -20213,7 +20225,7 @@
         <v>3317.6174000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="16">
         <v>43073</v>
       </c>
@@ -20224,7 +20236,7 @@
         <v>3309.6183000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="16">
         <v>43074</v>
       </c>
@@ -20235,7 +20247,7 @@
         <v>3303.6750999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="16">
         <v>43075</v>
       </c>
@@ -20246,7 +20258,7 @@
         <v>3293.9648000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="16">
         <v>43076</v>
       </c>
@@ -20257,7 +20269,7 @@
         <v>3272.0542</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="16">
         <v>43077</v>
       </c>
@@ -20268,7 +20280,7 @@
         <v>3289.9924000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="16">
         <v>43080</v>
       </c>
@@ -20279,7 +20291,7 @@
         <v>3322.1956</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="16">
         <v>43081</v>
       </c>
@@ -20290,7 +20302,7 @@
         <v>3280.8136</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="16">
         <v>43082</v>
       </c>
@@ -20301,7 +20313,7 @@
         <v>3303.0373</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="16">
         <v>43083</v>
       </c>
@@ -20312,7 +20324,7 @@
         <v>3292.4385000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="16">
         <v>43084</v>
       </c>
@@ -20323,7 +20335,7 @@
         <v>3266.1370999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="16">
         <v>43087</v>
       </c>
@@ -20334,7 +20346,7 @@
         <v>3267.9223999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="16">
         <v>43088</v>
       </c>
@@ -20345,7 +20357,7 @@
         <v>3296.5383999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="16">
         <v>43089</v>
       </c>
@@ -20356,7 +20368,7 @@
         <v>3287.6057000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="16">
         <v>43090</v>
       </c>
@@ -20367,7 +20379,7 @@
         <v>3300.0592999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="16">
         <v>43091</v>
       </c>
@@ -20378,7 +20390,7 @@
         <v>3297.0630000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="16">
         <v>43094</v>
       </c>
@@ -20389,7 +20401,7 @@
         <v>3280.4609999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="16">
         <v>43095</v>
       </c>
@@ -20400,7 +20412,7 @@
         <v>3306.1246000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="16">
         <v>43096</v>
       </c>
@@ -20411,7 +20423,7 @@
         <v>3275.7828</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="16">
         <v>43097</v>
       </c>
@@ -20422,7 +20434,7 @@
         <v>3296.3847000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="16">
         <v>43098</v>
       </c>
@@ -20433,7 +20445,7 @@
         <v>3307.1720999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="16">
         <v>43102</v>
       </c>
@@ -20444,7 +20456,7 @@
         <v>3348.3258999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="16">
         <v>43103</v>
       </c>
@@ -20455,7 +20467,7 @@
         <v>3369.1084000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="16">
         <v>43104</v>
       </c>
@@ -20466,7 +20478,7 @@
         <v>3385.7102</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="16">
         <v>43105</v>
       </c>
@@ -20477,7 +20489,7 @@
         <v>3391.7501000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="16">
         <v>43108</v>
       </c>
@@ -20488,7 +20500,7 @@
         <v>3409.4794999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="16">
         <v>43109</v>
       </c>
@@ -20499,7 +20511,7 @@
         <v>3413.8996000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="16">
         <v>43110</v>
       </c>
@@ -20510,7 +20522,7 @@
         <v>3421.8343</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="16">
         <v>43111</v>
       </c>
@@ -20521,7 +20533,7 @@
         <v>3425.3449000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="16">
         <v>43112</v>
       </c>
@@ -20532,7 +20544,7 @@
         <v>3428.9407000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="16">
         <v>43115</v>
       </c>
@@ -20543,7 +20555,7 @@
         <v>3410.4881999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="16">
         <v>43116</v>
       </c>
@@ -20554,7 +20566,7 @@
         <v>3436.5940000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="16">
         <v>43117</v>
       </c>
@@ -20565,7 +20577,7 @@
         <v>3444.6713</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="16">
         <v>43118</v>
       </c>
@@ -20576,7 +20588,7 @@
         <v>3474.7539999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="16">
         <v>43119</v>
       </c>
@@ -20587,7 +20599,7 @@
         <v>3487.864</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="16">
         <v>43122</v>
       </c>
@@ -20598,7 +20610,7 @@
         <v>3501.3622</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="16">
         <v>43123</v>
       </c>
@@ -20609,7 +20621,7 @@
         <v>3546.5048000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="16">
         <v>43124</v>
       </c>
@@ -20620,7 +20632,7 @@
         <v>3559.4652999999998</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="16">
         <v>43125</v>
       </c>
@@ -20631,7 +20643,7 @@
         <v>3548.3069999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="16">
         <v>43126</v>
       </c>
@@ -20642,7 +20654,7 @@
         <v>3558.1288</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="16">
         <v>43129</v>
       </c>
@@ -20653,7 +20665,7 @@
         <v>3523.0007000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="16">
         <v>43130</v>
       </c>
@@ -20664,7 +20676,7 @@
         <v>3488.009</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="16">
         <v>43131</v>
       </c>
@@ -20675,7 +20687,7 @@
         <v>3480.8334</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="16">
         <v>43132</v>
       </c>
@@ -20686,7 +20698,7 @@
         <v>3446.9798999999998</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="16">
         <v>43133</v>
       </c>
@@ -20697,7 +20709,7 @@
         <v>3462.0808000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="16">
         <v>43136</v>
       </c>
@@ -20708,7 +20720,7 @@
         <v>3487.4969999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="16">
         <v>43137</v>
       </c>
@@ -20719,7 +20731,7 @@
         <v>3370.652</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="16">
         <v>43138</v>
       </c>
@@ -20730,7 +20742,7 @@
         <v>3309.2597999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="16">
         <v>43139</v>
       </c>
@@ -20741,7 +20753,7 @@
         <v>3262.0504000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="16">
         <v>43140</v>
       </c>
@@ -20752,7 +20764,7 @@
         <v>3129.8508000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="16">
         <v>43143</v>
       </c>
@@ -20763,7 +20775,7 @@
         <v>3154.1253999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="16">
         <v>43144</v>
       </c>
@@ -20774,7 +20786,7 @@
         <v>3184.9587000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="16">
         <v>43145</v>
       </c>
@@ -20785,7 +20797,7 @@
         <v>3199.1588999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="16">
         <v>43153</v>
       </c>
@@ -20796,7 +20808,7 @@
         <v>3268.56</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="16">
         <v>43154</v>
       </c>
@@ -20807,7 +20819,7 @@
         <v>3289.02</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="16">
         <v>43157</v>
       </c>
@@ -20818,7 +20830,7 @@
         <v>3329.57</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="16">
         <v>43158</v>
       </c>
@@ -20829,7 +20841,7 @@
         <v>3292.07</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="16">
         <v>43159</v>
       </c>
@@ -20840,7 +20852,7 @@
         <v>3259.41</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="16">
         <v>43160</v>
       </c>
@@ -20851,7 +20863,7 @@
         <v>3273.76</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="16">
         <v>43161</v>
       </c>
@@ -20862,7 +20874,7 @@
         <v>3254.53</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="16">
         <v>43164</v>
       </c>
@@ -20873,7 +20885,7 @@
         <v>3256.93</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="16">
         <v>43165</v>
       </c>
@@ -20884,7 +20896,7 @@
         <v>3289.64</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="16">
         <v>43166</v>
       </c>
@@ -20895,7 +20907,7 @@
         <v>3271.67</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="16">
         <v>43167</v>
       </c>
@@ -20906,7 +20918,7 @@
         <v>3288.41</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="16">
         <v>43168</v>
       </c>
@@ -20917,7 +20929,7 @@
         <v>3307.17</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="16">
         <v>43171</v>
       </c>
@@ -20928,7 +20940,7 @@
         <v>3326.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="16">
         <v>43172</v>
       </c>
@@ -20939,7 +20951,7 @@
         <v>3310.24</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="16">
         <v>43173</v>
       </c>
@@ -20950,7 +20962,7 @@
         <v>3291.38</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="16">
         <v>43174</v>
       </c>
@@ -20961,7 +20973,7 @@
         <v>3291.11</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="16">
         <v>43175</v>
       </c>
@@ -20972,7 +20984,7 @@
         <v>3269.88</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="16">
         <v>43178</v>
       </c>
@@ -20983,7 +20995,7 @@
         <v>3279.25</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="16">
         <v>43179</v>
       </c>
@@ -20994,7 +21006,7 @@
         <v>3290.64</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="16">
         <v>43180</v>
       </c>
@@ -21005,7 +21017,7 @@
         <v>3280.95</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="16">
         <v>43181</v>
       </c>
@@ -21016,7 +21028,7 @@
         <v>3263.48</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="16">
         <v>43182</v>
       </c>
@@ -21027,7 +21039,7 @@
         <v>3152.76</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="16">
         <v>43185</v>
       </c>
@@ -21038,7 +21050,7 @@
         <v>3133.72</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="16">
         <v>43186</v>
       </c>
@@ -21049,7 +21061,7 @@
         <v>3166.65</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="16">
         <v>43187</v>
       </c>
@@ -21060,7 +21072,7 @@
         <v>3122.29</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="16">
         <v>43188</v>
       </c>
@@ -21071,7 +21083,7 @@
         <v>3160.53</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="16">
         <v>43189</v>
       </c>
@@ -21082,7 +21094,7 @@
         <v>3168.9</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="16">
         <v>43192</v>
       </c>
@@ -21093,7 +21105,7 @@
         <v>3163.18</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="16">
         <v>43193</v>
       </c>
@@ -21104,7 +21116,7 @@
         <v>3136.63</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="16">
         <v>43194</v>
       </c>
@@ -21115,7 +21127,7 @@
         <v>3131.11</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="16">
         <v>43199</v>
       </c>
@@ -21126,7 +21138,7 @@
         <v>3138.29</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="16">
         <v>43200</v>
       </c>
@@ -21137,7 +21149,7 @@
         <v>3190.32</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="16">
         <v>43201</v>
       </c>
@@ -21148,7 +21160,7 @@
         <v>3208.08</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="16">
         <v>43202</v>
       </c>
@@ -21159,7 +21171,7 @@
         <v>3180.16</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="16">
         <v>43203</v>
       </c>
@@ -21170,7 +21182,7 @@
         <v>3159.05</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="16">
         <v>43206</v>
       </c>
@@ -21181,7 +21193,7 @@
         <v>3110.65</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="16">
         <v>43207</v>
       </c>
@@ -21192,7 +21204,7 @@
         <v>3066.8</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="16">
         <v>43208</v>
       </c>
@@ -21203,7 +21215,7 @@
         <v>3091.4</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="16">
         <v>43209</v>
       </c>
@@ -21214,7 +21226,7 @@
         <v>3117.48</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="16">
         <v>43210</v>
       </c>
@@ -21225,7 +21237,7 @@
         <v>3071.54</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="16">
         <v>43213</v>
       </c>
@@ -21236,7 +21248,7 @@
         <v>3068.01</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="16">
         <v>43214</v>
       </c>
@@ -21247,7 +21259,7 @@
         <v>3128.93</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="16">
         <v>43215</v>
       </c>
@@ -21258,7 +21270,7 @@
         <v>3117.97</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="16">
         <v>43216</v>
       </c>
@@ -21269,7 +21281,7 @@
         <v>3075.03</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="16">
         <v>43217</v>
       </c>
@@ -21280,7 +21292,7 @@
         <v>3082.23</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="16">
         <v>43222</v>
       </c>
@@ -21291,7 +21303,7 @@
         <v>3081.18</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="16">
         <v>43223</v>
       </c>
@@ -21302,7 +21314,7 @@
         <v>3100.86</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="16">
         <v>43224</v>
       </c>
@@ -21313,7 +21325,7 @@
         <v>3091.03</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="16">
         <v>43227</v>
       </c>
@@ -21324,7 +21336,7 @@
         <v>3136.64</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="16">
         <v>43228</v>
       </c>
@@ -21335,7 +21347,7 @@
         <v>3160.5</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="16">
         <v>43229</v>
       </c>
@@ -21346,7 +21358,7 @@
         <v>3159.15</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="16">
         <v>43230</v>
       </c>
@@ -21357,7 +21369,7 @@
         <v>3169.05</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="16">
         <v>43231</v>
       </c>
@@ -21368,7 +21380,7 @@
         <v>3163.26</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="16">
         <v>43234</v>
       </c>
@@ -21379,7 +21391,7 @@
         <v>3174.03</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="16">
         <v>43235</v>
       </c>
@@ -21390,7 +21402,7 @@
         <v>3192.12</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="16">
         <v>43236</v>
       </c>
@@ -21401,7 +21413,7 @@
         <v>3169.57</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="16">
         <v>43237</v>
       </c>
@@ -21412,7 +21424,7 @@
         <v>3154.28</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="16">
         <v>43238</v>
       </c>
@@ -21423,7 +21435,7 @@
         <v>3193.3</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="16">
         <v>43241</v>
       </c>
@@ -21434,7 +21446,7 @@
         <v>3213.84</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="16">
         <v>43242</v>
       </c>
@@ -21445,7 +21457,7 @@
         <v>3214.35</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="16">
         <v>43243</v>
       </c>
@@ -21456,7 +21468,7 @@
         <v>3168.96</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="16">
         <v>43244</v>
       </c>
@@ -21467,7 +21479,7 @@
         <v>3154.65</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="16">
         <v>43245</v>
       </c>
@@ -21478,7 +21490,7 @@
         <v>3141.3</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="16">
         <v>43248</v>
       </c>
@@ -21489,7 +21501,7 @@
         <v>3135.08</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="16">
         <v>43249</v>
       </c>
@@ -21500,7 +21512,7 @@
         <v>3120.46</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="16">
         <v>43250</v>
       </c>
@@ -21511,7 +21523,7 @@
         <v>3041.44</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="16">
         <v>43251</v>
       </c>
@@ -21522,7 +21534,7 @@
         <v>3095.47</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="16">
         <v>43252</v>
       </c>
@@ -21533,7 +21545,7 @@
         <v>3075.14</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="16">
         <v>43255</v>
       </c>
@@ -21544,7 +21556,7 @@
         <v>3091.19</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="16">
         <v>43256</v>
       </c>
@@ -21555,7 +21567,7 @@
         <v>3114.21</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="16">
         <v>43257</v>
       </c>
@@ -21566,7 +21578,7 @@
         <v>3115.18</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="16">
         <v>43258</v>
       </c>
@@ -21577,7 +21589,7 @@
         <v>3109.5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="16">
         <v>43259</v>
       </c>
@@ -21588,7 +21600,7 @@
         <v>3067.15</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="16">
         <v>43262</v>
       </c>
@@ -21599,7 +21611,7 @@
         <v>3052.78</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="16">
         <v>43263</v>
       </c>
@@ -21610,7 +21622,7 @@
         <v>3079.8</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="16">
         <v>43264</v>
       </c>
@@ -21621,7 +21633,7 @@
         <v>3049.8</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="16">
         <v>43265</v>
       </c>
@@ -21632,7 +21644,7 @@
         <v>3044.16</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="16">
         <v>43266</v>
       </c>
@@ -21643,7 +21655,7 @@
         <v>3021.9</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="16">
         <v>43270</v>
       </c>
@@ -21654,7 +21666,7 @@
         <v>2907.82</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="16">
         <v>43271</v>
       </c>
@@ -21665,7 +21677,7 @@
         <v>2915.73</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="16">
         <v>43272</v>
       </c>
@@ -21676,7 +21688,7 @@
         <v>2875.81</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="16">
         <v>43273</v>
       </c>
@@ -21687,7 +21699,7 @@
         <v>2889.76</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="16">
         <v>43276</v>
       </c>
@@ -21698,7 +21710,7 @@
         <v>2859.34</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="16">
         <v>43277</v>
       </c>
@@ -21709,7 +21721,7 @@
         <v>2844.51</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="16">
         <v>43278</v>
       </c>
@@ -21720,7 +21732,7 @@
         <v>2813.18</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="16">
         <v>43279</v>
       </c>
@@ -21731,7 +21743,7 @@
         <v>2786.9</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="16">
         <v>43280</v>
       </c>
@@ -21742,7 +21754,7 @@
         <v>2847.42</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="16">
         <v>43283</v>
       </c>
@@ -21753,7 +21765,7 @@
         <v>2775.56</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="16">
         <v>43284</v>
       </c>
@@ -21764,7 +21776,7 @@
         <v>2786.89</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="16">
         <v>43285</v>
       </c>
@@ -21775,7 +21787,7 @@
         <v>2759.13</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="16">
         <v>43286</v>
       </c>
@@ -21786,7 +21798,7 @@
         <v>2733.88</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="16">
         <v>43287</v>
       </c>
@@ -21797,7 +21809,7 @@
         <v>2747.23</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="16">
         <v>43290</v>
       </c>
@@ -21808,7 +21820,7 @@
         <v>2815.11</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="16">
         <v>43291</v>
       </c>
@@ -21819,7 +21831,7 @@
         <v>2827.63</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="16">
         <v>43292</v>
       </c>
@@ -21830,7 +21842,7 @@
         <v>2777.77</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="16">
         <v>43293</v>
       </c>
@@ -21841,7 +21853,7 @@
         <v>2837.66</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="16">
         <v>43294</v>
       </c>
@@ -21852,7 +21864,7 @@
         <v>2831.18</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="16">
         <v>43297</v>
       </c>
@@ -21863,7 +21875,7 @@
         <v>2814.04</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="16">
         <v>43298</v>
       </c>
@@ -21874,7 +21886,7 @@
         <v>2798.13</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="16">
         <v>43299</v>
       </c>
@@ -21885,7 +21897,7 @@
         <v>2787.26</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="16">
         <v>43300</v>
       </c>
@@ -21896,7 +21908,7 @@
         <v>2772.55</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="16">
         <v>43301</v>
       </c>
@@ -21907,7 +21919,7 @@
         <v>2829.27</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="16">
         <v>43304</v>
       </c>
@@ -21918,7 +21930,7 @@
         <v>2859.54</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="16">
         <v>43305</v>
       </c>
@@ -21929,7 +21941,7 @@
         <v>2905.56</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="16">
         <v>43306</v>
       </c>
@@ -21940,7 +21952,7 @@
         <v>2903.65</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="16">
         <v>43307</v>
       </c>
@@ -21951,7 +21963,7 @@
         <v>2882.23</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="16">
         <v>43308</v>
       </c>
@@ -21962,7 +21974,7 @@
         <v>2873.59</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="16">
         <v>43311</v>
       </c>
@@ -21973,7 +21985,7 @@
         <v>2869.05</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="16">
         <v>43312</v>
       </c>
@@ -21984,7 +21996,7 @@
         <v>2876.4</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="16">
         <v>43313</v>
       </c>
@@ -21995,7 +22007,7 @@
         <v>2824.53</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="16">
         <v>43314</v>
       </c>
@@ -22006,7 +22018,7 @@
         <v>2768.02</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="16">
         <v>43315</v>
       </c>
@@ -22017,7 +22029,7 @@
         <v>2740.44</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="16">
         <v>43318</v>
       </c>
@@ -22028,7 +22040,7 @@
         <v>2705.16</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="16">
         <v>43319</v>
       </c>
@@ -22039,7 +22051,7 @@
         <v>2779.37</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="16">
         <v>43320</v>
       </c>
@@ -22050,7 +22062,7 @@
         <v>2744.07</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="16">
         <v>43321</v>
       </c>
@@ -22061,7 +22073,7 @@
         <v>2794.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="16">
         <v>43322</v>
       </c>
@@ -22072,7 +22084,7 @@
         <v>2795.31</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="16">
         <v>43325</v>
       </c>
@@ -22083,7 +22095,7 @@
         <v>2785.87</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="16">
         <v>43326</v>
       </c>
@@ -22094,7 +22106,7 @@
         <v>2780.96</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="16">
         <v>43327</v>
       </c>
@@ -22105,7 +22117,7 @@
         <v>2723.26</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="16">
         <v>43328</v>
       </c>
@@ -22116,7 +22128,7 @@
         <v>2705.19</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="16">
         <v>43329</v>
       </c>
@@ -22127,7 +22139,7 @@
         <v>2668.97</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="16">
         <v>43332</v>
       </c>
@@ -22138,7 +22150,7 @@
         <v>2698.47</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="16">
         <v>43333</v>
       </c>
@@ -22149,7 +22161,7 @@
         <v>2733.83</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="16">
         <v>43334</v>
       </c>
@@ -22160,7 +22172,7 @@
         <v>2714.61</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="16">
         <v>43335</v>
       </c>
@@ -22171,7 +22183,7 @@
         <v>2724.62</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="16">
         <v>43336</v>
       </c>
@@ -22182,7 +22194,7 @@
         <v>2729.43</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="16">
         <v>43339</v>
       </c>
@@ -22193,7 +22205,7 @@
         <v>2780.9</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="16">
         <v>43340</v>
       </c>
@@ -22204,7 +22216,7 @@
         <v>2777.98</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="16">
         <v>43341</v>
       </c>
@@ -22215,7 +22227,7 @@
         <v>2769.29</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="16">
         <v>43342</v>
       </c>
@@ -22226,7 +22238,7 @@
         <v>2737.74</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="16">
         <v>43343</v>
       </c>
@@ -22237,7 +22249,7 @@
         <v>2725.25</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="16">
         <v>43346</v>
       </c>
@@ -22248,7 +22260,7 @@
         <v>2720.73</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="16">
         <v>43347</v>
       </c>
@@ -22259,7 +22271,7 @@
         <v>2750.58</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="16">
         <v>43348</v>
       </c>
@@ -22270,7 +22282,7 @@
         <v>2704.34</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="16">
         <v>43349</v>
       </c>
@@ -22281,7 +22293,7 @@
         <v>2691.59</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="16">
         <v>43350</v>
       </c>
@@ -22292,7 +22304,7 @@
         <v>2702.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="16">
         <v>43353</v>
       </c>
@@ -22303,7 +22315,7 @@
         <v>2669.48</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="16">
         <v>43354</v>
       </c>
@@ -22314,7 +22326,7 @@
         <v>2664.8</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="16">
         <v>43355</v>
       </c>
@@ -22325,7 +22337,7 @@
         <v>2656.11</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="16">
         <v>43356</v>
       </c>
@@ -22336,7 +22348,7 @@
         <v>2686.58</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="16">
         <v>43357</v>
       </c>
@@ -22347,7 +22359,7 @@
         <v>2681.64</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="16">
         <v>43360</v>
       </c>
@@ -22358,7 +22370,7 @@
         <v>2651.79</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="16">
         <v>43361</v>
       </c>
@@ -22369,7 +22381,7 @@
         <v>2669.95</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="16">
         <v>43362</v>
       </c>
@@ -22380,7 +22392,7 @@
         <v>2730.85</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="16">
         <v>43363</v>
       </c>
@@ -22391,7 +22403,7 @@
         <v>2729.24</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="16">
         <v>43364</v>
       </c>
@@ -22402,7 +22414,7 @@
         <v>2797.48</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="16">
         <v>43368</v>
       </c>
@@ -22413,7 +22425,7 @@
         <v>2781.14</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="16">
         <v>43369</v>
       </c>
@@ -22424,7 +22436,7 @@
         <v>2806.81</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="16">
         <v>43370</v>
       </c>
@@ -22435,7 +22447,7 @@
         <v>2791.77</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="16">
         <v>43371</v>
       </c>
@@ -22446,7 +22458,7 @@
         <v>2821.35</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="16">
         <v>43381</v>
       </c>
@@ -22457,7 +22469,7 @@
         <v>2716.51</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="16">
         <v>43382</v>
       </c>
@@ -22468,7 +22480,7 @@
         <v>2721.01</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="16">
         <v>43383</v>
       </c>
@@ -22479,7 +22491,7 @@
         <v>2725.84</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="16">
         <v>43384</v>
       </c>
@@ -22490,7 +22502,7 @@
         <v>2583.46</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="16">
         <v>43385</v>
       </c>
@@ -22501,7 +22513,7 @@
         <v>2606.91</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="16">
         <v>43388</v>
       </c>
@@ -22512,7 +22524,7 @@
         <v>2568.1</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="16">
         <v>43389</v>
       </c>
@@ -22523,7 +22535,7 @@
         <v>2546.33</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="16">
         <v>43390</v>
       </c>
@@ -22534,7 +22546,7 @@
         <v>2561.61</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="16">
         <v>43391</v>
       </c>
@@ -22545,7 +22557,7 @@
         <v>2486.42</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="16">
         <v>43392</v>
       </c>
@@ -22556,7 +22568,7 @@
         <v>2550.4699999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="16">
         <v>43395</v>
       </c>
@@ -22567,7 +22579,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="16">
         <v>43396</v>
       </c>
@@ -22578,7 +22590,7 @@
         <v>2594.83</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="16">
         <v>43397</v>
       </c>
@@ -22589,7 +22601,7 @@
         <v>2603.3000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="16">
         <v>43398</v>
       </c>
@@ -22600,7 +22612,7 @@
         <v>2603.8000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="16">
         <v>43399</v>
       </c>
@@ -22611,7 +22623,7 @@
         <v>2598.85</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="16">
         <v>43402</v>
       </c>
@@ -22622,7 +22634,7 @@
         <v>2542.1</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="16">
         <v>43403</v>
       </c>
@@ -22633,7 +22645,7 @@
         <v>2568.0500000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="16">
         <v>43404</v>
       </c>
@@ -22644,7 +22656,7 @@
         <v>2602.7800000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="16">
         <v>43405</v>
       </c>
@@ -22655,7 +22667,7 @@
         <v>2606.2399999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="16">
         <v>43406</v>
       </c>
@@ -22666,7 +22678,7 @@
         <v>2676.48</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="16">
         <v>43409</v>
       </c>
@@ -22677,7 +22689,7 @@
         <v>2665.43</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="16">
         <v>43410</v>
       </c>
@@ -22688,7 +22700,7 @@
         <v>2659.36</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="16">
         <v>43411</v>
       </c>
@@ -22699,7 +22711,7 @@
         <v>2641.34</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="16">
         <v>43412</v>
       </c>
@@ -22710,7 +22722,7 @@
         <v>2635.63</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="16">
         <v>43413</v>
       </c>
@@ -22721,7 +22733,7 @@
         <v>2598.87</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="16">
         <v>43416</v>
       </c>
@@ -22732,7 +22744,7 @@
         <v>2630.52</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="16">
         <v>43417</v>
       </c>
@@ -22743,7 +22755,7 @@
         <v>2654.88</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="16">
         <v>43418</v>
       </c>
@@ -22754,7 +22766,7 @@
         <v>2632.24</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="16">
         <v>43419</v>
       </c>
@@ -22765,7 +22777,7 @@
         <v>2668.17</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="16">
         <v>43420</v>
       </c>
@@ -22776,7 +22788,7 @@
         <v>2679.11</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="16">
         <v>43423</v>
       </c>
@@ -22787,7 +22799,7 @@
         <v>2703.51</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="16">
         <v>43424</v>
       </c>
@@ -22798,7 +22810,7 @@
         <v>2645.85</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="16">
         <v>43425</v>
       </c>
@@ -22809,7 +22821,7 @@
         <v>2651.51</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="16">
         <v>43426</v>
       </c>
@@ -22820,7 +22832,7 @@
         <v>2645.43</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="16">
         <v>43427</v>
       </c>
@@ -22831,7 +22843,7 @@
         <v>2579.48</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="16">
         <v>43430</v>
       </c>
@@ -22842,7 +22854,7 @@
         <v>2575.81</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="16">
         <v>43431</v>
       </c>
@@ -22853,7 +22865,7 @@
         <v>2574.6799999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="16">
         <v>43432</v>
       </c>
@@ -22864,7 +22876,7 @@
         <v>2601.7399999999998</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="16">
         <v>43433</v>
       </c>
@@ -22875,7 +22887,7 @@
         <v>2567.44</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="16">
         <v>43434</v>
       </c>
@@ -22886,7 +22898,7 @@
         <v>2588.19</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="16">
         <v>43437</v>
       </c>
@@ -22897,7 +22909,7 @@
         <v>2654.8</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="16">
         <v>43438</v>
       </c>
@@ -22908,7 +22920,7 @@
         <v>2665.96</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="16">
         <v>43439</v>
       </c>
@@ -22919,7 +22931,7 @@
         <v>2649.81</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="16">
         <v>43440</v>
       </c>
@@ -22930,7 +22942,7 @@
         <v>2605.1799999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="16">
         <v>43441</v>
       </c>
@@ -22941,7 +22953,7 @@
         <v>2605.89</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="16">
         <v>43444</v>
       </c>
@@ -22952,7 +22964,7 @@
         <v>2584.58</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="16">
         <v>43445</v>
       </c>
@@ -22963,7 +22975,7 @@
         <v>2594.09</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="16">
         <v>43446</v>
       </c>
@@ -22974,7 +22986,7 @@
         <v>2602.15</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="16">
         <v>43447</v>
       </c>
@@ -22985,7 +22997,7 @@
         <v>2634.05</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="16">
         <v>43448</v>
       </c>
@@ -22996,7 +23008,7 @@
         <v>2593.7399999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="16">
         <v>43451</v>
       </c>
@@ -23007,7 +23019,7 @@
         <v>2597.9699999999998</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="16">
         <v>43452</v>
       </c>
@@ -23018,7 +23030,7 @@
         <v>2576.65</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="16">
         <v>43453</v>
       </c>
@@ -23029,7 +23041,7 @@
         <v>2549.56</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="16">
         <v>43454</v>
       </c>
@@ -23040,7 +23052,7 @@
         <v>2536.27</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="16">
         <v>43455</v>
       </c>
@@ -23051,7 +23063,7 @@
         <v>2516.25</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="16">
         <v>43458</v>
       </c>
@@ -23062,7 +23074,7 @@
         <v>2527.0100000000002</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="16">
         <v>43459</v>
       </c>
@@ -23073,7 +23085,7 @@
         <v>2504.8200000000002</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="16">
         <v>43460</v>
       </c>
@@ -23084,7 +23096,7 @@
         <v>2498.29</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="16">
         <v>43461</v>
       </c>
@@ -23095,7 +23107,7 @@
         <v>2483.09</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="16">
         <v>43462</v>
       </c>
@@ -23106,7 +23118,7 @@
         <v>2493.9</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="16">
         <v>43467</v>
       </c>
@@ -23117,7 +23129,7 @@
         <v>2465.29</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="16">
         <v>43468</v>
       </c>
@@ -23128,7 +23140,7 @@
         <v>2464.36</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="16">
         <v>43469</v>
       </c>
@@ -23139,7 +23151,7 @@
         <v>2514.87</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="16">
         <v>43472</v>
       </c>
@@ -23150,7 +23162,7 @@
         <v>2533.09</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="16">
         <v>43473</v>
       </c>
@@ -23161,7 +23173,7 @@
         <v>2525.46</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="16">
         <v>43474</v>
       </c>
@@ -23172,7 +23184,7 @@
         <v>2544.34</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="16">
         <v>43475</v>
       </c>
@@ -23183,7 +23195,7 @@
         <v>2535.1</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="16">
         <v>43476</v>
       </c>
@@ -23194,7 +23206,7 @@
         <v>2553.83</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="16">
         <v>43479</v>
       </c>
@@ -23205,7 +23217,7 @@
         <v>2535.77</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="16">
         <v>43480</v>
       </c>
@@ -23216,7 +23228,7 @@
         <v>2570.34</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="16">
         <v>43481</v>
       </c>
@@ -23227,7 +23239,7 @@
         <v>2570.42</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="16">
         <v>43482</v>
       </c>
@@ -23238,7 +23250,7 @@
         <v>2559.64</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="16">
         <v>43483</v>
       </c>
@@ -23249,7 +23261,7 @@
         <v>2596.0100000000002</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="16">
         <v>43486</v>
       </c>
@@ -23260,7 +23272,7 @@
         <v>2610.5100000000002</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="16">
         <v>43487</v>
       </c>
@@ -23271,7 +23283,7 @@
         <v>2579.6999999999998</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="16">
         <v>43488</v>
       </c>
@@ -23282,7 +23294,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="16">
         <v>43489</v>
       </c>
@@ -23293,7 +23305,7 @@
         <v>2591.69</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="16">
         <v>43490</v>
       </c>
@@ -23304,7 +23316,7 @@
         <v>2601.7199999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="16">
         <v>43493</v>
       </c>
@@ -23315,7 +23327,7 @@
         <v>2596.98</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="16">
         <v>43494</v>
       </c>
@@ -23326,7 +23338,7 @@
         <v>2594.25</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="16">
         <v>43495</v>
       </c>
@@ -23337,7 +23349,7 @@
         <v>2575.58</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="16">
         <v>43496</v>
       </c>
@@ -23348,7 +23360,7 @@
         <v>2584.5700000000002</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="16">
         <v>43497</v>
       </c>
@@ -23359,7 +23371,7 @@
         <v>2618.23</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="16">
         <v>43507</v>
       </c>
@@ -23370,7 +23382,7 @@
         <v>2653.9</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="16">
         <v>43508</v>
       </c>
@@ -23381,7 +23393,7 @@
         <v>2671.89</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="16">
         <v>43509</v>
       </c>
@@ -23392,7 +23404,7 @@
         <v>2721.07</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="16">
         <v>43510</v>
       </c>
@@ -23403,7 +23415,7 @@
         <v>2719.7</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="16">
         <v>43511</v>
       </c>
@@ -23414,7 +23426,7 @@
         <v>2682.39</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="16">
         <v>43514</v>
       </c>
@@ -23425,7 +23437,7 @@
         <v>2754.36</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="16">
         <v>43515</v>
       </c>
@@ -23436,7 +23448,7 @@
         <v>2755.65</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="16">
         <v>43516</v>
       </c>
@@ -23447,7 +23459,7 @@
         <v>2761.22</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="16">
         <v>43517</v>
       </c>
@@ -23458,7 +23470,7 @@
         <v>2751.8</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="16">
         <v>43518</v>
       </c>
@@ -23469,7 +23481,7 @@
         <v>2804.23</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="16">
         <v>43521</v>
       </c>
@@ -23480,7 +23492,7 @@
         <v>2961.28</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="16">
         <v>43522</v>
       </c>
@@ -23491,7 +23503,7 @@
         <v>2941.52</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="16">
         <v>43523</v>
       </c>
@@ -23502,7 +23514,7 @@
         <v>2953.82</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="16">
         <v>43524</v>
       </c>
@@ -23513,7 +23525,7 @@
         <v>2940.95</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="16">
         <v>43525</v>
       </c>
@@ -23524,7 +23536,7 @@
         <v>2994.01</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="16">
         <v>43528</v>
       </c>
@@ -23535,7 +23547,7 @@
         <v>3027.58</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="16">
         <v>43529</v>
       </c>
@@ -23546,7 +23558,7 @@
         <v>3054.25</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="16">
         <v>43530</v>
       </c>
@@ -23557,7 +23569,7 @@
         <v>3102.1</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="16">
         <v>43531</v>
       </c>
@@ -23568,7 +23580,7 @@
         <v>3106.42</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="16">
         <v>43532</v>
       </c>
@@ -23579,7 +23591,7 @@
         <v>2969.86</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="16">
         <v>43535</v>
       </c>
@@ -23590,7 +23602,7 @@
         <v>3026.99</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="16">
         <v>43536</v>
       </c>
@@ -23601,7 +23613,7 @@
         <v>3060.31</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="16">
         <v>43537</v>
       </c>
@@ -23612,7 +23624,7 @@
         <v>3026.95</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="16">
         <v>43538</v>
       </c>
@@ -23623,7 +23635,7 @@
         <v>2990.69</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" s="16">
         <v>43539</v>
       </c>
@@ -23634,7 +23646,7 @@
         <v>3021.75</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" s="16">
         <v>43542</v>
       </c>
@@ -23645,7 +23657,7 @@
         <v>3096.42</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="16">
         <v>43543</v>
       </c>
@@ -23656,7 +23668,7 @@
         <v>3090.98</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="16">
         <v>43544</v>
       </c>
@@ -23667,7 +23679,7 @@
         <v>3090.64</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="16">
         <v>43545</v>
       </c>
@@ -23678,7 +23690,7 @@
         <v>3101.46</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="16">
         <v>43546</v>
       </c>
@@ -23689,7 +23701,7 @@
         <v>3104.15</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="16">
         <v>43549</v>
       </c>
@@ -23700,7 +23712,7 @@
         <v>3043.03</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="16">
         <v>43550</v>
       </c>
@@ -23711,7 +23723,7 @@
         <v>2997.1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="16">
         <v>43551</v>
       </c>
@@ -23722,7 +23734,7 @@
         <v>3022.72</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="16">
         <v>43552</v>
       </c>
@@ -23733,7 +23745,7 @@
         <v>2994.94</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="16">
         <v>43553</v>
       </c>
@@ -23744,7 +23756,7 @@
         <v>3090.76</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="16">
         <v>43556</v>
       </c>
@@ -23755,7 +23767,7 @@
         <v>3170.36</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="16">
         <v>43557</v>
       </c>
@@ -23766,7 +23778,7 @@
         <v>3176.82</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="16">
         <v>43558</v>
       </c>
@@ -23777,7 +23789,7 @@
         <v>3216.3</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="16">
         <v>43559</v>
       </c>
@@ -23788,7 +23800,7 @@
         <v>3246.57</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="16">
         <v>43563</v>
       </c>
@@ -23799,7 +23811,7 @@
         <v>3244.81</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="16">
         <v>43564</v>
       </c>
@@ -23810,7 +23822,7 @@
         <v>3239.66</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="16">
         <v>43565</v>
       </c>
@@ -23821,7 +23833,7 @@
         <v>3241.93</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="16">
         <v>43566</v>
       </c>
@@ -23832,7 +23844,7 @@
         <v>3189.96</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="16">
         <v>43567</v>
       </c>
@@ -23843,7 +23855,7 @@
         <v>3188.63</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="16">
         <v>43570</v>
       </c>
@@ -23854,7 +23866,7 @@
         <v>3177.79</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="16">
         <v>43571</v>
       </c>
@@ -23865,7 +23877,7 @@
         <v>3253.6</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="16">
         <v>43572</v>
       </c>
@@ -23876,7 +23888,7 @@
         <v>3263.12</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="16">
         <v>43573</v>
       </c>
@@ -23887,7 +23899,7 @@
         <v>3250.2</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="16">
         <v>43574</v>
       </c>
@@ -23898,7 +23910,7 @@
         <v>3270.8</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="16">
         <v>43577</v>
       </c>
@@ -23909,7 +23921,7 @@
         <v>3215.04</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" s="16">
         <v>43578</v>
       </c>
@@ -23920,7 +23932,7 @@
         <v>3198.59</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" s="16">
         <v>43579</v>
       </c>
@@ -23931,7 +23943,7 @@
         <v>3201.61</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="16">
         <v>43580</v>
       </c>
@@ -23942,7 +23954,7 @@
         <v>3123.83</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="16">
         <v>43581</v>
       </c>
@@ -23953,7 +23965,7 @@
         <v>3086.4</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="16">
         <v>43584</v>
       </c>
@@ -23964,7 +23976,7 @@
         <v>3062.5</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="16">
         <v>43585</v>
       </c>
@@ -23975,7 +23987,7 @@
         <v>3078.34</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="16">
         <v>43591</v>
       </c>
@@ -23986,7 +23998,7 @@
         <v>2906.46</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="16">
         <v>43592</v>
       </c>
@@ -23997,7 +24009,7 @@
         <v>2926.39</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="16">
         <v>43593</v>
       </c>
@@ -24008,7 +24020,7 @@
         <v>2893.76</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="16">
         <v>43594</v>
       </c>
@@ -24019,7 +24031,7 @@
         <v>2850.95</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="16">
         <v>43595</v>
       </c>
@@ -24030,7 +24042,7 @@
         <v>2939.21</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="16">
         <v>43598</v>
       </c>
@@ -24041,7 +24053,7 @@
         <v>2903.71</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="16">
         <v>43599</v>
       </c>
@@ -24052,7 +24064,7 @@
         <v>2883.61</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="16">
         <v>43600</v>
       </c>
@@ -24063,7 +24075,7 @@
         <v>2938.68</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="16">
         <v>43601</v>
       </c>
@@ -24074,7 +24086,7 @@
         <v>2955.71</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="16">
         <v>43602</v>
       </c>
@@ -24085,7 +24097,7 @@
         <v>2882.3</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="16">
         <v>43605</v>
       </c>
@@ -24096,7 +24108,7 @@
         <v>2870.6</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="16">
         <v>43606</v>
       </c>
@@ -24107,7 +24119,7 @@
         <v>2905.97</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" s="16">
         <v>43607</v>
       </c>
@@ -24118,7 +24130,7 @@
         <v>2891.7</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" s="16">
         <v>43608</v>
       </c>
@@ -24129,7 +24141,7 @@
         <v>2852.52</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="16">
         <v>43609</v>
       </c>
@@ -24140,7 +24152,7 @@
         <v>2852.99</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" s="16">
         <v>43612</v>
       </c>
@@ -24151,7 +24163,7 @@
         <v>2892.38</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="16">
         <v>43613</v>
       </c>
@@ -24162,7 +24174,7 @@
         <v>2909.91</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="16">
         <v>43614</v>
       </c>
@@ -24173,7 +24185,7 @@
         <v>2914.7</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="16">
         <v>43615</v>
       </c>
@@ -24184,7 +24196,7 @@
         <v>2905.81</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" s="16">
         <v>43616</v>
       </c>
@@ -24195,7 +24207,7 @@
         <v>2898.7</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" s="16">
         <v>43619</v>
       </c>
@@ -24206,7 +24218,7 @@
         <v>2890.08</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="16">
         <v>43620</v>
       </c>
@@ -24217,7 +24229,7 @@
         <v>2862.28</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="16">
         <v>43621</v>
       </c>
@@ -24228,7 +24240,7 @@
         <v>2861.42</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="16">
         <v>43622</v>
       </c>
@@ -24239,30 +24251,36 @@
         <v>2827.8</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" s="16">
         <v>43626</v>
       </c>
+      <c r="B836" s="15">
+        <v>58.54</v>
+      </c>
       <c r="C836">
         <v>2852.13</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" s="16">
         <v>43627</v>
       </c>
-    </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C837">
+        <v>2925.72</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" s="16">
         <v>43628</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" s="16">
         <v>43629</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" s="16">
         <v>43630</v>
       </c>

--- a/fund_position.xlsx
+++ b/fund_position.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD8300-975F-4D45-AF14-B799C81C21E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574BEE38-69D0-4E57-A972-A0886834B2B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
                   <c:v>-0.28253486362704305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17944648756793558</c:v>
+                  <c:v>0.21889167154997757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,10 +1394,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$836</c:f>
+              <c:f>Sheet1!$A$2:$A$837</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="835"/>
+                <c:ptCount val="836"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -3902,16 +3902,19 @@
                 </c:pt>
                 <c:pt idx="834">
                   <c:v>43626</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>43627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$836</c:f>
+              <c:f>Sheet1!$B$2:$B$837</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="835"/>
+                <c:ptCount val="836"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -6416,6 +6419,9 @@
                 </c:pt>
                 <c:pt idx="834">
                   <c:v>58.54</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>58.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6471,10 +6477,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$836</c:f>
+              <c:f>Sheet1!$A$2:$A$837</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="835"/>
+                <c:ptCount val="836"/>
                 <c:pt idx="0">
                   <c:v>42373</c:v>
                 </c:pt>
@@ -8979,16 +8985,19 @@
                 </c:pt>
                 <c:pt idx="834">
                   <c:v>43626</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>43627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$836</c:f>
+              <c:f>Sheet1!$C$2:$C$837</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="835"/>
+                <c:ptCount val="836"/>
                 <c:pt idx="0">
                   <c:v>3296.2579999999998</c:v>
                 </c:pt>
@@ -11493,6 +11502,9 @@
                 </c:pt>
                 <c:pt idx="834">
                   <c:v>2852.13</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>2925.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14325,26 +14337,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -14357,7 +14369,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2010</v>
@@ -14384,7 +14396,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -14413,7 +14425,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -14442,7 +14454,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -14471,7 +14483,7 @@
         <v>0.17810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -14500,7 +14512,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -14529,10 +14541,10 @@
         <v>-0.1615</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="str">
         <f ca="1">"说明:2017年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2017年统计范围为年初至2019-6-10</v>
+        <v>说明:2017年统计范围为年初至2019-6-11</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14543,14 +14555,14 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M9" s="10">
         <f ca="1">TODAY()</f>
-        <v>43627</v>
+        <v>43628</v>
       </c>
       <c r="N9" s="17">
         <f ca="1">[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43626</v>
+        <v>43627</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>2</v>
@@ -14560,10 +14572,10 @@
       </c>
       <c r="R9" s="1">
         <f ca="1">[1]!i_pq_pctchange("881001.WI","2019-01-01",N9)</f>
-        <v>17.944648756793558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>21.889167154997757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O10" s="13">
         <v>2010</v>
       </c>
@@ -14574,7 +14586,7 @@
         <v>-6.88E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O11" s="13">
         <v>2011</v>
       </c>
@@ -14585,7 +14597,7 @@
         <v>-0.22420000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O12" s="13">
         <v>2012</v>
       </c>
@@ -14596,7 +14608,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O13" s="13">
         <v>2013</v>
       </c>
@@ -14607,7 +14619,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O14" s="13">
         <v>2014</v>
       </c>
@@ -14618,7 +14630,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O15" s="13">
         <v>2015</v>
       </c>
@@ -14629,7 +14641,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O16" s="13">
         <v>2016</v>
       </c>
@@ -14640,7 +14652,7 @@
         <v>-0.12909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O17" s="13">
         <v>2017</v>
       </c>
@@ -14651,7 +14663,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" s="13">
         <v>2018</v>
       </c>
@@ -14662,7 +14674,7 @@
         <v>-0.28253486362704305</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O19" s="13">
         <v>2019</v>
       </c>
@@ -14672,10 +14684,10 @@
       </c>
       <c r="Q19" s="12">
         <f ca="1">R9/100</f>
-        <v>0.17944648756793558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.21889167154997757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
@@ -14690,7 +14702,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>2010</v>
@@ -14723,7 +14735,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -14758,7 +14770,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -14793,7 +14805,7 @@
         <v>0.54120000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>2</v>
       </c>
@@ -14828,7 +14840,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -14863,7 +14875,7 @@
         <v>0.27760000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -14898,10 +14910,10 @@
         <v>-1.46E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="str">
         <f ca="1">"说明:2019年统计范围为年初至"&amp;TEXT(N9,"YYYY-M-D")</f>
-        <v>说明:2019年统计范围为年初至2019-6-10</v>
+        <v>说明:2019年统计范围为年初至2019-6-11</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -14914,7 +14926,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -14927,7 +14939,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -14940,7 +14952,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -14953,7 +14965,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -14966,7 +14978,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -14979,7 +14991,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -14992,7 +15004,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -15005,7 +15017,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -15018,7 +15030,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -15051,18 +15063,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A812" workbookViewId="0">
-      <selection activeCell="B837" sqref="B837"/>
+    <sheetView tabSelected="1" topLeftCell="D812" workbookViewId="0">
+      <selection activeCell="B838" sqref="B838"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -15073,7 +15085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>42373</v>
       </c>
@@ -15084,7 +15096,7 @@
         <v>3296.2579999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>42374</v>
       </c>
@@ -15095,7 +15107,7 @@
         <v>3287.7109999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>42375</v>
       </c>
@@ -15106,7 +15118,7 @@
         <v>3361.84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>42376</v>
       </c>
@@ -15117,7 +15129,7 @@
         <v>3125.002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>42377</v>
       </c>
@@ -15128,7 +15140,7 @@
         <v>3186.4119999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>42380</v>
       </c>
@@ -15139,7 +15151,7 @@
         <v>3016.7040000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>42381</v>
       </c>
@@ -15150,7 +15162,7 @@
         <v>3022.8609999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>42382</v>
       </c>
@@ -15162,10 +15174,10 @@
       </c>
       <c r="N9" s="18">
         <f>[1]!TDaysOffset(M9,"Offset=-1")</f>
-        <v>43626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>42383</v>
       </c>
@@ -15176,7 +15188,7 @@
         <v>3007.6489999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>42384</v>
       </c>
@@ -15187,7 +15199,7 @@
         <v>2900.9697999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>42387</v>
       </c>
@@ -15198,7 +15210,7 @@
         <v>2913.8366999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>42388</v>
       </c>
@@ -15209,7 +15221,7 @@
         <v>3007.7393000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>42389</v>
       </c>
@@ -15220,7 +15232,7 @@
         <v>2976.694</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>42390</v>
       </c>
@@ -15231,7 +15243,7 @@
         <v>2880.482</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>42391</v>
       </c>
@@ -15242,7 +15254,7 @@
         <v>2916.5619999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>42394</v>
       </c>
@@ -15253,7 +15265,7 @@
         <v>2938.5149999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>42395</v>
       </c>
@@ -15264,7 +15276,7 @@
         <v>2749.7849999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>42396</v>
       </c>
@@ -15275,7 +15287,7 @@
         <v>2735.558</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>42397</v>
       </c>
@@ -15286,7 +15298,7 @@
         <v>2655.6610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>42398</v>
       </c>
@@ -15297,7 +15309,7 @@
         <v>2737.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>42401</v>
       </c>
@@ -15308,7 +15320,7 @@
         <v>2688.8539999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>42402</v>
       </c>
@@ -15319,7 +15331,7 @@
         <v>2749.57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>42403</v>
       </c>
@@ -15330,7 +15342,7 @@
         <v>2739.2469999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>42404</v>
       </c>
@@ -15341,7 +15353,7 @@
         <v>2781.0230000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>42405</v>
       </c>
@@ -15352,7 +15364,7 @@
         <v>2763.4920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>42415</v>
       </c>
@@ -15363,7 +15375,7 @@
         <v>2746.1959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>42416</v>
       </c>
@@ -15374,7 +15386,7 @@
         <v>2836.5709999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>42417</v>
       </c>
@@ -15385,7 +15397,7 @@
         <v>2867.3380000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>42418</v>
       </c>
@@ -15396,7 +15408,7 @@
         <v>2862.893</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>42419</v>
       </c>
@@ -15407,7 +15419,7 @@
         <v>2860.0210000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>42422</v>
       </c>
@@ -15418,7 +15430,7 @@
         <v>2927.1750000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>42423</v>
       </c>
@@ -15429,7 +15441,7 @@
         <v>2903.3310000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>42424</v>
       </c>
@@ -15440,7 +15452,7 @@
         <v>2928.8960000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>42425</v>
       </c>
@@ -15451,7 +15463,7 @@
         <v>2741.2449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>42426</v>
       </c>
@@ -15462,7 +15474,7 @@
         <v>2767.21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>42429</v>
       </c>
@@ -15473,7 +15485,7 @@
         <v>2687.9789999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>42430</v>
       </c>
@@ -15484,7 +15496,7 @@
         <v>2733.17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>42431</v>
       </c>
@@ -15495,7 +15507,7 @@
         <v>2849.681</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>42432</v>
       </c>
@@ -15506,7 +15518,7 @@
         <v>2859.7579999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>42433</v>
       </c>
@@ -15517,7 +15529,7 @@
         <v>2874.1469999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>42436</v>
       </c>
@@ -15528,7 +15540,7 @@
         <v>2897.34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>42437</v>
       </c>
@@ -15539,7 +15551,7 @@
         <v>2901.3870000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>42438</v>
       </c>
@@ -15550,7 +15562,7 @@
         <v>2862.556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>42439</v>
       </c>
@@ -15561,7 +15573,7 @@
         <v>2804.7260000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>42440</v>
       </c>
@@ -15572,7 +15584,7 @@
         <v>2810.3069999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>42443</v>
       </c>
@@ -15583,7 +15595,7 @@
         <v>2859.4989999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>42444</v>
       </c>
@@ -15594,7 +15606,7 @@
         <v>2864.3679999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>42445</v>
       </c>
@@ -15605,7 +15617,7 @@
         <v>2870.43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>42446</v>
       </c>
@@ -15616,7 +15628,7 @@
         <v>2904.8319999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>42447</v>
       </c>
@@ -15627,7 +15639,7 @@
         <v>2955.15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>42450</v>
       </c>
@@ -15638,7 +15650,7 @@
         <v>3018.8020000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>42451</v>
       </c>
@@ -15649,7 +15661,7 @@
         <v>2999.3629999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>42452</v>
       </c>
@@ -15660,7 +15672,7 @@
         <v>3009.96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>42453</v>
       </c>
@@ -15671,7 +15683,7 @@
         <v>2960.97</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>42454</v>
       </c>
@@ -15682,7 +15694,7 @@
         <v>2979.4340000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>42457</v>
       </c>
@@ -15693,7 +15705,7 @@
         <v>2957.82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>42458</v>
       </c>
@@ -15704,7 +15716,7 @@
         <v>2919.8319999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>42459</v>
       </c>
@@ -15715,7 +15727,7 @@
         <v>3000.645</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>42460</v>
       </c>
@@ -15726,7 +15738,7 @@
         <v>3003.915</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>42461</v>
       </c>
@@ -15737,7 +15749,7 @@
         <v>3009.53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>42465</v>
       </c>
@@ -15748,7 +15760,7 @@
         <v>3053.0650000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>42466</v>
       </c>
@@ -15759,7 +15771,7 @@
         <v>3050.5920000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>42467</v>
       </c>
@@ -15770,7 +15782,7 @@
         <v>3008.42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>42468</v>
       </c>
@@ -15781,7 +15793,7 @@
         <v>2984.9580000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>42471</v>
       </c>
@@ -15792,7 +15804,7 @@
         <v>3033.9569999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>42472</v>
       </c>
@@ -15803,7 +15815,7 @@
         <v>3023.6460000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>42473</v>
       </c>
@@ -15814,7 +15826,7 @@
         <v>3066.6379999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>42474</v>
       </c>
@@ -15825,7 +15837,7 @@
         <v>3082.3620000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>42475</v>
       </c>
@@ -15836,7 +15848,7 @@
         <v>3078.1170000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>42478</v>
       </c>
@@ -15847,7 +15859,7 @@
         <v>3033.66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>42479</v>
       </c>
@@ -15858,7 +15870,7 @@
         <v>3042.8229999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>42480</v>
       </c>
@@ -15869,7 +15881,7 @@
         <v>2972.5839999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>42481</v>
       </c>
@@ -15880,7 +15892,7 @@
         <v>2952.8910000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>42482</v>
       </c>
@@ -15891,7 +15903,7 @@
         <v>2959.24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>42485</v>
       </c>
@@ -15902,7 +15914,7 @@
         <v>2946.67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>42486</v>
       </c>
@@ -15913,7 +15925,7 @@
         <v>2964.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>42487</v>
       </c>
@@ -15924,7 +15936,7 @@
         <v>2953.6709999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>42488</v>
       </c>
@@ -15935,7 +15947,7 @@
         <v>2945.5889999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>42489</v>
       </c>
@@ -15946,7 +15958,7 @@
         <v>2938.3240000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>42493</v>
       </c>
@@ -15957,7 +15969,7 @@
         <v>2992.643</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>42494</v>
       </c>
@@ -15968,7 +15980,7 @@
         <v>2991.2719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>42495</v>
       </c>
@@ -15979,7 +15991,7 @@
         <v>2997.8420000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>42496</v>
       </c>
@@ -15990,7 +16002,7 @@
         <v>2913.248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>42499</v>
       </c>
@@ -16001,7 +16013,7 @@
         <v>2832.1129999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>42500</v>
       </c>
@@ -16012,7 +16024,7 @@
         <v>2832.5909999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>42501</v>
       </c>
@@ -16023,7 +16035,7 @@
         <v>2837.0369999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>42502</v>
       </c>
@@ -16034,7 +16046,7 @@
         <v>2835.8620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>42503</v>
       </c>
@@ -16045,7 +16057,7 @@
         <v>2827.1089999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>42506</v>
       </c>
@@ -16056,7 +16068,7 @@
         <v>2850.8620000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>42507</v>
       </c>
@@ -16067,7 +16079,7 @@
         <v>2843.6840000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>42508</v>
       </c>
@@ -16078,7 +16090,7 @@
         <v>2807.5140000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>42509</v>
       </c>
@@ -16089,7 +16101,7 @@
         <v>2806.9059999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>42510</v>
       </c>
@@ -16100,7 +16112,7 @@
         <v>2825.4830000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>42513</v>
       </c>
@@ -16111,7 +16123,7 @@
         <v>2843.645</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>42514</v>
       </c>
@@ -16122,7 +16134,7 @@
         <v>2821.6660000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>42515</v>
       </c>
@@ -16133,7 +16145,7 @@
         <v>2815.0862999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>42516</v>
       </c>
@@ -16144,7 +16156,7 @@
         <v>2822.4430000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>42517</v>
       </c>
@@ -16155,7 +16167,7 @@
         <v>2821.0459999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>42520</v>
       </c>
@@ -16166,7 +16178,7 @@
         <v>2822.451</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>42521</v>
       </c>
@@ -16177,7 +16189,7 @@
         <v>2916.616</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>42522</v>
       </c>
@@ -16188,7 +16200,7 @@
         <v>2913.5079999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>42523</v>
       </c>
@@ -16199,7 +16211,7 @@
         <v>2925.2289999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>42524</v>
       </c>
@@ -16210,7 +16222,7 @@
         <v>2938.6819999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>42527</v>
       </c>
@@ -16221,7 +16233,7 @@
         <v>2934.098</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>42528</v>
       </c>
@@ -16232,7 +16244,7 @@
         <v>2936.0450000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>42529</v>
       </c>
@@ -16243,7 +16255,7 @@
         <v>2927.1590000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>42534</v>
       </c>
@@ -16254,7 +16266,7 @@
         <v>2833.0709999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>42535</v>
       </c>
@@ -16265,7 +16277,7 @@
         <v>2842.1889999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>42536</v>
       </c>
@@ -16276,7 +16288,7 @@
         <v>2887.21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>42537</v>
       </c>
@@ -16287,7 +16299,7 @@
         <v>2872.817</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>42538</v>
       </c>
@@ -16298,7 +16310,7 @@
         <v>2885.105</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>42541</v>
       </c>
@@ -16309,7 +16321,7 @@
         <v>2888.8090000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>42542</v>
       </c>
@@ -16320,7 +16332,7 @@
         <v>2878.558</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>42543</v>
       </c>
@@ -16331,7 +16343,7 @@
         <v>2905.55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>42544</v>
       </c>
@@ -16342,7 +16354,7 @@
         <v>2891.96</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>42545</v>
       </c>
@@ -16353,7 +16365,7 @@
         <v>2854.2860000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>42548</v>
       </c>
@@ -16364,7 +16376,7 @@
         <v>2895.703</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>42549</v>
       </c>
@@ -16375,7 +16387,7 @@
         <v>2912.5569999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>42550</v>
       </c>
@@ -16386,7 +16398,7 @@
         <v>2931.5920000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>42551</v>
       </c>
@@ -16397,7 +16409,7 @@
         <v>2929.6060000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>42552</v>
       </c>
@@ -16408,7 +16420,7 @@
         <v>2932.4760000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>42555</v>
       </c>
@@ -16419,7 +16431,7 @@
         <v>2988.6039999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>42556</v>
       </c>
@@ -16430,7 +16442,7 @@
         <v>3006.3919999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>42557</v>
       </c>
@@ -16441,7 +16453,7 @@
         <v>3017.2919999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>42558</v>
       </c>
@@ -16452,7 +16464,7 @@
         <v>3016.8470000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>42559</v>
       </c>
@@ -16463,7 +16475,7 @@
         <v>2988.0940000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>42562</v>
       </c>
@@ -16474,7 +16486,7 @@
         <v>2994.9169999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>42563</v>
       </c>
@@ -16485,7 +16497,7 @@
         <v>3049.3809999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>42564</v>
       </c>
@@ -16496,7 +16508,7 @@
         <v>3060.6889999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>42565</v>
       </c>
@@ -16507,7 +16519,7 @@
         <v>3054.018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>42566</v>
       </c>
@@ -16518,7 +16530,7 @@
         <v>3054.2959999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>42569</v>
       </c>
@@ -16529,7 +16541,7 @@
         <v>3043.5639999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>42570</v>
       </c>
@@ -16540,7 +16552,7 @@
         <v>3036.598</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>42571</v>
       </c>
@@ -16551,7 +16563,7 @@
         <v>3027.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>42572</v>
       </c>
@@ -16562,7 +16574,7 @@
         <v>3039.009</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>42573</v>
       </c>
@@ -16573,7 +16585,7 @@
         <v>3012.8159999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>42576</v>
       </c>
@@ -16584,7 +16596,7 @@
         <v>3015.828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>42577</v>
       </c>
@@ -16595,7 +16607,7 @@
         <v>3050.1660000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>42578</v>
       </c>
@@ -16606,7 +16618,7 @@
         <v>2991.9989999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>42579</v>
       </c>
@@ -16617,7 +16629,7 @@
         <v>2994.3229999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>42580</v>
       </c>
@@ -16628,7 +16640,7 @@
         <v>2979.3389999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>42583</v>
       </c>
@@ -16639,7 +16651,7 @@
         <v>2953.3850000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>42584</v>
       </c>
@@ -16650,7 +16662,7 @@
         <v>2971.279</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>42585</v>
       </c>
@@ -16661,7 +16673,7 @@
         <v>2978.4609999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>42586</v>
       </c>
@@ -16672,7 +16684,7 @@
         <v>2982.4259999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>42587</v>
       </c>
@@ -16683,7 +16695,7 @@
         <v>2976.6959999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>42590</v>
       </c>
@@ -16694,7 +16706,7 @@
         <v>3004.277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>42591</v>
       </c>
@@ -16705,7 +16717,7 @@
         <v>3025.681</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>42592</v>
       </c>
@@ -16716,7 +16728,7 @@
         <v>3018.7460000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>42593</v>
       </c>
@@ -16727,7 +16739,7 @@
         <v>3002.6379999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>42594</v>
       </c>
@@ -16738,7 +16750,7 @@
         <v>3050.6669999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>42597</v>
       </c>
@@ -16749,7 +16761,7 @@
         <v>3125.1950000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>42598</v>
       </c>
@@ -16760,7 +16772,7 @@
         <v>3110.0369999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>42599</v>
       </c>
@@ -16771,7 +16783,7 @@
         <v>3109.5549999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>42600</v>
       </c>
@@ -16782,7 +16794,7 @@
         <v>3104.114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>42601</v>
       </c>
@@ -16793,7 +16805,7 @@
         <v>3108.1019999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>42604</v>
       </c>
@@ -16804,7 +16816,7 @@
         <v>3084.8049999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>42605</v>
       </c>
@@ -16815,7 +16827,7 @@
         <v>3089.7060000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>42606</v>
       </c>
@@ -16826,7 +16838,7 @@
         <v>3085.88</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>42607</v>
       </c>
@@ -16837,7 +16849,7 @@
         <v>3068.3290000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>42608</v>
       </c>
@@ -16848,7 +16860,7 @@
         <v>3070.3090000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>42611</v>
       </c>
@@ -16859,7 +16871,7 @@
         <v>3070.027</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>42612</v>
       </c>
@@ -16870,7 +16882,7 @@
         <v>3074.6770000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>42613</v>
       </c>
@@ -16881,7 +16893,7 @@
         <v>3085.491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>42614</v>
       </c>
@@ -16892,7 +16904,7 @@
         <v>3063.3049999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>42615</v>
       </c>
@@ -16903,7 +16915,7 @@
         <v>3067.3519999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>42618</v>
       </c>
@@ -16914,7 +16926,7 @@
         <v>3072.0949999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>42619</v>
       </c>
@@ -16925,7 +16937,7 @@
         <v>3090.7130000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>42620</v>
       </c>
@@ -16936,7 +16948,7 @@
         <v>3091.9279999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>42621</v>
       </c>
@@ -16947,7 +16959,7 @@
         <v>3095.9540000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>42622</v>
       </c>
@@ -16958,7 +16970,7 @@
         <v>3078.855</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>42625</v>
       </c>
@@ -16969,7 +16981,7 @@
         <v>3021.9769999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>42626</v>
       </c>
@@ -16980,7 +16992,7 @@
         <v>3023.51</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>42627</v>
       </c>
@@ -16991,7 +17003,7 @@
         <v>3002.8490000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>42632</v>
       </c>
@@ -17002,7 +17014,7 @@
         <v>3026.0509999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>42633</v>
       </c>
@@ -17013,7 +17025,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>42634</v>
       </c>
@@ -17024,7 +17036,7 @@
         <v>3025.8739999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>42635</v>
       </c>
@@ -17035,7 +17047,7 @@
         <v>3042.3130000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>42636</v>
       </c>
@@ -17046,7 +17058,7 @@
         <v>3033.8960000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>42639</v>
       </c>
@@ -17057,7 +17069,7 @@
         <v>2980.43</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>42640</v>
       </c>
@@ -17068,7 +17080,7 @@
         <v>2998.172</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>42641</v>
       </c>
@@ -17079,7 +17091,7 @@
         <v>2987.8580000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>42642</v>
       </c>
@@ -17090,7 +17102,7 @@
         <v>2998.4830000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>42643</v>
       </c>
@@ -17101,7 +17113,7 @@
         <v>3004.703</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>42653</v>
       </c>
@@ -17112,7 +17124,7 @@
         <v>3048.143</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>42654</v>
       </c>
@@ -17123,7 +17135,7 @@
         <v>3065.25</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>42655</v>
       </c>
@@ -17134,7 +17146,7 @@
         <v>3058.498</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>42656</v>
       </c>
@@ -17145,7 +17157,7 @@
         <v>3061.346</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="16">
         <v>42657</v>
       </c>
@@ -17156,7 +17168,7 @@
         <v>3063.8090000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>42660</v>
       </c>
@@ -17167,7 +17179,7 @@
         <v>3041.1660000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>42661</v>
       </c>
@@ -17178,7 +17190,7 @@
         <v>3083.875</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>42662</v>
       </c>
@@ -17189,7 +17201,7 @@
         <v>3084.7190000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>42663</v>
       </c>
@@ -17200,7 +17212,7 @@
         <v>3084.4580000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>42664</v>
       </c>
@@ -17211,7 +17223,7 @@
         <v>3090.9409999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>42667</v>
       </c>
@@ -17222,7 +17234,7 @@
         <v>3128.2469999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>42668</v>
       </c>
@@ -17233,7 +17245,7 @@
         <v>3131.9389999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>42669</v>
       </c>
@@ -17244,7 +17256,7 @@
         <v>3116.3119999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>42670</v>
       </c>
@@ -17255,7 +17267,7 @@
         <v>3112.35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>42671</v>
       </c>
@@ -17266,7 +17278,7 @@
         <v>3104.27</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>42674</v>
       </c>
@@ -17277,7 +17289,7 @@
         <v>3100.4920000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>42675</v>
       </c>
@@ -17288,7 +17300,7 @@
         <v>3122.4360000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>42676</v>
       </c>
@@ -17299,7 +17311,7 @@
         <v>3102.7330000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>42677</v>
       </c>
@@ -17310,7 +17322,7 @@
         <v>3128.9360000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>42678</v>
       </c>
@@ -17321,7 +17333,7 @@
         <v>3125.317</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>42681</v>
       </c>
@@ -17332,7 +17344,7 @@
         <v>3133.3330000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>42682</v>
       </c>
@@ -17343,7 +17355,7 @@
         <v>3147.8879999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>42683</v>
       </c>
@@ -17354,7 +17366,7 @@
         <v>3128.37</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>42684</v>
       </c>
@@ -17365,7 +17377,7 @@
         <v>3171.2820000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>42685</v>
       </c>
@@ -17376,7 +17388,7 @@
         <v>3196.0439999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>42688</v>
       </c>
@@ -17387,7 +17399,7 @@
         <v>3210.3710000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="16">
         <v>42689</v>
       </c>
@@ -17398,7 +17410,7 @@
         <v>3206.9859999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="16">
         <v>42690</v>
       </c>
@@ -17409,7 +17421,7 @@
         <v>3205.0569999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>42691</v>
       </c>
@@ -17420,7 +17432,7 @@
         <v>3208.453</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>42692</v>
       </c>
@@ -17431,7 +17443,7 @@
         <v>3192.8560000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="16">
         <v>42695</v>
       </c>
@@ -17442,7 +17454,7 @@
         <v>3218.1480000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>42696</v>
       </c>
@@ -17453,7 +17465,7 @@
         <v>3248.3519999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>42697</v>
       </c>
@@ -17464,7 +17476,7 @@
         <v>3241.1370000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>42698</v>
       </c>
@@ -17475,7 +17487,7 @@
         <v>3241.7359999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>42699</v>
       </c>
@@ -17486,7 +17498,7 @@
         <v>3261.9380000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>42702</v>
       </c>
@@ -17497,7 +17509,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>42703</v>
       </c>
@@ -17508,7 +17520,7 @@
         <v>3282.924</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="16">
         <v>42704</v>
       </c>
@@ -17519,7 +17531,7 @@
         <v>3250.0340000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>42705</v>
       </c>
@@ -17530,7 +17542,7 @@
         <v>3273.3090000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>42706</v>
       </c>
@@ -17541,7 +17553,7 @@
         <v>3243.8429999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="16">
         <v>42709</v>
       </c>
@@ -17552,7 +17564,7 @@
         <v>3204.7089999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>42710</v>
       </c>
@@ -17563,7 +17575,7 @@
         <v>3199.6469999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="16">
         <v>42711</v>
       </c>
@@ -17574,7 +17586,7 @@
         <v>3222.2420000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="16">
         <v>42712</v>
       </c>
@@ -17585,7 +17597,7 @@
         <v>3215.366</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="16">
         <v>42713</v>
       </c>
@@ -17596,7 +17608,7 @@
         <v>3232.8829999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="16">
         <v>42716</v>
       </c>
@@ -17607,7 +17619,7 @@
         <v>3152.97</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="16">
         <v>42717</v>
       </c>
@@ -17618,7 +17630,7 @@
         <v>3155.0369999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>42718</v>
       </c>
@@ -17629,7 +17641,7 @@
         <v>3140.5309999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="16">
         <v>42719</v>
       </c>
@@ -17640,7 +17652,7 @@
         <v>3117.6770000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="16">
         <v>42720</v>
       </c>
@@ -17651,7 +17663,7 @@
         <v>3122.982</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>42723</v>
       </c>
@@ -17662,7 +17674,7 @@
         <v>3118.0846000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>42724</v>
       </c>
@@ -17673,7 +17685,7 @@
         <v>3102.8759</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>42725</v>
       </c>
@@ -17684,7 +17696,7 @@
         <v>3137.4297000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>42726</v>
       </c>
@@ -17695,7 +17707,7 @@
         <v>3139.558</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
         <v>42727</v>
       </c>
@@ -17706,7 +17718,7 @@
         <v>3110.1543999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>42730</v>
       </c>
@@ -17717,7 +17729,7 @@
         <v>3122.569</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>42731</v>
       </c>
@@ -17728,7 +17740,7 @@
         <v>3114.6640000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="16">
         <v>42732</v>
       </c>
@@ -17739,7 +17751,7 @@
         <v>3102.2357000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>42733</v>
       </c>
@@ -17750,7 +17762,7 @@
         <v>3096.0967999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="16">
         <v>42734</v>
       </c>
@@ -17761,7 +17773,7 @@
         <v>3103.6372999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>42738</v>
       </c>
@@ -17772,7 +17784,7 @@
         <v>3135.9207999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="16">
         <v>42739</v>
       </c>
@@ -17783,7 +17795,7 @@
         <v>3158.7939999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>42740</v>
       </c>
@@ -17794,7 +17806,7 @@
         <v>3165.4108999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="16">
         <v>42741</v>
       </c>
@@ -17805,7 +17817,7 @@
         <v>3154.3209999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="16">
         <v>42744</v>
       </c>
@@ -17816,7 +17828,7 @@
         <v>3171.2361999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>42745</v>
       </c>
@@ -17827,7 +17839,7 @@
         <v>3161.6713</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="16">
         <v>42746</v>
       </c>
@@ -17838,7 +17850,7 @@
         <v>3136.7534999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="16">
         <v>42747</v>
       </c>
@@ -17849,7 +17861,7 @@
         <v>3119.2885999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>42748</v>
       </c>
@@ -17860,7 +17872,7 @@
         <v>3112.7644</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>42751</v>
       </c>
@@ -17871,7 +17883,7 @@
         <v>3103.4279999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="16">
         <v>42752</v>
       </c>
@@ -17882,7 +17894,7 @@
         <v>3108.7746000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>42753</v>
       </c>
@@ -17893,7 +17905,7 @@
         <v>3113.0122999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>42754</v>
       </c>
@@ -17904,7 +17916,7 @@
         <v>3101.2991999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>42755</v>
       </c>
@@ -17915,7 +17927,7 @@
         <v>3123.1388999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="16">
         <v>42758</v>
       </c>
@@ -17926,7 +17938,7 @@
         <v>3136.7748000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>42759</v>
       </c>
@@ -17937,7 +17949,7 @@
         <v>3142.5533</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="16">
         <v>42760</v>
       </c>
@@ -17948,7 +17960,7 @@
         <v>3149.5547000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>42761</v>
       </c>
@@ -17959,7 +17971,7 @@
         <v>3159.1660000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="16">
         <v>42769</v>
       </c>
@@ -17970,7 +17982,7 @@
         <v>3140.17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="16">
         <v>42772</v>
       </c>
@@ -17981,7 +17993,7 @@
         <v>3156.9838</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>42773</v>
       </c>
@@ -17992,7 +18004,7 @@
         <v>3153.0877999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="16">
         <v>42774</v>
       </c>
@@ -18003,7 +18015,7 @@
         <v>3166.9818</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>42775</v>
       </c>
@@ -18014,7 +18026,7 @@
         <v>3183.1794</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>42776</v>
       </c>
@@ -18025,7 +18037,7 @@
         <v>3196.6990000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>42779</v>
       </c>
@@ -18036,7 +18048,7 @@
         <v>3216.8393999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>42780</v>
       </c>
@@ -18047,7 +18059,7 @@
         <v>3217.9279999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="16">
         <v>42781</v>
       </c>
@@ -18058,7 +18070,7 @@
         <v>3212.9857000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="16">
         <v>42782</v>
       </c>
@@ -18069,7 +18081,7 @@
         <v>3229.6183999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>42783</v>
       </c>
@@ -18080,7 +18092,7 @@
         <v>3202.0756000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="16">
         <v>42786</v>
       </c>
@@ -18091,7 +18103,7 @@
         <v>3239.9612999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>42787</v>
       </c>
@@ -18102,7 +18114,7 @@
         <v>3253.3256999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>42788</v>
       </c>
@@ -18113,7 +18125,7 @@
         <v>3261.2184000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="16">
         <v>42789</v>
       </c>
@@ -18124,7 +18136,7 @@
         <v>3251.375</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="16">
         <v>42790</v>
       </c>
@@ -18135,7 +18147,7 @@
         <v>3253.4326999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>42793</v>
       </c>
@@ -18146,7 +18158,7 @@
         <v>3228.6601999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>42794</v>
       </c>
@@ -18157,7 +18169,7 @@
         <v>3241.7330999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="16">
         <v>42795</v>
       </c>
@@ -18168,7 +18180,7 @@
         <v>3246.9335000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="16">
         <v>42796</v>
       </c>
@@ -18179,7 +18191,7 @@
         <v>3230.0281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="16">
         <v>42797</v>
       </c>
@@ -18190,7 +18202,7 @@
         <v>3218.3117999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>42800</v>
       </c>
@@ -18201,7 +18213,7 @@
         <v>3233.8656999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>42801</v>
       </c>
@@ -18212,7 +18224,7 @@
         <v>3242.4063000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>42802</v>
       </c>
@@ -18223,7 +18235,7 @@
         <v>3240.6646000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>42803</v>
       </c>
@@ -18234,7 +18246,7 @@
         <v>3216.7456999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>42804</v>
       </c>
@@ -18245,7 +18257,7 @@
         <v>3212.7601</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>42807</v>
       </c>
@@ -18256,7 +18268,7 @@
         <v>3237.0243999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="16">
         <v>42808</v>
       </c>
@@ -18267,7 +18279,7 @@
         <v>3239.3278</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="16">
         <v>42809</v>
       </c>
@@ -18278,7 +18290,7 @@
         <v>3241.7597000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="16">
         <v>42810</v>
       </c>
@@ -18289,7 +18301,7 @@
         <v>3268.9353999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="16">
         <v>42811</v>
       </c>
@@ -18300,7 +18312,7 @@
         <v>3237.4470999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="16">
         <v>42814</v>
       </c>
@@ -18311,7 +18323,7 @@
         <v>3250.8081999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>42815</v>
       </c>
@@ -18322,7 +18334,7 @@
         <v>3261.6107999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="16">
         <v>42816</v>
       </c>
@@ -18333,7 +18345,7 @@
         <v>3245.2197999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>42817</v>
       </c>
@@ -18344,7 +18356,7 @@
         <v>3248.5495000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="16">
         <v>42818</v>
       </c>
@@ -18355,7 +18367,7 @@
         <v>3269.4450999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>42821</v>
       </c>
@@ -18366,7 +18378,7 @@
         <v>3266.9551999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>42822</v>
       </c>
@@ -18377,7 +18389,7 @@
         <v>3252.9479000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>42823</v>
       </c>
@@ -18388,7 +18400,7 @@
         <v>3241.3144000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>42824</v>
       </c>
@@ -18399,7 +18411,7 @@
         <v>3210.2368999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="16">
         <v>42825</v>
       </c>
@@ -18410,7 +18422,7 @@
         <v>3222.5142000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="16">
         <v>42830</v>
       </c>
@@ -18421,7 +18433,7 @@
         <v>3270.3054000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="16">
         <v>42831</v>
       </c>
@@ -18432,7 +18444,7 @@
         <v>3281.0047</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>42832</v>
       </c>
@@ -18443,7 +18455,7 @@
         <v>3286.616</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>42835</v>
       </c>
@@ -18454,7 +18466,7 @@
         <v>3269.3926000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="16">
         <v>42836</v>
       </c>
@@ -18465,7 +18477,7 @@
         <v>3288.9657000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="16">
         <v>42837</v>
       </c>
@@ -18476,7 +18488,7 @@
         <v>3273.8301000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="16">
         <v>42838</v>
       </c>
@@ -18487,7 +18499,7 @@
         <v>3275.9603000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="16">
         <v>42839</v>
       </c>
@@ -18498,7 +18510,7 @@
         <v>3246.0668000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="16">
         <v>42842</v>
       </c>
@@ -18509,7 +18521,7 @@
         <v>3222.1673000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="16">
         <v>42843</v>
       </c>
@@ -18520,7 +18532,7 @@
         <v>3196.7132999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="16">
         <v>42844</v>
       </c>
@@ -18531,7 +18543,7 @@
         <v>3170.6867000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="16">
         <v>42845</v>
       </c>
@@ -18542,7 +18554,7 @@
         <v>3172.1003000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="16">
         <v>42846</v>
       </c>
@@ -18553,7 +18565,7 @@
         <v>3173.1511999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="16">
         <v>42849</v>
       </c>
@@ -18564,7 +18576,7 @@
         <v>3129.5311999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="16">
         <v>42850</v>
       </c>
@@ -18575,7 +18587,7 @@
         <v>3134.5673999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="16">
         <v>42851</v>
       </c>
@@ -18586,7 +18598,7 @@
         <v>3140.8471</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="16">
         <v>42852</v>
       </c>
@@ -18597,7 +18609,7 @@
         <v>3152.1869000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="16">
         <v>42853</v>
       </c>
@@ -18608,7 +18620,7 @@
         <v>3154.6583999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="16">
         <v>42857</v>
       </c>
@@ -18619,7 +18631,7 @@
         <v>3143.7121000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="16">
         <v>42858</v>
       </c>
@@ -18630,7 +18642,7 @@
         <v>3135.346</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="16">
         <v>42859</v>
       </c>
@@ -18641,7 +18653,7 @@
         <v>3127.3687</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>42860</v>
       </c>
@@ -18652,7 +18664,7 @@
         <v>3103.0378000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>42863</v>
       </c>
@@ -18663,7 +18675,7 @@
         <v>3078.6129000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>42864</v>
       </c>
@@ -18674,7 +18686,7 @@
         <v>3080.5268999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="16">
         <v>42865</v>
       </c>
@@ -18685,7 +18697,7 @@
         <v>3052.7849999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>42866</v>
       </c>
@@ -18696,7 +18708,7 @@
         <v>3061.5003000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="16">
         <v>42867</v>
       </c>
@@ -18707,7 +18719,7 @@
         <v>3083.5131999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>42870</v>
       </c>
@@ -18718,7 +18730,7 @@
         <v>3090.2289000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="16">
         <v>42871</v>
       </c>
@@ -18729,7 +18741,7 @@
         <v>3112.9641999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>42872</v>
       </c>
@@ -18740,7 +18752,7 @@
         <v>3104.4414999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>42873</v>
       </c>
@@ -18751,7 +18763,7 @@
         <v>3090.1390000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="16">
         <v>42874</v>
       </c>
@@ -18762,7 +18774,7 @@
         <v>3090.6309000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>42877</v>
       </c>
@@ -18773,7 +18785,7 @@
         <v>3075.6756</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>42878</v>
       </c>
@@ -18784,7 +18796,7 @@
         <v>3061.9470000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>42879</v>
       </c>
@@ -18795,7 +18807,7 @@
         <v>3064.0758999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="16">
         <v>42880</v>
       </c>
@@ -18806,7 +18818,7 @@
         <v>3107.8310999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="16">
         <v>42881</v>
       </c>
@@ -18817,7 +18829,7 @@
         <v>3110.0587</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>42886</v>
       </c>
@@ -18828,7 +18840,7 @@
         <v>3117.1777999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>42887</v>
       </c>
@@ -18839,7 +18851,7 @@
         <v>3102.6232</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>42888</v>
       </c>
@@ -18850,7 +18862,7 @@
         <v>3105.54</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>42891</v>
       </c>
@@ -18861,7 +18873,7 @@
         <v>3091.6561000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>42892</v>
       </c>
@@ -18872,7 +18884,7 @@
         <v>3102.1260000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="16">
         <v>42893</v>
       </c>
@@ -18883,7 +18895,7 @@
         <v>3140.3249000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>42894</v>
       </c>
@@ -18894,7 +18906,7 @@
         <v>3150.3335999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>42895</v>
       </c>
@@ -18905,7 +18917,7 @@
         <v>3158.4004</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="16">
         <v>42898</v>
       </c>
@@ -18916,7 +18928,7 @@
         <v>3139.8766000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>42899</v>
       </c>
@@ -18927,7 +18939,7 @@
         <v>3153.7429000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="16">
         <v>42900</v>
       </c>
@@ -18938,7 +18950,7 @@
         <v>3130.674</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="16">
         <v>42901</v>
       </c>
@@ -18949,7 +18961,7 @@
         <v>3132.4863</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>42902</v>
       </c>
@@ -18960,7 +18972,7 @@
         <v>3123.1662000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>42905</v>
       </c>
@@ -18971,7 +18983,7 @@
         <v>3144.3739</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>42906</v>
       </c>
@@ -18982,7 +18994,7 @@
         <v>3140.0136000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>42907</v>
       </c>
@@ -18993,7 +19005,7 @@
         <v>3156.2118</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="16">
         <v>42908</v>
       </c>
@@ -19004,7 +19016,7 @@
         <v>3147.4531999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="16">
         <v>42909</v>
       </c>
@@ -19015,7 +19027,7 @@
         <v>3157.873</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>42912</v>
       </c>
@@ -19026,7 +19038,7 @@
         <v>3185.4439000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="16">
         <v>42913</v>
       </c>
@@ -19037,7 +19049,7 @@
         <v>3191.1968999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="16">
         <v>42914</v>
       </c>
@@ -19048,7 +19060,7 @@
         <v>3173.2013999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="16">
         <v>42915</v>
       </c>
@@ -19059,7 +19071,7 @@
         <v>3188.0625</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>42916</v>
       </c>
@@ -19070,7 +19082,7 @@
         <v>3192.4268999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="16">
         <v>42919</v>
       </c>
@@ -19081,7 +19093,7 @@
         <v>3195.9115999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="16">
         <v>42920</v>
       </c>
@@ -19092,7 +19104,7 @@
         <v>3182.8038999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="16">
         <v>42921</v>
       </c>
@@ -19103,7 +19115,7 @@
         <v>3207.1342</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="16">
         <v>42922</v>
       </c>
@@ -19114,7 +19126,7 @@
         <v>3212.444</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="16">
         <v>42923</v>
       </c>
@@ -19125,7 +19137,7 @@
         <v>3217.9567000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="16">
         <v>42926</v>
       </c>
@@ -19136,7 +19148,7 @@
         <v>3212.6318999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="16">
         <v>42927</v>
       </c>
@@ -19147,7 +19159,7 @@
         <v>3203.0374999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="16">
         <v>42928</v>
       </c>
@@ -19158,7 +19170,7 @@
         <v>3197.5439000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>42929</v>
       </c>
@@ -19169,7 +19181,7 @@
         <v>3218.1632</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>42930</v>
       </c>
@@ -19180,7 +19192,7 @@
         <v>3222.4168</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="16">
         <v>42933</v>
       </c>
@@ -19191,7 +19203,7 @@
         <v>3176.4648000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="16">
         <v>42934</v>
       </c>
@@ -19202,7 +19214,7 @@
         <v>3187.5672</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>42935</v>
       </c>
@@ -19213,7 +19225,7 @@
         <v>3230.9762000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>42936</v>
       </c>
@@ -19224,7 +19236,7 @@
         <v>3244.8647000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>42937</v>
       </c>
@@ -19235,7 +19247,7 @@
         <v>3237.9816999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="16">
         <v>42940</v>
       </c>
@@ -19246,7 +19258,7 @@
         <v>3250.5989</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="16">
         <v>42941</v>
       </c>
@@ -19257,7 +19269,7 @@
         <v>3243.6894000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>42942</v>
       </c>
@@ -19268,7 +19280,7 @@
         <v>3247.6747999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>42943</v>
       </c>
@@ -19279,7 +19291,7 @@
         <v>3249.7813999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="16">
         <v>42944</v>
       </c>
@@ -19290,7 +19302,7 @@
         <v>3253.2404000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>42947</v>
       </c>
@@ -19301,7 +19313,7 @@
         <v>3273.0282999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="16">
         <v>42948</v>
       </c>
@@ -19312,7 +19324,7 @@
         <v>3292.6383000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>42949</v>
       </c>
@@ -19323,7 +19335,7 @@
         <v>3285.0567999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>42950</v>
       </c>
@@ -19334,7 +19346,7 @@
         <v>3272.9286000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>42951</v>
       </c>
@@ -19345,7 +19357,7 @@
         <v>3262.0808999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="16">
         <v>42954</v>
       </c>
@@ -19356,7 +19368,7 @@
         <v>3279.4566</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>42955</v>
       </c>
@@ -19367,7 +19379,7 @@
         <v>3281.8728000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>42956</v>
       </c>
@@ -19378,7 +19390,7 @@
         <v>3275.5729999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>42957</v>
       </c>
@@ -19389,7 +19401,7 @@
         <v>3261.7494000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>42958</v>
       </c>
@@ -19400,7 +19412,7 @@
         <v>3208.5412999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>42961</v>
       </c>
@@ -19411,7 +19423,7 @@
         <v>3237.3602000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="16">
         <v>42962</v>
       </c>
@@ -19422,7 +19434,7 @@
         <v>3251.2617</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="16">
         <v>42963</v>
       </c>
@@ -19433,7 +19445,7 @@
         <v>3246.4512</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="16">
         <v>42964</v>
       </c>
@@ -19444,7 +19456,7 @@
         <v>3268.4297999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>42965</v>
       </c>
@@ -19455,7 +19467,7 @@
         <v>3268.7242999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="16">
         <v>42968</v>
       </c>
@@ -19466,7 +19478,7 @@
         <v>3286.9054999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="16">
         <v>42969</v>
       </c>
@@ -19477,7 +19489,7 @@
         <v>3290.2257</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="16">
         <v>42970</v>
       </c>
@@ -19488,7 +19500,7 @@
         <v>3287.7049000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="16">
         <v>42971</v>
       </c>
@@ -19499,7 +19511,7 @@
         <v>3271.5117</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="16">
         <v>42972</v>
       </c>
@@ -19510,7 +19522,7 @@
         <v>3331.5221000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="16">
         <v>42975</v>
       </c>
@@ -19521,7 +19533,7 @@
         <v>3362.6514000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="16">
         <v>42976</v>
       </c>
@@ -19532,7 +19544,7 @@
         <v>3365.2260999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="16">
         <v>42977</v>
       </c>
@@ -19543,7 +19555,7 @@
         <v>3363.6266000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="16">
         <v>42978</v>
       </c>
@@ -19554,7 +19566,7 @@
         <v>3360.8103000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="16">
         <v>42979</v>
       </c>
@@ -19565,7 +19577,7 @@
         <v>3367.1194</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="16">
         <v>42982</v>
       </c>
@@ -19576,7 +19588,7 @@
         <v>3379.5830000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="16">
         <v>42983</v>
       </c>
@@ -19587,7 +19599,7 @@
         <v>3384.317</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="16">
         <v>42984</v>
       </c>
@@ -19598,7 +19610,7 @@
         <v>3385.3888000000002</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="16">
         <v>42985</v>
       </c>
@@ -19609,7 +19621,7 @@
         <v>3365.4974000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="16">
         <v>42986</v>
       </c>
@@ -19620,7 +19632,7 @@
         <v>3365.2426</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="16">
         <v>42989</v>
       </c>
@@ -19631,7 +19643,7 @@
         <v>3376.4187999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="16">
         <v>42990</v>
       </c>
@@ -19642,7 +19654,7 @@
         <v>3379.4879999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="16">
         <v>42991</v>
       </c>
@@ -19653,7 +19665,7 @@
         <v>3384.1469999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="16">
         <v>42992</v>
       </c>
@@ -19664,7 +19676,7 @@
         <v>3371.4256</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="16">
         <v>42993</v>
       </c>
@@ -19675,7 +19687,7 @@
         <v>3353.6192000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="16">
         <v>42996</v>
       </c>
@@ -19686,7 +19698,7 @@
         <v>3362.8587000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="16">
         <v>42997</v>
       </c>
@@ -19697,7 +19709,7 @@
         <v>3356.8445999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="16">
         <v>42998</v>
       </c>
@@ -19708,7 +19720,7 @@
         <v>3365.9958999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="16">
         <v>42999</v>
       </c>
@@ -19719,7 +19731,7 @@
         <v>3357.8123000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="16">
         <v>43000</v>
       </c>
@@ -19730,7 +19742,7 @@
         <v>3352.5293999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="16">
         <v>43003</v>
       </c>
@@ -19741,7 +19753,7 @@
         <v>3341.5486999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="16">
         <v>43004</v>
       </c>
@@ -19752,7 +19764,7 @@
         <v>3343.5826000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="16">
         <v>43005</v>
       </c>
@@ -19763,7 +19775,7 @@
         <v>3345.2716999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="16">
         <v>43006</v>
       </c>
@@ -19774,7 +19786,7 @@
         <v>3339.6421</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="16">
         <v>43007</v>
       </c>
@@ -19785,7 +19797,7 @@
         <v>3348.9431</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="16">
         <v>43017</v>
       </c>
@@ -19796,7 +19808,7 @@
         <v>3374.3780999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="16">
         <v>43018</v>
       </c>
@@ -19807,7 +19819,7 @@
         <v>3382.9879000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="16">
         <v>43019</v>
       </c>
@@ -19818,7 +19830,7 @@
         <v>3388.2838000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="16">
         <v>43020</v>
       </c>
@@ -19829,7 +19841,7 @@
         <v>3386.1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="16">
         <v>43021</v>
       </c>
@@ -19840,7 +19852,7 @@
         <v>3390.5232999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="16">
         <v>43024</v>
       </c>
@@ -19851,7 +19863,7 @@
         <v>3378.4704000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="16">
         <v>43025</v>
       </c>
@@ -19862,7 +19874,7 @@
         <v>3372.0407</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="16">
         <v>43026</v>
       </c>
@@ -19873,7 +19885,7 @@
         <v>3381.7937000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="16">
         <v>43027</v>
       </c>
@@ -19884,7 +19896,7 @@
         <v>3370.1720999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="16">
         <v>43028</v>
       </c>
@@ -19895,7 +19907,7 @@
         <v>3378.6480999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="16">
         <v>43031</v>
       </c>
@@ -19906,7 +19918,7 @@
         <v>3380.6990000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="16">
         <v>43032</v>
       </c>
@@ -19917,7 +19929,7 @@
         <v>3388.2476999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="16">
         <v>43033</v>
       </c>
@@ -19928,7 +19940,7 @@
         <v>3396.8975</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="16">
         <v>43034</v>
       </c>
@@ -19939,7 +19951,7 @@
         <v>3407.5671000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="16">
         <v>43035</v>
       </c>
@@ -19950,7 +19962,7 @@
         <v>3416.8123999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="16">
         <v>43038</v>
       </c>
@@ -19961,7 +19973,7 @@
         <v>3390.3371000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="16">
         <v>43039</v>
       </c>
@@ -19972,7 +19984,7 @@
         <v>3393.3416999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="16">
         <v>43040</v>
       </c>
@@ -19983,7 +19995,7 @@
         <v>3395.9124999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="16">
         <v>43041</v>
       </c>
@@ -19994,7 +20006,7 @@
         <v>3383.3094999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="16">
         <v>43042</v>
       </c>
@@ -20005,7 +20017,7 @@
         <v>3371.7440999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="16">
         <v>43045</v>
       </c>
@@ -20016,7 +20028,7 @@
         <v>3388.1741999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="16">
         <v>43046</v>
       </c>
@@ -20027,7 +20039,7 @@
         <v>3413.5747999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="16">
         <v>43047</v>
       </c>
@@ -20038,7 +20050,7 @@
         <v>3415.4602</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="16">
         <v>43048</v>
       </c>
@@ -20049,7 +20061,7 @@
         <v>3427.7946000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="16">
         <v>43049</v>
       </c>
@@ -20060,7 +20072,7 @@
         <v>3432.6731</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="16">
         <v>43052</v>
       </c>
@@ -20071,7 +20083,7 @@
         <v>3447.8357999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="16">
         <v>43053</v>
       </c>
@@ -20082,7 +20094,7 @@
         <v>3429.5482000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="16">
         <v>43054</v>
       </c>
@@ -20093,7 +20105,7 @@
         <v>3402.5245</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="16">
         <v>43055</v>
       </c>
@@ -20104,7 +20116,7 @@
         <v>3399.2503000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="16">
         <v>43056</v>
       </c>
@@ -20115,7 +20127,7 @@
         <v>3382.9074999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="16">
         <v>43059</v>
       </c>
@@ -20126,7 +20138,7 @@
         <v>3392.3987999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="16">
         <v>43060</v>
       </c>
@@ -20137,7 +20149,7 @@
         <v>3410.4976999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="16">
         <v>43061</v>
       </c>
@@ -20148,7 +20160,7 @@
         <v>3430.4643000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="16">
         <v>43062</v>
       </c>
@@ -20159,7 +20171,7 @@
         <v>3351.9182000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="16">
         <v>43063</v>
       </c>
@@ -20170,7 +20182,7 @@
         <v>3353.8207000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="16">
         <v>43066</v>
       </c>
@@ -20181,7 +20193,7 @@
         <v>3322.2298000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="16">
         <v>43067</v>
       </c>
@@ -20192,7 +20204,7 @@
         <v>3333.6570000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="16">
         <v>43068</v>
       </c>
@@ -20203,7 +20215,7 @@
         <v>3337.8620000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="16">
         <v>43069</v>
       </c>
@@ -20214,7 +20226,7 @@
         <v>3317.1884</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="16">
         <v>43070</v>
       </c>
@@ -20225,7 +20237,7 @@
         <v>3317.6174000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="16">
         <v>43073</v>
       </c>
@@ -20236,7 +20248,7 @@
         <v>3309.6183000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="16">
         <v>43074</v>
       </c>
@@ -20247,7 +20259,7 @@
         <v>3303.6750999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="16">
         <v>43075</v>
       </c>
@@ -20258,7 +20270,7 @@
         <v>3293.9648000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="16">
         <v>43076</v>
       </c>
@@ -20269,7 +20281,7 @@
         <v>3272.0542</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="16">
         <v>43077</v>
       </c>
@@ -20280,7 +20292,7 @@
         <v>3289.9924000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="16">
         <v>43080</v>
       </c>
@@ -20291,7 +20303,7 @@
         <v>3322.1956</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="16">
         <v>43081</v>
       </c>
@@ -20302,7 +20314,7 @@
         <v>3280.8136</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="16">
         <v>43082</v>
       </c>
@@ -20313,7 +20325,7 @@
         <v>3303.0373</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="16">
         <v>43083</v>
       </c>
@@ -20324,7 +20336,7 @@
         <v>3292.4385000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="16">
         <v>43084</v>
       </c>
@@ -20335,7 +20347,7 @@
         <v>3266.1370999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="16">
         <v>43087</v>
       </c>
@@ -20346,7 +20358,7 @@
         <v>3267.9223999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="16">
         <v>43088</v>
       </c>
@@ -20357,7 +20369,7 @@
         <v>3296.5383999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="16">
         <v>43089</v>
       </c>
@@ -20368,7 +20380,7 @@
         <v>3287.6057000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="16">
         <v>43090</v>
       </c>
@@ -20379,7 +20391,7 @@
         <v>3300.0592999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="16">
         <v>43091</v>
       </c>
@@ -20390,7 +20402,7 @@
         <v>3297.0630000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="16">
         <v>43094</v>
       </c>
@@ -20401,7 +20413,7 @@
         <v>3280.4609999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="16">
         <v>43095</v>
       </c>
@@ -20412,7 +20424,7 @@
         <v>3306.1246000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="16">
         <v>43096</v>
       </c>
@@ -20423,7 +20435,7 @@
         <v>3275.7828</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="16">
         <v>43097</v>
       </c>
@@ -20434,7 +20446,7 @@
         <v>3296.3847000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="16">
         <v>43098</v>
       </c>
@@ -20445,7 +20457,7 @@
         <v>3307.1720999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="16">
         <v>43102</v>
       </c>
@@ -20456,7 +20468,7 @@
         <v>3348.3258999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="16">
         <v>43103</v>
       </c>
@@ -20467,7 +20479,7 @@
         <v>3369.1084000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="16">
         <v>43104</v>
       </c>
@@ -20478,7 +20490,7 @@
         <v>3385.7102</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="16">
         <v>43105</v>
       </c>
@@ -20489,7 +20501,7 @@
         <v>3391.7501000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="16">
         <v>43108</v>
       </c>
@@ -20500,7 +20512,7 @@
         <v>3409.4794999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="16">
         <v>43109</v>
       </c>
@@ -20511,7 +20523,7 @@
         <v>3413.8996000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="16">
         <v>43110</v>
       </c>
@@ -20522,7 +20534,7 @@
         <v>3421.8343</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="16">
         <v>43111</v>
       </c>
@@ -20533,7 +20545,7 @@
         <v>3425.3449000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="16">
         <v>43112</v>
       </c>
@@ -20544,7 +20556,7 @@
         <v>3428.9407000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="16">
         <v>43115</v>
       </c>
@@ -20555,7 +20567,7 @@
         <v>3410.4881999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="16">
         <v>43116</v>
       </c>
@@ -20566,7 +20578,7 @@
         <v>3436.5940000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="16">
         <v>43117</v>
       </c>
@@ -20577,7 +20589,7 @@
         <v>3444.6713</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="16">
         <v>43118</v>
       </c>
@@ -20588,7 +20600,7 @@
         <v>3474.7539999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="16">
         <v>43119</v>
       </c>
@@ -20599,7 +20611,7 @@
         <v>3487.864</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="16">
         <v>43122</v>
       </c>
@@ -20610,7 +20622,7 @@
         <v>3501.3622</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="16">
         <v>43123</v>
       </c>
@@ -20621,7 +20633,7 @@
         <v>3546.5048000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="16">
         <v>43124</v>
       </c>
@@ -20632,7 +20644,7 @@
         <v>3559.4652999999998</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="16">
         <v>43125</v>
       </c>
@@ -20643,7 +20655,7 @@
         <v>3548.3069999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="16">
         <v>43126</v>
       </c>
@@ -20654,7 +20666,7 @@
         <v>3558.1288</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="16">
         <v>43129</v>
       </c>
@@ -20665,7 +20677,7 @@
         <v>3523.0007000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="16">
         <v>43130</v>
       </c>
@@ -20676,7 +20688,7 @@
         <v>3488.009</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="16">
         <v>43131</v>
       </c>
@@ -20687,7 +20699,7 @@
         <v>3480.8334</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="16">
         <v>43132</v>
       </c>
@@ -20698,7 +20710,7 @@
         <v>3446.9798999999998</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="16">
         <v>43133</v>
       </c>
@@ -20709,7 +20721,7 @@
         <v>3462.0808000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="16">
         <v>43136</v>
       </c>
@@ -20720,7 +20732,7 @@
         <v>3487.4969999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="16">
         <v>43137</v>
       </c>
@@ -20731,7 +20743,7 @@
         <v>3370.652</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="16">
         <v>43138</v>
       </c>
@@ -20742,7 +20754,7 @@
         <v>3309.2597999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="16">
         <v>43139</v>
       </c>
@@ -20753,7 +20765,7 @@
         <v>3262.0504000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="16">
         <v>43140</v>
       </c>
@@ -20764,7 +20776,7 @@
         <v>3129.8508000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="16">
         <v>43143</v>
       </c>
@@ -20775,7 +20787,7 @@
         <v>3154.1253999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="16">
         <v>43144</v>
       </c>
@@ -20786,7 +20798,7 @@
         <v>3184.9587000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="16">
         <v>43145</v>
       </c>
@@ -20797,7 +20809,7 @@
         <v>3199.1588999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="16">
         <v>43153</v>
       </c>
@@ -20808,7 +20820,7 @@
         <v>3268.56</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="16">
         <v>43154</v>
       </c>
@@ -20819,7 +20831,7 @@
         <v>3289.02</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="16">
         <v>43157</v>
       </c>
@@ -20830,7 +20842,7 @@
         <v>3329.57</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="16">
         <v>43158</v>
       </c>
@@ -20841,7 +20853,7 @@
         <v>3292.07</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="16">
         <v>43159</v>
       </c>
@@ -20852,7 +20864,7 @@
         <v>3259.41</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="16">
         <v>43160</v>
       </c>
@@ -20863,7 +20875,7 @@
         <v>3273.76</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="16">
         <v>43161</v>
       </c>
@@ -20874,7 +20886,7 @@
         <v>3254.53</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="16">
         <v>43164</v>
       </c>
@@ -20885,7 +20897,7 @@
         <v>3256.93</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="16">
         <v>43165</v>
       </c>
@@ -20896,7 +20908,7 @@
         <v>3289.64</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="16">
         <v>43166</v>
       </c>
@@ -20907,7 +20919,7 @@
         <v>3271.67</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="16">
         <v>43167</v>
       </c>
@@ -20918,7 +20930,7 @@
         <v>3288.41</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="16">
         <v>43168</v>
       </c>
@@ -20929,7 +20941,7 @@
         <v>3307.17</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="16">
         <v>43171</v>
       </c>
@@ -20940,7 +20952,7 @@
         <v>3326.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="16">
         <v>43172</v>
       </c>
@@ -20951,7 +20963,7 @@
         <v>3310.24</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="16">
         <v>43173</v>
       </c>
@@ -20962,7 +20974,7 @@
         <v>3291.38</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="16">
         <v>43174</v>
       </c>
@@ -20973,7 +20985,7 @@
         <v>3291.11</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="16">
         <v>43175</v>
       </c>
@@ -20984,7 +20996,7 @@
         <v>3269.88</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="16">
         <v>43178</v>
       </c>
@@ -20995,7 +21007,7 @@
         <v>3279.25</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="16">
         <v>43179</v>
       </c>
@@ -21006,7 +21018,7 @@
         <v>3290.64</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="16">
         <v>43180</v>
       </c>
@@ -21017,7 +21029,7 @@
         <v>3280.95</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="16">
         <v>43181</v>
       </c>
@@ -21028,7 +21040,7 @@
         <v>3263.48</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="16">
         <v>43182</v>
       </c>
@@ -21039,7 +21051,7 @@
         <v>3152.76</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="16">
         <v>43185</v>
       </c>
@@ -21050,7 +21062,7 @@
         <v>3133.72</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="16">
         <v>43186</v>
       </c>
@@ -21061,7 +21073,7 @@
         <v>3166.65</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="16">
         <v>43187</v>
       </c>
@@ -21072,7 +21084,7 @@
         <v>3122.29</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="16">
         <v>43188</v>
       </c>
@@ -21083,7 +21095,7 @@
         <v>3160.53</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="16">
         <v>43189</v>
       </c>
@@ -21094,7 +21106,7 @@
         <v>3168.9</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="16">
         <v>43192</v>
       </c>
@@ -21105,7 +21117,7 @@
         <v>3163.18</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="16">
         <v>43193</v>
       </c>
@@ -21116,7 +21128,7 @@
         <v>3136.63</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="16">
         <v>43194</v>
       </c>
@@ -21127,7 +21139,7 @@
         <v>3131.11</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="16">
         <v>43199</v>
       </c>
@@ -21138,7 +21150,7 @@
         <v>3138.29</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="16">
         <v>43200</v>
       </c>
@@ -21149,7 +21161,7 @@
         <v>3190.32</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="16">
         <v>43201</v>
       </c>
@@ -21160,7 +21172,7 @@
         <v>3208.08</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="16">
         <v>43202</v>
       </c>
@@ -21171,7 +21183,7 @@
         <v>3180.16</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="16">
         <v>43203</v>
       </c>
@@ -21182,7 +21194,7 @@
         <v>3159.05</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="16">
         <v>43206</v>
       </c>
@@ -21193,7 +21205,7 @@
         <v>3110.65</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="16">
         <v>43207</v>
       </c>
@@ -21204,7 +21216,7 @@
         <v>3066.8</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="16">
         <v>43208</v>
       </c>
@@ -21215,7 +21227,7 @@
         <v>3091.4</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="16">
         <v>43209</v>
       </c>
@@ -21226,7 +21238,7 @@
         <v>3117.48</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="16">
         <v>43210</v>
       </c>
@@ -21237,7 +21249,7 @@
         <v>3071.54</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="16">
         <v>43213</v>
       </c>
@@ -21248,7 +21260,7 @@
         <v>3068.01</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="16">
         <v>43214</v>
      